--- a/data/GreatLink/GreatLink Multi-Sector Income.xlsx
+++ b/data/GreatLink/GreatLink Multi-Sector Income.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid180552"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid213874"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Price Date</t>
   </si>
@@ -26,21 +26,102 @@
     <t>Currency - Unit Level</t>
   </si>
   <si>
+    <t>10/06/2024</t>
+  </si>
+  <si>
+    <t>0.940</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>07/06/2024</t>
+  </si>
+  <si>
+    <t>0.941</t>
+  </si>
+  <si>
+    <t>06/06/2024</t>
+  </si>
+  <si>
+    <t>0.945</t>
+  </si>
+  <si>
+    <t>05/06/2024</t>
+  </si>
+  <si>
+    <t>0.946</t>
+  </si>
+  <si>
+    <t>04/06/2024</t>
+  </si>
+  <si>
+    <t>03/06/2024</t>
+  </si>
+  <si>
+    <t>0.944</t>
+  </si>
+  <si>
+    <t>31/05/2024</t>
+  </si>
+  <si>
+    <t>30/05/2024</t>
+  </si>
+  <si>
+    <t>29/05/2024</t>
+  </si>
+  <si>
+    <t>0.943</t>
+  </si>
+  <si>
+    <t>28/05/2024</t>
+  </si>
+  <si>
+    <t>27/05/2024</t>
+  </si>
+  <si>
+    <t>0.947</t>
+  </si>
+  <si>
+    <t>24/05/2024</t>
+  </si>
+  <si>
+    <t>23/05/2024</t>
+  </si>
+  <si>
+    <t>21/05/2024</t>
+  </si>
+  <si>
+    <t>0.950</t>
+  </si>
+  <si>
+    <t>20/05/2024</t>
+  </si>
+  <si>
+    <t>0.949</t>
+  </si>
+  <si>
+    <t>17/05/2024</t>
+  </si>
+  <si>
+    <t>16/05/2024</t>
+  </si>
+  <si>
+    <t>15/05/2024</t>
+  </si>
+  <si>
+    <t>0.951</t>
+  </si>
+  <si>
+    <t>14/05/2024</t>
+  </si>
+  <si>
     <t>13/05/2024</t>
   </si>
   <si>
-    <t>0.946</t>
-  </si>
-  <si>
-    <t>SGD</t>
-  </si>
-  <si>
     <t>10/05/2024</t>
   </si>
   <si>
-    <t>0.945</t>
-  </si>
-  <si>
     <t>09/05/2024</t>
   </si>
   <si>
@@ -50,9 +131,6 @@
     <t>07/05/2024</t>
   </si>
   <si>
-    <t>0.947</t>
-  </si>
-  <si>
     <t>06/05/2024</t>
   </si>
   <si>
@@ -62,22 +140,13 @@
     <t>02/05/2024</t>
   </si>
   <si>
-    <t>0.944</t>
-  </si>
-  <si>
     <t>30/04/2024</t>
   </si>
   <si>
-    <t>0.949</t>
-  </si>
-  <si>
     <t>29/04/2024</t>
   </si>
   <si>
     <t>26/04/2024</t>
-  </si>
-  <si>
-    <t>0.950</t>
   </si>
   <si>
     <t>25/04/2024</t>
@@ -453,7 +522,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -461,10 +530,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -472,10 +541,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -483,10 +552,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -494,10 +563,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -505,10 +574,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
         <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -516,10 +585,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -527,10 +596,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -538,10 +607,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -549,10 +618,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
         <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -560,10 +629,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -571,12 +640,221 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/GreatLink/GreatLink Multi-Sector Income.xlsx
+++ b/data/GreatLink/GreatLink Multi-Sector Income.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid213874"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid85324"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Price Date</t>
   </si>
@@ -26,15 +26,75 @@
     <t>Currency - Unit Level</t>
   </si>
   <si>
+    <t>01/07/2024</t>
+  </si>
+  <si>
+    <t>0.934</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>28/06/2024</t>
+  </si>
+  <si>
+    <t>0.942</t>
+  </si>
+  <si>
+    <t>27/06/2024</t>
+  </si>
+  <si>
+    <t>0.943</t>
+  </si>
+  <si>
+    <t>26/06/2024</t>
+  </si>
+  <si>
+    <t>25/06/2024</t>
+  </si>
+  <si>
+    <t>0.945</t>
+  </si>
+  <si>
+    <t>24/06/2024</t>
+  </si>
+  <si>
+    <t>21/06/2024</t>
+  </si>
+  <si>
+    <t>20/06/2024</t>
+  </si>
+  <si>
+    <t>19/06/2024</t>
+  </si>
+  <si>
+    <t>18/06/2024</t>
+  </si>
+  <si>
+    <t>14/06/2024</t>
+  </si>
+  <si>
+    <t>0.944</t>
+  </si>
+  <si>
+    <t>13/06/2024</t>
+  </si>
+  <si>
+    <t>0.946</t>
+  </si>
+  <si>
+    <t>12/06/2024</t>
+  </si>
+  <si>
+    <t>11/06/2024</t>
+  </si>
+  <si>
     <t>10/06/2024</t>
   </si>
   <si>
     <t>0.940</t>
   </si>
   <si>
-    <t>SGD</t>
-  </si>
-  <si>
     <t>07/06/2024</t>
   </si>
   <si>
@@ -44,24 +104,15 @@
     <t>06/06/2024</t>
   </si>
   <si>
-    <t>0.945</t>
-  </si>
-  <si>
     <t>05/06/2024</t>
   </si>
   <si>
-    <t>0.946</t>
-  </si>
-  <si>
     <t>04/06/2024</t>
   </si>
   <si>
     <t>03/06/2024</t>
   </si>
   <si>
-    <t>0.944</t>
-  </si>
-  <si>
     <t>31/05/2024</t>
   </si>
   <si>
@@ -69,9 +120,6 @@
   </si>
   <si>
     <t>29/05/2024</t>
-  </si>
-  <si>
-    <t>0.943</t>
   </si>
   <si>
     <t>28/05/2024</t>
@@ -533,7 +581,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -541,10 +589,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
         <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -555,7 +603,7 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -563,10 +611,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -574,10 +622,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -585,10 +633,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -596,10 +644,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -607,10 +655,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -618,7 +666,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
         <v>21</v>
@@ -629,10 +677,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -640,10 +688,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -651,10 +699,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -662,7 +710,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
         <v>27</v>
@@ -673,10 +721,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -684,10 +732,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -695,10 +743,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -706,10 +754,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -717,10 +765,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -728,10 +776,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -739,10 +787,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -750,7 +798,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
         <v>21</v>
@@ -761,10 +809,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -772,10 +820,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -783,10 +831,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -794,10 +842,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" t="s">
         <v>41</v>
-      </c>
-      <c r="B29" t="s">
-        <v>27</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -808,7 +856,7 @@
         <v>42</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -816,10 +864,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" t="s">
         <v>43</v>
-      </c>
-      <c r="B31" t="s">
-        <v>25</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -827,10 +875,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B32" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -838,10 +886,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B33" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -849,12 +897,166 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B34" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>58</v>
+      </c>
+      <c r="B44" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>59</v>
+      </c>
+      <c r="B45" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46" t="s">
+        <v>41</v>
+      </c>
+      <c r="C46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>61</v>
+      </c>
+      <c r="B47" t="s">
+        <v>41</v>
+      </c>
+      <c r="C47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>62</v>
+      </c>
+      <c r="B48" t="s">
+        <v>41</v>
+      </c>
+      <c r="C48" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/GreatLink/GreatLink Multi-Sector Income.xlsx
+++ b/data/GreatLink/GreatLink Multi-Sector Income.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid85324"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid295646"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t>Price Date</t>
   </si>
@@ -26,27 +26,123 @@
     <t>Currency - Unit Level</t>
   </si>
   <si>
+    <t>01/08/2024</t>
+  </si>
+  <si>
+    <t>0.949</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>31/07/2024</t>
+  </si>
+  <si>
+    <t>0.953</t>
+  </si>
+  <si>
+    <t>30/07/2024</t>
+  </si>
+  <si>
+    <t>29/07/2024</t>
+  </si>
+  <si>
+    <t>26/07/2024</t>
+  </si>
+  <si>
+    <t>25/07/2024</t>
+  </si>
+  <si>
+    <t>0.947</t>
+  </si>
+  <si>
+    <t>24/07/2024</t>
+  </si>
+  <si>
+    <t>0.946</t>
+  </si>
+  <si>
+    <t>23/07/2024</t>
+  </si>
+  <si>
+    <t>22/07/2024</t>
+  </si>
+  <si>
+    <t>19/07/2024</t>
+  </si>
+  <si>
+    <t>18/07/2024</t>
+  </si>
+  <si>
+    <t>0.948</t>
+  </si>
+  <si>
+    <t>17/07/2024</t>
+  </si>
+  <si>
+    <t>16/07/2024</t>
+  </si>
+  <si>
+    <t>15/07/2024</t>
+  </si>
+  <si>
+    <t>12/07/2024</t>
+  </si>
+  <si>
+    <t>11/07/2024</t>
+  </si>
+  <si>
+    <t>10/07/2024</t>
+  </si>
+  <si>
+    <t>0.944</t>
+  </si>
+  <si>
+    <t>09/07/2024</t>
+  </si>
+  <si>
+    <t>0.943</t>
+  </si>
+  <si>
+    <t>08/07/2024</t>
+  </si>
+  <si>
+    <t>0.942</t>
+  </si>
+  <si>
+    <t>05/07/2024</t>
+  </si>
+  <si>
+    <t>0.941</t>
+  </si>
+  <si>
+    <t>04/07/2024</t>
+  </si>
+  <si>
+    <t>0.938</t>
+  </si>
+  <si>
+    <t>03/07/2024</t>
+  </si>
+  <si>
+    <t>02/07/2024</t>
+  </si>
+  <si>
+    <t>0.935</t>
+  </si>
+  <si>
     <t>01/07/2024</t>
   </si>
   <si>
     <t>0.934</t>
   </si>
   <si>
-    <t>SGD</t>
-  </si>
-  <si>
     <t>28/06/2024</t>
   </si>
   <si>
-    <t>0.942</t>
-  </si>
-  <si>
     <t>27/06/2024</t>
   </si>
   <si>
-    <t>0.943</t>
-  </si>
-  <si>
     <t>26/06/2024</t>
   </si>
   <si>
@@ -74,15 +170,9 @@
     <t>14/06/2024</t>
   </si>
   <si>
-    <t>0.944</t>
-  </si>
-  <si>
     <t>13/06/2024</t>
   </si>
   <si>
-    <t>0.946</t>
-  </si>
-  <si>
     <t>12/06/2024</t>
   </si>
   <si>
@@ -98,9 +188,6 @@
     <t>07/06/2024</t>
   </si>
   <si>
-    <t>0.941</t>
-  </si>
-  <si>
     <t>06/06/2024</t>
   </si>
   <si>
@@ -128,9 +215,6 @@
     <t>27/05/2024</t>
   </si>
   <si>
-    <t>0.947</t>
-  </si>
-  <si>
     <t>24/05/2024</t>
   </si>
   <si>
@@ -144,9 +228,6 @@
   </si>
   <si>
     <t>20/05/2024</t>
-  </si>
-  <si>
-    <t>0.949</t>
   </si>
   <si>
     <t>17/05/2024</t>
@@ -570,7 +651,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -578,10 +659,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -589,10 +670,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -600,7 +681,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -611,10 +692,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
         <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -669,7 +750,7 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -677,10 +758,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -688,10 +769,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -699,10 +780,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -710,10 +791,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -721,10 +802,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -732,10 +813,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -743,10 +824,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
         <v>30</v>
-      </c>
-      <c r="B20" t="s">
-        <v>12</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -757,7 +838,7 @@
         <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -765,10 +846,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -776,10 +857,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -787,10 +868,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -798,10 +879,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -809,10 +890,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -820,10 +901,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -831,10 +912,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B28" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -842,10 +923,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -853,10 +934,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -864,10 +945,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" t="s">
         <v>44</v>
-      </c>
-      <c r="B31" t="s">
-        <v>43</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -875,10 +956,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -886,10 +967,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B33" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -897,10 +978,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -908,10 +989,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B35" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -919,10 +1000,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B36" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -930,10 +1011,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B37" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -941,10 +1022,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B38" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -952,10 +1033,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B39" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -963,10 +1044,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B40" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -974,10 +1055,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B41" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -985,10 +1066,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B42" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -996,10 +1077,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -1007,10 +1088,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B44" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -1018,10 +1099,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B45" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -1029,10 +1110,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B46" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -1040,10 +1121,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B47" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -1051,12 +1132,265 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B48" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="C48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>65</v>
+      </c>
+      <c r="B49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>66</v>
+      </c>
+      <c r="B50" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>67</v>
+      </c>
+      <c r="B51" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>68</v>
+      </c>
+      <c r="B52" t="s">
+        <v>69</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>70</v>
+      </c>
+      <c r="B53" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>71</v>
+      </c>
+      <c r="B54" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>72</v>
+      </c>
+      <c r="B55" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>73</v>
+      </c>
+      <c r="B56" t="s">
+        <v>74</v>
+      </c>
+      <c r="C56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>75</v>
+      </c>
+      <c r="B57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>76</v>
+      </c>
+      <c r="B58" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>77</v>
+      </c>
+      <c r="B59" t="s">
+        <v>44</v>
+      </c>
+      <c r="C59" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>78</v>
+      </c>
+      <c r="B60" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>79</v>
+      </c>
+      <c r="B61" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>80</v>
+      </c>
+      <c r="B62" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>81</v>
+      </c>
+      <c r="B63" t="s">
+        <v>44</v>
+      </c>
+      <c r="C63" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>82</v>
+      </c>
+      <c r="B64" t="s">
+        <v>44</v>
+      </c>
+      <c r="C64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>83</v>
+      </c>
+      <c r="B65" t="s">
+        <v>26</v>
+      </c>
+      <c r="C65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>84</v>
+      </c>
+      <c r="B66" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>85</v>
+      </c>
+      <c r="B67" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>86</v>
+      </c>
+      <c r="B68" t="s">
+        <v>69</v>
+      </c>
+      <c r="C68" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>87</v>
+      </c>
+      <c r="B69" t="s">
+        <v>69</v>
+      </c>
+      <c r="C69" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>88</v>
+      </c>
+      <c r="B70" t="s">
+        <v>69</v>
+      </c>
+      <c r="C70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>89</v>
+      </c>
+      <c r="B71" t="s">
+        <v>69</v>
+      </c>
+      <c r="C71" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/GreatLink/GreatLink Multi-Sector Income.xlsx
+++ b/data/GreatLink/GreatLink Multi-Sector Income.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid295646"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid436830"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>Price Date</t>
   </si>
@@ -26,21 +26,114 @@
     <t>Currency - Unit Level</t>
   </si>
   <si>
+    <t>03/09/2024</t>
+  </si>
+  <si>
+    <t>0.948</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>02/09/2024</t>
+  </si>
+  <si>
+    <t>0.947</t>
+  </si>
+  <si>
+    <t>30/08/2024</t>
+  </si>
+  <si>
+    <t>0.952</t>
+  </si>
+  <si>
+    <t>29/08/2024</t>
+  </si>
+  <si>
+    <t>0.953</t>
+  </si>
+  <si>
+    <t>28/08/2024</t>
+  </si>
+  <si>
+    <t>0.955</t>
+  </si>
+  <si>
+    <t>27/08/2024</t>
+  </si>
+  <si>
+    <t>0.956</t>
+  </si>
+  <si>
+    <t>26/08/2024</t>
+  </si>
+  <si>
+    <t>23/08/2024</t>
+  </si>
+  <si>
+    <t>22/08/2024</t>
+  </si>
+  <si>
+    <t>21/08/2024</t>
+  </si>
+  <si>
+    <t>20/08/2024</t>
+  </si>
+  <si>
+    <t>19/08/2024</t>
+  </si>
+  <si>
+    <t>16/08/2024</t>
+  </si>
+  <si>
+    <t>15/08/2024</t>
+  </si>
+  <si>
+    <t>0.950</t>
+  </si>
+  <si>
+    <t>14/08/2024</t>
+  </si>
+  <si>
+    <t>0.951</t>
+  </si>
+  <si>
+    <t>13/08/2024</t>
+  </si>
+  <si>
+    <t>12/08/2024</t>
+  </si>
+  <si>
+    <t>08/08/2024</t>
+  </si>
+  <si>
+    <t>0.945</t>
+  </si>
+  <si>
+    <t>07/08/2024</t>
+  </si>
+  <si>
+    <t>06/08/2024</t>
+  </si>
+  <si>
+    <t>0.946</t>
+  </si>
+  <si>
+    <t>05/08/2024</t>
+  </si>
+  <si>
+    <t>02/08/2024</t>
+  </si>
+  <si>
     <t>01/08/2024</t>
   </si>
   <si>
     <t>0.949</t>
   </si>
   <si>
-    <t>SGD</t>
-  </si>
-  <si>
     <t>31/07/2024</t>
   </si>
   <si>
-    <t>0.953</t>
-  </si>
-  <si>
     <t>30/07/2024</t>
   </si>
   <si>
@@ -53,15 +146,9 @@
     <t>25/07/2024</t>
   </si>
   <si>
-    <t>0.947</t>
-  </si>
-  <si>
     <t>24/07/2024</t>
   </si>
   <si>
-    <t>0.946</t>
-  </si>
-  <si>
     <t>23/07/2024</t>
   </si>
   <si>
@@ -74,9 +161,6 @@
     <t>18/07/2024</t>
   </si>
   <si>
-    <t>0.948</t>
-  </si>
-  <si>
     <t>17/07/2024</t>
   </si>
   <si>
@@ -149,9 +233,6 @@
     <t>25/06/2024</t>
   </si>
   <si>
-    <t>0.945</t>
-  </si>
-  <si>
     <t>24/06/2024</t>
   </si>
   <si>
@@ -224,9 +305,6 @@
     <t>21/05/2024</t>
   </si>
   <si>
-    <t>0.950</t>
-  </si>
-  <si>
     <t>20/05/2024</t>
   </si>
   <si>
@@ -237,9 +315,6 @@
   </si>
   <si>
     <t>15/05/2024</t>
-  </si>
-  <si>
-    <t>0.951</t>
   </si>
   <si>
     <t>14/05/2024</t>
@@ -651,7 +726,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -659,10 +734,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -670,10 +745,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -681,10 +756,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -692,10 +767,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
         <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -703,10 +778,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -714,10 +789,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -725,10 +800,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -736,10 +811,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -747,10 +822,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -758,10 +833,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -769,10 +844,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -780,10 +855,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -791,10 +866,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
         <v>24</v>
-      </c>
-      <c r="B17" t="s">
-        <v>12</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -802,10 +877,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -813,10 +888,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -824,7 +899,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
         <v>30</v>
@@ -835,10 +910,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -846,10 +921,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" t="s">
         <v>33</v>
-      </c>
-      <c r="B22" t="s">
-        <v>34</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -860,7 +935,7 @@
         <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -882,7 +957,7 @@
         <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -890,10 +965,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -901,10 +976,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -912,10 +987,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -923,10 +998,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -934,10 +1009,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -945,10 +1020,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -956,10 +1031,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -967,10 +1042,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -978,10 +1053,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B34" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -989,10 +1064,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B35" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -1000,10 +1075,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B36" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -1011,10 +1086,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B37" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -1022,10 +1097,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B38" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -1033,10 +1108,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B39" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -1044,10 +1119,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B40" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -1055,10 +1130,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B41" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -1066,10 +1141,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42" t="s">
         <v>58</v>
-      </c>
-      <c r="B42" t="s">
-        <v>14</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -1080,7 +1155,7 @@
         <v>59</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -1088,10 +1163,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B44" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -1099,10 +1174,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B45" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -1110,10 +1185,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B46" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -1121,10 +1196,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B47" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -1132,10 +1207,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B48" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -1143,10 +1218,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B49" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -1154,10 +1229,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B50" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -1165,10 +1240,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B51" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -1176,10 +1251,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B52" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -1187,10 +1262,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B53" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -1198,10 +1273,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B54" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -1209,10 +1284,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B55" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -1220,10 +1295,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B56" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -1231,10 +1306,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B57" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -1242,10 +1317,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B58" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -1253,10 +1328,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B59" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -1264,10 +1339,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B60" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -1275,10 +1350,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B61" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -1286,10 +1361,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B62" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -1297,10 +1372,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B63" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -1308,10 +1383,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B64" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -1319,10 +1394,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B65" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -1330,10 +1405,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B66" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -1341,10 +1416,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B67" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -1352,10 +1427,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B68" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -1363,10 +1438,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B69" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -1374,10 +1449,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B70" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -1385,12 +1460,254 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B71" t="s">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="C71" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>93</v>
+      </c>
+      <c r="B72" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>94</v>
+      </c>
+      <c r="B73" t="s">
+        <v>33</v>
+      </c>
+      <c r="C73" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>95</v>
+      </c>
+      <c r="B74" t="s">
+        <v>24</v>
+      </c>
+      <c r="C74" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>96</v>
+      </c>
+      <c r="B75" t="s">
+        <v>37</v>
+      </c>
+      <c r="C75" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>97</v>
+      </c>
+      <c r="B76" t="s">
+        <v>37</v>
+      </c>
+      <c r="C76" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>98</v>
+      </c>
+      <c r="B77" t="s">
+        <v>37</v>
+      </c>
+      <c r="C77" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>99</v>
+      </c>
+      <c r="B78" t="s">
+        <v>26</v>
+      </c>
+      <c r="C78" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>100</v>
+      </c>
+      <c r="B79" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>101</v>
+      </c>
+      <c r="B80" t="s">
+        <v>33</v>
+      </c>
+      <c r="C80" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>102</v>
+      </c>
+      <c r="B81" t="s">
+        <v>30</v>
+      </c>
+      <c r="C81" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>103</v>
+      </c>
+      <c r="B82" t="s">
+        <v>33</v>
+      </c>
+      <c r="C82" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>104</v>
+      </c>
+      <c r="B83" t="s">
+        <v>33</v>
+      </c>
+      <c r="C83" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>105</v>
+      </c>
+      <c r="B84" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>106</v>
+      </c>
+      <c r="B85" t="s">
+        <v>30</v>
+      </c>
+      <c r="C85" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>107</v>
+      </c>
+      <c r="B86" t="s">
+        <v>30</v>
+      </c>
+      <c r="C86" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>108</v>
+      </c>
+      <c r="B87" t="s">
+        <v>54</v>
+      </c>
+      <c r="C87" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>109</v>
+      </c>
+      <c r="B88" t="s">
+        <v>37</v>
+      </c>
+      <c r="C88" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>110</v>
+      </c>
+      <c r="B89" t="s">
+        <v>37</v>
+      </c>
+      <c r="C89" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>111</v>
+      </c>
+      <c r="B90" t="s">
+        <v>24</v>
+      </c>
+      <c r="C90" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>112</v>
+      </c>
+      <c r="B91" t="s">
+        <v>24</v>
+      </c>
+      <c r="C91" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>113</v>
+      </c>
+      <c r="B92" t="s">
+        <v>24</v>
+      </c>
+      <c r="C92" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>114</v>
+      </c>
+      <c r="B93" t="s">
+        <v>24</v>
+      </c>
+      <c r="C93" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/GreatLink/GreatLink Multi-Sector Income.xlsx
+++ b/data/GreatLink/GreatLink Multi-Sector Income.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid436830"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid823307"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
   <si>
     <t>Price Date</t>
   </si>
@@ -26,15 +26,111 @@
     <t>Currency - Unit Level</t>
   </si>
   <si>
+    <t>03/10/2024</t>
+  </si>
+  <si>
+    <t>0.951</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>02/10/2024</t>
+  </si>
+  <si>
+    <t>0.953</t>
+  </si>
+  <si>
+    <t>01/10/2024</t>
+  </si>
+  <si>
+    <t>30/09/2024</t>
+  </si>
+  <si>
+    <t>0.958</t>
+  </si>
+  <si>
+    <t>27/09/2024</t>
+  </si>
+  <si>
+    <t>0.959</t>
+  </si>
+  <si>
+    <t>26/09/2024</t>
+  </si>
+  <si>
+    <t>0.957</t>
+  </si>
+  <si>
+    <t>25/09/2024</t>
+  </si>
+  <si>
+    <t>24/09/2024</t>
+  </si>
+  <si>
+    <t>0.960</t>
+  </si>
+  <si>
+    <t>23/09/2024</t>
+  </si>
+  <si>
+    <t>20/09/2024</t>
+  </si>
+  <si>
+    <t>19/09/2024</t>
+  </si>
+  <si>
+    <t>18/09/2024</t>
+  </si>
+  <si>
+    <t>17/09/2024</t>
+  </si>
+  <si>
+    <t>16/09/2024</t>
+  </si>
+  <si>
+    <t>13/09/2024</t>
+  </si>
+  <si>
+    <t>12/09/2024</t>
+  </si>
+  <si>
+    <t>0.955</t>
+  </si>
+  <si>
+    <t>11/09/2024</t>
+  </si>
+  <si>
+    <t>10/09/2024</t>
+  </si>
+  <si>
+    <t>0.954</t>
+  </si>
+  <si>
+    <t>09/09/2024</t>
+  </si>
+  <si>
+    <t>06/09/2024</t>
+  </si>
+  <si>
+    <t>0.952</t>
+  </si>
+  <si>
+    <t>05/09/2024</t>
+  </si>
+  <si>
+    <t>04/09/2024</t>
+  </si>
+  <si>
+    <t>0.950</t>
+  </si>
+  <si>
     <t>03/09/2024</t>
   </si>
   <si>
     <t>0.948</t>
   </si>
   <si>
-    <t>SGD</t>
-  </si>
-  <si>
     <t>02/09/2024</t>
   </si>
   <si>
@@ -44,21 +140,12 @@
     <t>30/08/2024</t>
   </si>
   <si>
-    <t>0.952</t>
-  </si>
-  <si>
     <t>29/08/2024</t>
   </si>
   <si>
-    <t>0.953</t>
-  </si>
-  <si>
     <t>28/08/2024</t>
   </si>
   <si>
-    <t>0.955</t>
-  </si>
-  <si>
     <t>27/08/2024</t>
   </si>
   <si>
@@ -89,13 +176,7 @@
     <t>15/08/2024</t>
   </si>
   <si>
-    <t>0.950</t>
-  </si>
-  <si>
     <t>14/08/2024</t>
-  </si>
-  <si>
-    <t>0.951</t>
   </si>
   <si>
     <t>13/08/2024</t>
@@ -726,7 +807,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -734,10 +815,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
         <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -745,10 +826,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
         <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -756,10 +837,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
         <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -767,10 +848,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -778,10 +859,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
         <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -792,7 +873,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -803,7 +884,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -814,7 +895,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -825,7 +906,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -836,7 +917,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -847,7 +928,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -855,10 +936,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -866,10 +947,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -877,10 +958,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -888,10 +969,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s">
         <v>29</v>
-      </c>
-      <c r="B19" t="s">
-        <v>30</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -899,10 +980,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -910,10 +991,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
         <v>32</v>
-      </c>
-      <c r="B21" t="s">
-        <v>33</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -921,10 +1002,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -932,10 +1013,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" t="s">
         <v>35</v>
-      </c>
-      <c r="B23" t="s">
-        <v>26</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -957,7 +1038,7 @@
         <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -965,10 +1046,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -976,10 +1057,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -987,10 +1068,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -998,10 +1079,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -1009,10 +1090,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -1020,10 +1101,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -1031,10 +1112,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -1042,7 +1123,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B33" t="s">
         <v>7</v>
@@ -1053,10 +1134,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B34" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -1064,10 +1145,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -1075,10 +1156,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -1086,10 +1167,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B37" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -1097,10 +1178,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -1108,10 +1189,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -1119,10 +1200,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B40" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -1130,10 +1211,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -1141,10 +1222,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" t="s">
         <v>57</v>
-      </c>
-      <c r="B42" t="s">
-        <v>58</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -1166,7 +1247,7 @@
         <v>61</v>
       </c>
       <c r="B44" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -1174,10 +1255,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B45" t="s">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -1185,10 +1266,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46" t="s">
         <v>64</v>
-      </c>
-      <c r="B46" t="s">
-        <v>65</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -1196,10 +1277,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B47" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -1207,10 +1288,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B48" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -1218,10 +1299,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B49" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -1229,10 +1310,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B50" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -1240,10 +1321,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B51" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -1251,10 +1332,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B52" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -1262,10 +1343,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B53" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -1273,10 +1354,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B54" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -1284,10 +1365,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B55" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -1295,10 +1376,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B56" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -1306,10 +1387,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B57" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -1317,10 +1398,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B58" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -1328,10 +1409,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B59" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -1339,10 +1420,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B60" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -1350,10 +1431,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B61" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -1361,10 +1442,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B62" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -1372,10 +1453,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B63" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -1383,10 +1464,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
+        <v>84</v>
+      </c>
+      <c r="B64" t="s">
         <v>85</v>
-      </c>
-      <c r="B64" t="s">
-        <v>33</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -1397,7 +1478,7 @@
         <v>86</v>
       </c>
       <c r="B65" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -1405,10 +1486,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B66" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -1416,10 +1497,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B67" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -1427,10 +1508,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B68" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -1438,10 +1519,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B69" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -1449,10 +1530,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B70" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -1460,10 +1541,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -1471,10 +1552,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -1482,10 +1563,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B73" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -1493,10 +1574,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B74" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -1504,10 +1585,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B75" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -1515,10 +1596,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B76" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -1526,10 +1607,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B77" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -1537,10 +1618,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B78" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -1548,10 +1629,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -1559,10 +1640,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B80" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -1570,10 +1651,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B81" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -1581,10 +1662,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B82" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -1592,10 +1673,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B83" t="s">
-        <v>33</v>
+        <v>109</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -1603,10 +1684,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>87</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -1614,10 +1695,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B85" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -1625,10 +1706,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B86" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -1636,10 +1717,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B87" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -1647,10 +1728,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B88" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -1658,10 +1739,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B89" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -1669,10 +1750,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B90" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -1680,10 +1761,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B91" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -1691,10 +1772,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B92" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -1702,12 +1783,254 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B93" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C93" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>120</v>
+      </c>
+      <c r="B94" t="s">
+        <v>39</v>
+      </c>
+      <c r="C94" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>121</v>
+      </c>
+      <c r="B95" t="s">
+        <v>60</v>
+      </c>
+      <c r="C95" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>122</v>
+      </c>
+      <c r="B96" t="s">
+        <v>35</v>
+      </c>
+      <c r="C96" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>123</v>
+      </c>
+      <c r="B97" t="s">
+        <v>64</v>
+      </c>
+      <c r="C97" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>124</v>
+      </c>
+      <c r="B98" t="s">
+        <v>64</v>
+      </c>
+      <c r="C98" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>125</v>
+      </c>
+      <c r="B99" t="s">
+        <v>64</v>
+      </c>
+      <c r="C99" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>126</v>
+      </c>
+      <c r="B100" t="s">
+        <v>4</v>
+      </c>
+      <c r="C100" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>127</v>
+      </c>
+      <c r="B101" t="s">
+        <v>39</v>
+      </c>
+      <c r="C101" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>128</v>
+      </c>
+      <c r="B102" t="s">
+        <v>60</v>
+      </c>
+      <c r="C102" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>129</v>
+      </c>
+      <c r="B103" t="s">
+        <v>57</v>
+      </c>
+      <c r="C103" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>130</v>
+      </c>
+      <c r="B104" t="s">
+        <v>60</v>
+      </c>
+      <c r="C104" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>131</v>
+      </c>
+      <c r="B105" t="s">
+        <v>60</v>
+      </c>
+      <c r="C105" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>132</v>
+      </c>
+      <c r="B106" t="s">
+        <v>39</v>
+      </c>
+      <c r="C106" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>133</v>
+      </c>
+      <c r="B107" t="s">
+        <v>57</v>
+      </c>
+      <c r="C107" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>134</v>
+      </c>
+      <c r="B108" t="s">
+        <v>57</v>
+      </c>
+      <c r="C108" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>135</v>
+      </c>
+      <c r="B109" t="s">
+        <v>81</v>
+      </c>
+      <c r="C109" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>136</v>
+      </c>
+      <c r="B110" t="s">
+        <v>64</v>
+      </c>
+      <c r="C110" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>137</v>
+      </c>
+      <c r="B111" t="s">
+        <v>64</v>
+      </c>
+      <c r="C111" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>138</v>
+      </c>
+      <c r="B112" t="s">
+        <v>35</v>
+      </c>
+      <c r="C112" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>139</v>
+      </c>
+      <c r="B113" t="s">
+        <v>35</v>
+      </c>
+      <c r="C113" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>140</v>
+      </c>
+      <c r="B114" t="s">
+        <v>35</v>
+      </c>
+      <c r="C114" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>141</v>
+      </c>
+      <c r="B115" t="s">
+        <v>35</v>
+      </c>
+      <c r="C115" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/GreatLink/GreatLink Multi-Sector Income.xlsx
+++ b/data/GreatLink/GreatLink Multi-Sector Income.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid823307"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid934859"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="164">
   <si>
     <t>Price Date</t>
   </si>
@@ -26,15 +26,99 @@
     <t>Currency - Unit Level</t>
   </si>
   <si>
+    <t>30/10/2024</t>
+  </si>
+  <si>
+    <t>0.936</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>29/10/2024</t>
+  </si>
+  <si>
+    <t>0.938</t>
+  </si>
+  <si>
+    <t>28/10/2024</t>
+  </si>
+  <si>
+    <t>0.937</t>
+  </si>
+  <si>
+    <t>25/10/2024</t>
+  </si>
+  <si>
+    <t>0.939</t>
+  </si>
+  <si>
+    <t>24/10/2024</t>
+  </si>
+  <si>
+    <t>23/10/2024</t>
+  </si>
+  <si>
+    <t>22/10/2024</t>
+  </si>
+  <si>
+    <t>0.941</t>
+  </si>
+  <si>
+    <t>21/10/2024</t>
+  </si>
+  <si>
+    <t>0.942</t>
+  </si>
+  <si>
+    <t>18/10/2024</t>
+  </si>
+  <si>
+    <t>0.946</t>
+  </si>
+  <si>
+    <t>17/10/2024</t>
+  </si>
+  <si>
+    <t>0.945</t>
+  </si>
+  <si>
+    <t>16/10/2024</t>
+  </si>
+  <si>
+    <t>0.947</t>
+  </si>
+  <si>
+    <t>15/10/2024</t>
+  </si>
+  <si>
+    <t>14/10/2024</t>
+  </si>
+  <si>
+    <t>11/10/2024</t>
+  </si>
+  <si>
+    <t>10/10/2024</t>
+  </si>
+  <si>
+    <t>09/10/2024</t>
+  </si>
+  <si>
+    <t>08/10/2024</t>
+  </si>
+  <si>
+    <t>07/10/2024</t>
+  </si>
+  <si>
+    <t>04/10/2024</t>
+  </si>
+  <si>
     <t>03/10/2024</t>
   </si>
   <si>
     <t>0.951</t>
   </si>
   <si>
-    <t>SGD</t>
-  </si>
-  <si>
     <t>02/10/2024</t>
   </si>
   <si>
@@ -134,9 +218,6 @@
     <t>02/09/2024</t>
   </si>
   <si>
-    <t>0.947</t>
-  </si>
-  <si>
     <t>30/08/2024</t>
   </si>
   <si>
@@ -188,18 +269,12 @@
     <t>08/08/2024</t>
   </si>
   <si>
-    <t>0.945</t>
-  </si>
-  <si>
     <t>07/08/2024</t>
   </si>
   <si>
     <t>06/08/2024</t>
   </si>
   <si>
-    <t>0.946</t>
-  </si>
-  <si>
     <t>05/08/2024</t>
   </si>
   <si>
@@ -272,19 +347,10 @@
     <t>08/07/2024</t>
   </si>
   <si>
-    <t>0.942</t>
-  </si>
-  <si>
     <t>05/07/2024</t>
   </si>
   <si>
-    <t>0.941</t>
-  </si>
-  <si>
     <t>04/07/2024</t>
-  </si>
-  <si>
-    <t>0.938</t>
   </si>
   <si>
     <t>03/07/2024</t>
@@ -807,7 +873,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -815,10 +881,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -826,10 +892,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
         <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -840,7 +906,7 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -848,10 +914,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
         <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -873,7 +939,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -881,10 +947,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -892,10 +958,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -903,10 +969,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -914,10 +980,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -925,10 +991,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -936,10 +1002,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -947,10 +1013,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -958,10 +1024,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -969,10 +1035,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -980,10 +1046,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -991,10 +1057,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -1002,10 +1068,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -1013,7 +1079,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
         <v>35</v>
@@ -1024,10 +1090,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -1035,10 +1101,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -1046,10 +1112,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -1057,10 +1123,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -1068,10 +1134,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -1079,10 +1145,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -1090,10 +1156,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" t="s">
         <v>45</v>
-      </c>
-      <c r="B30" t="s">
-        <v>26</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -1101,10 +1167,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -1112,10 +1178,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -1123,10 +1189,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -1134,10 +1200,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -1145,10 +1211,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B35" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -1156,10 +1222,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B36" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -1167,10 +1233,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B37" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -1178,10 +1244,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B38" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -1189,7 +1255,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B39" t="s">
         <v>35</v>
@@ -1200,10 +1266,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B40" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -1211,10 +1277,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B41" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -1222,10 +1288,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B42" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -1233,10 +1299,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B43" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -1244,10 +1310,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B44" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -1255,10 +1321,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B45" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -1266,10 +1332,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B46" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -1277,10 +1343,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -1288,10 +1354,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B48" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -1299,10 +1365,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B49" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -1310,10 +1376,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B50" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -1321,10 +1387,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B51" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -1332,10 +1398,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B52" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -1343,10 +1409,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B53" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -1354,10 +1420,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B54" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -1365,10 +1431,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B55" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -1376,10 +1442,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B56" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -1387,10 +1453,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B57" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -1398,10 +1464,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -1409,10 +1475,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B59" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -1420,10 +1486,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B60" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -1431,10 +1497,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B61" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -1442,10 +1508,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B62" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -1453,10 +1519,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B63" t="s">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -1464,10 +1530,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B64" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -1475,10 +1541,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B65" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -1486,10 +1552,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B66" t="s">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -1497,7 +1563,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B67" t="s">
         <v>89</v>
@@ -1508,10 +1574,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B68" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -1522,7 +1588,7 @@
         <v>93</v>
       </c>
       <c r="B69" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -1530,10 +1596,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B70" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -1541,10 +1607,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B71" t="s">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -1552,10 +1618,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B72" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -1563,10 +1629,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B73" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -1574,10 +1640,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B74" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -1585,10 +1651,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B75" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -1596,10 +1662,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B76" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -1607,10 +1673,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B77" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -1618,10 +1684,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B78" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -1629,10 +1695,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B79" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -1640,10 +1706,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B80" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -1651,10 +1717,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
+        <v>105</v>
+      </c>
+      <c r="B81" t="s">
         <v>106</v>
-      </c>
-      <c r="B81" t="s">
-        <v>81</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -1665,7 +1731,7 @@
         <v>107</v>
       </c>
       <c r="B82" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -1673,10 +1739,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B83" t="s">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -1687,7 +1753,7 @@
         <v>110</v>
       </c>
       <c r="B84" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -1698,7 +1764,7 @@
         <v>111</v>
       </c>
       <c r="B85" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -1709,7 +1775,7 @@
         <v>112</v>
       </c>
       <c r="B86" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -1720,7 +1786,7 @@
         <v>113</v>
       </c>
       <c r="B87" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -1728,10 +1794,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B88" t="s">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -1739,10 +1805,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B89" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -1750,10 +1816,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B90" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -1761,10 +1827,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B91" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -1772,10 +1838,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B92" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -1783,10 +1849,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B93" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -1794,10 +1860,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B94" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -1805,10 +1871,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B95" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -1816,10 +1882,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B96" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -1827,10 +1893,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B97" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -1838,10 +1904,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B98" t="s">
-        <v>64</v>
+        <v>106</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -1849,10 +1915,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B99" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
@@ -1860,10 +1926,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B100" t="s">
-        <v>4</v>
+        <v>106</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
@@ -1871,10 +1937,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B101" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -1882,10 +1948,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B102" t="s">
-        <v>60</v>
+        <v>131</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
@@ -1893,10 +1959,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B103" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -1904,10 +1970,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B104" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -1915,10 +1981,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B105" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -1926,10 +1992,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B106" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
@@ -1937,10 +2003,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B107" t="s">
-        <v>57</v>
+        <v>106</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -1948,10 +2014,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B108" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -1959,10 +2025,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B109" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -1970,10 +2036,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B110" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -1981,10 +2047,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B111" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -1992,10 +2058,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B112" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -2003,10 +2069,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B113" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -2014,10 +2080,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B114" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -2025,12 +2091,221 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B115" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="C115" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>145</v>
+      </c>
+      <c r="B116" t="s">
+        <v>89</v>
+      </c>
+      <c r="C116" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>146</v>
+      </c>
+      <c r="B117" t="s">
+        <v>89</v>
+      </c>
+      <c r="C117" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>147</v>
+      </c>
+      <c r="B118" t="s">
+        <v>89</v>
+      </c>
+      <c r="C118" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>148</v>
+      </c>
+      <c r="B119" t="s">
+        <v>33</v>
+      </c>
+      <c r="C119" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>149</v>
+      </c>
+      <c r="B120" t="s">
+        <v>23</v>
+      </c>
+      <c r="C120" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>150</v>
+      </c>
+      <c r="B121" t="s">
+        <v>19</v>
+      </c>
+      <c r="C121" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>151</v>
+      </c>
+      <c r="B122" t="s">
+        <v>21</v>
+      </c>
+      <c r="C122" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>152</v>
+      </c>
+      <c r="B123" t="s">
+        <v>19</v>
+      </c>
+      <c r="C123" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>153</v>
+      </c>
+      <c r="B124" t="s">
+        <v>19</v>
+      </c>
+      <c r="C124" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>154</v>
+      </c>
+      <c r="B125" t="s">
+        <v>23</v>
+      </c>
+      <c r="C125" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>155</v>
+      </c>
+      <c r="B126" t="s">
+        <v>21</v>
+      </c>
+      <c r="C126" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>156</v>
+      </c>
+      <c r="B127" t="s">
+        <v>21</v>
+      </c>
+      <c r="C127" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>157</v>
+      </c>
+      <c r="B128" t="s">
+        <v>106</v>
+      </c>
+      <c r="C128" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>158</v>
+      </c>
+      <c r="B129" t="s">
+        <v>89</v>
+      </c>
+      <c r="C129" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>159</v>
+      </c>
+      <c r="B130" t="s">
+        <v>89</v>
+      </c>
+      <c r="C130" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>160</v>
+      </c>
+      <c r="B131" t="s">
+        <v>63</v>
+      </c>
+      <c r="C131" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>161</v>
+      </c>
+      <c r="B132" t="s">
+        <v>63</v>
+      </c>
+      <c r="C132" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>162</v>
+      </c>
+      <c r="B133" t="s">
+        <v>63</v>
+      </c>
+      <c r="C133" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>163</v>
+      </c>
+      <c r="B134" t="s">
+        <v>63</v>
+      </c>
+      <c r="C134" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/GreatLink/GreatLink Multi-Sector Income.xlsx
+++ b/data/GreatLink/GreatLink Multi-Sector Income.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid934859"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid781388"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="193">
   <si>
     <t>Price Date</t>
   </si>
@@ -26,31 +26,118 @@
     <t>Currency - Unit Level</t>
   </si>
   <si>
+    <t>05/12/2024</t>
+  </si>
+  <si>
+    <t>0.939</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>04/12/2024</t>
+  </si>
+  <si>
+    <t>0.938</t>
+  </si>
+  <si>
+    <t>03/12/2024</t>
+  </si>
+  <si>
+    <t>0.937</t>
+  </si>
+  <si>
+    <t>02/12/2024</t>
+  </si>
+  <si>
+    <t>29/11/2024</t>
+  </si>
+  <si>
+    <t>28/11/2024</t>
+  </si>
+  <si>
+    <t>27/11/2024</t>
+  </si>
+  <si>
+    <t>26/11/2024</t>
+  </si>
+  <si>
+    <t>25/11/2024</t>
+  </si>
+  <si>
+    <t>22/11/2024</t>
+  </si>
+  <si>
+    <t>0.933</t>
+  </si>
+  <si>
+    <t>21/11/2024</t>
+  </si>
+  <si>
+    <t>0.932</t>
+  </si>
+  <si>
+    <t>20/11/2024</t>
+  </si>
+  <si>
+    <t>19/11/2024</t>
+  </si>
+  <si>
+    <t>18/11/2024</t>
+  </si>
+  <si>
+    <t>15/11/2024</t>
+  </si>
+  <si>
+    <t>14/11/2024</t>
+  </si>
+  <si>
+    <t>13/11/2024</t>
+  </si>
+  <si>
+    <t>12/11/2024</t>
+  </si>
+  <si>
+    <t>11/11/2024</t>
+  </si>
+  <si>
+    <t>08/11/2024</t>
+  </si>
+  <si>
+    <t>07/11/2024</t>
+  </si>
+  <si>
+    <t>06/11/2024</t>
+  </si>
+  <si>
+    <t>0.931</t>
+  </si>
+  <si>
+    <t>05/11/2024</t>
+  </si>
+  <si>
+    <t>04/11/2024</t>
+  </si>
+  <si>
+    <t>0.930</t>
+  </si>
+  <si>
+    <t>01/11/2024</t>
+  </si>
+  <si>
     <t>30/10/2024</t>
   </si>
   <si>
     <t>0.936</t>
   </si>
   <si>
-    <t>SGD</t>
-  </si>
-  <si>
     <t>29/10/2024</t>
   </si>
   <si>
-    <t>0.938</t>
-  </si>
-  <si>
     <t>28/10/2024</t>
   </si>
   <si>
-    <t>0.937</t>
-  </si>
-  <si>
     <t>25/10/2024</t>
-  </si>
-  <si>
-    <t>0.939</t>
   </si>
   <si>
     <t>24/10/2024</t>
@@ -884,7 +971,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -892,10 +979,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -903,10 +990,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -914,10 +1001,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -925,10 +1012,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -936,10 +1023,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -947,10 +1034,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -958,10 +1045,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -969,7 +1056,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
@@ -980,10 +1067,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -991,10 +1078,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -1002,10 +1089,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -1013,10 +1100,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -1024,10 +1111,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -1035,10 +1122,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -1046,10 +1133,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -1057,10 +1144,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -1068,10 +1155,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -1079,10 +1166,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -1090,10 +1177,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -1101,10 +1188,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -1112,10 +1199,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -1123,10 +1210,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -1134,10 +1221,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -1145,10 +1232,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -1156,10 +1243,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -1167,10 +1254,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -1178,10 +1265,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -1189,10 +1276,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -1200,10 +1287,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -1211,10 +1298,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -1222,10 +1309,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B36" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -1233,10 +1320,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B37" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -1244,10 +1331,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B38" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -1255,10 +1342,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B39" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -1266,10 +1353,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B40" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -1277,10 +1364,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B41" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -1288,10 +1375,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B42" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -1299,10 +1386,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B43" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -1310,10 +1397,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B44" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -1321,10 +1408,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B45" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -1332,10 +1419,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B46" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -1343,10 +1430,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B47" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -1354,10 +1441,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B48" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -1365,10 +1452,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B49" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -1376,10 +1463,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B50" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -1387,10 +1474,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B51" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -1398,10 +1485,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B52" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -1409,10 +1496,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B53" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -1420,10 +1507,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B54" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -1431,10 +1518,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B55" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -1442,10 +1529,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B56" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -1453,10 +1540,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B57" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -1464,10 +1551,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B58" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -1475,10 +1562,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B59" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -1486,10 +1573,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B60" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -1497,10 +1584,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B61" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -1508,10 +1595,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B62" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -1519,10 +1606,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
+        <v>85</v>
+      </c>
+      <c r="B63" t="s">
         <v>86</v>
-      </c>
-      <c r="B63" t="s">
-        <v>19</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -1533,7 +1620,7 @@
         <v>87</v>
       </c>
       <c r="B64" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -1555,7 +1642,7 @@
         <v>90</v>
       </c>
       <c r="B66" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -1566,7 +1653,7 @@
         <v>91</v>
       </c>
       <c r="B67" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -1574,10 +1661,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B68" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -1585,10 +1672,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B69" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -1596,10 +1683,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B70" t="s">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -1607,10 +1694,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B71" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -1618,10 +1705,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B72" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -1629,10 +1716,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B73" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -1640,10 +1727,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B74" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -1651,10 +1738,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B75" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -1662,7 +1749,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B76" t="s">
         <v>89</v>
@@ -1673,10 +1760,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B77" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -1684,10 +1771,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B78" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -1695,7 +1782,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B79" t="s">
         <v>89</v>
@@ -1706,10 +1793,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B80" t="s">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -1717,10 +1804,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B81" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -1728,10 +1815,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B82" t="s">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -1739,10 +1826,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B83" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -1750,10 +1837,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B84" t="s">
-        <v>15</v>
+        <v>94</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -1761,10 +1848,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -1772,10 +1859,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -1783,10 +1870,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B87" t="s">
-        <v>114</v>
+        <v>48</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -1797,7 +1884,7 @@
         <v>115</v>
       </c>
       <c r="B88" t="s">
-        <v>116</v>
+        <v>48</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -1805,10 +1892,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B89" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -1816,10 +1903,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
+        <v>117</v>
+      </c>
+      <c r="B90" t="s">
         <v>118</v>
-      </c>
-      <c r="B90" t="s">
-        <v>108</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -1830,7 +1917,7 @@
         <v>119</v>
       </c>
       <c r="B91" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -1841,7 +1928,7 @@
         <v>120</v>
       </c>
       <c r="B92" t="s">
-        <v>21</v>
+        <v>118</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -1852,7 +1939,7 @@
         <v>121</v>
       </c>
       <c r="B93" t="s">
-        <v>21</v>
+        <v>118</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -1863,7 +1950,7 @@
         <v>122</v>
       </c>
       <c r="B94" t="s">
-        <v>21</v>
+        <v>118</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -1874,7 +1961,7 @@
         <v>123</v>
       </c>
       <c r="B95" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -1885,7 +1972,7 @@
         <v>124</v>
       </c>
       <c r="B96" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -1896,7 +1983,7 @@
         <v>125</v>
       </c>
       <c r="B97" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -1907,7 +1994,7 @@
         <v>126</v>
       </c>
       <c r="B98" t="s">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -1918,7 +2005,7 @@
         <v>127</v>
       </c>
       <c r="B99" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
@@ -1929,7 +2016,7 @@
         <v>128</v>
       </c>
       <c r="B100" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
@@ -1940,7 +2027,7 @@
         <v>129</v>
       </c>
       <c r="B101" t="s">
-        <v>17</v>
+        <v>118</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -1951,7 +2038,7 @@
         <v>130</v>
       </c>
       <c r="B102" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
@@ -1959,10 +2046,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B103" t="s">
-        <v>15</v>
+        <v>94</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -1970,10 +2057,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B104" t="s">
-        <v>21</v>
+        <v>118</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -1981,10 +2068,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B105" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -1992,10 +2079,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
+        <v>134</v>
+      </c>
+      <c r="B106" t="s">
         <v>135</v>
-      </c>
-      <c r="B106" t="s">
-        <v>21</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
@@ -2006,7 +2093,7 @@
         <v>136</v>
       </c>
       <c r="B107" t="s">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -2014,10 +2101,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B108" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -2025,10 +2112,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B109" t="s">
-        <v>106</v>
+        <v>44</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -2036,10 +2123,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B110" t="s">
-        <v>108</v>
+        <v>7</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -2047,10 +2134,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B111" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -2058,10 +2145,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B112" t="s">
-        <v>23</v>
+        <v>143</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -2069,10 +2156,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B113" t="s">
-        <v>23</v>
+        <v>145</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -2080,10 +2167,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B114" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -2091,10 +2178,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B115" t="s">
-        <v>63</v>
+        <v>137</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -2102,10 +2189,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B116" t="s">
-        <v>89</v>
+        <v>137</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -2113,10 +2200,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B117" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
@@ -2124,10 +2211,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B118" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -2135,10 +2222,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B119" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -2146,10 +2233,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B120" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -2157,10 +2244,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B121" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -2168,10 +2255,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B122" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -2179,10 +2266,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B123" t="s">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -2190,10 +2277,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B124" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -2201,10 +2288,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B125" t="s">
-        <v>23</v>
+        <v>135</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -2212,10 +2299,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B126" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
@@ -2223,10 +2310,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B127" t="s">
-        <v>21</v>
+        <v>160</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
@@ -2234,10 +2321,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B128" t="s">
-        <v>106</v>
+        <v>44</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
@@ -2245,10 +2332,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B129" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -2256,10 +2343,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B130" t="s">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -2267,10 +2354,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B131" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -2278,10 +2365,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B132" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
@@ -2289,10 +2376,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B133" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
@@ -2300,12 +2387,287 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B134" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="C134" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>168</v>
+      </c>
+      <c r="B135" t="s">
+        <v>137</v>
+      </c>
+      <c r="C135" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>169</v>
+      </c>
+      <c r="B136" t="s">
+        <v>48</v>
+      </c>
+      <c r="C136" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>170</v>
+      </c>
+      <c r="B137" t="s">
+        <v>52</v>
+      </c>
+      <c r="C137" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>171</v>
+      </c>
+      <c r="B138" t="s">
+        <v>52</v>
+      </c>
+      <c r="C138" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>172</v>
+      </c>
+      <c r="B139" t="s">
+        <v>48</v>
+      </c>
+      <c r="C139" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>173</v>
+      </c>
+      <c r="B140" t="s">
+        <v>92</v>
+      </c>
+      <c r="C140" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>174</v>
+      </c>
+      <c r="B141" t="s">
+        <v>118</v>
+      </c>
+      <c r="C141" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>175</v>
+      </c>
+      <c r="B142" t="s">
+        <v>118</v>
+      </c>
+      <c r="C142" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>176</v>
+      </c>
+      <c r="B143" t="s">
+        <v>118</v>
+      </c>
+      <c r="C143" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>177</v>
+      </c>
+      <c r="B144" t="s">
+        <v>62</v>
+      </c>
+      <c r="C144" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>178</v>
+      </c>
+      <c r="B145" t="s">
+        <v>52</v>
+      </c>
+      <c r="C145" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>179</v>
+      </c>
+      <c r="B146" t="s">
+        <v>48</v>
+      </c>
+      <c r="C146" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>180</v>
+      </c>
+      <c r="B147" t="s">
+        <v>50</v>
+      </c>
+      <c r="C147" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>181</v>
+      </c>
+      <c r="B148" t="s">
+        <v>48</v>
+      </c>
+      <c r="C148" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>182</v>
+      </c>
+      <c r="B149" t="s">
+        <v>48</v>
+      </c>
+      <c r="C149" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>183</v>
+      </c>
+      <c r="B150" t="s">
+        <v>52</v>
+      </c>
+      <c r="C150" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>184</v>
+      </c>
+      <c r="B151" t="s">
+        <v>50</v>
+      </c>
+      <c r="C151" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>185</v>
+      </c>
+      <c r="B152" t="s">
+        <v>50</v>
+      </c>
+      <c r="C152" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>186</v>
+      </c>
+      <c r="B153" t="s">
+        <v>135</v>
+      </c>
+      <c r="C153" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>187</v>
+      </c>
+      <c r="B154" t="s">
+        <v>118</v>
+      </c>
+      <c r="C154" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>188</v>
+      </c>
+      <c r="B155" t="s">
+        <v>118</v>
+      </c>
+      <c r="C155" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>189</v>
+      </c>
+      <c r="B156" t="s">
+        <v>92</v>
+      </c>
+      <c r="C156" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>190</v>
+      </c>
+      <c r="B157" t="s">
+        <v>92</v>
+      </c>
+      <c r="C157" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>191</v>
+      </c>
+      <c r="B158" t="s">
+        <v>92</v>
+      </c>
+      <c r="C158" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>192</v>
+      </c>
+      <c r="B159" t="s">
+        <v>92</v>
+      </c>
+      <c r="C159" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/GreatLink/GreatLink Multi-Sector Income.xlsx
+++ b/data/GreatLink/GreatLink Multi-Sector Income.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid781388"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid658904"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="230">
   <si>
     <t>Price Date</t>
   </si>
@@ -26,21 +26,144 @@
     <t>Currency - Unit Level</t>
   </si>
   <si>
+    <t>16/01/2025</t>
+  </si>
+  <si>
+    <t>0.924</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>15/01/2025</t>
+  </si>
+  <si>
+    <t>0.922</t>
+  </si>
+  <si>
+    <t>14/01/2025</t>
+  </si>
+  <si>
+    <t>0.916</t>
+  </si>
+  <si>
+    <t>13/01/2025</t>
+  </si>
+  <si>
+    <t>0.915</t>
+  </si>
+  <si>
+    <t>10/01/2025</t>
+  </si>
+  <si>
+    <t>09/01/2025</t>
+  </si>
+  <si>
+    <t>08/01/2025</t>
+  </si>
+  <si>
+    <t>07/01/2025</t>
+  </si>
+  <si>
+    <t>06/01/2025</t>
+  </si>
+  <si>
+    <t>03/01/2025</t>
+  </si>
+  <si>
+    <t>0.923</t>
+  </si>
+  <si>
+    <t>02/01/2025</t>
+  </si>
+  <si>
+    <t>31/12/2024</t>
+  </si>
+  <si>
+    <t>0.928</t>
+  </si>
+  <si>
+    <t>30/12/2024</t>
+  </si>
+  <si>
+    <t>27/12/2024</t>
+  </si>
+  <si>
+    <t>0.926</t>
+  </si>
+  <si>
+    <t>26/12/2024</t>
+  </si>
+  <si>
+    <t>0.925</t>
+  </si>
+  <si>
+    <t>24/12/2024</t>
+  </si>
+  <si>
+    <t>23/12/2024</t>
+  </si>
+  <si>
+    <t>20/12/2024</t>
+  </si>
+  <si>
+    <t>0.927</t>
+  </si>
+  <si>
+    <t>19/12/2024</t>
+  </si>
+  <si>
+    <t>18/12/2024</t>
+  </si>
+  <si>
+    <t>17/12/2024</t>
+  </si>
+  <si>
+    <t>0.932</t>
+  </si>
+  <si>
+    <t>16/12/2024</t>
+  </si>
+  <si>
+    <t>0.933</t>
+  </si>
+  <si>
+    <t>13/12/2024</t>
+  </si>
+  <si>
+    <t>12/12/2024</t>
+  </si>
+  <si>
+    <t>0.936</t>
+  </si>
+  <si>
+    <t>11/12/2024</t>
+  </si>
+  <si>
+    <t>0.938</t>
+  </si>
+  <si>
+    <t>10/12/2024</t>
+  </si>
+  <si>
+    <t>0.939</t>
+  </si>
+  <si>
+    <t>09/12/2024</t>
+  </si>
+  <si>
+    <t>06/12/2024</t>
+  </si>
+  <si>
+    <t>0.940</t>
+  </si>
+  <si>
     <t>05/12/2024</t>
   </si>
   <si>
-    <t>0.939</t>
-  </si>
-  <si>
-    <t>SGD</t>
-  </si>
-  <si>
     <t>04/12/2024</t>
   </si>
   <si>
-    <t>0.938</t>
-  </si>
-  <si>
     <t>03/12/2024</t>
   </si>
   <si>
@@ -68,15 +191,9 @@
     <t>22/11/2024</t>
   </si>
   <si>
-    <t>0.933</t>
-  </si>
-  <si>
     <t>21/11/2024</t>
   </si>
   <si>
-    <t>0.932</t>
-  </si>
-  <si>
     <t>20/11/2024</t>
   </si>
   <si>
@@ -128,9 +245,6 @@
     <t>30/10/2024</t>
   </si>
   <si>
-    <t>0.936</t>
-  </si>
-  <si>
     <t>29/10/2024</t>
   </si>
   <si>
@@ -495,9 +609,6 @@
   </si>
   <si>
     <t>10/06/2024</t>
-  </si>
-  <si>
-    <t>0.940</t>
   </si>
   <si>
     <t>07/06/2024</t>
@@ -971,7 +1082,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -979,7 +1090,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -990,10 +1101,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1001,10 +1112,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -1012,7 +1123,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
@@ -1023,10 +1134,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -1034,10 +1145,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -1045,10 +1156,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -1059,7 +1170,7 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -1067,10 +1178,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
         <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>17</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -1078,10 +1189,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -1089,10 +1200,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -1100,10 +1211,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -1111,10 +1222,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -1122,10 +1233,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -1133,10 +1244,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -1144,10 +1255,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -1155,10 +1266,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -1166,10 +1277,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -1177,10 +1288,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -1188,10 +1299,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -1199,10 +1310,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -1210,10 +1321,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -1221,10 +1332,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -1232,10 +1343,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -1243,10 +1354,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B30" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -1254,10 +1365,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" t="s">
         <v>41</v>
-      </c>
-      <c r="B31" t="s">
-        <v>4</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -1265,10 +1376,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -1276,10 +1387,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -1287,10 +1398,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B34" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -1298,10 +1409,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -1309,10 +1420,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B36" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -1320,10 +1431,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B37" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -1331,10 +1442,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B38" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -1342,10 +1453,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B39" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -1353,10 +1464,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B40" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -1364,10 +1475,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B41" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -1375,10 +1486,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B42" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -1386,10 +1497,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B43" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -1397,10 +1508,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B44" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -1408,10 +1519,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B45" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -1419,10 +1530,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B46" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -1430,10 +1541,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B47" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -1441,10 +1552,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B48" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -1452,10 +1563,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B49" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -1466,7 +1577,7 @@
         <v>68</v>
       </c>
       <c r="B50" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -1474,10 +1585,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
+        <v>69</v>
+      </c>
+      <c r="B51" t="s">
         <v>70</v>
-      </c>
-      <c r="B51" t="s">
-        <v>71</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -1485,10 +1596,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B52" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -1496,10 +1607,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
+        <v>72</v>
+      </c>
+      <c r="B53" t="s">
         <v>73</v>
-      </c>
-      <c r="B53" t="s">
-        <v>74</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -1507,10 +1618,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B54" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -1518,10 +1629,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B55" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -1529,10 +1640,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B56" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -1540,10 +1651,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B57" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -1551,10 +1662,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B58" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -1562,10 +1673,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B59" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -1573,10 +1684,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B60" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -1584,10 +1695,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
+        <v>81</v>
+      </c>
+      <c r="B61" t="s">
         <v>82</v>
-      </c>
-      <c r="B61" t="s">
-        <v>83</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -1595,10 +1706,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
+        <v>83</v>
+      </c>
+      <c r="B62" t="s">
         <v>84</v>
-      </c>
-      <c r="B62" t="s">
-        <v>83</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -1620,7 +1731,7 @@
         <v>87</v>
       </c>
       <c r="B64" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -1628,10 +1739,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B65" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -1639,10 +1750,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B66" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -1650,10 +1761,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B67" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -1664,7 +1775,7 @@
         <v>93</v>
       </c>
       <c r="B68" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -1672,10 +1783,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B69" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -1683,10 +1794,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B70" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -1694,10 +1805,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B71" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -1705,10 +1816,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B72" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -1716,10 +1827,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B73" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -1727,10 +1838,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B74" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -1738,10 +1849,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
+        <v>101</v>
+      </c>
+      <c r="B75" t="s">
         <v>102</v>
-      </c>
-      <c r="B75" t="s">
-        <v>83</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -1752,7 +1863,7 @@
         <v>103</v>
       </c>
       <c r="B76" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -1763,7 +1874,7 @@
         <v>104</v>
       </c>
       <c r="B77" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -1771,10 +1882,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B78" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -1782,10 +1893,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B79" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -1793,10 +1904,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B80" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -1804,10 +1915,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B81" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -1815,10 +1926,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B82" t="s">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -1826,10 +1937,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B83" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -1837,10 +1948,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B84" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -1848,10 +1959,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B85" t="s">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -1859,10 +1970,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B86" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -1870,10 +1981,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B87" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -1881,10 +1992,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B88" t="s">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -1892,10 +2003,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B89" t="s">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -1903,10 +2014,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B90" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -1914,10 +2025,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B91" t="s">
-        <v>64</v>
+        <v>124</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -1925,10 +2036,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B92" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -1936,10 +2047,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B93" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -1947,10 +2058,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B94" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -1958,10 +2069,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B95" t="s">
-        <v>52</v>
+        <v>130</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -1969,10 +2080,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B96" t="s">
-        <v>48</v>
+        <v>132</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -1980,10 +2091,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B97" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -1991,10 +2102,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B98" t="s">
-        <v>52</v>
+        <v>127</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -2002,10 +2113,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="B99" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
@@ -2013,10 +2124,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B100" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
@@ -2024,10 +2135,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B101" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -2035,10 +2146,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="B102" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
@@ -2046,10 +2157,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="B103" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -2057,10 +2168,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="B104" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -2068,10 +2179,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="B105" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -2079,10 +2190,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="B106" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
@@ -2090,10 +2201,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B107" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -2101,10 +2212,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="B108" t="s">
-        <v>46</v>
+        <v>127</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -2112,10 +2223,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B109" t="s">
-        <v>44</v>
+        <v>130</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -2123,10 +2234,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -2134,10 +2245,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>130</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -2145,10 +2256,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B112" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -2156,10 +2267,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B113" t="s">
-        <v>145</v>
+        <v>88</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -2167,10 +2278,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B114" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -2178,10 +2289,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B115" t="s">
-        <v>137</v>
+        <v>86</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -2189,10 +2300,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B116" t="s">
-        <v>137</v>
+        <v>86</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -2200,10 +2311,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B117" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
@@ -2211,10 +2322,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B118" t="s">
-        <v>50</v>
+        <v>156</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -2222,10 +2333,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B119" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -2233,10 +2344,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="B120" t="s">
-        <v>50</v>
+        <v>156</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -2244,10 +2355,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B121" t="s">
-        <v>50</v>
+        <v>156</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -2255,10 +2366,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B122" t="s">
-        <v>50</v>
+        <v>156</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -2266,10 +2377,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B123" t="s">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -2277,10 +2388,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="B124" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -2288,10 +2399,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B125" t="s">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -2299,10 +2410,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B126" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
@@ -2310,10 +2421,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="B127" t="s">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
@@ -2321,10 +2432,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B128" t="s">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
@@ -2332,10 +2443,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B129" t="s">
-        <v>50</v>
+        <v>156</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -2343,10 +2454,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B130" t="s">
-        <v>48</v>
+        <v>156</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -2354,10 +2465,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B131" t="s">
-        <v>50</v>
+        <v>132</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -2365,10 +2476,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B132" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
@@ -2376,10 +2487,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B133" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
@@ -2387,10 +2498,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B134" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
@@ -2398,10 +2509,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="B135" t="s">
-        <v>137</v>
+        <v>175</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
@@ -2409,10 +2520,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="B136" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -2420,10 +2531,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="B137" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
@@ -2431,10 +2542,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="B138" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
@@ -2442,10 +2553,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="B139" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -2453,10 +2564,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="B140" t="s">
-        <v>92</v>
+        <v>181</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
@@ -2464,10 +2575,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="B141" t="s">
-        <v>118</v>
+        <v>183</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
@@ -2475,10 +2586,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="B142" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
@@ -2486,10 +2597,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="B143" t="s">
-        <v>118</v>
+        <v>175</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -2497,10 +2608,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="B144" t="s">
-        <v>62</v>
+        <v>175</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
@@ -2508,10 +2619,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="B145" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
@@ -2519,10 +2630,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="B146" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="C146" t="s">
         <v>5</v>
@@ -2530,10 +2641,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="B147" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
@@ -2541,10 +2652,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="B148" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
@@ -2552,10 +2663,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="B149" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
@@ -2563,10 +2674,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="B150" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
@@ -2574,10 +2685,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="B151" t="s">
-        <v>50</v>
+        <v>173</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
@@ -2585,10 +2696,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="B152" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
@@ -2596,10 +2707,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="B153" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
@@ -2607,10 +2718,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="B154" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
@@ -2618,10 +2729,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="B155" t="s">
-        <v>118</v>
+        <v>46</v>
       </c>
       <c r="C155" t="s">
         <v>5</v>
@@ -2629,10 +2740,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="B156" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C156" t="s">
         <v>5</v>
@@ -2640,10 +2751,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="B157" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
@@ -2651,10 +2762,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="B158" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
@@ -2662,12 +2773,320 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="B159" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C159" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>202</v>
+      </c>
+      <c r="B160" t="s">
+        <v>173</v>
+      </c>
+      <c r="C160" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>203</v>
+      </c>
+      <c r="B161" t="s">
+        <v>86</v>
+      </c>
+      <c r="C161" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>204</v>
+      </c>
+      <c r="B162" t="s">
+        <v>173</v>
+      </c>
+      <c r="C162" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>205</v>
+      </c>
+      <c r="B163" t="s">
+        <v>175</v>
+      </c>
+      <c r="C163" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>206</v>
+      </c>
+      <c r="B164" t="s">
+        <v>86</v>
+      </c>
+      <c r="C164" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>207</v>
+      </c>
+      <c r="B165" t="s">
+        <v>90</v>
+      </c>
+      <c r="C165" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>208</v>
+      </c>
+      <c r="B166" t="s">
+        <v>90</v>
+      </c>
+      <c r="C166" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>209</v>
+      </c>
+      <c r="B167" t="s">
+        <v>86</v>
+      </c>
+      <c r="C167" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>210</v>
+      </c>
+      <c r="B168" t="s">
+        <v>130</v>
+      </c>
+      <c r="C168" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>211</v>
+      </c>
+      <c r="B169" t="s">
+        <v>156</v>
+      </c>
+      <c r="C169" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>212</v>
+      </c>
+      <c r="B170" t="s">
+        <v>156</v>
+      </c>
+      <c r="C170" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>213</v>
+      </c>
+      <c r="B171" t="s">
+        <v>156</v>
+      </c>
+      <c r="C171" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>214</v>
+      </c>
+      <c r="B172" t="s">
+        <v>100</v>
+      </c>
+      <c r="C172" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>215</v>
+      </c>
+      <c r="B173" t="s">
+        <v>90</v>
+      </c>
+      <c r="C173" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>216</v>
+      </c>
+      <c r="B174" t="s">
+        <v>86</v>
+      </c>
+      <c r="C174" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>217</v>
+      </c>
+      <c r="B175" t="s">
+        <v>88</v>
+      </c>
+      <c r="C175" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>218</v>
+      </c>
+      <c r="B176" t="s">
+        <v>86</v>
+      </c>
+      <c r="C176" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>219</v>
+      </c>
+      <c r="B177" t="s">
+        <v>86</v>
+      </c>
+      <c r="C177" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>220</v>
+      </c>
+      <c r="B178" t="s">
+        <v>90</v>
+      </c>
+      <c r="C178" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>221</v>
+      </c>
+      <c r="B179" t="s">
+        <v>88</v>
+      </c>
+      <c r="C179" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>222</v>
+      </c>
+      <c r="B180" t="s">
+        <v>88</v>
+      </c>
+      <c r="C180" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>223</v>
+      </c>
+      <c r="B181" t="s">
+        <v>173</v>
+      </c>
+      <c r="C181" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>224</v>
+      </c>
+      <c r="B182" t="s">
+        <v>156</v>
+      </c>
+      <c r="C182" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>225</v>
+      </c>
+      <c r="B183" t="s">
+        <v>156</v>
+      </c>
+      <c r="C183" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>226</v>
+      </c>
+      <c r="B184" t="s">
+        <v>130</v>
+      </c>
+      <c r="C184" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>227</v>
+      </c>
+      <c r="B185" t="s">
+        <v>130</v>
+      </c>
+      <c r="C185" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>228</v>
+      </c>
+      <c r="B186" t="s">
+        <v>130</v>
+      </c>
+      <c r="C186" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>229</v>
+      </c>
+      <c r="B187" t="s">
+        <v>130</v>
+      </c>
+      <c r="C187" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/GreatLink/GreatLink Multi-Sector Income.xlsx
+++ b/data/GreatLink/GreatLink Multi-Sector Income.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid658904"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid193913"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="256">
   <si>
     <t>Price Date</t>
   </si>
@@ -26,15 +26,126 @@
     <t>Currency - Unit Level</t>
   </si>
   <si>
+    <t>24/02/2025</t>
+  </si>
+  <si>
+    <t>0.937</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>21/02/2025</t>
+  </si>
+  <si>
+    <t>0.936</t>
+  </si>
+  <si>
+    <t>20/02/2025</t>
+  </si>
+  <si>
+    <t>0.933</t>
+  </si>
+  <si>
+    <t>19/02/2025</t>
+  </si>
+  <si>
+    <t>0.932</t>
+  </si>
+  <si>
+    <t>18/02/2025</t>
+  </si>
+  <si>
+    <t>17/02/2025</t>
+  </si>
+  <si>
+    <t>0.934</t>
+  </si>
+  <si>
+    <t>14/02/2025</t>
+  </si>
+  <si>
+    <t>13/02/2025</t>
+  </si>
+  <si>
+    <t>0.931</t>
+  </si>
+  <si>
+    <t>12/02/2025</t>
+  </si>
+  <si>
+    <t>0.926</t>
+  </si>
+  <si>
+    <t>11/02/2025</t>
+  </si>
+  <si>
+    <t>0.929</t>
+  </si>
+  <si>
+    <t>10/02/2025</t>
+  </si>
+  <si>
+    <t>07/02/2025</t>
+  </si>
+  <si>
+    <t>06/02/2025</t>
+  </si>
+  <si>
+    <t>05/02/2025</t>
+  </si>
+  <si>
+    <t>04/02/2025</t>
+  </si>
+  <si>
+    <t>0.928</t>
+  </si>
+  <si>
+    <t>03/02/2025</t>
+  </si>
+  <si>
+    <t>0.927</t>
+  </si>
+  <si>
+    <t>31/01/2025</t>
+  </si>
+  <si>
+    <t>28/01/2025</t>
+  </si>
+  <si>
+    <t>0.930</t>
+  </si>
+  <si>
+    <t>27/01/2025</t>
+  </si>
+  <si>
+    <t>24/01/2025</t>
+  </si>
+  <si>
+    <t>23/01/2025</t>
+  </si>
+  <si>
+    <t>0.925</t>
+  </si>
+  <si>
+    <t>22/01/2025</t>
+  </si>
+  <si>
+    <t>21/01/2025</t>
+  </si>
+  <si>
+    <t>20/01/2025</t>
+  </si>
+  <si>
+    <t>0.924</t>
+  </si>
+  <si>
+    <t>17/01/2025</t>
+  </si>
+  <si>
     <t>16/01/2025</t>
   </si>
   <si>
-    <t>0.924</t>
-  </si>
-  <si>
-    <t>SGD</t>
-  </si>
-  <si>
     <t>15/01/2025</t>
   </si>
   <si>
@@ -80,24 +191,15 @@
     <t>31/12/2024</t>
   </si>
   <si>
-    <t>0.928</t>
-  </si>
-  <si>
     <t>30/12/2024</t>
   </si>
   <si>
     <t>27/12/2024</t>
   </si>
   <si>
-    <t>0.926</t>
-  </si>
-  <si>
     <t>26/12/2024</t>
   </si>
   <si>
-    <t>0.925</t>
-  </si>
-  <si>
     <t>24/12/2024</t>
   </si>
   <si>
@@ -107,9 +209,6 @@
     <t>20/12/2024</t>
   </si>
   <si>
-    <t>0.927</t>
-  </si>
-  <si>
     <t>19/12/2024</t>
   </si>
   <si>
@@ -119,24 +218,15 @@
     <t>17/12/2024</t>
   </si>
   <si>
-    <t>0.932</t>
-  </si>
-  <si>
     <t>16/12/2024</t>
   </si>
   <si>
-    <t>0.933</t>
-  </si>
-  <si>
     <t>13/12/2024</t>
   </si>
   <si>
     <t>12/12/2024</t>
   </si>
   <si>
-    <t>0.936</t>
-  </si>
-  <si>
     <t>11/12/2024</t>
   </si>
   <si>
@@ -167,9 +257,6 @@
     <t>03/12/2024</t>
   </si>
   <si>
-    <t>0.937</t>
-  </si>
-  <si>
     <t>02/12/2024</t>
   </si>
   <si>
@@ -227,18 +314,12 @@
     <t>06/11/2024</t>
   </si>
   <si>
-    <t>0.931</t>
-  </si>
-  <si>
     <t>05/11/2024</t>
   </si>
   <si>
     <t>04/11/2024</t>
   </si>
   <si>
-    <t>0.930</t>
-  </si>
-  <si>
     <t>01/11/2024</t>
   </si>
   <si>
@@ -564,9 +645,6 @@
   </si>
   <si>
     <t>01/07/2024</t>
-  </si>
-  <si>
-    <t>0.934</t>
   </si>
   <si>
     <t>28/06/2024</t>
@@ -1093,7 +1171,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1104,7 +1182,7 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1112,10 +1190,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
         <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -1123,10 +1201,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -1134,10 +1212,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -1145,10 +1223,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -1156,10 +1234,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -1167,10 +1245,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -1178,10 +1256,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -1189,10 +1267,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -1200,10 +1278,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -1211,10 +1289,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -1222,10 +1300,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -1233,10 +1311,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -1244,10 +1322,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -1255,10 +1333,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -1266,10 +1344,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -1277,10 +1355,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -1288,10 +1366,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -1299,10 +1377,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -1310,10 +1388,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" t="s">
         <v>40</v>
-      </c>
-      <c r="B26" t="s">
-        <v>41</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -1324,7 +1402,7 @@
         <v>42</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -1332,10 +1410,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" t="s">
         <v>44</v>
-      </c>
-      <c r="B28" t="s">
-        <v>43</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -1357,7 +1435,7 @@
         <v>47</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -1365,10 +1443,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B31" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -1376,10 +1454,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B32" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -1390,7 +1468,7 @@
         <v>51</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -1401,7 +1479,7 @@
         <v>52</v>
       </c>
       <c r="B34" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -1412,7 +1490,7 @@
         <v>53</v>
       </c>
       <c r="B35" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -1423,7 +1501,7 @@
         <v>54</v>
       </c>
       <c r="B36" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -1431,10 +1509,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -1442,10 +1520,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B38" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -1453,10 +1531,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B39" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -1464,10 +1542,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -1475,10 +1553,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -1486,7 +1564,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B42" t="s">
         <v>36</v>
@@ -1497,7 +1575,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B43" t="s">
         <v>36</v>
@@ -1508,10 +1586,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -1519,10 +1597,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -1530,10 +1608,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -1541,10 +1619,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -1552,10 +1630,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B48" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -1563,10 +1641,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B49" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -1574,10 +1652,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B50" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -1585,10 +1663,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B51" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -1596,10 +1674,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B52" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -1607,7 +1685,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B53" t="s">
         <v>73</v>
@@ -1618,10 +1696,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B54" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -1629,10 +1707,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B55" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -1640,10 +1718,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B56" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -1651,10 +1729,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B57" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -1662,10 +1740,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B58" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -1673,10 +1751,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B59" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -1684,10 +1762,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B60" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -1695,10 +1773,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B61" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -1706,10 +1784,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B62" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -1720,7 +1798,7 @@
         <v>85</v>
       </c>
       <c r="B63" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -1728,10 +1806,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B64" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -1739,10 +1817,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B65" t="s">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -1750,10 +1828,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B66" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -1761,10 +1839,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B67" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -1772,10 +1850,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B68" t="s">
-        <v>86</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -1783,10 +1861,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B69" t="s">
-        <v>88</v>
+        <v>11</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -1794,10 +1872,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B70" t="s">
-        <v>88</v>
+        <v>11</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -1805,10 +1883,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B71" t="s">
-        <v>88</v>
+        <v>11</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -1816,10 +1894,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B72" t="s">
-        <v>88</v>
+        <v>11</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -1827,10 +1905,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B73" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -1838,10 +1916,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B74" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -1849,10 +1927,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B75" t="s">
-        <v>102</v>
+        <v>4</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -1860,10 +1938,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B76" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -1871,10 +1949,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B77" t="s">
-        <v>105</v>
+        <v>17</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -1882,10 +1960,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B78" t="s">
-        <v>107</v>
+        <v>32</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -1893,10 +1971,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B79" t="s">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -1904,10 +1982,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B80" t="s">
-        <v>105</v>
+        <v>7</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -1915,10 +1993,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B81" t="s">
-        <v>112</v>
+        <v>71</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -1926,10 +2004,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B82" t="s">
-        <v>107</v>
+        <v>4</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -1937,10 +2015,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B83" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -1948,10 +2026,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B84" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -1959,10 +2037,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B85" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -1970,10 +2048,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B86" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -1981,10 +2059,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B87" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -1992,10 +2070,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B88" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -2003,10 +2081,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B89" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -2014,10 +2092,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B90" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -2025,10 +2103,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B91" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -2036,10 +2114,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B92" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -2047,10 +2125,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B93" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -2058,10 +2136,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B94" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -2069,10 +2147,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B95" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -2080,10 +2158,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B96" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -2091,10 +2169,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="B97" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -2102,10 +2180,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="B98" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -2113,10 +2191,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="B99" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
@@ -2124,10 +2202,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B100" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
@@ -2135,10 +2213,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B101" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -2146,10 +2224,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B102" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
@@ -2157,10 +2235,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B103" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -2168,10 +2246,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B104" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -2179,10 +2257,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B105" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -2190,10 +2268,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B106" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
@@ -2201,10 +2279,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B107" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -2212,10 +2290,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B108" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -2223,10 +2301,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B109" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -2234,10 +2312,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B110" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -2245,10 +2323,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B111" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -2256,10 +2334,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B112" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -2267,10 +2345,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B113" t="s">
-        <v>88</v>
+        <v>132</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -2278,10 +2356,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B114" t="s">
-        <v>88</v>
+        <v>148</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -2289,10 +2367,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B115" t="s">
-        <v>86</v>
+        <v>148</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -2300,10 +2378,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B116" t="s">
-        <v>86</v>
+        <v>151</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -2311,10 +2389,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B117" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
@@ -2322,10 +2400,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B118" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -2333,10 +2411,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B119" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -2344,10 +2422,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B120" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -2355,10 +2433,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
+        <v>158</v>
+      </c>
+      <c r="B121" t="s">
         <v>159</v>
-      </c>
-      <c r="B121" t="s">
-        <v>156</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -2369,7 +2447,7 @@
         <v>160</v>
       </c>
       <c r="B122" t="s">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -2380,7 +2458,7 @@
         <v>161</v>
       </c>
       <c r="B123" t="s">
-        <v>90</v>
+        <v>154</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -2391,7 +2469,7 @@
         <v>162</v>
       </c>
       <c r="B124" t="s">
-        <v>86</v>
+        <v>129</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -2402,7 +2480,7 @@
         <v>163</v>
       </c>
       <c r="B125" t="s">
-        <v>90</v>
+        <v>148</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -2413,7 +2491,7 @@
         <v>164</v>
       </c>
       <c r="B126" t="s">
-        <v>90</v>
+        <v>165</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
@@ -2421,10 +2499,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B127" t="s">
-        <v>90</v>
+        <v>148</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
@@ -2432,10 +2510,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B128" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
@@ -2443,10 +2521,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B129" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -2454,10 +2532,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B130" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -2465,10 +2543,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B131" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -2476,10 +2554,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B132" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
@@ -2487,10 +2565,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B133" t="s">
-        <v>90</v>
+        <v>154</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
@@ -2498,10 +2576,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B134" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
@@ -2512,7 +2590,7 @@
         <v>174</v>
       </c>
       <c r="B135" t="s">
-        <v>175</v>
+        <v>127</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
@@ -2520,10 +2598,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B136" t="s">
-        <v>84</v>
+        <v>157</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -2531,10 +2609,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B137" t="s">
-        <v>82</v>
+        <v>159</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
@@ -2542,10 +2620,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B138" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
@@ -2553,10 +2631,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B139" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -2564,10 +2642,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B140" t="s">
-        <v>181</v>
+        <v>113</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
@@ -2575,10 +2653,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B141" t="s">
-        <v>183</v>
+        <v>113</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
@@ -2586,10 +2664,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B142" t="s">
-        <v>84</v>
+        <v>127</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
@@ -2597,10 +2675,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B143" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -2608,10 +2686,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B144" t="s">
-        <v>175</v>
+        <v>129</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
@@ -2619,10 +2697,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B145" t="s">
-        <v>88</v>
+        <v>183</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
@@ -2630,10 +2708,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B146" t="s">
-        <v>88</v>
+        <v>183</v>
       </c>
       <c r="C146" t="s">
         <v>5</v>
@@ -2641,10 +2719,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B147" t="s">
-        <v>88</v>
+        <v>183</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
@@ -2652,10 +2730,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B148" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
@@ -2663,10 +2741,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B149" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
@@ -2674,10 +2752,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B150" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
@@ -2685,10 +2763,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B151" t="s">
-        <v>173</v>
+        <v>117</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
@@ -2696,10 +2774,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B152" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
@@ -2707,10 +2785,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B153" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
@@ -2718,10 +2796,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B154" t="s">
-        <v>84</v>
+        <v>183</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
@@ -2729,10 +2807,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B155" t="s">
-        <v>46</v>
+        <v>183</v>
       </c>
       <c r="C155" t="s">
         <v>5</v>
@@ -2740,10 +2818,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B156" t="s">
-        <v>82</v>
+        <v>159</v>
       </c>
       <c r="C156" t="s">
         <v>5</v>
@@ -2751,10 +2829,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B157" t="s">
-        <v>88</v>
+        <v>183</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
@@ -2762,10 +2840,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B158" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
@@ -2773,10 +2851,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B159" t="s">
-        <v>88</v>
+        <v>200</v>
       </c>
       <c r="C159" t="s">
         <v>5</v>
@@ -2784,10 +2862,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
+        <v>201</v>
+      </c>
+      <c r="B160" t="s">
         <v>202</v>
-      </c>
-      <c r="B160" t="s">
-        <v>173</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
@@ -2798,7 +2876,7 @@
         <v>203</v>
       </c>
       <c r="B161" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="C161" t="s">
         <v>5</v>
@@ -2809,7 +2887,7 @@
         <v>204</v>
       </c>
       <c r="B162" t="s">
-        <v>173</v>
+        <v>109</v>
       </c>
       <c r="C162" t="s">
         <v>5</v>
@@ -2820,7 +2898,7 @@
         <v>205</v>
       </c>
       <c r="B163" t="s">
-        <v>175</v>
+        <v>71</v>
       </c>
       <c r="C163" t="s">
         <v>5</v>
@@ -2831,7 +2909,7 @@
         <v>206</v>
       </c>
       <c r="B164" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="C164" t="s">
         <v>5</v>
@@ -2842,7 +2920,7 @@
         <v>207</v>
       </c>
       <c r="B165" t="s">
-        <v>90</v>
+        <v>208</v>
       </c>
       <c r="C165" t="s">
         <v>5</v>
@@ -2850,10 +2928,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B166" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
@@ -2861,10 +2939,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B167" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="C167" t="s">
         <v>5</v>
@@ -2872,10 +2950,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B168" t="s">
-        <v>130</v>
+        <v>202</v>
       </c>
       <c r="C168" t="s">
         <v>5</v>
@@ -2883,10 +2961,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B169" t="s">
-        <v>156</v>
+        <v>202</v>
       </c>
       <c r="C169" t="s">
         <v>5</v>
@@ -2894,10 +2972,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B170" t="s">
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="C170" t="s">
         <v>5</v>
@@ -2905,10 +2983,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B171" t="s">
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="C171" t="s">
         <v>5</v>
@@ -2916,10 +2994,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B172" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="C172" t="s">
         <v>5</v>
@@ -2927,10 +3005,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B173" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="C173" t="s">
         <v>5</v>
@@ -2938,10 +3016,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B174" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="C174" t="s">
         <v>5</v>
@@ -2949,10 +3027,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B175" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="C175" t="s">
         <v>5</v>
@@ -2960,10 +3038,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B176" t="s">
-        <v>86</v>
+        <v>200</v>
       </c>
       <c r="C176" t="s">
         <v>5</v>
@@ -2971,10 +3049,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B177" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="C177" t="s">
         <v>5</v>
@@ -2982,10 +3060,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B178" t="s">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="C178" t="s">
         <v>5</v>
@@ -2993,10 +3071,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B179" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="C179" t="s">
         <v>5</v>
@@ -3004,10 +3082,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B180" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C180" t="s">
         <v>5</v>
@@ -3015,10 +3093,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B181" t="s">
-        <v>173</v>
+        <v>109</v>
       </c>
       <c r="C181" t="s">
         <v>5</v>
@@ -3026,10 +3104,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B182" t="s">
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="C182" t="s">
         <v>5</v>
@@ -3037,10 +3115,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B183" t="s">
-        <v>156</v>
+        <v>113</v>
       </c>
       <c r="C183" t="s">
         <v>5</v>
@@ -3048,10 +3126,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B184" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="C184" t="s">
         <v>5</v>
@@ -3059,10 +3137,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B185" t="s">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="C185" t="s">
         <v>5</v>
@@ -3070,10 +3148,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B186" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="C186" t="s">
         <v>5</v>
@@ -3081,12 +3159,287 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B187" t="s">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="C187" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>231</v>
+      </c>
+      <c r="B188" t="s">
+        <v>202</v>
+      </c>
+      <c r="C188" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>232</v>
+      </c>
+      <c r="B189" t="s">
+        <v>113</v>
+      </c>
+      <c r="C189" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>233</v>
+      </c>
+      <c r="B190" t="s">
+        <v>117</v>
+      </c>
+      <c r="C190" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>234</v>
+      </c>
+      <c r="B191" t="s">
+        <v>117</v>
+      </c>
+      <c r="C191" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>235</v>
+      </c>
+      <c r="B192" t="s">
+        <v>113</v>
+      </c>
+      <c r="C192" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>236</v>
+      </c>
+      <c r="B193" t="s">
+        <v>157</v>
+      </c>
+      <c r="C193" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>237</v>
+      </c>
+      <c r="B194" t="s">
+        <v>183</v>
+      </c>
+      <c r="C194" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>238</v>
+      </c>
+      <c r="B195" t="s">
+        <v>183</v>
+      </c>
+      <c r="C195" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>239</v>
+      </c>
+      <c r="B196" t="s">
+        <v>183</v>
+      </c>
+      <c r="C196" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>240</v>
+      </c>
+      <c r="B197" t="s">
+        <v>127</v>
+      </c>
+      <c r="C197" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>241</v>
+      </c>
+      <c r="B198" t="s">
+        <v>117</v>
+      </c>
+      <c r="C198" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>242</v>
+      </c>
+      <c r="B199" t="s">
+        <v>113</v>
+      </c>
+      <c r="C199" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>243</v>
+      </c>
+      <c r="B200" t="s">
+        <v>115</v>
+      </c>
+      <c r="C200" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>244</v>
+      </c>
+      <c r="B201" t="s">
+        <v>113</v>
+      </c>
+      <c r="C201" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>245</v>
+      </c>
+      <c r="B202" t="s">
+        <v>113</v>
+      </c>
+      <c r="C202" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>246</v>
+      </c>
+      <c r="B203" t="s">
+        <v>117</v>
+      </c>
+      <c r="C203" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>247</v>
+      </c>
+      <c r="B204" t="s">
+        <v>115</v>
+      </c>
+      <c r="C204" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>248</v>
+      </c>
+      <c r="B205" t="s">
+        <v>115</v>
+      </c>
+      <c r="C205" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>249</v>
+      </c>
+      <c r="B206" t="s">
+        <v>200</v>
+      </c>
+      <c r="C206" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>250</v>
+      </c>
+      <c r="B207" t="s">
+        <v>183</v>
+      </c>
+      <c r="C207" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>251</v>
+      </c>
+      <c r="B208" t="s">
+        <v>183</v>
+      </c>
+      <c r="C208" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>252</v>
+      </c>
+      <c r="B209" t="s">
+        <v>157</v>
+      </c>
+      <c r="C209" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>253</v>
+      </c>
+      <c r="B210" t="s">
+        <v>157</v>
+      </c>
+      <c r="C210" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>254</v>
+      </c>
+      <c r="B211" t="s">
+        <v>157</v>
+      </c>
+      <c r="C211" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>255</v>
+      </c>
+      <c r="B212" t="s">
+        <v>157</v>
+      </c>
+      <c r="C212" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/GreatLink/GreatLink Multi-Sector Income.xlsx
+++ b/data/GreatLink/GreatLink Multi-Sector Income.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid193913"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid487035"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="269">
   <si>
     <t>Price Date</t>
   </si>
@@ -26,27 +26,78 @@
     <t>Currency - Unit Level</t>
   </si>
   <si>
+    <t>13/03/2025</t>
+  </si>
+  <si>
+    <t>0.934</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>12/03/2025</t>
+  </si>
+  <si>
+    <t>0.933</t>
+  </si>
+  <si>
+    <t>11/03/2025</t>
+  </si>
+  <si>
+    <t>10/03/2025</t>
+  </si>
+  <si>
+    <t>0.936</t>
+  </si>
+  <si>
+    <t>07/03/2025</t>
+  </si>
+  <si>
+    <t>0.935</t>
+  </si>
+  <si>
+    <t>06/03/2025</t>
+  </si>
+  <si>
+    <t>05/03/2025</t>
+  </si>
+  <si>
+    <t>04/03/2025</t>
+  </si>
+  <si>
+    <t>03/03/2025</t>
+  </si>
+  <si>
+    <t>28/02/2025</t>
+  </si>
+  <si>
+    <t>0.940</t>
+  </si>
+  <si>
+    <t>27/02/2025</t>
+  </si>
+  <si>
+    <t>0.939</t>
+  </si>
+  <si>
+    <t>26/02/2025</t>
+  </si>
+  <si>
+    <t>25/02/2025</t>
+  </si>
+  <si>
     <t>24/02/2025</t>
   </si>
   <si>
     <t>0.937</t>
   </si>
   <si>
-    <t>SGD</t>
-  </si>
-  <si>
     <t>21/02/2025</t>
   </si>
   <si>
-    <t>0.936</t>
-  </si>
-  <si>
     <t>20/02/2025</t>
   </si>
   <si>
-    <t>0.933</t>
-  </si>
-  <si>
     <t>19/02/2025</t>
   </si>
   <si>
@@ -59,9 +110,6 @@
     <t>17/02/2025</t>
   </si>
   <si>
-    <t>0.934</t>
-  </si>
-  <si>
     <t>14/02/2025</t>
   </si>
   <si>
@@ -236,18 +284,12 @@
     <t>10/12/2024</t>
   </si>
   <si>
-    <t>0.939</t>
-  </si>
-  <si>
     <t>09/12/2024</t>
   </si>
   <si>
     <t>06/12/2024</t>
   </si>
   <si>
-    <t>0.940</t>
-  </si>
-  <si>
     <t>05/12/2024</t>
   </si>
   <si>
@@ -639,9 +681,6 @@
   </si>
   <si>
     <t>02/07/2024</t>
-  </si>
-  <si>
-    <t>0.935</t>
   </si>
   <si>
     <t>01/07/2024</t>
@@ -1149,7 +1188,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -1157,10 +1196,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
         <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -1168,10 +1207,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
         <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1182,7 +1221,7 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1190,10 +1229,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -1201,10 +1240,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -1212,10 +1251,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -1223,10 +1262,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -1234,10 +1273,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -1245,10 +1284,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -1256,10 +1295,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -1267,10 +1306,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -1278,10 +1317,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -1289,10 +1328,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -1300,10 +1339,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -1311,10 +1350,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -1322,10 +1361,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -1333,10 +1372,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -1344,10 +1383,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -1355,10 +1394,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -1366,10 +1405,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -1377,10 +1416,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -1388,10 +1427,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -1399,10 +1438,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -1410,10 +1449,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -1421,10 +1460,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -1432,10 +1471,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -1443,10 +1482,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -1454,10 +1493,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -1465,10 +1504,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -1476,10 +1515,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -1487,10 +1526,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -1498,10 +1537,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B36" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -1509,10 +1548,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -1520,10 +1559,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B38" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -1531,10 +1570,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B39" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -1542,10 +1581,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B40" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -1553,10 +1592,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
+        <v>59</v>
+      </c>
+      <c r="B41" t="s">
         <v>60</v>
-      </c>
-      <c r="B41" t="s">
-        <v>36</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -1567,7 +1606,7 @@
         <v>61</v>
       </c>
       <c r="B42" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -1575,10 +1614,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B43" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -1586,10 +1625,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B44" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -1597,10 +1636,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B45" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -1608,10 +1647,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B46" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -1619,10 +1658,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B47" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -1630,10 +1669,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B48" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -1641,10 +1680,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B49" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -1652,10 +1691,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -1663,10 +1702,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B51" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -1674,10 +1713,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B52" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -1685,10 +1724,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B53" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -1696,10 +1735,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B54" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -1710,7 +1749,7 @@
         <v>77</v>
       </c>
       <c r="B55" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -1721,7 +1760,7 @@
         <v>78</v>
       </c>
       <c r="B56" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -1732,7 +1771,7 @@
         <v>79</v>
       </c>
       <c r="B57" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -1743,7 +1782,7 @@
         <v>80</v>
       </c>
       <c r="B58" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -1754,7 +1793,7 @@
         <v>81</v>
       </c>
       <c r="B59" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -1765,7 +1804,7 @@
         <v>82</v>
       </c>
       <c r="B60" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -1776,7 +1815,7 @@
         <v>83</v>
       </c>
       <c r="B61" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -1787,7 +1826,7 @@
         <v>84</v>
       </c>
       <c r="B62" t="s">
-        <v>71</v>
+        <v>7</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -1798,7 +1837,7 @@
         <v>85</v>
       </c>
       <c r="B63" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -1809,7 +1848,7 @@
         <v>86</v>
       </c>
       <c r="B64" t="s">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -1817,10 +1856,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B65" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -1828,10 +1867,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B66" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -1839,10 +1878,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B67" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -1850,10 +1889,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B68" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -1861,10 +1900,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B69" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -1872,10 +1911,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B70" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -1883,10 +1922,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B71" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -1894,10 +1933,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B72" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -1905,10 +1944,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B73" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -1916,10 +1955,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B74" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -1927,10 +1966,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B75" t="s">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -1938,10 +1977,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B76" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -1949,10 +1988,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B77" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -1960,10 +1999,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B78" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -1971,10 +2010,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B79" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -1982,7 +2021,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B80" t="s">
         <v>7</v>
@@ -1993,10 +2032,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B81" t="s">
-        <v>71</v>
+        <v>7</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -2004,10 +2043,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B82" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -2015,10 +2054,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B83" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -2026,10 +2065,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B84" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -2037,10 +2076,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B85" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -2048,10 +2087,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B86" t="s">
-        <v>109</v>
+        <v>24</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -2062,7 +2101,7 @@
         <v>110</v>
       </c>
       <c r="B87" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -2070,10 +2109,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B88" t="s">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -2081,10 +2120,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B89" t="s">
-        <v>115</v>
+        <v>33</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -2092,10 +2131,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B90" t="s">
-        <v>117</v>
+        <v>33</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -2103,10 +2142,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B91" t="s">
-        <v>113</v>
+        <v>48</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -2114,10 +2153,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B92" t="s">
-        <v>115</v>
+        <v>7</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -2125,10 +2164,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B93" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -2136,10 +2175,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B94" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -2147,10 +2186,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B95" t="s">
-        <v>115</v>
+        <v>24</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -2158,10 +2197,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B96" t="s">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -2169,10 +2208,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B97" t="s">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -2180,10 +2219,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B98" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -2191,10 +2230,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B99" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
@@ -2202,10 +2241,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B100" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
@@ -2213,10 +2252,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B101" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -2224,10 +2263,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B102" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
@@ -2235,10 +2274,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B103" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -2246,10 +2285,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B104" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -2257,10 +2296,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B105" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -2268,10 +2307,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B106" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
@@ -2279,10 +2318,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B107" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -2290,10 +2329,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B108" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -2301,10 +2340,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B109" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -2312,10 +2351,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B110" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -2323,10 +2362,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B111" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -2334,10 +2373,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B112" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -2345,10 +2384,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B113" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -2356,10 +2395,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B114" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -2367,10 +2406,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B115" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -2378,10 +2417,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B116" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -2389,10 +2428,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B117" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
@@ -2400,10 +2439,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B118" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -2411,10 +2450,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B119" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -2422,10 +2461,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B120" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -2433,10 +2472,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B121" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -2444,10 +2483,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B122" t="s">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -2455,10 +2494,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B123" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -2466,10 +2505,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B124" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -2477,7 +2516,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B125" t="s">
         <v>148</v>
@@ -2488,10 +2527,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B126" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
@@ -2499,10 +2538,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B127" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
@@ -2510,10 +2549,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B128" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
@@ -2521,10 +2560,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B129" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -2532,10 +2571,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B130" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -2543,10 +2582,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B131" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -2554,10 +2593,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B132" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
@@ -2565,10 +2604,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B133" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
@@ -2576,10 +2615,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
+        <v>172</v>
+      </c>
+      <c r="B134" t="s">
         <v>173</v>
-      </c>
-      <c r="B134" t="s">
-        <v>157</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
@@ -2590,7 +2629,7 @@
         <v>174</v>
       </c>
       <c r="B135" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
@@ -2601,7 +2640,7 @@
         <v>175</v>
       </c>
       <c r="B136" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -2612,7 +2651,7 @@
         <v>176</v>
       </c>
       <c r="B137" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
@@ -2623,7 +2662,7 @@
         <v>177</v>
       </c>
       <c r="B138" t="s">
-        <v>115</v>
+        <v>162</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
@@ -2634,7 +2673,7 @@
         <v>178</v>
       </c>
       <c r="B139" t="s">
-        <v>115</v>
+        <v>179</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -2642,10 +2681,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B140" t="s">
-        <v>113</v>
+        <v>162</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
@@ -2653,10 +2692,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B141" t="s">
-        <v>113</v>
+        <v>162</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
@@ -2664,10 +2703,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B142" t="s">
-        <v>127</v>
+        <v>168</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
@@ -2675,10 +2714,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B143" t="s">
-        <v>183</v>
+        <v>143</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -2689,7 +2728,7 @@
         <v>184</v>
       </c>
       <c r="B144" t="s">
-        <v>129</v>
+        <v>168</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
@@ -2700,7 +2739,7 @@
         <v>185</v>
       </c>
       <c r="B145" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
@@ -2711,7 +2750,7 @@
         <v>186</v>
       </c>
       <c r="B146" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="C146" t="s">
         <v>5</v>
@@ -2722,7 +2761,7 @@
         <v>187</v>
       </c>
       <c r="B147" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
@@ -2733,7 +2772,7 @@
         <v>188</v>
       </c>
       <c r="B148" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
@@ -2744,7 +2783,7 @@
         <v>189</v>
       </c>
       <c r="B149" t="s">
-        <v>113</v>
+        <v>171</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
@@ -2755,7 +2794,7 @@
         <v>190</v>
       </c>
       <c r="B150" t="s">
-        <v>117</v>
+        <v>173</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
@@ -2766,7 +2805,7 @@
         <v>191</v>
       </c>
       <c r="B151" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
@@ -2777,7 +2816,7 @@
         <v>192</v>
       </c>
       <c r="B152" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
@@ -2788,7 +2827,7 @@
         <v>193</v>
       </c>
       <c r="B153" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
@@ -2799,7 +2838,7 @@
         <v>194</v>
       </c>
       <c r="B154" t="s">
-        <v>183</v>
+        <v>127</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
@@ -2810,7 +2849,7 @@
         <v>195</v>
       </c>
       <c r="B155" t="s">
-        <v>183</v>
+        <v>141</v>
       </c>
       <c r="C155" t="s">
         <v>5</v>
@@ -2821,7 +2860,7 @@
         <v>196</v>
       </c>
       <c r="B156" t="s">
-        <v>159</v>
+        <v>197</v>
       </c>
       <c r="C156" t="s">
         <v>5</v>
@@ -2829,10 +2868,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B157" t="s">
-        <v>183</v>
+        <v>143</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
@@ -2840,10 +2879,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B158" t="s">
-        <v>117</v>
+        <v>197</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
@@ -2851,10 +2890,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B159" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C159" t="s">
         <v>5</v>
@@ -2865,7 +2904,7 @@
         <v>201</v>
       </c>
       <c r="B160" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
@@ -2873,10 +2912,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B161" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="C161" t="s">
         <v>5</v>
@@ -2884,10 +2923,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B162" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="C162" t="s">
         <v>5</v>
@@ -2895,10 +2934,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B163" t="s">
-        <v>71</v>
+        <v>131</v>
       </c>
       <c r="C163" t="s">
         <v>5</v>
@@ -2906,10 +2945,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B164" t="s">
-        <v>71</v>
+        <v>131</v>
       </c>
       <c r="C164" t="s">
         <v>5</v>
@@ -2917,10 +2956,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B165" t="s">
-        <v>208</v>
+        <v>131</v>
       </c>
       <c r="C165" t="s">
         <v>5</v>
@@ -2928,10 +2967,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B166" t="s">
-        <v>14</v>
+        <v>173</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
@@ -2939,10 +2978,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B167" t="s">
-        <v>111</v>
+        <v>197</v>
       </c>
       <c r="C167" t="s">
         <v>5</v>
@@ -2950,10 +2989,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B168" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C168" t="s">
         <v>5</v>
@@ -2961,10 +3000,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B169" t="s">
-        <v>202</v>
+        <v>173</v>
       </c>
       <c r="C169" t="s">
         <v>5</v>
@@ -2972,10 +3011,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B170" t="s">
-        <v>115</v>
+        <v>197</v>
       </c>
       <c r="C170" t="s">
         <v>5</v>
@@ -2983,10 +3022,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B171" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="C171" t="s">
         <v>5</v>
@@ -2994,10 +3033,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B172" t="s">
-        <v>115</v>
+        <v>214</v>
       </c>
       <c r="C172" t="s">
         <v>5</v>
@@ -3005,10 +3044,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
+        <v>215</v>
+      </c>
+      <c r="B173" t="s">
         <v>216</v>
-      </c>
-      <c r="B173" t="s">
-        <v>115</v>
       </c>
       <c r="C173" t="s">
         <v>5</v>
@@ -3019,7 +3058,7 @@
         <v>217</v>
       </c>
       <c r="B174" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="C174" t="s">
         <v>5</v>
@@ -3030,7 +3069,7 @@
         <v>218</v>
       </c>
       <c r="B175" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="C175" t="s">
         <v>5</v>
@@ -3041,7 +3080,7 @@
         <v>219</v>
       </c>
       <c r="B176" t="s">
-        <v>200</v>
+        <v>87</v>
       </c>
       <c r="C176" t="s">
         <v>5</v>
@@ -3052,7 +3091,7 @@
         <v>220</v>
       </c>
       <c r="B177" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="C177" t="s">
         <v>5</v>
@@ -3063,7 +3102,7 @@
         <v>221</v>
       </c>
       <c r="B178" t="s">
-        <v>200</v>
+        <v>12</v>
       </c>
       <c r="C178" t="s">
         <v>5</v>
@@ -3074,7 +3113,7 @@
         <v>222</v>
       </c>
       <c r="B179" t="s">
-        <v>111</v>
+        <v>4</v>
       </c>
       <c r="C179" t="s">
         <v>5</v>
@@ -3085,7 +3124,7 @@
         <v>223</v>
       </c>
       <c r="B180" t="s">
-        <v>76</v>
+        <v>125</v>
       </c>
       <c r="C180" t="s">
         <v>5</v>
@@ -3096,7 +3135,7 @@
         <v>224</v>
       </c>
       <c r="B181" t="s">
-        <v>109</v>
+        <v>216</v>
       </c>
       <c r="C181" t="s">
         <v>5</v>
@@ -3107,7 +3146,7 @@
         <v>225</v>
       </c>
       <c r="B182" t="s">
-        <v>115</v>
+        <v>216</v>
       </c>
       <c r="C182" t="s">
         <v>5</v>
@@ -3118,7 +3157,7 @@
         <v>226</v>
       </c>
       <c r="B183" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="C183" t="s">
         <v>5</v>
@@ -3129,7 +3168,7 @@
         <v>227</v>
       </c>
       <c r="B184" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="C184" t="s">
         <v>5</v>
@@ -3140,7 +3179,7 @@
         <v>228</v>
       </c>
       <c r="B185" t="s">
-        <v>200</v>
+        <v>129</v>
       </c>
       <c r="C185" t="s">
         <v>5</v>
@@ -3151,7 +3190,7 @@
         <v>229</v>
       </c>
       <c r="B186" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="C186" t="s">
         <v>5</v>
@@ -3162,7 +3201,7 @@
         <v>230</v>
       </c>
       <c r="B187" t="s">
-        <v>200</v>
+        <v>129</v>
       </c>
       <c r="C187" t="s">
         <v>5</v>
@@ -3173,7 +3212,7 @@
         <v>231</v>
       </c>
       <c r="B188" t="s">
-        <v>202</v>
+        <v>129</v>
       </c>
       <c r="C188" t="s">
         <v>5</v>
@@ -3184,7 +3223,7 @@
         <v>232</v>
       </c>
       <c r="B189" t="s">
-        <v>113</v>
+        <v>214</v>
       </c>
       <c r="C189" t="s">
         <v>5</v>
@@ -3195,7 +3234,7 @@
         <v>233</v>
       </c>
       <c r="B190" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C190" t="s">
         <v>5</v>
@@ -3206,7 +3245,7 @@
         <v>234</v>
       </c>
       <c r="B191" t="s">
-        <v>117</v>
+        <v>214</v>
       </c>
       <c r="C191" t="s">
         <v>5</v>
@@ -3217,7 +3256,7 @@
         <v>235</v>
       </c>
       <c r="B192" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="C192" t="s">
         <v>5</v>
@@ -3228,7 +3267,7 @@
         <v>236</v>
       </c>
       <c r="B193" t="s">
-        <v>157</v>
+        <v>18</v>
       </c>
       <c r="C193" t="s">
         <v>5</v>
@@ -3239,7 +3278,7 @@
         <v>237</v>
       </c>
       <c r="B194" t="s">
-        <v>183</v>
+        <v>123</v>
       </c>
       <c r="C194" t="s">
         <v>5</v>
@@ -3250,7 +3289,7 @@
         <v>238</v>
       </c>
       <c r="B195" t="s">
-        <v>183</v>
+        <v>129</v>
       </c>
       <c r="C195" t="s">
         <v>5</v>
@@ -3261,7 +3300,7 @@
         <v>239</v>
       </c>
       <c r="B196" t="s">
-        <v>183</v>
+        <v>127</v>
       </c>
       <c r="C196" t="s">
         <v>5</v>
@@ -3272,7 +3311,7 @@
         <v>240</v>
       </c>
       <c r="B197" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C197" t="s">
         <v>5</v>
@@ -3283,7 +3322,7 @@
         <v>241</v>
       </c>
       <c r="B198" t="s">
-        <v>117</v>
+        <v>214</v>
       </c>
       <c r="C198" t="s">
         <v>5</v>
@@ -3294,7 +3333,7 @@
         <v>242</v>
       </c>
       <c r="B199" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="C199" t="s">
         <v>5</v>
@@ -3305,7 +3344,7 @@
         <v>243</v>
       </c>
       <c r="B200" t="s">
-        <v>115</v>
+        <v>214</v>
       </c>
       <c r="C200" t="s">
         <v>5</v>
@@ -3316,7 +3355,7 @@
         <v>244</v>
       </c>
       <c r="B201" t="s">
-        <v>113</v>
+        <v>216</v>
       </c>
       <c r="C201" t="s">
         <v>5</v>
@@ -3327,7 +3366,7 @@
         <v>245</v>
       </c>
       <c r="B202" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="C202" t="s">
         <v>5</v>
@@ -3338,7 +3377,7 @@
         <v>246</v>
       </c>
       <c r="B203" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="C203" t="s">
         <v>5</v>
@@ -3349,7 +3388,7 @@
         <v>247</v>
       </c>
       <c r="B204" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="C204" t="s">
         <v>5</v>
@@ -3360,7 +3399,7 @@
         <v>248</v>
       </c>
       <c r="B205" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C205" t="s">
         <v>5</v>
@@ -3371,7 +3410,7 @@
         <v>249</v>
       </c>
       <c r="B206" t="s">
-        <v>200</v>
+        <v>171</v>
       </c>
       <c r="C206" t="s">
         <v>5</v>
@@ -3382,7 +3421,7 @@
         <v>250</v>
       </c>
       <c r="B207" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="C207" t="s">
         <v>5</v>
@@ -3393,7 +3432,7 @@
         <v>251</v>
       </c>
       <c r="B208" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="C208" t="s">
         <v>5</v>
@@ -3404,7 +3443,7 @@
         <v>252</v>
       </c>
       <c r="B209" t="s">
-        <v>157</v>
+        <v>197</v>
       </c>
       <c r="C209" t="s">
         <v>5</v>
@@ -3415,7 +3454,7 @@
         <v>253</v>
       </c>
       <c r="B210" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="C210" t="s">
         <v>5</v>
@@ -3426,7 +3465,7 @@
         <v>254</v>
       </c>
       <c r="B211" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="C211" t="s">
         <v>5</v>
@@ -3437,9 +3476,152 @@
         <v>255</v>
       </c>
       <c r="B212" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="C212" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>256</v>
+      </c>
+      <c r="B213" t="s">
+        <v>129</v>
+      </c>
+      <c r="C213" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>257</v>
+      </c>
+      <c r="B214" t="s">
+        <v>127</v>
+      </c>
+      <c r="C214" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s">
+        <v>258</v>
+      </c>
+      <c r="B215" t="s">
+        <v>127</v>
+      </c>
+      <c r="C215" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s">
+        <v>259</v>
+      </c>
+      <c r="B216" t="s">
+        <v>131</v>
+      </c>
+      <c r="C216" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>260</v>
+      </c>
+      <c r="B217" t="s">
+        <v>129</v>
+      </c>
+      <c r="C217" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s">
+        <v>261</v>
+      </c>
+      <c r="B218" t="s">
+        <v>129</v>
+      </c>
+      <c r="C218" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>262</v>
+      </c>
+      <c r="B219" t="s">
+        <v>214</v>
+      </c>
+      <c r="C219" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s">
+        <v>263</v>
+      </c>
+      <c r="B220" t="s">
+        <v>197</v>
+      </c>
+      <c r="C220" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s">
+        <v>264</v>
+      </c>
+      <c r="B221" t="s">
+        <v>197</v>
+      </c>
+      <c r="C221" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s">
+        <v>265</v>
+      </c>
+      <c r="B222" t="s">
+        <v>171</v>
+      </c>
+      <c r="C222" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s">
+        <v>266</v>
+      </c>
+      <c r="B223" t="s">
+        <v>171</v>
+      </c>
+      <c r="C223" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s">
+        <v>267</v>
+      </c>
+      <c r="B224" t="s">
+        <v>171</v>
+      </c>
+      <c r="C224" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s">
+        <v>268</v>
+      </c>
+      <c r="B225" t="s">
+        <v>171</v>
+      </c>
+      <c r="C225" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/GreatLink/GreatLink Multi-Sector Income.xlsx
+++ b/data/GreatLink/GreatLink Multi-Sector Income.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid487035"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid322647"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>

--- a/data/GreatLink/GreatLink Multi-Sector Income.xlsx
+++ b/data/GreatLink/GreatLink Multi-Sector Income.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid322647"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid721876"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="286">
   <si>
     <t>Price Date</t>
   </si>
@@ -26,36 +26,99 @@
     <t>Currency - Unit Level</t>
   </si>
   <si>
+    <t>07/04/2025</t>
+  </si>
+  <si>
+    <t>0.919</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>04/04/2025</t>
+  </si>
+  <si>
+    <t>0.929</t>
+  </si>
+  <si>
+    <t>03/04/2025</t>
+  </si>
+  <si>
+    <t>0.933</t>
+  </si>
+  <si>
+    <t>02/04/2025</t>
+  </si>
+  <si>
+    <t>0.932</t>
+  </si>
+  <si>
+    <t>01/04/2025</t>
+  </si>
+  <si>
+    <t>0.937</t>
+  </si>
+  <si>
+    <t>28/03/2025</t>
+  </si>
+  <si>
+    <t>0.935</t>
+  </si>
+  <si>
+    <t>27/03/2025</t>
+  </si>
+  <si>
+    <t>26/03/2025</t>
+  </si>
+  <si>
+    <t>0.934</t>
+  </si>
+  <si>
+    <t>25/03/2025</t>
+  </si>
+  <si>
+    <t>24/03/2025</t>
+  </si>
+  <si>
+    <t>21/03/2025</t>
+  </si>
+  <si>
+    <t>0.936</t>
+  </si>
+  <si>
+    <t>20/03/2025</t>
+  </si>
+  <si>
+    <t>0.938</t>
+  </si>
+  <si>
+    <t>19/03/2025</t>
+  </si>
+  <si>
+    <t>18/03/2025</t>
+  </si>
+  <si>
+    <t>17/03/2025</t>
+  </si>
+  <si>
+    <t>14/03/2025</t>
+  </si>
+  <si>
     <t>13/03/2025</t>
   </si>
   <si>
-    <t>0.934</t>
-  </si>
-  <si>
-    <t>SGD</t>
-  </si>
-  <si>
     <t>12/03/2025</t>
   </si>
   <si>
-    <t>0.933</t>
-  </si>
-  <si>
     <t>11/03/2025</t>
   </si>
   <si>
     <t>10/03/2025</t>
   </si>
   <si>
-    <t>0.936</t>
-  </si>
-  <si>
     <t>07/03/2025</t>
   </si>
   <si>
-    <t>0.935</t>
-  </si>
-  <si>
     <t>06/03/2025</t>
   </si>
   <si>
@@ -89,9 +152,6 @@
     <t>24/02/2025</t>
   </si>
   <si>
-    <t>0.937</t>
-  </si>
-  <si>
     <t>21/02/2025</t>
   </si>
   <si>
@@ -101,9 +161,6 @@
     <t>19/02/2025</t>
   </si>
   <si>
-    <t>0.932</t>
-  </si>
-  <si>
     <t>18/02/2025</t>
   </si>
   <si>
@@ -128,9 +185,6 @@
     <t>11/02/2025</t>
   </si>
   <si>
-    <t>0.929</t>
-  </si>
-  <si>
     <t>10/02/2025</t>
   </si>
   <si>
@@ -276,9 +330,6 @@
   </si>
   <si>
     <t>11/12/2024</t>
-  </si>
-  <si>
-    <t>0.938</t>
   </si>
   <si>
     <t>10/12/2024</t>
@@ -1188,7 +1239,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -1196,10 +1247,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -1207,10 +1258,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1218,10 +1269,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1229,10 +1280,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -1240,10 +1291,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -1251,10 +1302,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -1262,7 +1313,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
         <v>18</v>
@@ -1273,10 +1324,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -1284,10 +1335,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -1295,10 +1346,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -1306,10 +1357,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -1317,10 +1368,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -1328,10 +1379,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -1339,10 +1390,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -1350,10 +1401,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -1361,10 +1412,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -1372,10 +1423,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -1383,10 +1434,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -1397,7 +1448,7 @@
         <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -1405,10 +1456,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -1416,10 +1467,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -1427,10 +1478,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -1438,10 +1489,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -1449,10 +1500,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" t="s">
         <v>41</v>
-      </c>
-      <c r="B28" t="s">
-        <v>33</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -1463,7 +1514,7 @@
         <v>42</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -1471,10 +1522,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -1482,10 +1533,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -1493,10 +1544,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -1504,10 +1555,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -1515,10 +1566,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -1526,10 +1577,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -1537,10 +1588,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -1548,10 +1599,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B37" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -1559,10 +1610,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B38" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -1570,10 +1621,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B39" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -1581,10 +1632,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B40" t="s">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -1592,10 +1643,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B41" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -1603,10 +1654,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B42" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -1614,10 +1665,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B43" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -1625,10 +1676,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B44" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -1636,10 +1687,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B45" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -1647,10 +1698,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B46" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -1658,10 +1709,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B47" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -1669,10 +1720,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B48" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -1680,10 +1731,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B49" t="s">
-        <v>71</v>
+        <v>7</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -1691,10 +1742,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B50" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -1702,10 +1753,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B51" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -1713,10 +1764,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B52" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -1724,10 +1775,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B53" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -1735,10 +1786,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B54" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -1746,10 +1797,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B55" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -1757,10 +1808,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B56" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -1768,10 +1819,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B57" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -1779,10 +1830,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
+        <v>79</v>
+      </c>
+      <c r="B58" t="s">
         <v>80</v>
-      </c>
-      <c r="B58" t="s">
-        <v>52</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -1793,7 +1844,7 @@
         <v>81</v>
       </c>
       <c r="B59" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -1801,10 +1852,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B60" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -1812,10 +1863,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -1823,10 +1874,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -1834,10 +1885,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B63" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -1845,10 +1896,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B64" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -1859,7 +1910,7 @@
         <v>88</v>
       </c>
       <c r="B65" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -1867,10 +1918,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B66" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -1878,10 +1929,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B67" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -1889,10 +1940,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B68" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -1900,10 +1951,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B69" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -1911,10 +1962,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B70" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -1922,10 +1973,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B71" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -1933,10 +1984,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B72" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -1944,10 +1995,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B73" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -1955,10 +2006,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B74" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -1966,10 +2017,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B75" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -1977,10 +2028,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B76" t="s">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -1988,10 +2039,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -1999,10 +2050,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B78" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -2010,10 +2061,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B79" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -2021,10 +2072,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -2032,10 +2083,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -2043,10 +2094,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B82" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -2054,10 +2105,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B83" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -2065,10 +2116,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B84" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -2076,10 +2127,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B85" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -2087,10 +2138,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B86" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -2098,10 +2149,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B87" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -2109,10 +2160,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B88" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -2120,10 +2171,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B89" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -2131,10 +2182,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B90" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -2142,10 +2193,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B91" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -2153,10 +2204,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -2164,10 +2215,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B93" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -2175,10 +2226,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B94" t="s">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -2186,10 +2237,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B95" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -2197,10 +2248,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B96" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -2208,10 +2259,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B97" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -2219,10 +2270,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B98" t="s">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -2230,10 +2281,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B99" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
@@ -2244,7 +2295,7 @@
         <v>124</v>
       </c>
       <c r="B100" t="s">
-        <v>125</v>
+        <v>11</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
@@ -2252,10 +2303,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B101" t="s">
-        <v>127</v>
+        <v>11</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -2263,10 +2314,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B102" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
@@ -2274,10 +2325,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B103" t="s">
-        <v>131</v>
+        <v>24</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -2285,10 +2336,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B104" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -2296,10 +2347,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B105" t="s">
-        <v>129</v>
+        <v>52</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -2307,10 +2358,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B106" t="s">
-        <v>127</v>
+        <v>52</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
@@ -2318,10 +2369,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B107" t="s">
-        <v>129</v>
+        <v>66</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -2329,10 +2380,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B108" t="s">
-        <v>129</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -2340,10 +2391,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B109" t="s">
-        <v>129</v>
+        <v>22</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -2351,10 +2402,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B110" t="s">
-        <v>129</v>
+        <v>24</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -2362,10 +2413,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B111" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -2373,10 +2424,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B112" t="s">
-        <v>141</v>
+        <v>41</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -2384,10 +2435,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B113" t="s">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -2395,10 +2446,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B114" t="s">
-        <v>143</v>
+        <v>24</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -2406,10 +2457,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B115" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -2417,10 +2468,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B116" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -2428,10 +2479,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B117" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
@@ -2439,7 +2490,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B118" t="s">
         <v>146</v>
@@ -2450,10 +2501,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B119" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -2461,10 +2512,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B120" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -2472,10 +2523,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B121" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -2483,10 +2534,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B122" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -2494,7 +2545,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B123" t="s">
         <v>146</v>
@@ -2505,10 +2556,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B124" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -2516,10 +2567,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B125" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -2527,7 +2578,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B126" t="s">
         <v>146</v>
@@ -2538,10 +2589,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B127" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
@@ -2549,10 +2600,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B128" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
@@ -2560,10 +2611,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B129" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -2571,10 +2622,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B130" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -2582,10 +2633,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B131" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -2593,10 +2644,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B132" t="s">
-        <v>141</v>
+        <v>165</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
@@ -2604,10 +2655,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B133" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
@@ -2615,10 +2666,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B134" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
@@ -2626,10 +2677,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B135" t="s">
-        <v>131</v>
+        <v>170</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
@@ -2637,10 +2688,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B136" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -2648,10 +2699,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B137" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
@@ -2659,10 +2710,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B138" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
@@ -2670,10 +2721,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B139" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -2681,10 +2732,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B140" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
@@ -2692,10 +2743,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B141" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
@@ -2703,10 +2754,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B142" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
@@ -2714,10 +2765,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B143" t="s">
-        <v>143</v>
+        <v>179</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -2725,10 +2776,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B144" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
@@ -2736,10 +2787,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B145" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
@@ -2747,10 +2798,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B146" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C146" t="s">
         <v>5</v>
@@ -2758,10 +2809,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B147" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
@@ -2769,10 +2820,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B148" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
@@ -2780,10 +2831,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B149" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
@@ -2791,10 +2842,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
+        <v>189</v>
+      </c>
+      <c r="B150" t="s">
         <v>190</v>
-      </c>
-      <c r="B150" t="s">
-        <v>173</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
@@ -2805,7 +2856,7 @@
         <v>191</v>
       </c>
       <c r="B151" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
@@ -2816,7 +2867,7 @@
         <v>192</v>
       </c>
       <c r="B152" t="s">
-        <v>129</v>
+        <v>185</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
@@ -2827,7 +2878,7 @@
         <v>193</v>
       </c>
       <c r="B153" t="s">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
@@ -2838,7 +2889,7 @@
         <v>194</v>
       </c>
       <c r="B154" t="s">
-        <v>127</v>
+        <v>179</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
@@ -2849,7 +2900,7 @@
         <v>195</v>
       </c>
       <c r="B155" t="s">
-        <v>141</v>
+        <v>196</v>
       </c>
       <c r="C155" t="s">
         <v>5</v>
@@ -2857,10 +2908,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B156" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="C156" t="s">
         <v>5</v>
@@ -2871,7 +2922,7 @@
         <v>198</v>
       </c>
       <c r="B157" t="s">
-        <v>143</v>
+        <v>179</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
@@ -2882,7 +2933,7 @@
         <v>199</v>
       </c>
       <c r="B158" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
@@ -2893,7 +2944,7 @@
         <v>200</v>
       </c>
       <c r="B159" t="s">
-        <v>197</v>
+        <v>160</v>
       </c>
       <c r="C159" t="s">
         <v>5</v>
@@ -2904,7 +2955,7 @@
         <v>201</v>
       </c>
       <c r="B160" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
@@ -2915,7 +2966,7 @@
         <v>202</v>
       </c>
       <c r="B161" t="s">
-        <v>131</v>
+        <v>185</v>
       </c>
       <c r="C161" t="s">
         <v>5</v>
@@ -2926,7 +2977,7 @@
         <v>203</v>
       </c>
       <c r="B162" t="s">
-        <v>127</v>
+        <v>185</v>
       </c>
       <c r="C162" t="s">
         <v>5</v>
@@ -2937,7 +2988,7 @@
         <v>204</v>
       </c>
       <c r="B163" t="s">
-        <v>131</v>
+        <v>188</v>
       </c>
       <c r="C163" t="s">
         <v>5</v>
@@ -2948,7 +2999,7 @@
         <v>205</v>
       </c>
       <c r="B164" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="C164" t="s">
         <v>5</v>
@@ -2959,7 +3010,7 @@
         <v>206</v>
       </c>
       <c r="B165" t="s">
-        <v>131</v>
+        <v>188</v>
       </c>
       <c r="C165" t="s">
         <v>5</v>
@@ -2970,7 +3021,7 @@
         <v>207</v>
       </c>
       <c r="B166" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
@@ -2981,7 +3032,7 @@
         <v>208</v>
       </c>
       <c r="B167" t="s">
-        <v>197</v>
+        <v>146</v>
       </c>
       <c r="C167" t="s">
         <v>5</v>
@@ -2992,7 +3043,7 @@
         <v>209</v>
       </c>
       <c r="B168" t="s">
-        <v>197</v>
+        <v>146</v>
       </c>
       <c r="C168" t="s">
         <v>5</v>
@@ -3003,7 +3054,7 @@
         <v>210</v>
       </c>
       <c r="B169" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
       <c r="C169" t="s">
         <v>5</v>
@@ -3014,7 +3065,7 @@
         <v>211</v>
       </c>
       <c r="B170" t="s">
-        <v>197</v>
+        <v>144</v>
       </c>
       <c r="C170" t="s">
         <v>5</v>
@@ -3025,7 +3076,7 @@
         <v>212</v>
       </c>
       <c r="B171" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="C171" t="s">
         <v>5</v>
@@ -3047,7 +3098,7 @@
         <v>215</v>
       </c>
       <c r="B173" t="s">
-        <v>216</v>
+        <v>160</v>
       </c>
       <c r="C173" t="s">
         <v>5</v>
@@ -3055,10 +3106,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B174" t="s">
-        <v>125</v>
+        <v>214</v>
       </c>
       <c r="C174" t="s">
         <v>5</v>
@@ -3066,10 +3117,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B175" t="s">
-        <v>123</v>
+        <v>214</v>
       </c>
       <c r="C175" t="s">
         <v>5</v>
@@ -3077,10 +3128,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B176" t="s">
-        <v>87</v>
+        <v>214</v>
       </c>
       <c r="C176" t="s">
         <v>5</v>
@@ -3088,10 +3139,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B177" t="s">
-        <v>87</v>
+        <v>148</v>
       </c>
       <c r="C177" t="s">
         <v>5</v>
@@ -3099,10 +3150,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B178" t="s">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="C178" t="s">
         <v>5</v>
@@ -3110,10 +3161,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B179" t="s">
-        <v>4</v>
+        <v>148</v>
       </c>
       <c r="C179" t="s">
         <v>5</v>
@@ -3121,10 +3172,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B180" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="C180" t="s">
         <v>5</v>
@@ -3132,10 +3183,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B181" t="s">
-        <v>216</v>
+        <v>148</v>
       </c>
       <c r="C181" t="s">
         <v>5</v>
@@ -3143,10 +3194,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B182" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="C182" t="s">
         <v>5</v>
@@ -3154,10 +3205,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B183" t="s">
-        <v>129</v>
+        <v>214</v>
       </c>
       <c r="C183" t="s">
         <v>5</v>
@@ -3165,10 +3216,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B184" t="s">
-        <v>129</v>
+        <v>214</v>
       </c>
       <c r="C184" t="s">
         <v>5</v>
@@ -3176,10 +3227,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B185" t="s">
-        <v>129</v>
+        <v>190</v>
       </c>
       <c r="C185" t="s">
         <v>5</v>
@@ -3187,10 +3238,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B186" t="s">
-        <v>129</v>
+        <v>214</v>
       </c>
       <c r="C186" t="s">
         <v>5</v>
@@ -3198,10 +3249,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B187" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="C187" t="s">
         <v>5</v>
@@ -3209,10 +3260,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
+        <v>230</v>
+      </c>
+      <c r="B188" t="s">
         <v>231</v>
-      </c>
-      <c r="B188" t="s">
-        <v>129</v>
       </c>
       <c r="C188" t="s">
         <v>5</v>
@@ -3223,7 +3274,7 @@
         <v>232</v>
       </c>
       <c r="B189" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="C189" t="s">
         <v>5</v>
@@ -3231,10 +3282,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B190" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="C190" t="s">
         <v>5</v>
@@ -3242,10 +3293,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B191" t="s">
-        <v>214</v>
+        <v>140</v>
       </c>
       <c r="C191" t="s">
         <v>5</v>
@@ -3253,10 +3304,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B192" t="s">
-        <v>125</v>
+        <v>24</v>
       </c>
       <c r="C192" t="s">
         <v>5</v>
@@ -3264,10 +3315,10 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B193" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C193" t="s">
         <v>5</v>
@@ -3275,10 +3326,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B194" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="C194" t="s">
         <v>5</v>
@@ -3286,10 +3337,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B195" t="s">
-        <v>129</v>
+        <v>18</v>
       </c>
       <c r="C195" t="s">
         <v>5</v>
@@ -3297,10 +3348,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B196" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="C196" t="s">
         <v>5</v>
@@ -3308,10 +3359,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B197" t="s">
-        <v>129</v>
+        <v>233</v>
       </c>
       <c r="C197" t="s">
         <v>5</v>
@@ -3319,10 +3370,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B198" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="C198" t="s">
         <v>5</v>
@@ -3330,10 +3381,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B199" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="C199" t="s">
         <v>5</v>
@@ -3341,10 +3392,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B200" t="s">
-        <v>214</v>
+        <v>146</v>
       </c>
       <c r="C200" t="s">
         <v>5</v>
@@ -3352,10 +3403,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B201" t="s">
-        <v>216</v>
+        <v>146</v>
       </c>
       <c r="C201" t="s">
         <v>5</v>
@@ -3363,10 +3414,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B202" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="C202" t="s">
         <v>5</v>
@@ -3374,10 +3425,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B203" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="C203" t="s">
         <v>5</v>
@@ -3385,10 +3436,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B204" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="C204" t="s">
         <v>5</v>
@@ -3396,10 +3447,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B205" t="s">
-        <v>127</v>
+        <v>231</v>
       </c>
       <c r="C205" t="s">
         <v>5</v>
@@ -3407,10 +3458,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B206" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="C206" t="s">
         <v>5</v>
@@ -3418,10 +3469,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B207" t="s">
-        <v>197</v>
+        <v>231</v>
       </c>
       <c r="C207" t="s">
         <v>5</v>
@@ -3429,10 +3480,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B208" t="s">
-        <v>197</v>
+        <v>142</v>
       </c>
       <c r="C208" t="s">
         <v>5</v>
@@ -3440,10 +3491,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B209" t="s">
-        <v>197</v>
+        <v>39</v>
       </c>
       <c r="C209" t="s">
         <v>5</v>
@@ -3451,10 +3502,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B210" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C210" t="s">
         <v>5</v>
@@ -3462,10 +3513,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B211" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="C211" t="s">
         <v>5</v>
@@ -3473,10 +3524,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B212" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="C212" t="s">
         <v>5</v>
@@ -3484,10 +3535,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B213" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="C213" t="s">
         <v>5</v>
@@ -3495,10 +3546,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B214" t="s">
-        <v>127</v>
+        <v>231</v>
       </c>
       <c r="C214" t="s">
         <v>5</v>
@@ -3506,10 +3557,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B215" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="C215" t="s">
         <v>5</v>
@@ -3517,10 +3568,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B216" t="s">
-        <v>131</v>
+        <v>231</v>
       </c>
       <c r="C216" t="s">
         <v>5</v>
@@ -3528,10 +3579,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B217" t="s">
-        <v>129</v>
+        <v>233</v>
       </c>
       <c r="C217" t="s">
         <v>5</v>
@@ -3539,10 +3590,10 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B218" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="C218" t="s">
         <v>5</v>
@@ -3550,10 +3601,10 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B219" t="s">
-        <v>214</v>
+        <v>148</v>
       </c>
       <c r="C219" t="s">
         <v>5</v>
@@ -3561,10 +3612,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B220" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="C220" t="s">
         <v>5</v>
@@ -3572,10 +3623,10 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B221" t="s">
-        <v>197</v>
+        <v>144</v>
       </c>
       <c r="C221" t="s">
         <v>5</v>
@@ -3583,10 +3634,10 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B222" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="C222" t="s">
         <v>5</v>
@@ -3594,10 +3645,10 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B223" t="s">
-        <v>171</v>
+        <v>214</v>
       </c>
       <c r="C223" t="s">
         <v>5</v>
@@ -3605,10 +3656,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B224" t="s">
-        <v>171</v>
+        <v>214</v>
       </c>
       <c r="C224" t="s">
         <v>5</v>
@@ -3616,12 +3667,188 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B225" t="s">
-        <v>171</v>
+        <v>214</v>
       </c>
       <c r="C225" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s">
+        <v>270</v>
+      </c>
+      <c r="B226" t="s">
+        <v>158</v>
+      </c>
+      <c r="C226" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s">
+        <v>271</v>
+      </c>
+      <c r="B227" t="s">
+        <v>148</v>
+      </c>
+      <c r="C227" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s">
+        <v>272</v>
+      </c>
+      <c r="B228" t="s">
+        <v>144</v>
+      </c>
+      <c r="C228" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s">
+        <v>273</v>
+      </c>
+      <c r="B229" t="s">
+        <v>146</v>
+      </c>
+      <c r="C229" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s">
+        <v>274</v>
+      </c>
+      <c r="B230" t="s">
+        <v>144</v>
+      </c>
+      <c r="C230" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s">
+        <v>275</v>
+      </c>
+      <c r="B231" t="s">
+        <v>144</v>
+      </c>
+      <c r="C231" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s">
+        <v>276</v>
+      </c>
+      <c r="B232" t="s">
+        <v>148</v>
+      </c>
+      <c r="C232" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s">
+        <v>277</v>
+      </c>
+      <c r="B233" t="s">
+        <v>146</v>
+      </c>
+      <c r="C233" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s">
+        <v>278</v>
+      </c>
+      <c r="B234" t="s">
+        <v>146</v>
+      </c>
+      <c r="C234" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s">
+        <v>279</v>
+      </c>
+      <c r="B235" t="s">
+        <v>231</v>
+      </c>
+      <c r="C235" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s">
+        <v>280</v>
+      </c>
+      <c r="B236" t="s">
+        <v>214</v>
+      </c>
+      <c r="C236" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s">
+        <v>281</v>
+      </c>
+      <c r="B237" t="s">
+        <v>214</v>
+      </c>
+      <c r="C237" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s">
+        <v>282</v>
+      </c>
+      <c r="B238" t="s">
+        <v>188</v>
+      </c>
+      <c r="C238" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s">
+        <v>283</v>
+      </c>
+      <c r="B239" t="s">
+        <v>188</v>
+      </c>
+      <c r="C239" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s">
+        <v>284</v>
+      </c>
+      <c r="B240" t="s">
+        <v>188</v>
+      </c>
+      <c r="C240" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s">
+        <v>285</v>
+      </c>
+      <c r="B241" t="s">
+        <v>188</v>
+      </c>
+      <c r="C241" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/GreatLink/GreatLink Multi-Sector Income.xlsx
+++ b/data/GreatLink/GreatLink Multi-Sector Income.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid721876"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid310675"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="307">
   <si>
     <t>Price Date</t>
   </si>
@@ -26,21 +26,99 @@
     <t>Currency - Unit Level</t>
   </si>
   <si>
+    <t>30/04/2025</t>
+  </si>
+  <si>
+    <t>0.929</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>29/04/2025</t>
+  </si>
+  <si>
+    <t>28/04/2025</t>
+  </si>
+  <si>
+    <t>0.928</t>
+  </si>
+  <si>
+    <t>25/04/2025</t>
+  </si>
+  <si>
+    <t>0.926</t>
+  </si>
+  <si>
+    <t>24/04/2025</t>
+  </si>
+  <si>
+    <t>0.925</t>
+  </si>
+  <si>
+    <t>23/04/2025</t>
+  </si>
+  <si>
+    <t>0.919</t>
+  </si>
+  <si>
+    <t>22/04/2025</t>
+  </si>
+  <si>
+    <t>0.916</t>
+  </si>
+  <si>
+    <t>21/04/2025</t>
+  </si>
+  <si>
+    <t>0.914</t>
+  </si>
+  <si>
+    <t>17/04/2025</t>
+  </si>
+  <si>
+    <t>16/04/2025</t>
+  </si>
+  <si>
+    <t>0.918</t>
+  </si>
+  <si>
+    <t>15/04/2025</t>
+  </si>
+  <si>
+    <t>0.917</t>
+  </si>
+  <si>
+    <t>14/04/2025</t>
+  </si>
+  <si>
+    <t>0.915</t>
+  </si>
+  <si>
+    <t>11/04/2025</t>
+  </si>
+  <si>
+    <t>0.908</t>
+  </si>
+  <si>
+    <t>10/04/2025</t>
+  </si>
+  <si>
+    <t>0.911</t>
+  </si>
+  <si>
+    <t>09/04/2025</t>
+  </si>
+  <si>
+    <t>08/04/2025</t>
+  </si>
+  <si>
     <t>07/04/2025</t>
   </si>
   <si>
-    <t>0.919</t>
-  </si>
-  <si>
-    <t>SGD</t>
-  </si>
-  <si>
     <t>04/04/2025</t>
   </si>
   <si>
-    <t>0.929</t>
-  </si>
-  <si>
     <t>03/04/2025</t>
   </si>
   <si>
@@ -179,9 +257,6 @@
     <t>12/02/2025</t>
   </si>
   <si>
-    <t>0.926</t>
-  </si>
-  <si>
     <t>11/02/2025</t>
   </si>
   <si>
@@ -200,9 +275,6 @@
     <t>04/02/2025</t>
   </si>
   <si>
-    <t>0.928</t>
-  </si>
-  <si>
     <t>03/02/2025</t>
   </si>
   <si>
@@ -227,9 +299,6 @@
     <t>23/01/2025</t>
   </si>
   <si>
-    <t>0.925</t>
-  </si>
-  <si>
     <t>22/01/2025</t>
   </si>
   <si>
@@ -257,13 +326,7 @@
     <t>14/01/2025</t>
   </si>
   <si>
-    <t>0.916</t>
-  </si>
-  <si>
     <t>13/01/2025</t>
-  </si>
-  <si>
-    <t>0.915</t>
   </si>
   <si>
     <t>10/01/2025</t>
@@ -1228,7 +1291,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -1236,10 +1299,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -1247,10 +1310,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
         <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -1258,10 +1321,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
         <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1269,10 +1332,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
         <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1280,10 +1343,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
         <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -1305,7 +1368,7 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -1316,7 +1379,7 @@
         <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -1324,10 +1387,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -1335,10 +1398,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -1346,10 +1409,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -1357,10 +1420,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -1368,10 +1431,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -1379,10 +1442,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -1390,10 +1453,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -1401,10 +1464,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -1412,10 +1475,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -1423,10 +1486,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -1434,10 +1497,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -1445,10 +1508,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -1456,10 +1519,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" t="s">
         <v>35</v>
-      </c>
-      <c r="B24" t="s">
-        <v>15</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -1467,10 +1530,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -1478,10 +1541,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -1489,10 +1552,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -1500,10 +1563,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -1511,10 +1574,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -1522,10 +1585,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -1533,10 +1596,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B31" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -1544,10 +1607,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B32" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -1555,10 +1618,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -1566,10 +1629,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B34" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -1577,10 +1640,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B35" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -1588,10 +1651,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B36" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -1599,10 +1662,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B37" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -1610,10 +1673,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B38" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -1621,10 +1684,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B39" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -1632,10 +1695,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -1643,10 +1706,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B41" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -1654,10 +1717,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B42" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -1665,10 +1728,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B43" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -1676,10 +1739,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B44" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -1687,10 +1750,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B45" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -1698,10 +1761,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B46" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -1709,10 +1772,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B47" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -1720,10 +1783,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B48" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -1731,10 +1794,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -1742,10 +1805,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B50" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -1753,10 +1816,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B51" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -1764,10 +1827,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B52" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -1775,10 +1838,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B53" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -1786,10 +1849,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B54" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -1797,10 +1860,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B55" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -1808,10 +1871,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B56" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -1819,7 +1882,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B57" t="s">
         <v>78</v>
@@ -1830,10 +1893,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B58" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -1841,10 +1904,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B59" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -1852,10 +1915,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B60" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -1863,10 +1926,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B61" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -1874,10 +1937,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B62" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -1885,10 +1948,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B63" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -1896,10 +1959,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B64" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -1907,10 +1970,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B65" t="s">
-        <v>89</v>
+        <v>4</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -1918,10 +1981,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B66" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -1929,10 +1992,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B67" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -1940,10 +2003,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B68" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -1951,10 +2014,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B69" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -1962,10 +2025,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B70" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -1973,10 +2036,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B71" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -1984,10 +2047,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B72" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -1995,10 +2058,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B73" t="s">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -2006,10 +2069,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B74" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -2017,10 +2080,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B75" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -2028,10 +2091,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B76" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -2039,10 +2102,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
+        <v>105</v>
+      </c>
+      <c r="B77" t="s">
         <v>101</v>
-      </c>
-      <c r="B77" t="s">
-        <v>9</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -2050,10 +2113,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B78" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -2061,10 +2124,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B79" t="s">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -2072,10 +2135,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B80" t="s">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -2083,10 +2146,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B81" t="s">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -2094,10 +2157,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B82" t="s">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -2105,10 +2168,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B83" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -2116,10 +2179,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B84" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -2127,10 +2190,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B85" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -2138,10 +2201,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B86" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -2149,10 +2212,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B87" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -2160,10 +2223,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B88" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -2171,10 +2234,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B89" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -2182,10 +2245,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B90" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -2193,10 +2256,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B91" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -2204,10 +2267,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B92" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -2215,10 +2278,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B93" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -2226,10 +2289,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B94" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -2237,10 +2300,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B95" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -2248,10 +2311,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B96" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -2259,10 +2322,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B97" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -2270,10 +2333,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B98" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -2281,10 +2344,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B99" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
@@ -2292,10 +2355,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B100" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
@@ -2303,10 +2366,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B101" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -2314,10 +2377,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B102" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
@@ -2325,10 +2388,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B103" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -2336,10 +2399,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B104" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -2347,10 +2410,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B105" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -2358,10 +2421,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B106" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
@@ -2369,10 +2432,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B107" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -2380,10 +2443,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B108" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -2391,10 +2454,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B109" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -2402,10 +2465,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B110" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -2413,10 +2476,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B111" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -2424,10 +2487,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B112" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -2435,10 +2498,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B113" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -2446,10 +2509,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B114" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -2457,10 +2520,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B115" t="s">
-        <v>140</v>
+        <v>37</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -2468,10 +2531,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B116" t="s">
-        <v>142</v>
+        <v>37</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -2479,10 +2542,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B117" t="s">
-        <v>144</v>
+        <v>37</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
@@ -2490,10 +2553,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B118" t="s">
-        <v>146</v>
+        <v>39</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -2501,10 +2564,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B119" t="s">
-        <v>148</v>
+        <v>50</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -2515,7 +2578,7 @@
         <v>149</v>
       </c>
       <c r="B120" t="s">
-        <v>144</v>
+        <v>39</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -2526,7 +2589,7 @@
         <v>150</v>
       </c>
       <c r="B121" t="s">
-        <v>146</v>
+        <v>78</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -2537,7 +2600,7 @@
         <v>151</v>
       </c>
       <c r="B122" t="s">
-        <v>144</v>
+        <v>78</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -2548,7 +2611,7 @@
         <v>152</v>
       </c>
       <c r="B123" t="s">
-        <v>146</v>
+        <v>90</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -2559,7 +2622,7 @@
         <v>153</v>
       </c>
       <c r="B124" t="s">
-        <v>146</v>
+        <v>35</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -2570,7 +2633,7 @@
         <v>154</v>
       </c>
       <c r="B125" t="s">
-        <v>146</v>
+        <v>48</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -2581,7 +2644,7 @@
         <v>155</v>
       </c>
       <c r="B126" t="s">
-        <v>146</v>
+        <v>50</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
@@ -2592,7 +2655,7 @@
         <v>156</v>
       </c>
       <c r="B127" t="s">
-        <v>144</v>
+        <v>39</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
@@ -2603,7 +2666,7 @@
         <v>157</v>
       </c>
       <c r="B128" t="s">
-        <v>158</v>
+        <v>67</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
@@ -2611,10 +2674,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B129" t="s">
-        <v>160</v>
+        <v>67</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -2622,10 +2685,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B130" t="s">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -2633,10 +2696,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B131" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -2644,10 +2707,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B132" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
@@ -2655,10 +2718,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B133" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
@@ -2666,10 +2729,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B134" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
@@ -2677,10 +2740,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
+        <v>168</v>
+      </c>
+      <c r="B135" t="s">
         <v>169</v>
-      </c>
-      <c r="B135" t="s">
-        <v>170</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
@@ -2688,7 +2751,7 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B136" t="s">
         <v>165</v>
@@ -2699,10 +2762,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B137" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
@@ -2710,10 +2773,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B138" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
@@ -2721,10 +2784,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B139" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -2732,10 +2795,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B140" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
@@ -2743,10 +2806,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B141" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
@@ -2754,10 +2817,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B142" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
@@ -2765,10 +2828,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B143" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -2776,7 +2839,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B144" t="s">
         <v>179</v>
@@ -2787,10 +2850,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
+        <v>180</v>
+      </c>
+      <c r="B145" t="s">
         <v>181</v>
-      </c>
-      <c r="B145" t="s">
-        <v>182</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
@@ -2798,10 +2861,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B146" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="C146" t="s">
         <v>5</v>
@@ -2809,10 +2872,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
+        <v>183</v>
+      </c>
+      <c r="B147" t="s">
         <v>184</v>
-      </c>
-      <c r="B147" t="s">
-        <v>185</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
@@ -2820,10 +2883,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
+        <v>185</v>
+      </c>
+      <c r="B148" t="s">
         <v>186</v>
-      </c>
-      <c r="B148" t="s">
-        <v>158</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
@@ -2845,7 +2908,7 @@
         <v>189</v>
       </c>
       <c r="B150" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
@@ -2853,10 +2916,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
+        <v>190</v>
+      </c>
+      <c r="B151" t="s">
         <v>191</v>
-      </c>
-      <c r="B151" t="s">
-        <v>148</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
@@ -2867,7 +2930,7 @@
         <v>192</v>
       </c>
       <c r="B152" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
@@ -2878,7 +2941,7 @@
         <v>193</v>
       </c>
       <c r="B153" t="s">
-        <v>160</v>
+        <v>191</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
@@ -2889,7 +2952,7 @@
         <v>194</v>
       </c>
       <c r="B154" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
@@ -2900,7 +2963,7 @@
         <v>195</v>
       </c>
       <c r="B155" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="C155" t="s">
         <v>5</v>
@@ -2908,10 +2971,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B156" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C156" t="s">
         <v>5</v>
@@ -2919,10 +2982,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B157" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
@@ -2930,10 +2993,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B158" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
@@ -2941,10 +3004,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
+        <v>199</v>
+      </c>
+      <c r="B159" t="s">
         <v>200</v>
-      </c>
-      <c r="B159" t="s">
-        <v>160</v>
       </c>
       <c r="C159" t="s">
         <v>5</v>
@@ -2955,7 +3018,7 @@
         <v>201</v>
       </c>
       <c r="B160" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
@@ -2966,7 +3029,7 @@
         <v>202</v>
       </c>
       <c r="B161" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="C161" t="s">
         <v>5</v>
@@ -2974,10 +3037,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B162" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C162" t="s">
         <v>5</v>
@@ -2985,10 +3048,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B163" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="C163" t="s">
         <v>5</v>
@@ -2996,10 +3059,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B164" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="C164" t="s">
         <v>5</v>
@@ -3007,10 +3070,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B165" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="C165" t="s">
         <v>5</v>
@@ -3018,10 +3081,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B166" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
@@ -3029,10 +3092,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B167" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
       <c r="C167" t="s">
         <v>5</v>
@@ -3040,10 +3103,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B168" t="s">
-        <v>146</v>
+        <v>206</v>
       </c>
       <c r="C168" t="s">
         <v>5</v>
@@ -3051,10 +3114,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B169" t="s">
-        <v>144</v>
+        <v>181</v>
       </c>
       <c r="C169" t="s">
         <v>5</v>
@@ -3062,10 +3125,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B170" t="s">
-        <v>144</v>
+        <v>200</v>
       </c>
       <c r="C170" t="s">
         <v>5</v>
@@ -3073,10 +3136,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B171" t="s">
-        <v>158</v>
+        <v>217</v>
       </c>
       <c r="C171" t="s">
         <v>5</v>
@@ -3084,10 +3147,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B172" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="C172" t="s">
         <v>5</v>
@@ -3095,10 +3158,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B173" t="s">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="C173" t="s">
         <v>5</v>
@@ -3106,10 +3169,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B174" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C174" t="s">
         <v>5</v>
@@ -3117,10 +3180,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B175" t="s">
-        <v>214</v>
+        <v>181</v>
       </c>
       <c r="C175" t="s">
         <v>5</v>
@@ -3128,10 +3191,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B176" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C176" t="s">
         <v>5</v>
@@ -3139,10 +3202,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B177" t="s">
-        <v>148</v>
+        <v>206</v>
       </c>
       <c r="C177" t="s">
         <v>5</v>
@@ -3150,10 +3213,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B178" t="s">
-        <v>144</v>
+        <v>206</v>
       </c>
       <c r="C178" t="s">
         <v>5</v>
@@ -3161,10 +3224,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B179" t="s">
-        <v>148</v>
+        <v>209</v>
       </c>
       <c r="C179" t="s">
         <v>5</v>
@@ -3172,10 +3235,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B180" t="s">
-        <v>148</v>
+        <v>179</v>
       </c>
       <c r="C180" t="s">
         <v>5</v>
@@ -3183,10 +3246,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B181" t="s">
-        <v>148</v>
+        <v>209</v>
       </c>
       <c r="C181" t="s">
         <v>5</v>
@@ -3194,10 +3257,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B182" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="C182" t="s">
         <v>5</v>
@@ -3205,10 +3268,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B183" t="s">
-        <v>214</v>
+        <v>167</v>
       </c>
       <c r="C183" t="s">
         <v>5</v>
@@ -3216,10 +3279,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B184" t="s">
-        <v>214</v>
+        <v>167</v>
       </c>
       <c r="C184" t="s">
         <v>5</v>
@@ -3227,10 +3290,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B185" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="C185" t="s">
         <v>5</v>
@@ -3238,10 +3301,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B186" t="s">
-        <v>214</v>
+        <v>165</v>
       </c>
       <c r="C186" t="s">
         <v>5</v>
@@ -3249,10 +3312,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B187" t="s">
-        <v>148</v>
+        <v>179</v>
       </c>
       <c r="C187" t="s">
         <v>5</v>
@@ -3260,10 +3323,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B188" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C188" t="s">
         <v>5</v>
@@ -3271,10 +3334,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B189" t="s">
-        <v>233</v>
+        <v>181</v>
       </c>
       <c r="C189" t="s">
         <v>5</v>
@@ -3282,10 +3345,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B190" t="s">
-        <v>142</v>
+        <v>235</v>
       </c>
       <c r="C190" t="s">
         <v>5</v>
@@ -3293,10 +3356,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
+        <v>238</v>
+      </c>
+      <c r="B191" t="s">
         <v>235</v>
-      </c>
-      <c r="B191" t="s">
-        <v>140</v>
       </c>
       <c r="C191" t="s">
         <v>5</v>
@@ -3304,10 +3367,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B192" t="s">
-        <v>24</v>
+        <v>235</v>
       </c>
       <c r="C192" t="s">
         <v>5</v>
@@ -3315,10 +3378,10 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B193" t="s">
-        <v>24</v>
+        <v>169</v>
       </c>
       <c r="C193" t="s">
         <v>5</v>
@@ -3326,10 +3389,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B194" t="s">
-        <v>15</v>
+        <v>165</v>
       </c>
       <c r="C194" t="s">
         <v>5</v>
@@ -3337,10 +3400,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B195" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="C195" t="s">
         <v>5</v>
@@ -3348,10 +3411,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B196" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="C196" t="s">
         <v>5</v>
@@ -3359,10 +3422,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B197" t="s">
-        <v>233</v>
+        <v>169</v>
       </c>
       <c r="C197" t="s">
         <v>5</v>
@@ -3370,10 +3433,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B198" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="C198" t="s">
         <v>5</v>
@@ -3381,10 +3444,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B199" t="s">
-        <v>146</v>
+        <v>235</v>
       </c>
       <c r="C199" t="s">
         <v>5</v>
@@ -3392,10 +3455,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B200" t="s">
-        <v>146</v>
+        <v>235</v>
       </c>
       <c r="C200" t="s">
         <v>5</v>
@@ -3403,10 +3466,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B201" t="s">
-        <v>146</v>
+        <v>211</v>
       </c>
       <c r="C201" t="s">
         <v>5</v>
@@ -3414,10 +3477,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B202" t="s">
-        <v>146</v>
+        <v>235</v>
       </c>
       <c r="C202" t="s">
         <v>5</v>
@@ -3425,10 +3488,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B203" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
       <c r="C203" t="s">
         <v>5</v>
@@ -3436,10 +3499,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B204" t="s">
-        <v>146</v>
+        <v>252</v>
       </c>
       <c r="C204" t="s">
         <v>5</v>
@@ -3447,10 +3510,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B205" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="C205" t="s">
         <v>5</v>
@@ -3458,10 +3521,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B206" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="C206" t="s">
         <v>5</v>
@@ -3469,10 +3532,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="B207" t="s">
-        <v>231</v>
+        <v>161</v>
       </c>
       <c r="C207" t="s">
         <v>5</v>
@@ -3480,10 +3543,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="B208" t="s">
-        <v>142</v>
+        <v>50</v>
       </c>
       <c r="C208" t="s">
         <v>5</v>
@@ -3491,10 +3554,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B209" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C209" t="s">
         <v>5</v>
@@ -3502,10 +3565,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="B210" t="s">
-        <v>140</v>
+        <v>41</v>
       </c>
       <c r="C210" t="s">
         <v>5</v>
@@ -3513,10 +3576,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B211" t="s">
-        <v>146</v>
+        <v>44</v>
       </c>
       <c r="C211" t="s">
         <v>5</v>
@@ -3524,10 +3587,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="B212" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="C212" t="s">
         <v>5</v>
@@ -3535,10 +3598,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="B213" t="s">
-        <v>146</v>
+        <v>254</v>
       </c>
       <c r="C213" t="s">
         <v>5</v>
@@ -3546,10 +3609,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="B214" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="C214" t="s">
         <v>5</v>
@@ -3557,10 +3620,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="B215" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="C215" t="s">
         <v>5</v>
@@ -3568,10 +3631,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="B216" t="s">
-        <v>231</v>
+        <v>167</v>
       </c>
       <c r="C216" t="s">
         <v>5</v>
@@ -3579,10 +3642,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="B217" t="s">
-        <v>233</v>
+        <v>167</v>
       </c>
       <c r="C217" t="s">
         <v>5</v>
@@ -3590,10 +3653,10 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="B218" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="C218" t="s">
         <v>5</v>
@@ -3601,10 +3664,10 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="B219" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="C219" t="s">
         <v>5</v>
@@ -3612,10 +3675,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="B220" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="C220" t="s">
         <v>5</v>
@@ -3623,10 +3686,10 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B221" t="s">
-        <v>144</v>
+        <v>252</v>
       </c>
       <c r="C221" t="s">
         <v>5</v>
@@ -3634,10 +3697,10 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="B222" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="C222" t="s">
         <v>5</v>
@@ -3645,10 +3708,10 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="B223" t="s">
-        <v>214</v>
+        <v>252</v>
       </c>
       <c r="C223" t="s">
         <v>5</v>
@@ -3656,10 +3719,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="B224" t="s">
-        <v>214</v>
+        <v>163</v>
       </c>
       <c r="C224" t="s">
         <v>5</v>
@@ -3667,10 +3730,10 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="B225" t="s">
-        <v>214</v>
+        <v>65</v>
       </c>
       <c r="C225" t="s">
         <v>5</v>
@@ -3678,10 +3741,10 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="B226" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C226" t="s">
         <v>5</v>
@@ -3689,10 +3752,10 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="B227" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="C227" t="s">
         <v>5</v>
@@ -3700,10 +3763,10 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="B228" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="C228" t="s">
         <v>5</v>
@@ -3711,10 +3774,10 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="B229" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="C229" t="s">
         <v>5</v>
@@ -3722,10 +3785,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="B230" t="s">
-        <v>144</v>
+        <v>252</v>
       </c>
       <c r="C230" t="s">
         <v>5</v>
@@ -3733,10 +3796,10 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="B231" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="C231" t="s">
         <v>5</v>
@@ -3744,10 +3807,10 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="B232" t="s">
-        <v>148</v>
+        <v>252</v>
       </c>
       <c r="C232" t="s">
         <v>5</v>
@@ -3755,10 +3818,10 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="B233" t="s">
-        <v>146</v>
+        <v>254</v>
       </c>
       <c r="C233" t="s">
         <v>5</v>
@@ -3766,10 +3829,10 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="B234" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="C234" t="s">
         <v>5</v>
@@ -3777,10 +3840,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B235" t="s">
-        <v>231</v>
+        <v>169</v>
       </c>
       <c r="C235" t="s">
         <v>5</v>
@@ -3788,10 +3851,10 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="B236" t="s">
-        <v>214</v>
+        <v>169</v>
       </c>
       <c r="C236" t="s">
         <v>5</v>
@@ -3799,10 +3862,10 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="B237" t="s">
-        <v>214</v>
+        <v>165</v>
       </c>
       <c r="C237" t="s">
         <v>5</v>
@@ -3810,10 +3873,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="B238" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="C238" t="s">
         <v>5</v>
@@ -3821,10 +3884,10 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="B239" t="s">
-        <v>188</v>
+        <v>235</v>
       </c>
       <c r="C239" t="s">
         <v>5</v>
@@ -3832,10 +3895,10 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="B240" t="s">
-        <v>188</v>
+        <v>235</v>
       </c>
       <c r="C240" t="s">
         <v>5</v>
@@ -3843,12 +3906,188 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="B241" t="s">
-        <v>188</v>
+        <v>235</v>
       </c>
       <c r="C241" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s">
+        <v>291</v>
+      </c>
+      <c r="B242" t="s">
+        <v>179</v>
+      </c>
+      <c r="C242" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s">
+        <v>292</v>
+      </c>
+      <c r="B243" t="s">
+        <v>169</v>
+      </c>
+      <c r="C243" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>293</v>
+      </c>
+      <c r="B244" t="s">
+        <v>165</v>
+      </c>
+      <c r="C244" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s">
+        <v>294</v>
+      </c>
+      <c r="B245" t="s">
+        <v>167</v>
+      </c>
+      <c r="C245" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s">
+        <v>295</v>
+      </c>
+      <c r="B246" t="s">
+        <v>165</v>
+      </c>
+      <c r="C246" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="s">
+        <v>296</v>
+      </c>
+      <c r="B247" t="s">
+        <v>165</v>
+      </c>
+      <c r="C247" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s">
+        <v>297</v>
+      </c>
+      <c r="B248" t="s">
+        <v>169</v>
+      </c>
+      <c r="C248" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s">
+        <v>298</v>
+      </c>
+      <c r="B249" t="s">
+        <v>167</v>
+      </c>
+      <c r="C249" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s">
+        <v>299</v>
+      </c>
+      <c r="B250" t="s">
+        <v>167</v>
+      </c>
+      <c r="C250" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s">
+        <v>300</v>
+      </c>
+      <c r="B251" t="s">
+        <v>252</v>
+      </c>
+      <c r="C251" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s">
+        <v>301</v>
+      </c>
+      <c r="B252" t="s">
+        <v>235</v>
+      </c>
+      <c r="C252" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s">
+        <v>302</v>
+      </c>
+      <c r="B253" t="s">
+        <v>235</v>
+      </c>
+      <c r="C253" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s">
+        <v>303</v>
+      </c>
+      <c r="B254" t="s">
+        <v>209</v>
+      </c>
+      <c r="C254" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s">
+        <v>304</v>
+      </c>
+      <c r="B255" t="s">
+        <v>209</v>
+      </c>
+      <c r="C255" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s">
+        <v>305</v>
+      </c>
+      <c r="B256" t="s">
+        <v>209</v>
+      </c>
+      <c r="C256" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s">
+        <v>306</v>
+      </c>
+      <c r="B257" t="s">
+        <v>209</v>
+      </c>
+      <c r="C257" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/GreatLink/GreatLink Multi-Sector Income.xlsx
+++ b/data/GreatLink/GreatLink Multi-Sector Income.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid310675"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid197507"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="334">
   <si>
     <t>Price Date</t>
   </si>
@@ -26,15 +26,111 @@
     <t>Currency - Unit Level</t>
   </si>
   <si>
+    <t>04/06/2025</t>
+  </si>
+  <si>
+    <t>0.921</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>03/06/2025</t>
+  </si>
+  <si>
+    <t>0.917</t>
+  </si>
+  <si>
+    <t>02/06/2025</t>
+  </si>
+  <si>
+    <t>0.916</t>
+  </si>
+  <si>
+    <t>30/05/2025</t>
+  </si>
+  <si>
+    <t>0.922</t>
+  </si>
+  <si>
+    <t>29/05/2025</t>
+  </si>
+  <si>
+    <t>0.920</t>
+  </si>
+  <si>
+    <t>28/05/2025</t>
+  </si>
+  <si>
+    <t>27/05/2025</t>
+  </si>
+  <si>
+    <t>0.918</t>
+  </si>
+  <si>
+    <t>26/05/2025</t>
+  </si>
+  <si>
+    <t>0.915</t>
+  </si>
+  <si>
+    <t>23/05/2025</t>
+  </si>
+  <si>
+    <t>22/05/2025</t>
+  </si>
+  <si>
+    <t>0.913</t>
+  </si>
+  <si>
+    <t>21/05/2025</t>
+  </si>
+  <si>
+    <t>0.912</t>
+  </si>
+  <si>
+    <t>20/05/2025</t>
+  </si>
+  <si>
+    <t>19/05/2025</t>
+  </si>
+  <si>
+    <t>16/05/2025</t>
+  </si>
+  <si>
+    <t>15/05/2025</t>
+  </si>
+  <si>
+    <t>14/05/2025</t>
+  </si>
+  <si>
+    <t>13/05/2025</t>
+  </si>
+  <si>
+    <t>09/05/2025</t>
+  </si>
+  <si>
+    <t>08/05/2025</t>
+  </si>
+  <si>
+    <t>07/05/2025</t>
+  </si>
+  <si>
+    <t>06/05/2025</t>
+  </si>
+  <si>
+    <t>05/05/2025</t>
+  </si>
+  <si>
+    <t>02/05/2025</t>
+  </si>
+  <si>
     <t>30/04/2025</t>
   </si>
   <si>
     <t>0.929</t>
   </si>
   <si>
-    <t>SGD</t>
-  </si>
-  <si>
     <t>29/04/2025</t>
   </si>
   <si>
@@ -65,9 +161,6 @@
     <t>22/04/2025</t>
   </si>
   <si>
-    <t>0.916</t>
-  </si>
-  <si>
     <t>21/04/2025</t>
   </si>
   <si>
@@ -80,21 +173,12 @@
     <t>16/04/2025</t>
   </si>
   <si>
-    <t>0.918</t>
-  </si>
-  <si>
     <t>15/04/2025</t>
   </si>
   <si>
-    <t>0.917</t>
-  </si>
-  <si>
     <t>14/04/2025</t>
   </si>
   <si>
-    <t>0.915</t>
-  </si>
-  <si>
     <t>11/04/2025</t>
   </si>
   <si>
@@ -318,9 +402,6 @@
   </si>
   <si>
     <t>15/01/2025</t>
-  </si>
-  <si>
-    <t>0.922</t>
   </si>
   <si>
     <t>14/01/2025</t>
@@ -1291,7 +1372,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -1299,10 +1380,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -1310,10 +1391,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -1321,10 +1402,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1332,10 +1413,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1368,7 +1449,7 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -1401,7 +1482,7 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -1409,10 +1490,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -1420,10 +1501,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -1431,10 +1512,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -1442,10 +1523,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -1453,10 +1534,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -1464,10 +1545,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -1475,10 +1556,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -1486,10 +1567,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -1497,10 +1578,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -1508,10 +1589,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -1519,10 +1600,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -1530,10 +1611,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -1541,10 +1622,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -1552,10 +1633,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -1563,10 +1644,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -1574,10 +1655,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B29" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -1585,10 +1666,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -1596,10 +1677,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -1607,10 +1688,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -1618,10 +1699,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -1629,10 +1710,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B34" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -1640,10 +1721,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -1651,10 +1732,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -1662,10 +1743,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -1673,10 +1754,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B38" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -1684,10 +1765,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B39" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -1695,10 +1776,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -1706,10 +1787,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B41" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -1717,10 +1798,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B42" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -1728,10 +1809,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B43" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -1739,10 +1820,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B44" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -1750,7 +1831,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B45" t="s">
         <v>67</v>
@@ -1761,10 +1842,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
+        <v>68</v>
+      </c>
+      <c r="B46" t="s">
         <v>69</v>
-      </c>
-      <c r="B46" t="s">
-        <v>67</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -1775,7 +1856,7 @@
         <v>70</v>
       </c>
       <c r="B47" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -1786,7 +1867,7 @@
         <v>71</v>
       </c>
       <c r="B48" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -1794,10 +1875,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B49" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -1805,10 +1886,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B50" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -1816,10 +1897,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B51" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -1827,10 +1908,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B52" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -1838,10 +1919,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B53" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -1849,10 +1930,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B54" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -1860,10 +1941,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B55" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -1871,10 +1952,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B56" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -1882,10 +1963,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B57" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -1893,10 +1974,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B58" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -1904,10 +1985,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B59" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -1915,10 +1996,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B60" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -1926,10 +2007,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -1937,10 +2018,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B62" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -1948,10 +2029,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B63" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -1959,10 +2040,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B64" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -1973,7 +2054,7 @@
         <v>91</v>
       </c>
       <c r="B65" t="s">
-        <v>4</v>
+        <v>76</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -1984,7 +2065,7 @@
         <v>92</v>
       </c>
       <c r="B66" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -1992,10 +2073,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B67" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -2003,10 +2084,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B68" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -2014,10 +2095,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
+        <v>97</v>
+      </c>
+      <c r="B69" t="s">
         <v>95</v>
-      </c>
-      <c r="B69" t="s">
-        <v>10</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -2025,10 +2106,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B70" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -2036,10 +2117,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B71" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -2047,10 +2128,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B72" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -2058,10 +2139,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B73" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -2072,7 +2153,7 @@
         <v>102</v>
       </c>
       <c r="B74" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -2083,7 +2164,7 @@
         <v>103</v>
       </c>
       <c r="B75" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -2094,7 +2175,7 @@
         <v>104</v>
       </c>
       <c r="B76" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -2105,7 +2186,7 @@
         <v>105</v>
       </c>
       <c r="B77" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -2113,10 +2194,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B78" t="s">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -2124,10 +2205,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B79" t="s">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -2135,10 +2216,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B80" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -2146,10 +2227,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B81" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -2160,7 +2241,7 @@
         <v>111</v>
       </c>
       <c r="B82" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -2171,7 +2252,7 @@
         <v>112</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>106</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -2182,7 +2263,7 @@
         <v>113</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -2193,7 +2274,7 @@
         <v>114</v>
       </c>
       <c r="B85" t="s">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -2201,10 +2282,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B86" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -2212,10 +2293,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B87" t="s">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -2223,10 +2304,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B88" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -2234,10 +2315,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B89" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -2245,10 +2326,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B90" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -2256,10 +2337,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -2267,10 +2348,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B92" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -2278,10 +2359,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B93" t="s">
-        <v>35</v>
+        <v>125</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -2289,10 +2370,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B94" t="s">
-        <v>35</v>
+        <v>125</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -2300,10 +2381,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B95" t="s">
-        <v>48</v>
+        <v>125</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -2311,10 +2392,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B96" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -2322,10 +2403,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B97" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -2333,10 +2414,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B98" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -2344,10 +2425,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B99" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
@@ -2355,10 +2436,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B100" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
@@ -2366,10 +2447,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B101" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -2377,10 +2458,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B102" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
@@ -2388,10 +2469,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B103" t="s">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -2399,10 +2480,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B104" t="s">
-        <v>39</v>
+        <v>137</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -2410,10 +2491,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B105" t="s">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -2421,10 +2502,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B106" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
@@ -2432,10 +2513,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B107" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -2443,10 +2524,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B108" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -2454,10 +2535,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B109" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -2465,10 +2546,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B110" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -2476,10 +2557,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B111" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -2487,10 +2568,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B112" t="s">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -2498,10 +2579,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B113" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -2509,10 +2590,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B114" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -2520,10 +2601,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B115" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -2531,10 +2612,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B116" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -2542,10 +2623,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B117" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
@@ -2553,10 +2634,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B118" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -2564,10 +2645,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B119" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -2575,10 +2656,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B120" t="s">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -2586,10 +2667,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B121" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -2597,10 +2678,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B122" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -2608,10 +2689,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B123" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -2619,10 +2700,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B124" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -2630,10 +2711,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B125" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -2641,10 +2722,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B126" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
@@ -2652,10 +2733,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B127" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
@@ -2663,10 +2744,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B128" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
@@ -2674,10 +2755,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B129" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -2685,10 +2766,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B130" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -2696,10 +2777,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B131" t="s">
-        <v>161</v>
+        <v>78</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -2707,10 +2788,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B132" t="s">
-        <v>163</v>
+        <v>63</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
@@ -2718,10 +2799,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B133" t="s">
-        <v>165</v>
+        <v>65</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
@@ -2729,10 +2810,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B134" t="s">
-        <v>167</v>
+        <v>65</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
@@ -2743,7 +2824,7 @@
         <v>168</v>
       </c>
       <c r="B135" t="s">
-        <v>169</v>
+        <v>63</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
@@ -2751,10 +2832,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B136" t="s">
-        <v>165</v>
+        <v>63</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -2762,10 +2843,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B137" t="s">
-        <v>167</v>
+        <v>65</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
@@ -2773,10 +2854,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B138" t="s">
-        <v>165</v>
+        <v>65</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
@@ -2784,10 +2865,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B139" t="s">
-        <v>167</v>
+        <v>65</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -2795,10 +2876,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B140" t="s">
-        <v>167</v>
+        <v>65</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
@@ -2806,10 +2887,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B141" t="s">
-        <v>167</v>
+        <v>67</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
@@ -2817,10 +2898,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B142" t="s">
-        <v>167</v>
+        <v>78</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
@@ -2828,10 +2909,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B143" t="s">
-        <v>165</v>
+        <v>67</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -2839,10 +2920,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B144" t="s">
-        <v>179</v>
+        <v>106</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
@@ -2850,10 +2931,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B145" t="s">
-        <v>181</v>
+        <v>106</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
@@ -2861,10 +2942,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B146" t="s">
-        <v>181</v>
+        <v>118</v>
       </c>
       <c r="C146" t="s">
         <v>5</v>
@@ -2872,10 +2953,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B147" t="s">
-        <v>184</v>
+        <v>63</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
@@ -2883,10 +2964,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B148" t="s">
-        <v>186</v>
+        <v>76</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
@@ -2894,10 +2975,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B149" t="s">
-        <v>188</v>
+        <v>78</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
@@ -2905,10 +2986,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B150" t="s">
-        <v>184</v>
+        <v>67</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
@@ -2916,10 +2997,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B151" t="s">
-        <v>191</v>
+        <v>95</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
@@ -2927,10 +3008,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B152" t="s">
-        <v>186</v>
+        <v>95</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
@@ -2938,10 +3019,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B153" t="s">
-        <v>191</v>
+        <v>78</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
@@ -2949,10 +3030,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="B154" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
@@ -2960,10 +3041,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B155" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="C155" t="s">
         <v>5</v>
@@ -2971,10 +3052,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B156" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="C156" t="s">
         <v>5</v>
@@ -2982,10 +3063,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B157" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
@@ -2993,10 +3074,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B158" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
@@ -3004,10 +3085,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B159" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C159" t="s">
         <v>5</v>
@@ -3015,10 +3096,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B160" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
@@ -3026,10 +3107,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B161" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="C161" t="s">
         <v>5</v>
@@ -3037,10 +3118,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B162" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="C162" t="s">
         <v>5</v>
@@ -3048,10 +3129,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B163" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="C163" t="s">
         <v>5</v>
@@ -3059,10 +3140,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B164" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="C164" t="s">
         <v>5</v>
@@ -3070,10 +3151,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B165" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="C165" t="s">
         <v>5</v>
@@ -3081,10 +3162,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B166" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
@@ -3092,10 +3173,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B167" t="s">
-        <v>169</v>
+        <v>206</v>
       </c>
       <c r="C167" t="s">
         <v>5</v>
@@ -3103,10 +3184,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B168" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C168" t="s">
         <v>5</v>
@@ -3114,10 +3195,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B169" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="C169" t="s">
         <v>5</v>
@@ -3125,10 +3206,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B170" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="C170" t="s">
         <v>5</v>
@@ -3136,10 +3217,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B171" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C171" t="s">
         <v>5</v>
@@ -3147,10 +3228,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B172" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="C172" t="s">
         <v>5</v>
@@ -3158,10 +3239,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B173" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="C173" t="s">
         <v>5</v>
@@ -3169,10 +3250,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B174" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="C174" t="s">
         <v>5</v>
@@ -3180,10 +3261,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B175" t="s">
-        <v>181</v>
+        <v>213</v>
       </c>
       <c r="C175" t="s">
         <v>5</v>
@@ -3191,10 +3272,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B176" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="C176" t="s">
         <v>5</v>
@@ -3202,10 +3283,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B177" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="C177" t="s">
         <v>5</v>
@@ -3213,10 +3294,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B178" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C178" t="s">
         <v>5</v>
@@ -3224,10 +3305,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B179" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C179" t="s">
         <v>5</v>
@@ -3235,10 +3316,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B180" t="s">
-        <v>179</v>
+        <v>213</v>
       </c>
       <c r="C180" t="s">
         <v>5</v>
@@ -3246,10 +3327,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B181" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C181" t="s">
         <v>5</v>
@@ -3257,10 +3338,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B182" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="C182" t="s">
         <v>5</v>
@@ -3268,10 +3349,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B183" t="s">
-        <v>167</v>
+        <v>227</v>
       </c>
       <c r="C183" t="s">
         <v>5</v>
@@ -3279,10 +3360,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
+        <v>229</v>
+      </c>
+      <c r="B184" t="s">
         <v>230</v>
-      </c>
-      <c r="B184" t="s">
-        <v>167</v>
       </c>
       <c r="C184" t="s">
         <v>5</v>
@@ -3293,7 +3374,7 @@
         <v>231</v>
       </c>
       <c r="B185" t="s">
-        <v>165</v>
+        <v>208</v>
       </c>
       <c r="C185" t="s">
         <v>5</v>
@@ -3304,7 +3385,7 @@
         <v>232</v>
       </c>
       <c r="B186" t="s">
-        <v>165</v>
+        <v>233</v>
       </c>
       <c r="C186" t="s">
         <v>5</v>
@@ -3312,10 +3393,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B187" t="s">
-        <v>179</v>
+        <v>206</v>
       </c>
       <c r="C187" t="s">
         <v>5</v>
@@ -3323,10 +3404,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B188" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C188" t="s">
         <v>5</v>
@@ -3334,10 +3415,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B189" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="C189" t="s">
         <v>5</v>
@@ -3345,10 +3426,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B190" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="C190" t="s">
         <v>5</v>
@@ -3356,10 +3437,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B191" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C191" t="s">
         <v>5</v>
@@ -3367,10 +3448,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B192" t="s">
-        <v>235</v>
+        <v>208</v>
       </c>
       <c r="C192" t="s">
         <v>5</v>
@@ -3378,10 +3459,10 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B193" t="s">
-        <v>169</v>
+        <v>227</v>
       </c>
       <c r="C193" t="s">
         <v>5</v>
@@ -3389,10 +3470,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B194" t="s">
-        <v>165</v>
+        <v>244</v>
       </c>
       <c r="C194" t="s">
         <v>5</v>
@@ -3400,10 +3481,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B195" t="s">
-        <v>169</v>
+        <v>227</v>
       </c>
       <c r="C195" t="s">
         <v>5</v>
@@ -3411,10 +3492,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B196" t="s">
-        <v>169</v>
+        <v>227</v>
       </c>
       <c r="C196" t="s">
         <v>5</v>
@@ -3422,10 +3503,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B197" t="s">
-        <v>169</v>
+        <v>233</v>
       </c>
       <c r="C197" t="s">
         <v>5</v>
@@ -3433,10 +3514,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B198" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C198" t="s">
         <v>5</v>
@@ -3444,10 +3525,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B199" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C199" t="s">
         <v>5</v>
@@ -3455,10 +3536,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B200" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C200" t="s">
         <v>5</v>
@@ -3466,10 +3547,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B201" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="C201" t="s">
         <v>5</v>
@@ -3477,10 +3558,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B202" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C202" t="s">
         <v>5</v>
@@ -3488,10 +3569,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B203" t="s">
-        <v>169</v>
+        <v>206</v>
       </c>
       <c r="C203" t="s">
         <v>5</v>
@@ -3499,10 +3580,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B204" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="C204" t="s">
         <v>5</v>
@@ -3510,10 +3591,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B205" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="C205" t="s">
         <v>5</v>
@@ -3521,10 +3602,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B206" t="s">
-        <v>163</v>
+        <v>194</v>
       </c>
       <c r="C206" t="s">
         <v>5</v>
@@ -3532,10 +3613,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B207" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="C207" t="s">
         <v>5</v>
@@ -3543,10 +3624,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B208" t="s">
-        <v>50</v>
+        <v>192</v>
       </c>
       <c r="C208" t="s">
         <v>5</v>
@@ -3554,10 +3635,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B209" t="s">
-        <v>50</v>
+        <v>192</v>
       </c>
       <c r="C209" t="s">
         <v>5</v>
@@ -3565,10 +3646,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B210" t="s">
-        <v>41</v>
+        <v>206</v>
       </c>
       <c r="C210" t="s">
         <v>5</v>
@@ -3576,10 +3657,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B211" t="s">
-        <v>44</v>
+        <v>262</v>
       </c>
       <c r="C211" t="s">
         <v>5</v>
@@ -3587,10 +3668,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B212" t="s">
-        <v>163</v>
+        <v>208</v>
       </c>
       <c r="C212" t="s">
         <v>5</v>
@@ -3598,10 +3679,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
+        <v>264</v>
+      </c>
+      <c r="B213" t="s">
         <v>262</v>
-      </c>
-      <c r="B213" t="s">
-        <v>254</v>
       </c>
       <c r="C213" t="s">
         <v>5</v>
@@ -3609,10 +3690,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B214" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="C214" t="s">
         <v>5</v>
@@ -3620,10 +3701,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B215" t="s">
-        <v>167</v>
+        <v>262</v>
       </c>
       <c r="C215" t="s">
         <v>5</v>
@@ -3631,10 +3712,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B216" t="s">
-        <v>167</v>
+        <v>196</v>
       </c>
       <c r="C216" t="s">
         <v>5</v>
@@ -3642,10 +3723,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B217" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="C217" t="s">
         <v>5</v>
@@ -3653,10 +3734,10 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B218" t="s">
-        <v>167</v>
+        <v>196</v>
       </c>
       <c r="C218" t="s">
         <v>5</v>
@@ -3664,10 +3745,10 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B219" t="s">
-        <v>167</v>
+        <v>196</v>
       </c>
       <c r="C219" t="s">
         <v>5</v>
@@ -3675,10 +3756,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B220" t="s">
-        <v>167</v>
+        <v>196</v>
       </c>
       <c r="C220" t="s">
         <v>5</v>
@@ -3686,10 +3767,10 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B221" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="C221" t="s">
         <v>5</v>
@@ -3697,10 +3778,10 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B222" t="s">
-        <v>165</v>
+        <v>262</v>
       </c>
       <c r="C222" t="s">
         <v>5</v>
@@ -3708,10 +3789,10 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B223" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="C223" t="s">
         <v>5</v>
@@ -3719,10 +3800,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B224" t="s">
-        <v>163</v>
+        <v>238</v>
       </c>
       <c r="C224" t="s">
         <v>5</v>
@@ -3730,10 +3811,10 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B225" t="s">
-        <v>65</v>
+        <v>262</v>
       </c>
       <c r="C225" t="s">
         <v>5</v>
@@ -3741,10 +3822,10 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B226" t="s">
-        <v>161</v>
+        <v>196</v>
       </c>
       <c r="C226" t="s">
         <v>5</v>
@@ -3752,10 +3833,10 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B227" t="s">
-        <v>167</v>
+        <v>279</v>
       </c>
       <c r="C227" t="s">
         <v>5</v>
@@ -3763,10 +3844,10 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B228" t="s">
-        <v>165</v>
+        <v>281</v>
       </c>
       <c r="C228" t="s">
         <v>5</v>
@@ -3774,10 +3855,10 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B229" t="s">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="C229" t="s">
         <v>5</v>
@@ -3785,10 +3866,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="B230" t="s">
-        <v>252</v>
+        <v>188</v>
       </c>
       <c r="C230" t="s">
         <v>5</v>
@@ -3796,10 +3877,10 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B231" t="s">
-        <v>165</v>
+        <v>78</v>
       </c>
       <c r="C231" t="s">
         <v>5</v>
@@ -3807,10 +3888,10 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B232" t="s">
-        <v>252</v>
+        <v>78</v>
       </c>
       <c r="C232" t="s">
         <v>5</v>
@@ -3818,10 +3899,10 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B233" t="s">
-        <v>254</v>
+        <v>69</v>
       </c>
       <c r="C233" t="s">
         <v>5</v>
@@ -3829,10 +3910,10 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B234" t="s">
-        <v>165</v>
+        <v>72</v>
       </c>
       <c r="C234" t="s">
         <v>5</v>
@@ -3840,10 +3921,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B235" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="C235" t="s">
         <v>5</v>
@@ -3851,10 +3932,10 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B236" t="s">
-        <v>169</v>
+        <v>281</v>
       </c>
       <c r="C236" t="s">
         <v>5</v>
@@ -3862,10 +3943,10 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B237" t="s">
-        <v>165</v>
+        <v>281</v>
       </c>
       <c r="C237" t="s">
         <v>5</v>
@@ -3873,10 +3954,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B238" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="C238" t="s">
         <v>5</v>
@@ -3884,10 +3965,10 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B239" t="s">
-        <v>235</v>
+        <v>194</v>
       </c>
       <c r="C239" t="s">
         <v>5</v>
@@ -3895,10 +3976,10 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B240" t="s">
-        <v>235</v>
+        <v>194</v>
       </c>
       <c r="C240" t="s">
         <v>5</v>
@@ -3906,10 +3987,10 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B241" t="s">
-        <v>235</v>
+        <v>194</v>
       </c>
       <c r="C241" t="s">
         <v>5</v>
@@ -3917,10 +3998,10 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B242" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="C242" t="s">
         <v>5</v>
@@ -3928,10 +4009,10 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B243" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="C243" t="s">
         <v>5</v>
@@ -3939,10 +4020,10 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B244" t="s">
-        <v>165</v>
+        <v>279</v>
       </c>
       <c r="C244" t="s">
         <v>5</v>
@@ -3950,10 +4031,10 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B245" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="C245" t="s">
         <v>5</v>
@@ -3961,10 +4042,10 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B246" t="s">
-        <v>165</v>
+        <v>279</v>
       </c>
       <c r="C246" t="s">
         <v>5</v>
@@ -3972,10 +4053,10 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B247" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="C247" t="s">
         <v>5</v>
@@ -3983,10 +4064,10 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B248" t="s">
-        <v>169</v>
+        <v>93</v>
       </c>
       <c r="C248" t="s">
         <v>5</v>
@@ -3994,10 +4075,10 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B249" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="C249" t="s">
         <v>5</v>
@@ -4005,10 +4086,10 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="B250" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="C250" t="s">
         <v>5</v>
@@ -4016,10 +4097,10 @@
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B251" t="s">
-        <v>252</v>
+        <v>192</v>
       </c>
       <c r="C251" t="s">
         <v>5</v>
@@ -4027,10 +4108,10 @@
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B252" t="s">
-        <v>235</v>
+        <v>194</v>
       </c>
       <c r="C252" t="s">
         <v>5</v>
@@ -4038,10 +4119,10 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B253" t="s">
-        <v>235</v>
+        <v>279</v>
       </c>
       <c r="C253" t="s">
         <v>5</v>
@@ -4049,10 +4130,10 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B254" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="C254" t="s">
         <v>5</v>
@@ -4060,10 +4141,10 @@
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="B255" t="s">
-        <v>209</v>
+        <v>279</v>
       </c>
       <c r="C255" t="s">
         <v>5</v>
@@ -4071,10 +4152,10 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B256" t="s">
-        <v>209</v>
+        <v>281</v>
       </c>
       <c r="C256" t="s">
         <v>5</v>
@@ -4082,12 +4163,265 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="B257" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="C257" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s">
+        <v>311</v>
+      </c>
+      <c r="B258" t="s">
+        <v>196</v>
+      </c>
+      <c r="C258" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s">
+        <v>312</v>
+      </c>
+      <c r="B259" t="s">
+        <v>196</v>
+      </c>
+      <c r="C259" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s">
+        <v>313</v>
+      </c>
+      <c r="B260" t="s">
+        <v>192</v>
+      </c>
+      <c r="C260" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s">
+        <v>314</v>
+      </c>
+      <c r="B261" t="s">
+        <v>236</v>
+      </c>
+      <c r="C261" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s">
+        <v>315</v>
+      </c>
+      <c r="B262" t="s">
+        <v>262</v>
+      </c>
+      <c r="C262" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s">
+        <v>316</v>
+      </c>
+      <c r="B263" t="s">
+        <v>262</v>
+      </c>
+      <c r="C263" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s">
+        <v>317</v>
+      </c>
+      <c r="B264" t="s">
+        <v>262</v>
+      </c>
+      <c r="C264" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s">
+        <v>318</v>
+      </c>
+      <c r="B265" t="s">
+        <v>206</v>
+      </c>
+      <c r="C265" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s">
+        <v>319</v>
+      </c>
+      <c r="B266" t="s">
+        <v>196</v>
+      </c>
+      <c r="C266" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s">
+        <v>320</v>
+      </c>
+      <c r="B267" t="s">
+        <v>192</v>
+      </c>
+      <c r="C267" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s">
+        <v>321</v>
+      </c>
+      <c r="B268" t="s">
+        <v>194</v>
+      </c>
+      <c r="C268" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s">
+        <v>322</v>
+      </c>
+      <c r="B269" t="s">
+        <v>192</v>
+      </c>
+      <c r="C269" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s">
+        <v>323</v>
+      </c>
+      <c r="B270" t="s">
+        <v>192</v>
+      </c>
+      <c r="C270" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="s">
+        <v>324</v>
+      </c>
+      <c r="B271" t="s">
+        <v>196</v>
+      </c>
+      <c r="C271" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="s">
+        <v>325</v>
+      </c>
+      <c r="B272" t="s">
+        <v>194</v>
+      </c>
+      <c r="C272" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s">
+        <v>326</v>
+      </c>
+      <c r="B273" t="s">
+        <v>194</v>
+      </c>
+      <c r="C273" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s">
+        <v>327</v>
+      </c>
+      <c r="B274" t="s">
+        <v>279</v>
+      </c>
+      <c r="C274" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="s">
+        <v>328</v>
+      </c>
+      <c r="B275" t="s">
+        <v>262</v>
+      </c>
+      <c r="C275" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="s">
+        <v>329</v>
+      </c>
+      <c r="B276" t="s">
+        <v>262</v>
+      </c>
+      <c r="C276" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="s">
+        <v>330</v>
+      </c>
+      <c r="B277" t="s">
+        <v>236</v>
+      </c>
+      <c r="C277" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="s">
+        <v>331</v>
+      </c>
+      <c r="B278" t="s">
+        <v>236</v>
+      </c>
+      <c r="C278" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s">
+        <v>332</v>
+      </c>
+      <c r="B279" t="s">
+        <v>236</v>
+      </c>
+      <c r="C279" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s">
+        <v>333</v>
+      </c>
+      <c r="B280" t="s">
+        <v>236</v>
+      </c>
+      <c r="C280" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/GreatLink/GreatLink Multi-Sector Income.xlsx
+++ b/data/GreatLink/GreatLink Multi-Sector Income.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid197507"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid411063"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="353">
   <si>
     <t>Price Date</t>
   </si>
@@ -26,21 +26,108 @@
     <t>Currency - Unit Level</t>
   </si>
   <si>
+    <t>01/07/2025</t>
+  </si>
+  <si>
+    <t>0.928</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>30/06/2025</t>
+  </si>
+  <si>
+    <t>0.933</t>
+  </si>
+  <si>
+    <t>27/06/2025</t>
+  </si>
+  <si>
+    <t>0.930</t>
+  </si>
+  <si>
+    <t>26/06/2025</t>
+  </si>
+  <si>
+    <t>0.931</t>
+  </si>
+  <si>
+    <t>25/06/2025</t>
+  </si>
+  <si>
+    <t>24/06/2025</t>
+  </si>
+  <si>
+    <t>23/06/2025</t>
+  </si>
+  <si>
+    <t>0.924</t>
+  </si>
+  <si>
+    <t>20/06/2025</t>
+  </si>
+  <si>
+    <t>0.922</t>
+  </si>
+  <si>
+    <t>19/06/2025</t>
+  </si>
+  <si>
+    <t>18/06/2025</t>
+  </si>
+  <si>
+    <t>17/06/2025</t>
+  </si>
+  <si>
+    <t>0.921</t>
+  </si>
+  <si>
+    <t>16/06/2025</t>
+  </si>
+  <si>
+    <t>13/06/2025</t>
+  </si>
+  <si>
+    <t>12/06/2025</t>
+  </si>
+  <si>
+    <t>0.925</t>
+  </si>
+  <si>
+    <t>11/06/2025</t>
+  </si>
+  <si>
+    <t>10/06/2025</t>
+  </si>
+  <si>
+    <t>0.920</t>
+  </si>
+  <si>
+    <t>09/06/2025</t>
+  </si>
+  <si>
+    <t>0.917</t>
+  </si>
+  <si>
+    <t>06/06/2025</t>
+  </si>
+  <si>
+    <t>0.915</t>
+  </si>
+  <si>
+    <t>05/06/2025</t>
+  </si>
+  <si>
+    <t>0.919</t>
+  </si>
+  <si>
     <t>04/06/2025</t>
   </si>
   <si>
-    <t>0.921</t>
-  </si>
-  <si>
-    <t>SGD</t>
-  </si>
-  <si>
     <t>03/06/2025</t>
   </si>
   <si>
-    <t>0.917</t>
-  </si>
-  <si>
     <t>02/06/2025</t>
   </si>
   <si>
@@ -50,15 +137,9 @@
     <t>30/05/2025</t>
   </si>
   <si>
-    <t>0.922</t>
-  </si>
-  <si>
     <t>29/05/2025</t>
   </si>
   <si>
-    <t>0.920</t>
-  </si>
-  <si>
     <t>28/05/2025</t>
   </si>
   <si>
@@ -71,9 +152,6 @@
     <t>26/05/2025</t>
   </si>
   <si>
-    <t>0.915</t>
-  </si>
-  <si>
     <t>23/05/2025</t>
   </si>
   <si>
@@ -137,9 +215,6 @@
     <t>28/04/2025</t>
   </si>
   <si>
-    <t>0.928</t>
-  </si>
-  <si>
     <t>25/04/2025</t>
   </si>
   <si>
@@ -149,15 +224,9 @@
     <t>24/04/2025</t>
   </si>
   <si>
-    <t>0.925</t>
-  </si>
-  <si>
     <t>23/04/2025</t>
   </si>
   <si>
-    <t>0.919</t>
-  </si>
-  <si>
     <t>22/04/2025</t>
   </si>
   <si>
@@ -206,9 +275,6 @@
     <t>03/04/2025</t>
   </si>
   <si>
-    <t>0.933</t>
-  </si>
-  <si>
     <t>02/04/2025</t>
   </si>
   <si>
@@ -335,9 +401,6 @@
     <t>13/02/2025</t>
   </si>
   <si>
-    <t>0.931</t>
-  </si>
-  <si>
     <t>12/02/2025</t>
   </si>
   <si>
@@ -371,9 +434,6 @@
     <t>28/01/2025</t>
   </si>
   <si>
-    <t>0.930</t>
-  </si>
-  <si>
     <t>27/01/2025</t>
   </si>
   <si>
@@ -390,9 +450,6 @@
   </si>
   <si>
     <t>20/01/2025</t>
-  </si>
-  <si>
-    <t>0.924</t>
   </si>
   <si>
     <t>17/01/2025</t>
@@ -1405,7 +1462,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1413,10 +1470,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1424,10 +1481,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
         <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -1435,10 +1492,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
         <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -1446,10 +1503,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -1457,10 +1514,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -1468,10 +1525,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -1479,10 +1536,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -1490,10 +1547,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -1501,10 +1558,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -1512,10 +1569,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -1523,10 +1580,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
         <v>28</v>
-      </c>
-      <c r="B17" t="s">
-        <v>21</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -1537,7 +1594,7 @@
         <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -1545,10 +1602,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -1556,10 +1613,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -1567,10 +1624,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -1578,10 +1635,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -1589,10 +1646,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -1600,10 +1657,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -1611,10 +1668,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -1622,10 +1679,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -1633,10 +1690,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -1644,10 +1701,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -1655,10 +1712,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -1666,10 +1723,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -1677,10 +1734,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B31" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -1688,10 +1745,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B32" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -1699,10 +1756,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -1710,10 +1767,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B34" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -1721,10 +1778,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -1732,10 +1789,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B36" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -1743,10 +1800,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B37" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -1757,7 +1814,7 @@
         <v>56</v>
       </c>
       <c r="B38" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -1765,10 +1822,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B39" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -1776,10 +1833,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B40" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -1787,10 +1844,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B41" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -1798,10 +1855,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B42" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -1809,10 +1866,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B43" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -1820,10 +1877,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B44" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -1831,10 +1888,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B45" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -1842,10 +1899,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B46" t="s">
-        <v>69</v>
+        <v>4</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -1853,10 +1910,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B47" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -1864,10 +1921,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B48" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -1875,10 +1932,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B49" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -1886,10 +1943,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B50" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -1897,10 +1954,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B51" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -1908,10 +1965,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B52" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -1919,10 +1976,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B53" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -1930,10 +1987,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B54" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -1941,10 +1998,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B55" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -1952,10 +2009,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B56" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -1963,10 +2020,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B57" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -1974,10 +2031,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B58" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -1985,7 +2042,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B59" t="s">
         <v>72</v>
@@ -1996,10 +2053,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B60" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -2007,10 +2064,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B61" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -2018,10 +2075,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B62" t="s">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -2029,10 +2086,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B63" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -2040,10 +2097,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B64" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -2051,10 +2108,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
+        <v>90</v>
+      </c>
+      <c r="B65" t="s">
         <v>91</v>
-      </c>
-      <c r="B65" t="s">
-        <v>76</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -2065,7 +2122,7 @@
         <v>92</v>
       </c>
       <c r="B66" t="s">
-        <v>93</v>
+        <v>7</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -2073,10 +2130,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
+        <v>93</v>
+      </c>
+      <c r="B67" t="s">
         <v>94</v>
-      </c>
-      <c r="B67" t="s">
-        <v>95</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -2084,10 +2141,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B68" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -2095,10 +2152,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B69" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -2106,10 +2163,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
+        <v>97</v>
+      </c>
+      <c r="B70" t="s">
         <v>98</v>
-      </c>
-      <c r="B70" t="s">
-        <v>67</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -2120,7 +2177,7 @@
         <v>99</v>
       </c>
       <c r="B71" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -2128,10 +2185,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B72" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -2139,10 +2196,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B73" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -2150,10 +2207,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B74" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -2161,10 +2218,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B75" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -2172,10 +2229,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B76" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -2183,10 +2240,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B77" t="s">
-        <v>106</v>
+        <v>7</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -2197,7 +2254,7 @@
         <v>107</v>
       </c>
       <c r="B78" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -2208,7 +2265,7 @@
         <v>108</v>
       </c>
       <c r="B79" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -2219,7 +2276,7 @@
         <v>109</v>
       </c>
       <c r="B80" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -2230,7 +2287,7 @@
         <v>110</v>
       </c>
       <c r="B81" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -2241,7 +2298,7 @@
         <v>111</v>
       </c>
       <c r="B82" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -2252,7 +2309,7 @@
         <v>112</v>
       </c>
       <c r="B83" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -2263,7 +2320,7 @@
         <v>113</v>
       </c>
       <c r="B84" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -2285,7 +2342,7 @@
         <v>116</v>
       </c>
       <c r="B86" t="s">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -2293,10 +2350,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
+        <v>118</v>
+      </c>
+      <c r="B87" t="s">
         <v>117</v>
-      </c>
-      <c r="B87" t="s">
-        <v>118</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -2307,7 +2364,7 @@
         <v>119</v>
       </c>
       <c r="B88" t="s">
-        <v>37</v>
+        <v>117</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -2318,7 +2375,7 @@
         <v>120</v>
       </c>
       <c r="B89" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -2329,7 +2386,7 @@
         <v>121</v>
       </c>
       <c r="B90" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -2340,7 +2397,7 @@
         <v>122</v>
       </c>
       <c r="B91" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -2351,7 +2408,7 @@
         <v>123</v>
       </c>
       <c r="B92" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -2362,7 +2419,7 @@
         <v>124</v>
       </c>
       <c r="B93" t="s">
-        <v>125</v>
+        <v>87</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -2370,10 +2427,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B94" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -2381,10 +2438,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B95" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -2392,7 +2449,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B96" t="s">
         <v>11</v>
@@ -2403,10 +2460,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B97" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -2414,10 +2471,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B98" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -2425,10 +2482,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B99" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
@@ -2436,7 +2493,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B100" t="s">
         <v>11</v>
@@ -2447,10 +2504,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B101" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -2458,7 +2515,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B102" t="s">
         <v>11</v>
@@ -2469,10 +2526,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B103" t="s">
-        <v>125</v>
+        <v>4</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -2480,10 +2537,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
+        <v>135</v>
+      </c>
+      <c r="B104" t="s">
         <v>136</v>
-      </c>
-      <c r="B104" t="s">
-        <v>137</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -2491,10 +2548,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B105" t="s">
-        <v>125</v>
+        <v>67</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -2502,10 +2559,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B106" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
@@ -2513,10 +2570,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B107" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -2524,10 +2581,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B108" t="s">
-        <v>42</v>
+        <v>136</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -2535,10 +2592,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B109" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -2546,10 +2603,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B110" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -2557,10 +2614,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B111" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -2568,10 +2625,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B112" t="s">
-        <v>115</v>
+        <v>15</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -2579,10 +2636,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B113" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -2590,10 +2647,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B114" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -2601,10 +2658,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B115" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -2612,10 +2669,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B116" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -2623,10 +2680,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B117" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
@@ -2634,10 +2691,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B118" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -2645,10 +2702,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B119" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -2656,10 +2713,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B120" t="s">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -2667,10 +2724,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B121" t="s">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -2678,10 +2735,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B122" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -2689,10 +2746,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
+        <v>155</v>
+      </c>
+      <c r="B123" t="s">
         <v>156</v>
-      </c>
-      <c r="B123" t="s">
-        <v>95</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -2703,7 +2760,7 @@
         <v>157</v>
       </c>
       <c r="B124" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -2714,7 +2771,7 @@
         <v>158</v>
       </c>
       <c r="B125" t="s">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -2725,7 +2782,7 @@
         <v>159</v>
       </c>
       <c r="B126" t="s">
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
@@ -2747,7 +2804,7 @@
         <v>161</v>
       </c>
       <c r="B128" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
@@ -2758,7 +2815,7 @@
         <v>162</v>
       </c>
       <c r="B129" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -2769,7 +2826,7 @@
         <v>163</v>
       </c>
       <c r="B130" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -2780,7 +2837,7 @@
         <v>164</v>
       </c>
       <c r="B131" t="s">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -2791,7 +2848,7 @@
         <v>165</v>
       </c>
       <c r="B132" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
@@ -2802,7 +2859,7 @@
         <v>166</v>
       </c>
       <c r="B133" t="s">
-        <v>65</v>
+        <v>4</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
@@ -2813,7 +2870,7 @@
         <v>167</v>
       </c>
       <c r="B134" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
@@ -2824,7 +2881,7 @@
         <v>168</v>
       </c>
       <c r="B135" t="s">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
@@ -2835,7 +2892,7 @@
         <v>169</v>
       </c>
       <c r="B136" t="s">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -2846,7 +2903,7 @@
         <v>170</v>
       </c>
       <c r="B137" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
@@ -2857,7 +2914,7 @@
         <v>171</v>
       </c>
       <c r="B138" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
@@ -2868,7 +2925,7 @@
         <v>172</v>
       </c>
       <c r="B139" t="s">
-        <v>65</v>
+        <v>117</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -2879,7 +2936,7 @@
         <v>173</v>
       </c>
       <c r="B140" t="s">
-        <v>65</v>
+        <v>117</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
@@ -2890,7 +2947,7 @@
         <v>174</v>
       </c>
       <c r="B141" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
@@ -2901,7 +2958,7 @@
         <v>175</v>
       </c>
       <c r="B142" t="s">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
@@ -2912,7 +2969,7 @@
         <v>176</v>
       </c>
       <c r="B143" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -2923,7 +2980,7 @@
         <v>177</v>
       </c>
       <c r="B144" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
@@ -2934,7 +2991,7 @@
         <v>178</v>
       </c>
       <c r="B145" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
@@ -2945,7 +3002,7 @@
         <v>179</v>
       </c>
       <c r="B146" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="C146" t="s">
         <v>5</v>
@@ -2956,7 +3013,7 @@
         <v>180</v>
       </c>
       <c r="B147" t="s">
-        <v>63</v>
+        <v>117</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
@@ -2967,7 +3024,7 @@
         <v>181</v>
       </c>
       <c r="B148" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
@@ -2978,7 +3035,7 @@
         <v>182</v>
       </c>
       <c r="B149" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
@@ -2989,7 +3046,7 @@
         <v>183</v>
       </c>
       <c r="B150" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
@@ -3000,7 +3057,7 @@
         <v>184</v>
       </c>
       <c r="B151" t="s">
-        <v>95</v>
+        <v>7</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
@@ -3011,7 +3068,7 @@
         <v>185</v>
       </c>
       <c r="B152" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
@@ -3022,7 +3079,7 @@
         <v>186</v>
       </c>
       <c r="B153" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
@@ -3033,7 +3090,7 @@
         <v>187</v>
       </c>
       <c r="B154" t="s">
-        <v>188</v>
+        <v>7</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
@@ -3041,10 +3098,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B155" t="s">
-        <v>190</v>
+        <v>7</v>
       </c>
       <c r="C155" t="s">
         <v>5</v>
@@ -3052,10 +3109,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B156" t="s">
-        <v>192</v>
+        <v>87</v>
       </c>
       <c r="C156" t="s">
         <v>5</v>
@@ -3063,10 +3120,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B157" t="s">
-        <v>194</v>
+        <v>87</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
@@ -3074,10 +3131,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B158" t="s">
-        <v>196</v>
+        <v>87</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
@@ -3085,10 +3142,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B159" t="s">
-        <v>192</v>
+        <v>87</v>
       </c>
       <c r="C159" t="s">
         <v>5</v>
@@ -3096,10 +3153,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B160" t="s">
-        <v>194</v>
+        <v>89</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
@@ -3107,10 +3164,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B161" t="s">
-        <v>192</v>
+        <v>100</v>
       </c>
       <c r="C161" t="s">
         <v>5</v>
@@ -3118,10 +3175,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B162" t="s">
-        <v>194</v>
+        <v>89</v>
       </c>
       <c r="C162" t="s">
         <v>5</v>
@@ -3129,10 +3186,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B163" t="s">
-        <v>194</v>
+        <v>11</v>
       </c>
       <c r="C163" t="s">
         <v>5</v>
@@ -3140,10 +3197,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B164" t="s">
-        <v>194</v>
+        <v>11</v>
       </c>
       <c r="C164" t="s">
         <v>5</v>
@@ -3151,10 +3208,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B165" t="s">
-        <v>194</v>
+        <v>9</v>
       </c>
       <c r="C165" t="s">
         <v>5</v>
@@ -3162,10 +3219,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B166" t="s">
-        <v>192</v>
+        <v>7</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
@@ -3173,10 +3230,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B167" t="s">
-        <v>206</v>
+        <v>98</v>
       </c>
       <c r="C167" t="s">
         <v>5</v>
@@ -3184,10 +3241,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B168" t="s">
-        <v>208</v>
+        <v>100</v>
       </c>
       <c r="C168" t="s">
         <v>5</v>
@@ -3195,10 +3252,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B169" t="s">
-        <v>208</v>
+        <v>89</v>
       </c>
       <c r="C169" t="s">
         <v>5</v>
@@ -3206,10 +3263,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B170" t="s">
-        <v>211</v>
+        <v>117</v>
       </c>
       <c r="C170" t="s">
         <v>5</v>
@@ -3217,10 +3274,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="B171" t="s">
-        <v>213</v>
+        <v>117</v>
       </c>
       <c r="C171" t="s">
         <v>5</v>
@@ -3228,10 +3285,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="B172" t="s">
-        <v>215</v>
+        <v>100</v>
       </c>
       <c r="C172" t="s">
         <v>5</v>
@@ -3239,10 +3296,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="B173" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C173" t="s">
         <v>5</v>
@@ -3250,10 +3307,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="B174" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="C174" t="s">
         <v>5</v>
@@ -3261,10 +3318,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="B175" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C175" t="s">
         <v>5</v>
@@ -3272,10 +3329,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B176" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C176" t="s">
         <v>5</v>
@@ -3283,10 +3340,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B177" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C177" t="s">
         <v>5</v>
@@ -3294,7 +3351,7 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B178" t="s">
         <v>211</v>
@@ -3305,7 +3362,7 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B179" t="s">
         <v>213</v>
@@ -3316,10 +3373,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B180" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C180" t="s">
         <v>5</v>
@@ -3327,10 +3384,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B181" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C181" t="s">
         <v>5</v>
@@ -3338,10 +3395,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B182" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="C182" t="s">
         <v>5</v>
@@ -3349,10 +3406,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="B183" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="C183" t="s">
         <v>5</v>
@@ -3360,10 +3417,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="B184" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="C184" t="s">
         <v>5</v>
@@ -3371,10 +3428,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="B185" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C185" t="s">
         <v>5</v>
@@ -3382,10 +3439,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="B186" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C186" t="s">
         <v>5</v>
@@ -3393,10 +3450,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="B187" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="C187" t="s">
         <v>5</v>
@@ -3404,10 +3461,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B188" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="C188" t="s">
         <v>5</v>
@@ -3415,10 +3472,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B189" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C189" t="s">
         <v>5</v>
@@ -3426,10 +3483,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B190" t="s">
-        <v>196</v>
+        <v>232</v>
       </c>
       <c r="C190" t="s">
         <v>5</v>
@@ -3437,10 +3494,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="B191" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C191" t="s">
         <v>5</v>
@@ -3448,10 +3505,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B192" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="C192" t="s">
         <v>5</v>
@@ -3459,10 +3516,10 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B193" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="C193" t="s">
         <v>5</v>
@@ -3470,10 +3527,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B194" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="C194" t="s">
         <v>5</v>
@@ -3481,10 +3538,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B195" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="C195" t="s">
         <v>5</v>
@@ -3492,10 +3549,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B196" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="C196" t="s">
         <v>5</v>
@@ -3503,10 +3560,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B197" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C197" t="s">
         <v>5</v>
@@ -3514,10 +3571,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B198" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="C198" t="s">
         <v>5</v>
@@ -3525,10 +3582,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B199" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C199" t="s">
         <v>5</v>
@@ -3536,10 +3593,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B200" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C200" t="s">
         <v>5</v>
@@ -3547,10 +3604,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B201" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="C201" t="s">
         <v>5</v>
@@ -3558,10 +3615,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B202" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="C202" t="s">
         <v>5</v>
@@ -3569,10 +3626,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B203" t="s">
-        <v>206</v>
+        <v>249</v>
       </c>
       <c r="C203" t="s">
         <v>5</v>
@@ -3580,10 +3637,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B204" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="C204" t="s">
         <v>5</v>
@@ -3591,10 +3648,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B205" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="C205" t="s">
         <v>5</v>
@@ -3602,10 +3659,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B206" t="s">
-        <v>194</v>
+        <v>225</v>
       </c>
       <c r="C206" t="s">
         <v>5</v>
@@ -3613,10 +3670,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B207" t="s">
-        <v>194</v>
+        <v>255</v>
       </c>
       <c r="C207" t="s">
         <v>5</v>
@@ -3624,10 +3681,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B208" t="s">
-        <v>192</v>
+        <v>257</v>
       </c>
       <c r="C208" t="s">
         <v>5</v>
@@ -3635,10 +3692,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B209" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="C209" t="s">
         <v>5</v>
@@ -3646,10 +3703,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B210" t="s">
-        <v>206</v>
+        <v>252</v>
       </c>
       <c r="C210" t="s">
         <v>5</v>
@@ -3657,10 +3714,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B211" t="s">
-        <v>262</v>
+        <v>227</v>
       </c>
       <c r="C211" t="s">
         <v>5</v>
@@ -3668,10 +3725,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B212" t="s">
-        <v>208</v>
+        <v>246</v>
       </c>
       <c r="C212" t="s">
         <v>5</v>
@@ -3679,10 +3736,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B213" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C213" t="s">
         <v>5</v>
@@ -3690,10 +3747,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B214" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="C214" t="s">
         <v>5</v>
@@ -3701,10 +3758,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B215" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="C215" t="s">
         <v>5</v>
@@ -3712,10 +3769,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B216" t="s">
-        <v>196</v>
+        <v>252</v>
       </c>
       <c r="C216" t="s">
         <v>5</v>
@@ -3723,10 +3780,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B217" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="C217" t="s">
         <v>5</v>
@@ -3734,10 +3791,10 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B218" t="s">
-        <v>196</v>
+        <v>252</v>
       </c>
       <c r="C218" t="s">
         <v>5</v>
@@ -3745,10 +3802,10 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B219" t="s">
-        <v>196</v>
+        <v>252</v>
       </c>
       <c r="C219" t="s">
         <v>5</v>
@@ -3756,10 +3813,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B220" t="s">
-        <v>196</v>
+        <v>252</v>
       </c>
       <c r="C220" t="s">
         <v>5</v>
@@ -3767,10 +3824,10 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B221" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="C221" t="s">
         <v>5</v>
@@ -3778,10 +3835,10 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B222" t="s">
-        <v>262</v>
+        <v>225</v>
       </c>
       <c r="C222" t="s">
         <v>5</v>
@@ -3789,10 +3846,10 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B223" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="C223" t="s">
         <v>5</v>
@@ -3800,10 +3857,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B224" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="C224" t="s">
         <v>5</v>
@@ -3811,10 +3868,10 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B225" t="s">
-        <v>262</v>
+        <v>213</v>
       </c>
       <c r="C225" t="s">
         <v>5</v>
@@ -3822,10 +3879,10 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B226" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="C226" t="s">
         <v>5</v>
@@ -3833,10 +3890,10 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B227" t="s">
-        <v>279</v>
+        <v>211</v>
       </c>
       <c r="C227" t="s">
         <v>5</v>
@@ -3844,10 +3901,10 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B228" t="s">
-        <v>281</v>
+        <v>211</v>
       </c>
       <c r="C228" t="s">
         <v>5</v>
@@ -3855,10 +3912,10 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B229" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="C229" t="s">
         <v>5</v>
@@ -3866,10 +3923,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B230" t="s">
-        <v>188</v>
+        <v>281</v>
       </c>
       <c r="C230" t="s">
         <v>5</v>
@@ -3877,10 +3934,10 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B231" t="s">
-        <v>78</v>
+        <v>227</v>
       </c>
       <c r="C231" t="s">
         <v>5</v>
@@ -3888,10 +3945,10 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B232" t="s">
-        <v>78</v>
+        <v>281</v>
       </c>
       <c r="C232" t="s">
         <v>5</v>
@@ -3899,10 +3956,10 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B233" t="s">
-        <v>69</v>
+        <v>281</v>
       </c>
       <c r="C233" t="s">
         <v>5</v>
@@ -3910,10 +3967,10 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B234" t="s">
-        <v>72</v>
+        <v>281</v>
       </c>
       <c r="C234" t="s">
         <v>5</v>
@@ -3921,10 +3978,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B235" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="C235" t="s">
         <v>5</v>
@@ -3932,10 +3989,10 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B236" t="s">
-        <v>281</v>
+        <v>211</v>
       </c>
       <c r="C236" t="s">
         <v>5</v>
@@ -3943,10 +4000,10 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B237" t="s">
-        <v>281</v>
+        <v>215</v>
       </c>
       <c r="C237" t="s">
         <v>5</v>
@@ -3954,10 +4011,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B238" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="C238" t="s">
         <v>5</v>
@@ -3965,10 +4022,10 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B239" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="C239" t="s">
         <v>5</v>
@@ -3976,10 +4033,10 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B240" t="s">
-        <v>194</v>
+        <v>257</v>
       </c>
       <c r="C240" t="s">
         <v>5</v>
@@ -3987,10 +4044,10 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B241" t="s">
-        <v>194</v>
+        <v>281</v>
       </c>
       <c r="C241" t="s">
         <v>5</v>
@@ -3998,10 +4055,10 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B242" t="s">
-        <v>194</v>
+        <v>281</v>
       </c>
       <c r="C242" t="s">
         <v>5</v>
@@ -4009,10 +4066,10 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B243" t="s">
-        <v>194</v>
+        <v>257</v>
       </c>
       <c r="C243" t="s">
         <v>5</v>
@@ -4020,10 +4077,10 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B244" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C244" t="s">
         <v>5</v>
@@ -4031,10 +4088,10 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B245" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="C245" t="s">
         <v>5</v>
@@ -4042,10 +4099,10 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B246" t="s">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="C246" t="s">
         <v>5</v>
@@ -4053,10 +4110,10 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
+        <v>299</v>
+      </c>
+      <c r="B247" t="s">
         <v>300</v>
-      </c>
-      <c r="B247" t="s">
-        <v>190</v>
       </c>
       <c r="C247" t="s">
         <v>5</v>
@@ -4067,7 +4124,7 @@
         <v>301</v>
       </c>
       <c r="B248" t="s">
-        <v>93</v>
+        <v>209</v>
       </c>
       <c r="C248" t="s">
         <v>5</v>
@@ -4078,7 +4135,7 @@
         <v>302</v>
       </c>
       <c r="B249" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="C249" t="s">
         <v>5</v>
@@ -4089,7 +4146,7 @@
         <v>303</v>
       </c>
       <c r="B250" t="s">
-        <v>194</v>
+        <v>100</v>
       </c>
       <c r="C250" t="s">
         <v>5</v>
@@ -4100,7 +4157,7 @@
         <v>304</v>
       </c>
       <c r="B251" t="s">
-        <v>192</v>
+        <v>100</v>
       </c>
       <c r="C251" t="s">
         <v>5</v>
@@ -4111,7 +4168,7 @@
         <v>305</v>
       </c>
       <c r="B252" t="s">
-        <v>194</v>
+        <v>91</v>
       </c>
       <c r="C252" t="s">
         <v>5</v>
@@ -4122,7 +4179,7 @@
         <v>306</v>
       </c>
       <c r="B253" t="s">
-        <v>279</v>
+        <v>94</v>
       </c>
       <c r="C253" t="s">
         <v>5</v>
@@ -4133,7 +4190,7 @@
         <v>307</v>
       </c>
       <c r="B254" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="C254" t="s">
         <v>5</v>
@@ -4144,7 +4201,7 @@
         <v>308</v>
       </c>
       <c r="B255" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="C255" t="s">
         <v>5</v>
@@ -4155,7 +4212,7 @@
         <v>309</v>
       </c>
       <c r="B256" t="s">
-        <v>281</v>
+        <v>300</v>
       </c>
       <c r="C256" t="s">
         <v>5</v>
@@ -4166,7 +4223,7 @@
         <v>310</v>
       </c>
       <c r="B257" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="C257" t="s">
         <v>5</v>
@@ -4177,7 +4234,7 @@
         <v>311</v>
       </c>
       <c r="B258" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="C258" t="s">
         <v>5</v>
@@ -4188,7 +4245,7 @@
         <v>312</v>
       </c>
       <c r="B259" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="C259" t="s">
         <v>5</v>
@@ -4199,7 +4256,7 @@
         <v>313</v>
       </c>
       <c r="B260" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="C260" t="s">
         <v>5</v>
@@ -4210,7 +4267,7 @@
         <v>314</v>
       </c>
       <c r="B261" t="s">
-        <v>236</v>
+        <v>213</v>
       </c>
       <c r="C261" t="s">
         <v>5</v>
@@ -4221,7 +4278,7 @@
         <v>315</v>
       </c>
       <c r="B262" t="s">
-        <v>262</v>
+        <v>213</v>
       </c>
       <c r="C262" t="s">
         <v>5</v>
@@ -4232,7 +4289,7 @@
         <v>316</v>
       </c>
       <c r="B263" t="s">
-        <v>262</v>
+        <v>298</v>
       </c>
       <c r="C263" t="s">
         <v>5</v>
@@ -4243,7 +4300,7 @@
         <v>317</v>
       </c>
       <c r="B264" t="s">
-        <v>262</v>
+        <v>211</v>
       </c>
       <c r="C264" t="s">
         <v>5</v>
@@ -4254,7 +4311,7 @@
         <v>318</v>
       </c>
       <c r="B265" t="s">
-        <v>206</v>
+        <v>298</v>
       </c>
       <c r="C265" t="s">
         <v>5</v>
@@ -4265,7 +4322,7 @@
         <v>319</v>
       </c>
       <c r="B266" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="C266" t="s">
         <v>5</v>
@@ -4276,7 +4333,7 @@
         <v>320</v>
       </c>
       <c r="B267" t="s">
-        <v>192</v>
+        <v>115</v>
       </c>
       <c r="C267" t="s">
         <v>5</v>
@@ -4287,7 +4344,7 @@
         <v>321</v>
       </c>
       <c r="B268" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="C268" t="s">
         <v>5</v>
@@ -4298,7 +4355,7 @@
         <v>322</v>
       </c>
       <c r="B269" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="C269" t="s">
         <v>5</v>
@@ -4309,7 +4366,7 @@
         <v>323</v>
       </c>
       <c r="B270" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="C270" t="s">
         <v>5</v>
@@ -4320,7 +4377,7 @@
         <v>324</v>
       </c>
       <c r="B271" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="C271" t="s">
         <v>5</v>
@@ -4331,7 +4388,7 @@
         <v>325</v>
       </c>
       <c r="B272" t="s">
-        <v>194</v>
+        <v>298</v>
       </c>
       <c r="C272" t="s">
         <v>5</v>
@@ -4342,7 +4399,7 @@
         <v>326</v>
       </c>
       <c r="B273" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="C273" t="s">
         <v>5</v>
@@ -4353,7 +4410,7 @@
         <v>327</v>
       </c>
       <c r="B274" t="s">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="C274" t="s">
         <v>5</v>
@@ -4364,7 +4421,7 @@
         <v>328</v>
       </c>
       <c r="B275" t="s">
-        <v>262</v>
+        <v>300</v>
       </c>
       <c r="C275" t="s">
         <v>5</v>
@@ -4375,7 +4432,7 @@
         <v>329</v>
       </c>
       <c r="B276" t="s">
-        <v>262</v>
+        <v>211</v>
       </c>
       <c r="C276" t="s">
         <v>5</v>
@@ -4386,7 +4443,7 @@
         <v>330</v>
       </c>
       <c r="B277" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="C277" t="s">
         <v>5</v>
@@ -4397,7 +4454,7 @@
         <v>331</v>
       </c>
       <c r="B278" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="C278" t="s">
         <v>5</v>
@@ -4408,7 +4465,7 @@
         <v>332</v>
       </c>
       <c r="B279" t="s">
-        <v>236</v>
+        <v>211</v>
       </c>
       <c r="C279" t="s">
         <v>5</v>
@@ -4419,9 +4476,218 @@
         <v>333</v>
       </c>
       <c r="B280" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="C280" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s">
+        <v>334</v>
+      </c>
+      <c r="B281" t="s">
+        <v>281</v>
+      </c>
+      <c r="C281" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="s">
+        <v>335</v>
+      </c>
+      <c r="B282" t="s">
+        <v>281</v>
+      </c>
+      <c r="C282" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s">
+        <v>336</v>
+      </c>
+      <c r="B283" t="s">
+        <v>281</v>
+      </c>
+      <c r="C283" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s">
+        <v>337</v>
+      </c>
+      <c r="B284" t="s">
+        <v>225</v>
+      </c>
+      <c r="C284" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s">
+        <v>338</v>
+      </c>
+      <c r="B285" t="s">
+        <v>215</v>
+      </c>
+      <c r="C285" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s">
+        <v>339</v>
+      </c>
+      <c r="B286" t="s">
+        <v>211</v>
+      </c>
+      <c r="C286" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s">
+        <v>340</v>
+      </c>
+      <c r="B287" t="s">
+        <v>213</v>
+      </c>
+      <c r="C287" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s">
+        <v>341</v>
+      </c>
+      <c r="B288" t="s">
+        <v>211</v>
+      </c>
+      <c r="C288" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="s">
+        <v>342</v>
+      </c>
+      <c r="B289" t="s">
+        <v>211</v>
+      </c>
+      <c r="C289" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s">
+        <v>343</v>
+      </c>
+      <c r="B290" t="s">
+        <v>215</v>
+      </c>
+      <c r="C290" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s">
+        <v>344</v>
+      </c>
+      <c r="B291" t="s">
+        <v>213</v>
+      </c>
+      <c r="C291" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s">
+        <v>345</v>
+      </c>
+      <c r="B292" t="s">
+        <v>213</v>
+      </c>
+      <c r="C292" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="s">
+        <v>346</v>
+      </c>
+      <c r="B293" t="s">
+        <v>298</v>
+      </c>
+      <c r="C293" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="s">
+        <v>347</v>
+      </c>
+      <c r="B294" t="s">
+        <v>281</v>
+      </c>
+      <c r="C294" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="s">
+        <v>348</v>
+      </c>
+      <c r="B295" t="s">
+        <v>281</v>
+      </c>
+      <c r="C295" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="s">
+        <v>349</v>
+      </c>
+      <c r="B296" t="s">
+        <v>255</v>
+      </c>
+      <c r="C296" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="s">
+        <v>350</v>
+      </c>
+      <c r="B297" t="s">
+        <v>255</v>
+      </c>
+      <c r="C297" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="s">
+        <v>351</v>
+      </c>
+      <c r="B298" t="s">
+        <v>255</v>
+      </c>
+      <c r="C298" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>352</v>
+      </c>
+      <c r="B299" t="s">
+        <v>255</v>
+      </c>
+      <c r="C299" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/GreatLink/GreatLink Multi-Sector Income.xlsx
+++ b/data/GreatLink/GreatLink Multi-Sector Income.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid411063"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid766466"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="375">
   <si>
     <t>Price Date</t>
   </si>
@@ -26,15 +26,105 @@
     <t>Currency - Unit Level</t>
   </si>
   <si>
+    <t>31/07/2025</t>
+  </si>
+  <si>
+    <t>0.925</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>30/07/2025</t>
+  </si>
+  <si>
+    <t>29/07/2025</t>
+  </si>
+  <si>
+    <t>0.927</t>
+  </si>
+  <si>
+    <t>28/07/2025</t>
+  </si>
+  <si>
+    <t>0.924</t>
+  </si>
+  <si>
+    <t>25/07/2025</t>
+  </si>
+  <si>
+    <t>24/07/2025</t>
+  </si>
+  <si>
+    <t>23/07/2025</t>
+  </si>
+  <si>
+    <t>22/07/2025</t>
+  </si>
+  <si>
+    <t>0.926</t>
+  </si>
+  <si>
+    <t>21/07/2025</t>
+  </si>
+  <si>
+    <t>18/07/2025</t>
+  </si>
+  <si>
+    <t>0.921</t>
+  </si>
+  <si>
+    <t>17/07/2025</t>
+  </si>
+  <si>
+    <t>0.920</t>
+  </si>
+  <si>
+    <t>16/07/2025</t>
+  </si>
+  <si>
+    <t>15/07/2025</t>
+  </si>
+  <si>
+    <t>0.918</t>
+  </si>
+  <si>
+    <t>14/07/2025</t>
+  </si>
+  <si>
+    <t>11/07/2025</t>
+  </si>
+  <si>
+    <t>10/07/2025</t>
+  </si>
+  <si>
+    <t>09/07/2025</t>
+  </si>
+  <si>
+    <t>08/07/2025</t>
+  </si>
+  <si>
+    <t>07/07/2025</t>
+  </si>
+  <si>
+    <t>0.923</t>
+  </si>
+  <si>
+    <t>04/07/2025</t>
+  </si>
+  <si>
+    <t>03/07/2025</t>
+  </si>
+  <si>
+    <t>02/07/2025</t>
+  </si>
+  <si>
     <t>01/07/2025</t>
   </si>
   <si>
     <t>0.928</t>
   </si>
   <si>
-    <t>SGD</t>
-  </si>
-  <si>
     <t>30/06/2025</t>
   </si>
   <si>
@@ -62,9 +152,6 @@
     <t>23/06/2025</t>
   </si>
   <si>
-    <t>0.924</t>
-  </si>
-  <si>
     <t>20/06/2025</t>
   </si>
   <si>
@@ -80,9 +167,6 @@
     <t>17/06/2025</t>
   </si>
   <si>
-    <t>0.921</t>
-  </si>
-  <si>
     <t>16/06/2025</t>
   </si>
   <si>
@@ -92,18 +176,12 @@
     <t>12/06/2025</t>
   </si>
   <si>
-    <t>0.925</t>
-  </si>
-  <si>
     <t>11/06/2025</t>
   </si>
   <si>
     <t>10/06/2025</t>
   </si>
   <si>
-    <t>0.920</t>
-  </si>
-  <si>
     <t>09/06/2025</t>
   </si>
   <si>
@@ -146,9 +224,6 @@
     <t>27/05/2025</t>
   </si>
   <si>
-    <t>0.918</t>
-  </si>
-  <si>
     <t>26/05/2025</t>
   </si>
   <si>
@@ -218,9 +293,6 @@
     <t>25/04/2025</t>
   </si>
   <si>
-    <t>0.926</t>
-  </si>
-  <si>
     <t>24/04/2025</t>
   </si>
   <si>
@@ -425,9 +497,6 @@
     <t>03/02/2025</t>
   </si>
   <si>
-    <t>0.927</t>
-  </si>
-  <si>
     <t>31/01/2025</t>
   </si>
   <si>
@@ -483,9 +552,6 @@
   </si>
   <si>
     <t>03/01/2025</t>
-  </si>
-  <si>
-    <t>0.923</t>
   </si>
   <si>
     <t>02/01/2025</t>
@@ -1429,7 +1495,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -1437,10 +1503,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -1448,10 +1514,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
         <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -1459,7 +1525,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -1470,10 +1536,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1481,10 +1547,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -1492,10 +1558,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -1503,10 +1569,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -1514,10 +1580,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -1525,10 +1591,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
         <v>20</v>
-      </c>
-      <c r="B12" t="s">
-        <v>21</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -1536,10 +1602,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -1547,10 +1613,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
         <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>21</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -1561,7 +1627,7 @@
         <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -1569,10 +1635,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -1580,10 +1646,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -1591,10 +1657,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -1602,10 +1668,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -1613,10 +1679,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -1624,10 +1690,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -1635,10 +1701,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -1646,10 +1712,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -1657,10 +1723,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -1668,10 +1734,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -1679,10 +1745,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -1690,10 +1756,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -1701,10 +1767,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -1712,10 +1778,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -1723,10 +1789,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -1734,10 +1800,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B31" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -1745,10 +1811,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -1756,10 +1822,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -1767,10 +1833,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B34" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -1778,10 +1844,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B35" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -1789,10 +1855,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B36" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -1800,10 +1866,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -1811,10 +1877,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B38" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -1822,10 +1888,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B39" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -1833,10 +1899,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B40" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -1844,10 +1910,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B41" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -1855,10 +1921,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
+        <v>59</v>
+      </c>
+      <c r="B42" t="s">
         <v>60</v>
-      </c>
-      <c r="B42" t="s">
-        <v>38</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -1869,7 +1935,7 @@
         <v>61</v>
       </c>
       <c r="B43" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -1880,7 +1946,7 @@
         <v>62</v>
       </c>
       <c r="B44" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -1888,10 +1954,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" t="s">
         <v>64</v>
-      </c>
-      <c r="B45" t="s">
-        <v>63</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -1902,7 +1968,7 @@
         <v>65</v>
       </c>
       <c r="B46" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -1913,7 +1979,7 @@
         <v>66</v>
       </c>
       <c r="B47" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -1921,10 +1987,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B48" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -1932,10 +1998,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -1943,10 +2009,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B50" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -1954,10 +2020,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B51" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -1965,10 +2031,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -1976,10 +2042,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
+        <v>73</v>
+      </c>
+      <c r="B53" t="s">
         <v>74</v>
-      </c>
-      <c r="B53" t="s">
-        <v>43</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -1990,7 +2056,7 @@
         <v>75</v>
       </c>
       <c r="B54" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -2001,7 +2067,7 @@
         <v>76</v>
       </c>
       <c r="B55" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -2012,7 +2078,7 @@
         <v>77</v>
       </c>
       <c r="B56" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -2020,10 +2086,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B57" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -2031,10 +2097,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B58" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -2042,10 +2108,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B59" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -2053,10 +2119,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -2064,10 +2130,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B61" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -2075,10 +2141,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -2086,10 +2152,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B63" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -2097,10 +2163,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B64" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -2108,10 +2174,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B65" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -2119,10 +2185,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>88</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -2130,10 +2196,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B67" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -2141,10 +2207,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B68" t="s">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -2152,10 +2218,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B69" t="s">
-        <v>94</v>
+        <v>15</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -2163,10 +2229,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B70" t="s">
-        <v>98</v>
+        <v>4</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -2174,10 +2240,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B71" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -2185,10 +2251,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B72" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -2196,10 +2262,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B73" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -2207,10 +2273,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B74" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -2218,10 +2284,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B75" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -2229,10 +2295,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B76" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -2240,10 +2306,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -2251,10 +2317,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B78" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -2262,10 +2328,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B79" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -2273,10 +2339,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B80" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -2284,10 +2350,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B81" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -2295,10 +2361,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B82" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -2306,10 +2372,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B83" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -2317,10 +2383,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B84" t="s">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -2328,10 +2394,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B85" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -2339,10 +2405,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B86" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -2350,10 +2416,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B87" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -2361,10 +2427,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B88" t="s">
-        <v>117</v>
+        <v>37</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -2372,10 +2438,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B89" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -2383,10 +2449,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B90" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -2394,10 +2460,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>118</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -2405,10 +2471,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B92" t="s">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -2416,10 +2482,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
+        <v>123</v>
+      </c>
+      <c r="B93" t="s">
         <v>124</v>
-      </c>
-      <c r="B93" t="s">
-        <v>87</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -2430,7 +2496,7 @@
         <v>125</v>
       </c>
       <c r="B94" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -2441,7 +2507,7 @@
         <v>126</v>
       </c>
       <c r="B95" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -2452,7 +2518,7 @@
         <v>127</v>
       </c>
       <c r="B96" t="s">
-        <v>11</v>
+        <v>115</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -2463,7 +2529,7 @@
         <v>128</v>
       </c>
       <c r="B97" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -2474,7 +2540,7 @@
         <v>129</v>
       </c>
       <c r="B98" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -2485,7 +2551,7 @@
         <v>130</v>
       </c>
       <c r="B99" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
@@ -2496,7 +2562,7 @@
         <v>131</v>
       </c>
       <c r="B100" t="s">
-        <v>11</v>
+        <v>118</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
@@ -2507,7 +2573,7 @@
         <v>132</v>
       </c>
       <c r="B101" t="s">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -2518,7 +2584,7 @@
         <v>133</v>
       </c>
       <c r="B102" t="s">
-        <v>11</v>
+        <v>115</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
@@ -2529,7 +2595,7 @@
         <v>134</v>
       </c>
       <c r="B103" t="s">
-        <v>4</v>
+        <v>115</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -2540,7 +2606,7 @@
         <v>135</v>
       </c>
       <c r="B104" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -2548,10 +2614,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B105" t="s">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -2559,10 +2625,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B106" t="s">
-        <v>9</v>
+        <v>122</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
@@ -2570,10 +2636,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
+        <v>138</v>
+      </c>
+      <c r="B107" t="s">
         <v>139</v>
-      </c>
-      <c r="B107" t="s">
-        <v>63</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -2584,7 +2650,7 @@
         <v>140</v>
       </c>
       <c r="B108" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -2592,10 +2658,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
+        <v>142</v>
+      </c>
+      <c r="B109" t="s">
         <v>141</v>
-      </c>
-      <c r="B109" t="s">
-        <v>25</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -2603,10 +2669,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B110" t="s">
-        <v>67</v>
+        <v>141</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -2614,10 +2680,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B111" t="s">
-        <v>67</v>
+        <v>113</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -2625,10 +2691,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B112" t="s">
-        <v>15</v>
+        <v>122</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -2636,10 +2702,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B113" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -2647,10 +2713,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B114" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -2658,10 +2724,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B115" t="s">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -2669,10 +2735,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B116" t="s">
-        <v>38</v>
+        <v>118</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -2680,10 +2746,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B117" t="s">
-        <v>32</v>
+        <v>118</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
@@ -2691,10 +2757,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B118" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -2702,10 +2768,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B119" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -2713,10 +2779,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B120" t="s">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -2724,10 +2790,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B121" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -2735,10 +2801,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B122" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -2746,10 +2812,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B123" t="s">
-        <v>156</v>
+        <v>111</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -2760,7 +2826,7 @@
         <v>157</v>
       </c>
       <c r="B124" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -2771,7 +2837,7 @@
         <v>158</v>
       </c>
       <c r="B125" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -2782,7 +2848,7 @@
         <v>159</v>
       </c>
       <c r="B126" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
@@ -2793,7 +2859,7 @@
         <v>160</v>
       </c>
       <c r="B127" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
@@ -2804,7 +2870,7 @@
         <v>161</v>
       </c>
       <c r="B128" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
@@ -2815,7 +2881,7 @@
         <v>162</v>
       </c>
       <c r="B129" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -2826,7 +2892,7 @@
         <v>163</v>
       </c>
       <c r="B130" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -2837,7 +2903,7 @@
         <v>164</v>
       </c>
       <c r="B131" t="s">
-        <v>136</v>
+        <v>4</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -2848,7 +2914,7 @@
         <v>165</v>
       </c>
       <c r="B132" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
@@ -2859,7 +2925,7 @@
         <v>166</v>
       </c>
       <c r="B133" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
@@ -2870,7 +2936,7 @@
         <v>167</v>
       </c>
       <c r="B134" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
@@ -2881,7 +2947,7 @@
         <v>168</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
@@ -2892,7 +2958,7 @@
         <v>169</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -2903,7 +2969,7 @@
         <v>170</v>
       </c>
       <c r="B137" t="s">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
@@ -2914,7 +2980,7 @@
         <v>171</v>
       </c>
       <c r="B138" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
@@ -2925,7 +2991,7 @@
         <v>172</v>
       </c>
       <c r="B139" t="s">
-        <v>117</v>
+        <v>58</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -2936,7 +3002,7 @@
         <v>173</v>
       </c>
       <c r="B140" t="s">
-        <v>117</v>
+        <v>64</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
@@ -2947,7 +3013,7 @@
         <v>174</v>
       </c>
       <c r="B141" t="s">
-        <v>115</v>
+        <v>46</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
@@ -2958,7 +3024,7 @@
         <v>175</v>
       </c>
       <c r="B142" t="s">
-        <v>117</v>
+        <v>46</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
@@ -2969,7 +3035,7 @@
         <v>176</v>
       </c>
       <c r="B143" t="s">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -2980,7 +3046,7 @@
         <v>177</v>
       </c>
       <c r="B144" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
@@ -2991,7 +3057,7 @@
         <v>178</v>
       </c>
       <c r="B145" t="s">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
@@ -3002,7 +3068,7 @@
         <v>179</v>
       </c>
       <c r="B146" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="C146" t="s">
         <v>5</v>
@@ -3013,7 +3079,7 @@
         <v>180</v>
       </c>
       <c r="B147" t="s">
-        <v>117</v>
+        <v>35</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
@@ -3024,7 +3090,7 @@
         <v>181</v>
       </c>
       <c r="B148" t="s">
-        <v>117</v>
+        <v>35</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
@@ -3035,7 +3101,7 @@
         <v>182</v>
       </c>
       <c r="B149" t="s">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
@@ -3046,7 +3112,7 @@
         <v>183</v>
       </c>
       <c r="B150" t="s">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
@@ -3057,7 +3123,7 @@
         <v>184</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
@@ -3068,7 +3134,7 @@
         <v>185</v>
       </c>
       <c r="B152" t="s">
-        <v>87</v>
+        <v>4</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
@@ -3079,7 +3145,7 @@
         <v>186</v>
       </c>
       <c r="B153" t="s">
-        <v>87</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
@@ -3090,7 +3156,7 @@
         <v>187</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
@@ -3101,7 +3167,7 @@
         <v>188</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C155" t="s">
         <v>5</v>
@@ -3112,7 +3178,7 @@
         <v>189</v>
       </c>
       <c r="B156" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="C156" t="s">
         <v>5</v>
@@ -3123,7 +3189,7 @@
         <v>190</v>
       </c>
       <c r="B157" t="s">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
@@ -3134,7 +3200,7 @@
         <v>191</v>
       </c>
       <c r="B158" t="s">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
@@ -3145,7 +3211,7 @@
         <v>192</v>
       </c>
       <c r="B159" t="s">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="C159" t="s">
         <v>5</v>
@@ -3156,7 +3222,7 @@
         <v>193</v>
       </c>
       <c r="B160" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
@@ -3167,7 +3233,7 @@
         <v>194</v>
       </c>
       <c r="B161" t="s">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="C161" t="s">
         <v>5</v>
@@ -3178,7 +3244,7 @@
         <v>195</v>
       </c>
       <c r="B162" t="s">
-        <v>89</v>
+        <v>141</v>
       </c>
       <c r="C162" t="s">
         <v>5</v>
@@ -3189,7 +3255,7 @@
         <v>196</v>
       </c>
       <c r="B163" t="s">
-        <v>11</v>
+        <v>139</v>
       </c>
       <c r="C163" t="s">
         <v>5</v>
@@ -3200,7 +3266,7 @@
         <v>197</v>
       </c>
       <c r="B164" t="s">
-        <v>11</v>
+        <v>141</v>
       </c>
       <c r="C164" t="s">
         <v>5</v>
@@ -3211,7 +3277,7 @@
         <v>198</v>
       </c>
       <c r="B165" t="s">
-        <v>9</v>
+        <v>124</v>
       </c>
       <c r="C165" t="s">
         <v>5</v>
@@ -3222,7 +3288,7 @@
         <v>199</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>113</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
@@ -3233,7 +3299,7 @@
         <v>200</v>
       </c>
       <c r="B167" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="C167" t="s">
         <v>5</v>
@@ -3244,7 +3310,7 @@
         <v>201</v>
       </c>
       <c r="B168" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="C168" t="s">
         <v>5</v>
@@ -3255,7 +3321,7 @@
         <v>202</v>
       </c>
       <c r="B169" t="s">
-        <v>89</v>
+        <v>141</v>
       </c>
       <c r="C169" t="s">
         <v>5</v>
@@ -3266,7 +3332,7 @@
         <v>203</v>
       </c>
       <c r="B170" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="C170" t="s">
         <v>5</v>
@@ -3277,7 +3343,7 @@
         <v>204</v>
       </c>
       <c r="B171" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C171" t="s">
         <v>5</v>
@@ -3288,7 +3354,7 @@
         <v>205</v>
       </c>
       <c r="B172" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="C172" t="s">
         <v>5</v>
@@ -3299,7 +3365,7 @@
         <v>206</v>
       </c>
       <c r="B173" t="s">
-        <v>207</v>
+        <v>37</v>
       </c>
       <c r="C173" t="s">
         <v>5</v>
@@ -3307,10 +3373,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B174" t="s">
-        <v>209</v>
+        <v>111</v>
       </c>
       <c r="C174" t="s">
         <v>5</v>
@@ -3318,10 +3384,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B175" t="s">
-        <v>211</v>
+        <v>111</v>
       </c>
       <c r="C175" t="s">
         <v>5</v>
@@ -3329,10 +3395,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B176" t="s">
-        <v>213</v>
+        <v>37</v>
       </c>
       <c r="C176" t="s">
         <v>5</v>
@@ -3340,10 +3406,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B177" t="s">
-        <v>215</v>
+        <v>37</v>
       </c>
       <c r="C177" t="s">
         <v>5</v>
@@ -3351,10 +3417,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B178" t="s">
-        <v>211</v>
+        <v>111</v>
       </c>
       <c r="C178" t="s">
         <v>5</v>
@@ -3362,10 +3428,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B179" t="s">
-        <v>213</v>
+        <v>111</v>
       </c>
       <c r="C179" t="s">
         <v>5</v>
@@ -3373,10 +3439,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B180" t="s">
-        <v>211</v>
+        <v>111</v>
       </c>
       <c r="C180" t="s">
         <v>5</v>
@@ -3384,10 +3450,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B181" t="s">
-        <v>213</v>
+        <v>111</v>
       </c>
       <c r="C181" t="s">
         <v>5</v>
@@ -3395,10 +3461,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B182" t="s">
-        <v>213</v>
+        <v>113</v>
       </c>
       <c r="C182" t="s">
         <v>5</v>
@@ -3406,10 +3472,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B183" t="s">
-        <v>213</v>
+        <v>124</v>
       </c>
       <c r="C183" t="s">
         <v>5</v>
@@ -3417,10 +3483,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B184" t="s">
-        <v>213</v>
+        <v>113</v>
       </c>
       <c r="C184" t="s">
         <v>5</v>
@@ -3428,10 +3494,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B185" t="s">
-        <v>211</v>
+        <v>41</v>
       </c>
       <c r="C185" t="s">
         <v>5</v>
@@ -3439,10 +3505,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B186" t="s">
-        <v>225</v>
+        <v>41</v>
       </c>
       <c r="C186" t="s">
         <v>5</v>
@@ -3450,10 +3516,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B187" t="s">
-        <v>227</v>
+        <v>39</v>
       </c>
       <c r="C187" t="s">
         <v>5</v>
@@ -3461,10 +3527,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="B188" t="s">
-        <v>227</v>
+        <v>37</v>
       </c>
       <c r="C188" t="s">
         <v>5</v>
@@ -3472,10 +3538,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="B189" t="s">
-        <v>230</v>
+        <v>122</v>
       </c>
       <c r="C189" t="s">
         <v>5</v>
@@ -3483,10 +3549,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="B190" t="s">
-        <v>232</v>
+        <v>124</v>
       </c>
       <c r="C190" t="s">
         <v>5</v>
@@ -3494,10 +3560,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="B191" t="s">
-        <v>234</v>
+        <v>113</v>
       </c>
       <c r="C191" t="s">
         <v>5</v>
@@ -3505,10 +3571,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="B192" t="s">
-        <v>230</v>
+        <v>141</v>
       </c>
       <c r="C192" t="s">
         <v>5</v>
@@ -3516,10 +3582,10 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="B193" t="s">
-        <v>237</v>
+        <v>141</v>
       </c>
       <c r="C193" t="s">
         <v>5</v>
@@ -3527,10 +3593,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="B194" t="s">
-        <v>232</v>
+        <v>124</v>
       </c>
       <c r="C194" t="s">
         <v>5</v>
@@ -3538,10 +3604,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="B195" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C195" t="s">
         <v>5</v>
@@ -3549,10 +3615,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="B196" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C196" t="s">
         <v>5</v>
@@ -3560,10 +3626,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="B197" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C197" t="s">
         <v>5</v>
@@ -3571,10 +3637,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="B198" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C198" t="s">
         <v>5</v>
@@ -3582,10 +3648,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B199" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C199" t="s">
         <v>5</v>
@@ -3593,10 +3659,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B200" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C200" t="s">
         <v>5</v>
@@ -3604,10 +3670,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B201" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="C201" t="s">
         <v>5</v>
@@ -3615,10 +3681,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="B202" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="C202" t="s">
         <v>5</v>
@@ -3626,10 +3692,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B203" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="C203" t="s">
         <v>5</v>
@@ -3637,10 +3703,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="B204" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="C204" t="s">
         <v>5</v>
@@ -3648,10 +3714,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="B205" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="C205" t="s">
         <v>5</v>
@@ -3659,10 +3725,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="B206" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="C206" t="s">
         <v>5</v>
@@ -3670,10 +3736,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="B207" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="C207" t="s">
         <v>5</v>
@@ -3681,10 +3747,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="B208" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C208" t="s">
         <v>5</v>
@@ -3692,10 +3758,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="B209" t="s">
-        <v>215</v>
+        <v>249</v>
       </c>
       <c r="C209" t="s">
         <v>5</v>
@@ -3703,10 +3769,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="B210" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C210" t="s">
         <v>5</v>
@@ -3714,10 +3780,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="B211" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="C211" t="s">
         <v>5</v>
@@ -3725,10 +3791,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="B212" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="C212" t="s">
         <v>5</v>
@@ -3736,10 +3802,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="B213" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="C213" t="s">
         <v>5</v>
@@ -3747,10 +3813,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="B214" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="C214" t="s">
         <v>5</v>
@@ -3758,10 +3824,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B215" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="C215" t="s">
         <v>5</v>
@@ -3769,10 +3835,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B216" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C216" t="s">
         <v>5</v>
@@ -3780,10 +3846,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B217" t="s">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="C217" t="s">
         <v>5</v>
@@ -3791,10 +3857,10 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B218" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="C218" t="s">
         <v>5</v>
@@ -3802,7 +3868,7 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B219" t="s">
         <v>252</v>
@@ -3813,10 +3879,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B220" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C220" t="s">
         <v>5</v>
@@ -3824,10 +3890,10 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B221" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C221" t="s">
         <v>5</v>
@@ -3835,10 +3901,10 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="B222" t="s">
-        <v>225</v>
+        <v>252</v>
       </c>
       <c r="C222" t="s">
         <v>5</v>
@@ -3846,10 +3912,10 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B223" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="C223" t="s">
         <v>5</v>
@@ -3857,10 +3923,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B224" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="C224" t="s">
         <v>5</v>
@@ -3868,10 +3934,10 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B225" t="s">
-        <v>213</v>
+        <v>271</v>
       </c>
       <c r="C225" t="s">
         <v>5</v>
@@ -3879,10 +3945,10 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B226" t="s">
-        <v>213</v>
+        <v>249</v>
       </c>
       <c r="C226" t="s">
         <v>5</v>
@@ -3890,10 +3956,10 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B227" t="s">
-        <v>211</v>
+        <v>274</v>
       </c>
       <c r="C227" t="s">
         <v>5</v>
@@ -3901,10 +3967,10 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B228" t="s">
-        <v>211</v>
+        <v>247</v>
       </c>
       <c r="C228" t="s">
         <v>5</v>
@@ -3912,10 +3978,10 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B229" t="s">
-        <v>225</v>
+        <v>277</v>
       </c>
       <c r="C229" t="s">
         <v>5</v>
@@ -3923,10 +3989,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B230" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C230" t="s">
         <v>5</v>
@@ -3934,10 +4000,10 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B231" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="C231" t="s">
         <v>5</v>
@@ -3945,10 +4011,10 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B232" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C232" t="s">
         <v>5</v>
@@ -3956,10 +4022,10 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B233" t="s">
-        <v>281</v>
+        <v>249</v>
       </c>
       <c r="C233" t="s">
         <v>5</v>
@@ -3967,10 +4033,10 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B234" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="C234" t="s">
         <v>5</v>
@@ -3978,10 +4044,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B235" t="s">
-        <v>215</v>
+        <v>285</v>
       </c>
       <c r="C235" t="s">
         <v>5</v>
@@ -3989,10 +4055,10 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B236" t="s">
-        <v>211</v>
+        <v>268</v>
       </c>
       <c r="C236" t="s">
         <v>5</v>
@@ -4000,10 +4066,10 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B237" t="s">
-        <v>215</v>
+        <v>268</v>
       </c>
       <c r="C237" t="s">
         <v>5</v>
@@ -4011,10 +4077,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B238" t="s">
-        <v>215</v>
+        <v>274</v>
       </c>
       <c r="C238" t="s">
         <v>5</v>
@@ -4022,10 +4088,10 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B239" t="s">
-        <v>215</v>
+        <v>249</v>
       </c>
       <c r="C239" t="s">
         <v>5</v>
@@ -4033,10 +4099,10 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B240" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="C240" t="s">
         <v>5</v>
@@ -4044,10 +4110,10 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B241" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C241" t="s">
         <v>5</v>
@@ -4055,10 +4121,10 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B242" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C242" t="s">
         <v>5</v>
@@ -4066,10 +4132,10 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B243" t="s">
-        <v>257</v>
+        <v>277</v>
       </c>
       <c r="C243" t="s">
         <v>5</v>
@@ -4077,10 +4143,10 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B244" t="s">
-        <v>281</v>
+        <v>247</v>
       </c>
       <c r="C244" t="s">
         <v>5</v>
@@ -4088,10 +4154,10 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B245" t="s">
-        <v>215</v>
+        <v>277</v>
       </c>
       <c r="C245" t="s">
         <v>5</v>
@@ -4099,10 +4165,10 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B246" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="C246" t="s">
         <v>5</v>
@@ -4110,10 +4176,10 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B247" t="s">
-        <v>300</v>
+        <v>235</v>
       </c>
       <c r="C247" t="s">
         <v>5</v>
@@ -4121,10 +4187,10 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B248" t="s">
-        <v>209</v>
+        <v>235</v>
       </c>
       <c r="C248" t="s">
         <v>5</v>
@@ -4132,10 +4198,10 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B249" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="C249" t="s">
         <v>5</v>
@@ -4143,10 +4209,10 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B250" t="s">
-        <v>100</v>
+        <v>233</v>
       </c>
       <c r="C250" t="s">
         <v>5</v>
@@ -4154,10 +4220,10 @@
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B251" t="s">
-        <v>100</v>
+        <v>247</v>
       </c>
       <c r="C251" t="s">
         <v>5</v>
@@ -4165,10 +4231,10 @@
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B252" t="s">
-        <v>91</v>
+        <v>303</v>
       </c>
       <c r="C252" t="s">
         <v>5</v>
@@ -4176,10 +4242,10 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B253" t="s">
-        <v>94</v>
+        <v>249</v>
       </c>
       <c r="C253" t="s">
         <v>5</v>
@@ -4187,10 +4253,10 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B254" t="s">
-        <v>209</v>
+        <v>303</v>
       </c>
       <c r="C254" t="s">
         <v>5</v>
@@ -4198,10 +4264,10 @@
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B255" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C255" t="s">
         <v>5</v>
@@ -4209,10 +4275,10 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B256" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C256" t="s">
         <v>5</v>
@@ -4220,10 +4286,10 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B257" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="C257" t="s">
         <v>5</v>
@@ -4231,10 +4297,10 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B258" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="C258" t="s">
         <v>5</v>
@@ -4242,10 +4308,10 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B259" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="C259" t="s">
         <v>5</v>
@@ -4253,10 +4319,10 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B260" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="C260" t="s">
         <v>5</v>
@@ -4264,10 +4330,10 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B261" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="C261" t="s">
         <v>5</v>
@@ -4275,10 +4341,10 @@
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B262" t="s">
-        <v>213</v>
+        <v>279</v>
       </c>
       <c r="C262" t="s">
         <v>5</v>
@@ -4286,10 +4352,10 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B263" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="C263" t="s">
         <v>5</v>
@@ -4297,10 +4363,10 @@
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B264" t="s">
-        <v>211</v>
+        <v>303</v>
       </c>
       <c r="C264" t="s">
         <v>5</v>
@@ -4308,10 +4374,10 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B265" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="C265" t="s">
         <v>5</v>
@@ -4319,10 +4385,10 @@
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B266" t="s">
-        <v>209</v>
+        <v>303</v>
       </c>
       <c r="C266" t="s">
         <v>5</v>
@@ -4330,10 +4396,10 @@
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B267" t="s">
-        <v>115</v>
+        <v>237</v>
       </c>
       <c r="C267" t="s">
         <v>5</v>
@@ -4341,10 +4407,10 @@
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B268" t="s">
-        <v>207</v>
+        <v>320</v>
       </c>
       <c r="C268" t="s">
         <v>5</v>
@@ -4352,10 +4418,10 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
+        <v>321</v>
+      </c>
+      <c r="B269" t="s">
         <v>322</v>
-      </c>
-      <c r="B269" t="s">
-        <v>213</v>
       </c>
       <c r="C269" t="s">
         <v>5</v>
@@ -4366,7 +4432,7 @@
         <v>323</v>
       </c>
       <c r="B270" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="C270" t="s">
         <v>5</v>
@@ -4377,7 +4443,7 @@
         <v>324</v>
       </c>
       <c r="B271" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="C271" t="s">
         <v>5</v>
@@ -4388,7 +4454,7 @@
         <v>325</v>
       </c>
       <c r="B272" t="s">
-        <v>298</v>
+        <v>124</v>
       </c>
       <c r="C272" t="s">
         <v>5</v>
@@ -4399,7 +4465,7 @@
         <v>326</v>
       </c>
       <c r="B273" t="s">
-        <v>211</v>
+        <v>124</v>
       </c>
       <c r="C273" t="s">
         <v>5</v>
@@ -4410,7 +4476,7 @@
         <v>327</v>
       </c>
       <c r="B274" t="s">
-        <v>298</v>
+        <v>115</v>
       </c>
       <c r="C274" t="s">
         <v>5</v>
@@ -4421,7 +4487,7 @@
         <v>328</v>
       </c>
       <c r="B275" t="s">
-        <v>300</v>
+        <v>118</v>
       </c>
       <c r="C275" t="s">
         <v>5</v>
@@ -4432,7 +4498,7 @@
         <v>329</v>
       </c>
       <c r="B276" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="C276" t="s">
         <v>5</v>
@@ -4443,7 +4509,7 @@
         <v>330</v>
       </c>
       <c r="B277" t="s">
-        <v>215</v>
+        <v>322</v>
       </c>
       <c r="C277" t="s">
         <v>5</v>
@@ -4454,7 +4520,7 @@
         <v>331</v>
       </c>
       <c r="B278" t="s">
-        <v>215</v>
+        <v>322</v>
       </c>
       <c r="C278" t="s">
         <v>5</v>
@@ -4465,7 +4531,7 @@
         <v>332</v>
       </c>
       <c r="B279" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="C279" t="s">
         <v>5</v>
@@ -4476,7 +4542,7 @@
         <v>333</v>
       </c>
       <c r="B280" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="C280" t="s">
         <v>5</v>
@@ -4487,7 +4553,7 @@
         <v>334</v>
       </c>
       <c r="B281" t="s">
-        <v>281</v>
+        <v>235</v>
       </c>
       <c r="C281" t="s">
         <v>5</v>
@@ -4498,7 +4564,7 @@
         <v>335</v>
       </c>
       <c r="B282" t="s">
-        <v>281</v>
+        <v>235</v>
       </c>
       <c r="C282" t="s">
         <v>5</v>
@@ -4509,7 +4575,7 @@
         <v>336</v>
       </c>
       <c r="B283" t="s">
-        <v>281</v>
+        <v>235</v>
       </c>
       <c r="C283" t="s">
         <v>5</v>
@@ -4520,7 +4586,7 @@
         <v>337</v>
       </c>
       <c r="B284" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="C284" t="s">
         <v>5</v>
@@ -4531,7 +4597,7 @@
         <v>338</v>
       </c>
       <c r="B285" t="s">
-        <v>215</v>
+        <v>320</v>
       </c>
       <c r="C285" t="s">
         <v>5</v>
@@ -4542,7 +4608,7 @@
         <v>339</v>
       </c>
       <c r="B286" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="C286" t="s">
         <v>5</v>
@@ -4553,7 +4619,7 @@
         <v>340</v>
       </c>
       <c r="B287" t="s">
-        <v>213</v>
+        <v>320</v>
       </c>
       <c r="C287" t="s">
         <v>5</v>
@@ -4564,7 +4630,7 @@
         <v>341</v>
       </c>
       <c r="B288" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="C288" t="s">
         <v>5</v>
@@ -4575,7 +4641,7 @@
         <v>342</v>
       </c>
       <c r="B289" t="s">
-        <v>211</v>
+        <v>139</v>
       </c>
       <c r="C289" t="s">
         <v>5</v>
@@ -4586,7 +4652,7 @@
         <v>343</v>
       </c>
       <c r="B290" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="C290" t="s">
         <v>5</v>
@@ -4597,7 +4663,7 @@
         <v>344</v>
       </c>
       <c r="B291" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="C291" t="s">
         <v>5</v>
@@ -4608,7 +4674,7 @@
         <v>345</v>
       </c>
       <c r="B292" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="C292" t="s">
         <v>5</v>
@@ -4619,7 +4685,7 @@
         <v>346</v>
       </c>
       <c r="B293" t="s">
-        <v>298</v>
+        <v>235</v>
       </c>
       <c r="C293" t="s">
         <v>5</v>
@@ -4630,7 +4696,7 @@
         <v>347</v>
       </c>
       <c r="B294" t="s">
-        <v>281</v>
+        <v>320</v>
       </c>
       <c r="C294" t="s">
         <v>5</v>
@@ -4641,7 +4707,7 @@
         <v>348</v>
       </c>
       <c r="B295" t="s">
-        <v>281</v>
+        <v>233</v>
       </c>
       <c r="C295" t="s">
         <v>5</v>
@@ -4652,7 +4718,7 @@
         <v>349</v>
       </c>
       <c r="B296" t="s">
-        <v>255</v>
+        <v>320</v>
       </c>
       <c r="C296" t="s">
         <v>5</v>
@@ -4663,7 +4729,7 @@
         <v>350</v>
       </c>
       <c r="B297" t="s">
-        <v>255</v>
+        <v>322</v>
       </c>
       <c r="C297" t="s">
         <v>5</v>
@@ -4674,7 +4740,7 @@
         <v>351</v>
       </c>
       <c r="B298" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="C298" t="s">
         <v>5</v>
@@ -4685,9 +4751,251 @@
         <v>352</v>
       </c>
       <c r="B299" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="C299" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>353</v>
+      </c>
+      <c r="B300" t="s">
+        <v>237</v>
+      </c>
+      <c r="C300" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>354</v>
+      </c>
+      <c r="B301" t="s">
+        <v>233</v>
+      </c>
+      <c r="C301" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s">
+        <v>355</v>
+      </c>
+      <c r="B302" t="s">
+        <v>277</v>
+      </c>
+      <c r="C302" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>356</v>
+      </c>
+      <c r="B303" t="s">
+        <v>303</v>
+      </c>
+      <c r="C303" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>357</v>
+      </c>
+      <c r="B304" t="s">
+        <v>303</v>
+      </c>
+      <c r="C304" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>358</v>
+      </c>
+      <c r="B305" t="s">
+        <v>303</v>
+      </c>
+      <c r="C305" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>359</v>
+      </c>
+      <c r="B306" t="s">
+        <v>247</v>
+      </c>
+      <c r="C306" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>360</v>
+      </c>
+      <c r="B307" t="s">
+        <v>237</v>
+      </c>
+      <c r="C307" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="s">
+        <v>361</v>
+      </c>
+      <c r="B308" t="s">
+        <v>233</v>
+      </c>
+      <c r="C308" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="s">
+        <v>362</v>
+      </c>
+      <c r="B309" t="s">
+        <v>235</v>
+      </c>
+      <c r="C309" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="s">
+        <v>363</v>
+      </c>
+      <c r="B310" t="s">
+        <v>233</v>
+      </c>
+      <c r="C310" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="s">
+        <v>364</v>
+      </c>
+      <c r="B311" t="s">
+        <v>233</v>
+      </c>
+      <c r="C311" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="s">
+        <v>365</v>
+      </c>
+      <c r="B312" t="s">
+        <v>237</v>
+      </c>
+      <c r="C312" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="s">
+        <v>366</v>
+      </c>
+      <c r="B313" t="s">
+        <v>235</v>
+      </c>
+      <c r="C313" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="s">
+        <v>367</v>
+      </c>
+      <c r="B314" t="s">
+        <v>235</v>
+      </c>
+      <c r="C314" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="s">
+        <v>368</v>
+      </c>
+      <c r="B315" t="s">
+        <v>320</v>
+      </c>
+      <c r="C315" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="s">
+        <v>369</v>
+      </c>
+      <c r="B316" t="s">
+        <v>303</v>
+      </c>
+      <c r="C316" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="s">
+        <v>370</v>
+      </c>
+      <c r="B317" t="s">
+        <v>303</v>
+      </c>
+      <c r="C317" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="s">
+        <v>371</v>
+      </c>
+      <c r="B318" t="s">
+        <v>277</v>
+      </c>
+      <c r="C318" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="s">
+        <v>372</v>
+      </c>
+      <c r="B319" t="s">
+        <v>277</v>
+      </c>
+      <c r="C319" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="s">
+        <v>373</v>
+      </c>
+      <c r="B320" t="s">
+        <v>277</v>
+      </c>
+      <c r="C320" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="s">
+        <v>374</v>
+      </c>
+      <c r="B321" t="s">
+        <v>277</v>
+      </c>
+      <c r="C321" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/GreatLink/GreatLink Multi-Sector Income.xlsx
+++ b/data/GreatLink/GreatLink Multi-Sector Income.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid766466"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid191463"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="397">
   <si>
     <t>Price Date</t>
   </si>
@@ -26,24 +26,108 @@
     <t>Currency - Unit Level</t>
   </si>
   <si>
+    <t>01/09/2025</t>
+  </si>
+  <si>
+    <t>0.927</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>29/08/2025</t>
+  </si>
+  <si>
+    <t>0.932</t>
+  </si>
+  <si>
+    <t>28/08/2025</t>
+  </si>
+  <si>
+    <t>27/08/2025</t>
+  </si>
+  <si>
+    <t>0.931</t>
+  </si>
+  <si>
+    <t>26/08/2025</t>
+  </si>
+  <si>
+    <t>25/08/2025</t>
+  </si>
+  <si>
+    <t>0.930</t>
+  </si>
+  <si>
+    <t>22/08/2025</t>
+  </si>
+  <si>
+    <t>21/08/2025</t>
+  </si>
+  <si>
+    <t>0.926</t>
+  </si>
+  <si>
+    <t>20/08/2025</t>
+  </si>
+  <si>
+    <t>0.928</t>
+  </si>
+  <si>
+    <t>19/08/2025</t>
+  </si>
+  <si>
+    <t>18/08/2025</t>
+  </si>
+  <si>
+    <t>15/08/2025</t>
+  </si>
+  <si>
+    <t>14/08/2025</t>
+  </si>
+  <si>
+    <t>0.929</t>
+  </si>
+  <si>
+    <t>13/08/2025</t>
+  </si>
+  <si>
+    <t>12/08/2025</t>
+  </si>
+  <si>
+    <t>11/08/2025</t>
+  </si>
+  <si>
+    <t>08/08/2025</t>
+  </si>
+  <si>
+    <t>07/08/2025</t>
+  </si>
+  <si>
+    <t>06/08/2025</t>
+  </si>
+  <si>
+    <t>05/08/2025</t>
+  </si>
+  <si>
+    <t>04/08/2025</t>
+  </si>
+  <si>
+    <t>01/08/2025</t>
+  </si>
+  <si>
     <t>31/07/2025</t>
   </si>
   <si>
     <t>0.925</t>
   </si>
   <si>
-    <t>SGD</t>
-  </si>
-  <si>
     <t>30/07/2025</t>
   </si>
   <si>
     <t>29/07/2025</t>
   </si>
   <si>
-    <t>0.927</t>
-  </si>
-  <si>
     <t>28/07/2025</t>
   </si>
   <si>
@@ -62,9 +146,6 @@
     <t>22/07/2025</t>
   </si>
   <si>
-    <t>0.926</t>
-  </si>
-  <si>
     <t>21/07/2025</t>
   </si>
   <si>
@@ -122,9 +203,6 @@
     <t>01/07/2025</t>
   </si>
   <si>
-    <t>0.928</t>
-  </si>
-  <si>
     <t>30/06/2025</t>
   </si>
   <si>
@@ -134,15 +212,9 @@
     <t>27/06/2025</t>
   </si>
   <si>
-    <t>0.930</t>
-  </si>
-  <si>
     <t>26/06/2025</t>
   </si>
   <si>
-    <t>0.931</t>
-  </si>
-  <si>
     <t>25/06/2025</t>
   </si>
   <si>
@@ -281,9 +353,6 @@
     <t>30/04/2025</t>
   </si>
   <si>
-    <t>0.929</t>
-  </si>
-  <si>
     <t>29/04/2025</t>
   </si>
   <si>
@@ -348,9 +417,6 @@
   </si>
   <si>
     <t>02/04/2025</t>
-  </si>
-  <si>
-    <t>0.932</t>
   </si>
   <si>
     <t>01/04/2025</t>
@@ -1495,7 +1561,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -1503,10 +1569,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -1528,7 +1594,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1539,7 +1605,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1547,10 +1613,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -1558,10 +1624,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -1569,10 +1635,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -1580,10 +1646,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -1591,10 +1657,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -1605,7 +1671,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -1627,7 +1693,7 @@
         <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -1649,7 +1715,7 @@
         <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -1660,7 +1726,7 @@
         <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -1682,7 +1748,7 @@
         <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -1690,10 +1756,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -1701,10 +1767,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -1712,10 +1778,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -1723,10 +1789,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" t="s">
         <v>34</v>
-      </c>
-      <c r="B24" t="s">
-        <v>35</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -1734,10 +1800,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -1745,10 +1811,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -1756,10 +1822,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -1767,10 +1833,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -1778,10 +1844,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -1789,10 +1855,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -1800,10 +1866,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -1811,10 +1877,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -1822,10 +1888,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -1833,10 +1899,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B34" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -1844,10 +1910,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B35" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -1855,10 +1921,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B36" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -1866,10 +1932,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B37" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -1877,10 +1943,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -1888,10 +1954,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B39" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -1899,10 +1965,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B40" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -1910,10 +1976,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B41" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -1921,10 +1987,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B42" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -1932,10 +1998,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B43" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -1943,10 +2009,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B44" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -1954,10 +2020,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B45" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -1965,10 +2031,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B46" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -1976,10 +2042,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B47" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -1987,10 +2053,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B48" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -1998,10 +2064,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B49" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -2009,10 +2075,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B50" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -2020,10 +2086,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B51" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -2031,10 +2097,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B52" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -2042,10 +2108,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B53" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -2053,10 +2119,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B54" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -2064,10 +2130,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B55" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -2075,10 +2141,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B56" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -2086,10 +2152,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B57" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -2097,10 +2163,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B58" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -2108,10 +2174,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B59" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -2119,10 +2185,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B60" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -2130,10 +2196,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B61" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -2141,10 +2207,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B62" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -2152,10 +2218,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B63" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -2163,10 +2229,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B64" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -2174,10 +2240,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B65" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -2185,10 +2251,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B66" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -2196,7 +2262,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B67" t="s">
         <v>88</v>
@@ -2207,10 +2273,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B68" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -2218,10 +2284,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B69" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -2229,10 +2295,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B70" t="s">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -2240,10 +2306,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B71" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -2251,10 +2317,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B72" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -2262,10 +2328,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B73" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -2273,10 +2339,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B74" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -2284,10 +2350,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
+        <v>97</v>
+      </c>
+      <c r="B75" t="s">
         <v>98</v>
-      </c>
-      <c r="B75" t="s">
-        <v>23</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -2298,7 +2364,7 @@
         <v>99</v>
       </c>
       <c r="B76" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -2309,7 +2375,7 @@
         <v>100</v>
       </c>
       <c r="B77" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -2320,7 +2386,7 @@
         <v>101</v>
       </c>
       <c r="B78" t="s">
-        <v>102</v>
+        <v>50</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -2328,10 +2394,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B79" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -2339,10 +2405,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B80" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -2350,10 +2416,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B81" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -2361,10 +2427,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B82" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -2372,10 +2438,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B83" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -2383,10 +2449,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B84" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -2394,10 +2460,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B85" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -2405,10 +2471,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B86" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -2416,10 +2482,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B87" t="s">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -2427,10 +2493,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B88" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -2438,10 +2504,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B89" t="s">
-        <v>118</v>
+        <v>23</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -2449,10 +2515,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B90" t="s">
-        <v>115</v>
+        <v>18</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -2460,10 +2526,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B91" t="s">
-        <v>118</v>
+        <v>16</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -2471,10 +2537,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B92" t="s">
-        <v>122</v>
+        <v>34</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -2482,10 +2548,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B93" t="s">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -2493,10 +2559,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B94" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -2504,10 +2570,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B95" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -2515,10 +2581,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B96" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -2526,10 +2592,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B97" t="s">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -2537,10 +2603,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B98" t="s">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -2548,10 +2614,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B99" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
@@ -2559,10 +2625,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B100" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
@@ -2570,10 +2636,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B101" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -2581,10 +2647,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B102" t="s">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
@@ -2592,10 +2658,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B103" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -2603,10 +2669,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B104" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -2614,10 +2680,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B105" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -2625,10 +2691,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B106" t="s">
-        <v>122</v>
+        <v>63</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
@@ -2636,10 +2702,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B107" t="s">
-        <v>139</v>
+        <v>7</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -2647,10 +2713,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B108" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -2658,10 +2724,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B109" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -2669,10 +2735,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B110" t="s">
-        <v>141</v>
+        <v>63</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -2680,10 +2746,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B111" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -2691,10 +2757,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B112" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -2702,10 +2768,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B113" t="s">
-        <v>37</v>
+        <v>140</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -2713,10 +2779,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B114" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -2724,10 +2790,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B115" t="s">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -2735,10 +2801,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B116" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -2746,10 +2812,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B117" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
@@ -2757,10 +2823,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B118" t="s">
-        <v>41</v>
+        <v>137</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -2768,10 +2834,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B119" t="s">
-        <v>15</v>
+        <v>137</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -2779,10 +2845,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B120" t="s">
-        <v>88</v>
+        <v>140</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -2790,10 +2856,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B121" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -2801,10 +2867,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B122" t="s">
-        <v>41</v>
+        <v>140</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -2812,10 +2878,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B123" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -2823,10 +2889,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B124" t="s">
-        <v>41</v>
+        <v>137</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -2834,10 +2900,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B125" t="s">
-        <v>35</v>
+        <v>137</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -2845,10 +2911,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>137</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
@@ -2856,10 +2922,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B127" t="s">
-        <v>15</v>
+        <v>144</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
@@ -2867,10 +2933,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B128" t="s">
-        <v>39</v>
+        <v>144</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
@@ -2878,10 +2944,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B129" t="s">
-        <v>88</v>
+        <v>161</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -2889,10 +2955,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
+        <v>162</v>
+      </c>
+      <c r="B130" t="s">
         <v>163</v>
-      </c>
-      <c r="B130" t="s">
-        <v>8</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -2903,7 +2969,7 @@
         <v>164</v>
       </c>
       <c r="B131" t="s">
-        <v>4</v>
+        <v>163</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -2914,7 +2980,7 @@
         <v>165</v>
       </c>
       <c r="B132" t="s">
-        <v>15</v>
+        <v>163</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
@@ -2925,7 +2991,7 @@
         <v>166</v>
       </c>
       <c r="B133" t="s">
-        <v>15</v>
+        <v>135</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
@@ -2936,7 +3002,7 @@
         <v>167</v>
       </c>
       <c r="B134" t="s">
-        <v>10</v>
+        <v>144</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
@@ -2947,7 +3013,7 @@
         <v>168</v>
       </c>
       <c r="B135" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
@@ -2958,7 +3024,7 @@
         <v>169</v>
       </c>
       <c r="B136" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -2969,7 +3035,7 @@
         <v>170</v>
       </c>
       <c r="B137" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
@@ -2980,7 +3046,7 @@
         <v>171</v>
       </c>
       <c r="B138" t="s">
-        <v>64</v>
+        <v>140</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
@@ -2991,7 +3057,7 @@
         <v>172</v>
       </c>
       <c r="B139" t="s">
-        <v>58</v>
+        <v>140</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -3002,7 +3068,7 @@
         <v>173</v>
       </c>
       <c r="B140" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
@@ -3013,7 +3079,7 @@
         <v>174</v>
       </c>
       <c r="B141" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
@@ -3024,7 +3090,7 @@
         <v>175</v>
       </c>
       <c r="B142" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
@@ -3035,7 +3101,7 @@
         <v>176</v>
       </c>
       <c r="B143" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -3057,7 +3123,7 @@
         <v>178</v>
       </c>
       <c r="B145" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
@@ -3079,7 +3145,7 @@
         <v>180</v>
       </c>
       <c r="B147" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
@@ -3090,7 +3156,7 @@
         <v>181</v>
       </c>
       <c r="B148" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
@@ -3101,7 +3167,7 @@
         <v>182</v>
       </c>
       <c r="B149" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
@@ -3112,7 +3178,7 @@
         <v>183</v>
       </c>
       <c r="B150" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
@@ -3123,7 +3189,7 @@
         <v>184</v>
       </c>
       <c r="B151" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
@@ -3145,7 +3211,7 @@
         <v>186</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
@@ -3156,7 +3222,7 @@
         <v>187</v>
       </c>
       <c r="B154" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
@@ -3167,7 +3233,7 @@
         <v>188</v>
       </c>
       <c r="B155" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="C155" t="s">
         <v>5</v>
@@ -3178,7 +3244,7 @@
         <v>189</v>
       </c>
       <c r="B156" t="s">
-        <v>111</v>
+        <v>38</v>
       </c>
       <c r="C156" t="s">
         <v>5</v>
@@ -3189,7 +3255,7 @@
         <v>190</v>
       </c>
       <c r="B157" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
@@ -3200,7 +3266,7 @@
         <v>191</v>
       </c>
       <c r="B158" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
@@ -3211,7 +3277,7 @@
         <v>192</v>
       </c>
       <c r="B159" t="s">
-        <v>122</v>
+        <v>70</v>
       </c>
       <c r="C159" t="s">
         <v>5</v>
@@ -3222,7 +3288,7 @@
         <v>193</v>
       </c>
       <c r="B160" t="s">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
@@ -3233,7 +3299,7 @@
         <v>194</v>
       </c>
       <c r="B161" t="s">
-        <v>141</v>
+        <v>82</v>
       </c>
       <c r="C161" t="s">
         <v>5</v>
@@ -3244,7 +3310,7 @@
         <v>195</v>
       </c>
       <c r="B162" t="s">
-        <v>141</v>
+        <v>88</v>
       </c>
       <c r="C162" t="s">
         <v>5</v>
@@ -3255,7 +3321,7 @@
         <v>196</v>
       </c>
       <c r="B163" t="s">
-        <v>139</v>
+        <v>70</v>
       </c>
       <c r="C163" t="s">
         <v>5</v>
@@ -3266,7 +3332,7 @@
         <v>197</v>
       </c>
       <c r="B164" t="s">
-        <v>141</v>
+        <v>70</v>
       </c>
       <c r="C164" t="s">
         <v>5</v>
@@ -3277,7 +3343,7 @@
         <v>198</v>
       </c>
       <c r="B165" t="s">
-        <v>124</v>
+        <v>70</v>
       </c>
       <c r="C165" t="s">
         <v>5</v>
@@ -3288,7 +3354,7 @@
         <v>199</v>
       </c>
       <c r="B166" t="s">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
@@ -3299,7 +3365,7 @@
         <v>200</v>
       </c>
       <c r="B167" t="s">
-        <v>124</v>
+        <v>57</v>
       </c>
       <c r="C167" t="s">
         <v>5</v>
@@ -3310,7 +3376,7 @@
         <v>201</v>
       </c>
       <c r="B168" t="s">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="C168" t="s">
         <v>5</v>
@@ -3321,7 +3387,7 @@
         <v>202</v>
       </c>
       <c r="B169" t="s">
-        <v>141</v>
+        <v>18</v>
       </c>
       <c r="C169" t="s">
         <v>5</v>
@@ -3332,7 +3398,7 @@
         <v>203</v>
       </c>
       <c r="B170" t="s">
-        <v>141</v>
+        <v>18</v>
       </c>
       <c r="C170" t="s">
         <v>5</v>
@@ -3343,7 +3409,7 @@
         <v>204</v>
       </c>
       <c r="B171" t="s">
-        <v>124</v>
+        <v>16</v>
       </c>
       <c r="C171" t="s">
         <v>5</v>
@@ -3354,7 +3420,7 @@
         <v>205</v>
       </c>
       <c r="B172" t="s">
-        <v>124</v>
+        <v>34</v>
       </c>
       <c r="C172" t="s">
         <v>5</v>
@@ -3365,7 +3431,7 @@
         <v>206</v>
       </c>
       <c r="B173" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C173" t="s">
         <v>5</v>
@@ -3376,7 +3442,7 @@
         <v>207</v>
       </c>
       <c r="B174" t="s">
-        <v>111</v>
+        <v>34</v>
       </c>
       <c r="C174" t="s">
         <v>5</v>
@@ -3387,7 +3453,7 @@
         <v>208</v>
       </c>
       <c r="B175" t="s">
-        <v>111</v>
+        <v>4</v>
       </c>
       <c r="C175" t="s">
         <v>5</v>
@@ -3398,7 +3464,7 @@
         <v>209</v>
       </c>
       <c r="B176" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C176" t="s">
         <v>5</v>
@@ -3409,7 +3475,7 @@
         <v>210</v>
       </c>
       <c r="B177" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="C177" t="s">
         <v>5</v>
@@ -3420,7 +3486,7 @@
         <v>211</v>
       </c>
       <c r="B178" t="s">
-        <v>111</v>
+        <v>7</v>
       </c>
       <c r="C178" t="s">
         <v>5</v>
@@ -3431,7 +3497,7 @@
         <v>212</v>
       </c>
       <c r="B179" t="s">
-        <v>111</v>
+        <v>63</v>
       </c>
       <c r="C179" t="s">
         <v>5</v>
@@ -3442,7 +3508,7 @@
         <v>213</v>
       </c>
       <c r="B180" t="s">
-        <v>111</v>
+        <v>63</v>
       </c>
       <c r="C180" t="s">
         <v>5</v>
@@ -3453,7 +3519,7 @@
         <v>214</v>
       </c>
       <c r="B181" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="C181" t="s">
         <v>5</v>
@@ -3464,7 +3530,7 @@
         <v>215</v>
       </c>
       <c r="B182" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="C182" t="s">
         <v>5</v>
@@ -3475,7 +3541,7 @@
         <v>216</v>
       </c>
       <c r="B183" t="s">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="C183" t="s">
         <v>5</v>
@@ -3486,7 +3552,7 @@
         <v>217</v>
       </c>
       <c r="B184" t="s">
-        <v>113</v>
+        <v>163</v>
       </c>
       <c r="C184" t="s">
         <v>5</v>
@@ -3497,7 +3563,7 @@
         <v>218</v>
       </c>
       <c r="B185" t="s">
-        <v>41</v>
+        <v>161</v>
       </c>
       <c r="C185" t="s">
         <v>5</v>
@@ -3508,7 +3574,7 @@
         <v>219</v>
       </c>
       <c r="B186" t="s">
-        <v>41</v>
+        <v>163</v>
       </c>
       <c r="C186" t="s">
         <v>5</v>
@@ -3519,7 +3585,7 @@
         <v>220</v>
       </c>
       <c r="B187" t="s">
-        <v>39</v>
+        <v>146</v>
       </c>
       <c r="C187" t="s">
         <v>5</v>
@@ -3530,7 +3596,7 @@
         <v>221</v>
       </c>
       <c r="B188" t="s">
-        <v>37</v>
+        <v>135</v>
       </c>
       <c r="C188" t="s">
         <v>5</v>
@@ -3541,7 +3607,7 @@
         <v>222</v>
       </c>
       <c r="B189" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="C189" t="s">
         <v>5</v>
@@ -3552,7 +3618,7 @@
         <v>223</v>
       </c>
       <c r="B190" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="C190" t="s">
         <v>5</v>
@@ -3563,7 +3629,7 @@
         <v>224</v>
       </c>
       <c r="B191" t="s">
-        <v>113</v>
+        <v>163</v>
       </c>
       <c r="C191" t="s">
         <v>5</v>
@@ -3574,7 +3640,7 @@
         <v>225</v>
       </c>
       <c r="B192" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="C192" t="s">
         <v>5</v>
@@ -3585,7 +3651,7 @@
         <v>226</v>
       </c>
       <c r="B193" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C193" t="s">
         <v>5</v>
@@ -3596,7 +3662,7 @@
         <v>227</v>
       </c>
       <c r="B194" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="C194" t="s">
         <v>5</v>
@@ -3607,7 +3673,7 @@
         <v>228</v>
       </c>
       <c r="B195" t="s">
-        <v>229</v>
+        <v>63</v>
       </c>
       <c r="C195" t="s">
         <v>5</v>
@@ -3615,10 +3681,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B196" t="s">
-        <v>231</v>
+        <v>7</v>
       </c>
       <c r="C196" t="s">
         <v>5</v>
@@ -3626,10 +3692,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B197" t="s">
-        <v>233</v>
+        <v>7</v>
       </c>
       <c r="C197" t="s">
         <v>5</v>
@@ -3637,10 +3703,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B198" t="s">
-        <v>235</v>
+        <v>63</v>
       </c>
       <c r="C198" t="s">
         <v>5</v>
@@ -3648,10 +3714,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B199" t="s">
-        <v>237</v>
+        <v>63</v>
       </c>
       <c r="C199" t="s">
         <v>5</v>
@@ -3659,10 +3725,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B200" t="s">
-        <v>233</v>
+        <v>7</v>
       </c>
       <c r="C200" t="s">
         <v>5</v>
@@ -3670,10 +3736,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B201" t="s">
-        <v>235</v>
+        <v>7</v>
       </c>
       <c r="C201" t="s">
         <v>5</v>
@@ -3681,10 +3747,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B202" t="s">
-        <v>233</v>
+        <v>7</v>
       </c>
       <c r="C202" t="s">
         <v>5</v>
@@ -3692,10 +3758,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B203" t="s">
-        <v>235</v>
+        <v>7</v>
       </c>
       <c r="C203" t="s">
         <v>5</v>
@@ -3703,10 +3769,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B204" t="s">
-        <v>235</v>
+        <v>135</v>
       </c>
       <c r="C204" t="s">
         <v>5</v>
@@ -3714,10 +3780,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B205" t="s">
-        <v>235</v>
+        <v>146</v>
       </c>
       <c r="C205" t="s">
         <v>5</v>
@@ -3725,10 +3791,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B206" t="s">
-        <v>235</v>
+        <v>135</v>
       </c>
       <c r="C206" t="s">
         <v>5</v>
@@ -3736,10 +3802,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B207" t="s">
-        <v>233</v>
+        <v>10</v>
       </c>
       <c r="C207" t="s">
         <v>5</v>
@@ -3747,10 +3813,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B208" t="s">
-        <v>247</v>
+        <v>10</v>
       </c>
       <c r="C208" t="s">
         <v>5</v>
@@ -3758,10 +3824,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B209" t="s">
-        <v>249</v>
+        <v>13</v>
       </c>
       <c r="C209" t="s">
         <v>5</v>
@@ -3769,10 +3835,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B210" t="s">
-        <v>249</v>
+        <v>63</v>
       </c>
       <c r="C210" t="s">
         <v>5</v>
@@ -3780,10 +3846,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B211" t="s">
-        <v>252</v>
+        <v>144</v>
       </c>
       <c r="C211" t="s">
         <v>5</v>
@@ -3791,10 +3857,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="B212" t="s">
-        <v>254</v>
+        <v>146</v>
       </c>
       <c r="C212" t="s">
         <v>5</v>
@@ -3802,10 +3868,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="B213" t="s">
-        <v>256</v>
+        <v>135</v>
       </c>
       <c r="C213" t="s">
         <v>5</v>
@@ -3813,10 +3879,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="B214" t="s">
-        <v>252</v>
+        <v>163</v>
       </c>
       <c r="C214" t="s">
         <v>5</v>
@@ -3824,10 +3890,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="B215" t="s">
-        <v>259</v>
+        <v>163</v>
       </c>
       <c r="C215" t="s">
         <v>5</v>
@@ -3835,10 +3901,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="B216" t="s">
-        <v>254</v>
+        <v>146</v>
       </c>
       <c r="C216" t="s">
         <v>5</v>
@@ -3846,10 +3912,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="B217" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="C217" t="s">
         <v>5</v>
@@ -3857,10 +3923,10 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="B218" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C218" t="s">
         <v>5</v>
@@ -3868,10 +3934,10 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="B219" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C219" t="s">
         <v>5</v>
@@ -3879,10 +3945,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B220" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C220" t="s">
         <v>5</v>
@@ -3890,10 +3956,10 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B221" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="C221" t="s">
         <v>5</v>
@@ -3901,10 +3967,10 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B222" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C222" t="s">
         <v>5</v>
@@ -3912,10 +3978,10 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B223" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="C223" t="s">
         <v>5</v>
@@ -3923,10 +3989,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B224" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="C224" t="s">
         <v>5</v>
@@ -3934,10 +4000,10 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="B225" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="C225" t="s">
         <v>5</v>
@@ -3945,10 +4011,10 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="B226" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="C226" t="s">
         <v>5</v>
@@ -3956,10 +4022,10 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="B227" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="C227" t="s">
         <v>5</v>
@@ -3967,10 +4033,10 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="B228" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="C228" t="s">
         <v>5</v>
@@ -3978,10 +4044,10 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="B229" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="C229" t="s">
         <v>5</v>
@@ -3989,10 +4055,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="B230" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="C230" t="s">
         <v>5</v>
@@ -4000,10 +4066,10 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="B231" t="s">
-        <v>237</v>
+        <v>271</v>
       </c>
       <c r="C231" t="s">
         <v>5</v>
@@ -4011,10 +4077,10 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="B232" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C232" t="s">
         <v>5</v>
@@ -4022,10 +4088,10 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="B233" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="C233" t="s">
         <v>5</v>
@@ -4033,10 +4099,10 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="B234" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="C234" t="s">
         <v>5</v>
@@ -4044,10 +4110,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="B235" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C235" t="s">
         <v>5</v>
@@ -4055,10 +4121,10 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="B236" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="C236" t="s">
         <v>5</v>
@@ -4066,10 +4132,10 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="B237" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="C237" t="s">
         <v>5</v>
@@ -4077,10 +4143,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B238" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C238" t="s">
         <v>5</v>
@@ -4088,10 +4154,10 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B239" t="s">
-        <v>249</v>
+        <v>281</v>
       </c>
       <c r="C239" t="s">
         <v>5</v>
@@ -4099,10 +4165,10 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B240" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="C240" t="s">
         <v>5</v>
@@ -4110,7 +4176,7 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B241" t="s">
         <v>274</v>
@@ -4121,10 +4187,10 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B242" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C242" t="s">
         <v>5</v>
@@ -4132,10 +4198,10 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B243" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C243" t="s">
         <v>5</v>
@@ -4143,10 +4209,10 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B244" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="C244" t="s">
         <v>5</v>
@@ -4154,10 +4220,10 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B245" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="C245" t="s">
         <v>5</v>
@@ -4165,10 +4231,10 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="B246" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="C246" t="s">
         <v>5</v>
@@ -4176,10 +4242,10 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B247" t="s">
-        <v>235</v>
+        <v>293</v>
       </c>
       <c r="C247" t="s">
         <v>5</v>
@@ -4187,10 +4253,10 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B248" t="s">
-        <v>235</v>
+        <v>271</v>
       </c>
       <c r="C248" t="s">
         <v>5</v>
@@ -4198,10 +4264,10 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B249" t="s">
-        <v>233</v>
+        <v>296</v>
       </c>
       <c r="C249" t="s">
         <v>5</v>
@@ -4209,10 +4275,10 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B250" t="s">
-        <v>233</v>
+        <v>269</v>
       </c>
       <c r="C250" t="s">
         <v>5</v>
@@ -4220,10 +4286,10 @@
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B251" t="s">
-        <v>247</v>
+        <v>299</v>
       </c>
       <c r="C251" t="s">
         <v>5</v>
@@ -4231,10 +4297,10 @@
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B252" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C252" t="s">
         <v>5</v>
@@ -4242,10 +4308,10 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B253" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="C253" t="s">
         <v>5</v>
@@ -4253,10 +4319,10 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B254" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="C254" t="s">
         <v>5</v>
@@ -4264,10 +4330,10 @@
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B255" t="s">
-        <v>303</v>
+        <v>271</v>
       </c>
       <c r="C255" t="s">
         <v>5</v>
@@ -4275,10 +4341,10 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B256" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="C256" t="s">
         <v>5</v>
@@ -4286,10 +4352,10 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B257" t="s">
-        <v>237</v>
+        <v>307</v>
       </c>
       <c r="C257" t="s">
         <v>5</v>
@@ -4297,10 +4363,10 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B258" t="s">
-        <v>233</v>
+        <v>290</v>
       </c>
       <c r="C258" t="s">
         <v>5</v>
@@ -4308,10 +4374,10 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B259" t="s">
-        <v>237</v>
+        <v>290</v>
       </c>
       <c r="C259" t="s">
         <v>5</v>
@@ -4319,10 +4385,10 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B260" t="s">
-        <v>237</v>
+        <v>296</v>
       </c>
       <c r="C260" t="s">
         <v>5</v>
@@ -4330,10 +4396,10 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B261" t="s">
-        <v>237</v>
+        <v>271</v>
       </c>
       <c r="C261" t="s">
         <v>5</v>
@@ -4341,10 +4407,10 @@
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B262" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="C262" t="s">
         <v>5</v>
@@ -4352,10 +4418,10 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B263" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="C263" t="s">
         <v>5</v>
@@ -4363,10 +4429,10 @@
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B264" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="C264" t="s">
         <v>5</v>
@@ -4374,10 +4440,10 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B265" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="C265" t="s">
         <v>5</v>
@@ -4385,10 +4451,10 @@
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B266" t="s">
-        <v>303</v>
+        <v>269</v>
       </c>
       <c r="C266" t="s">
         <v>5</v>
@@ -4396,10 +4462,10 @@
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B267" t="s">
-        <v>237</v>
+        <v>299</v>
       </c>
       <c r="C267" t="s">
         <v>5</v>
@@ -4407,10 +4473,10 @@
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B268" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="C268" t="s">
         <v>5</v>
@@ -4418,10 +4484,10 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B269" t="s">
-        <v>322</v>
+        <v>257</v>
       </c>
       <c r="C269" t="s">
         <v>5</v>
@@ -4429,10 +4495,10 @@
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B270" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
       <c r="C270" t="s">
         <v>5</v>
@@ -4440,10 +4506,10 @@
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B271" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="C271" t="s">
         <v>5</v>
@@ -4451,10 +4517,10 @@
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B272" t="s">
-        <v>124</v>
+        <v>255</v>
       </c>
       <c r="C272" t="s">
         <v>5</v>
@@ -4462,10 +4528,10 @@
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B273" t="s">
-        <v>124</v>
+        <v>269</v>
       </c>
       <c r="C273" t="s">
         <v>5</v>
@@ -4473,10 +4539,10 @@
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B274" t="s">
-        <v>115</v>
+        <v>325</v>
       </c>
       <c r="C274" t="s">
         <v>5</v>
@@ -4484,10 +4550,10 @@
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B275" t="s">
-        <v>118</v>
+        <v>271</v>
       </c>
       <c r="C275" t="s">
         <v>5</v>
@@ -4495,10 +4561,10 @@
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B276" t="s">
-        <v>231</v>
+        <v>325</v>
       </c>
       <c r="C276" t="s">
         <v>5</v>
@@ -4506,10 +4572,10 @@
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B277" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C277" t="s">
         <v>5</v>
@@ -4517,10 +4583,10 @@
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B278" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C278" t="s">
         <v>5</v>
@@ -4528,10 +4594,10 @@
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B279" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="C279" t="s">
         <v>5</v>
@@ -4539,10 +4605,10 @@
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B280" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="C280" t="s">
         <v>5</v>
@@ -4550,10 +4616,10 @@
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B281" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="C281" t="s">
         <v>5</v>
@@ -4561,10 +4627,10 @@
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B282" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="C282" t="s">
         <v>5</v>
@@ -4572,10 +4638,10 @@
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B283" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="C283" t="s">
         <v>5</v>
@@ -4583,10 +4649,10 @@
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B284" t="s">
-        <v>235</v>
+        <v>301</v>
       </c>
       <c r="C284" t="s">
         <v>5</v>
@@ -4594,10 +4660,10 @@
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B285" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="C285" t="s">
         <v>5</v>
@@ -4605,10 +4671,10 @@
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B286" t="s">
-        <v>233</v>
+        <v>325</v>
       </c>
       <c r="C286" t="s">
         <v>5</v>
@@ -4616,10 +4682,10 @@
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B287" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="C287" t="s">
         <v>5</v>
@@ -4627,10 +4693,10 @@
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B288" t="s">
-        <v>231</v>
+        <v>325</v>
       </c>
       <c r="C288" t="s">
         <v>5</v>
@@ -4638,10 +4704,10 @@
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B289" t="s">
-        <v>139</v>
+        <v>259</v>
       </c>
       <c r="C289" t="s">
         <v>5</v>
@@ -4649,10 +4715,10 @@
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B290" t="s">
-        <v>229</v>
+        <v>342</v>
       </c>
       <c r="C290" t="s">
         <v>5</v>
@@ -4660,10 +4726,10 @@
     </row>
     <row r="291">
       <c r="A291" t="s">
+        <v>343</v>
+      </c>
+      <c r="B291" t="s">
         <v>344</v>
-      </c>
-      <c r="B291" t="s">
-        <v>235</v>
       </c>
       <c r="C291" t="s">
         <v>5</v>
@@ -4674,7 +4740,7 @@
         <v>345</v>
       </c>
       <c r="B292" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="C292" t="s">
         <v>5</v>
@@ -4685,7 +4751,7 @@
         <v>346</v>
       </c>
       <c r="B293" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="C293" t="s">
         <v>5</v>
@@ -4696,7 +4762,7 @@
         <v>347</v>
       </c>
       <c r="B294" t="s">
-        <v>320</v>
+        <v>146</v>
       </c>
       <c r="C294" t="s">
         <v>5</v>
@@ -4707,7 +4773,7 @@
         <v>348</v>
       </c>
       <c r="B295" t="s">
-        <v>233</v>
+        <v>146</v>
       </c>
       <c r="C295" t="s">
         <v>5</v>
@@ -4718,7 +4784,7 @@
         <v>349</v>
       </c>
       <c r="B296" t="s">
-        <v>320</v>
+        <v>137</v>
       </c>
       <c r="C296" t="s">
         <v>5</v>
@@ -4729,7 +4795,7 @@
         <v>350</v>
       </c>
       <c r="B297" t="s">
-        <v>322</v>
+        <v>140</v>
       </c>
       <c r="C297" t="s">
         <v>5</v>
@@ -4740,7 +4806,7 @@
         <v>351</v>
       </c>
       <c r="B298" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="C298" t="s">
         <v>5</v>
@@ -4751,7 +4817,7 @@
         <v>352</v>
       </c>
       <c r="B299" t="s">
-        <v>237</v>
+        <v>344</v>
       </c>
       <c r="C299" t="s">
         <v>5</v>
@@ -4762,7 +4828,7 @@
         <v>353</v>
       </c>
       <c r="B300" t="s">
-        <v>237</v>
+        <v>344</v>
       </c>
       <c r="C300" t="s">
         <v>5</v>
@@ -4773,7 +4839,7 @@
         <v>354</v>
       </c>
       <c r="B301" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="C301" t="s">
         <v>5</v>
@@ -4784,7 +4850,7 @@
         <v>355</v>
       </c>
       <c r="B302" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="C302" t="s">
         <v>5</v>
@@ -4795,7 +4861,7 @@
         <v>356</v>
       </c>
       <c r="B303" t="s">
-        <v>303</v>
+        <v>257</v>
       </c>
       <c r="C303" t="s">
         <v>5</v>
@@ -4806,7 +4872,7 @@
         <v>357</v>
       </c>
       <c r="B304" t="s">
-        <v>303</v>
+        <v>257</v>
       </c>
       <c r="C304" t="s">
         <v>5</v>
@@ -4817,7 +4883,7 @@
         <v>358</v>
       </c>
       <c r="B305" t="s">
-        <v>303</v>
+        <v>257</v>
       </c>
       <c r="C305" t="s">
         <v>5</v>
@@ -4828,7 +4894,7 @@
         <v>359</v>
       </c>
       <c r="B306" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="C306" t="s">
         <v>5</v>
@@ -4839,7 +4905,7 @@
         <v>360</v>
       </c>
       <c r="B307" t="s">
-        <v>237</v>
+        <v>342</v>
       </c>
       <c r="C307" t="s">
         <v>5</v>
@@ -4850,7 +4916,7 @@
         <v>361</v>
       </c>
       <c r="B308" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="C308" t="s">
         <v>5</v>
@@ -4861,7 +4927,7 @@
         <v>362</v>
       </c>
       <c r="B309" t="s">
-        <v>235</v>
+        <v>342</v>
       </c>
       <c r="C309" t="s">
         <v>5</v>
@@ -4872,7 +4938,7 @@
         <v>363</v>
       </c>
       <c r="B310" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="C310" t="s">
         <v>5</v>
@@ -4883,7 +4949,7 @@
         <v>364</v>
       </c>
       <c r="B311" t="s">
-        <v>233</v>
+        <v>161</v>
       </c>
       <c r="C311" t="s">
         <v>5</v>
@@ -4894,7 +4960,7 @@
         <v>365</v>
       </c>
       <c r="B312" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="C312" t="s">
         <v>5</v>
@@ -4905,7 +4971,7 @@
         <v>366</v>
       </c>
       <c r="B313" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="C313" t="s">
         <v>5</v>
@@ -4916,7 +4982,7 @@
         <v>367</v>
       </c>
       <c r="B314" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="C314" t="s">
         <v>5</v>
@@ -4927,7 +4993,7 @@
         <v>368</v>
       </c>
       <c r="B315" t="s">
-        <v>320</v>
+        <v>257</v>
       </c>
       <c r="C315" t="s">
         <v>5</v>
@@ -4938,7 +5004,7 @@
         <v>369</v>
       </c>
       <c r="B316" t="s">
-        <v>303</v>
+        <v>342</v>
       </c>
       <c r="C316" t="s">
         <v>5</v>
@@ -4949,7 +5015,7 @@
         <v>370</v>
       </c>
       <c r="B317" t="s">
-        <v>303</v>
+        <v>255</v>
       </c>
       <c r="C317" t="s">
         <v>5</v>
@@ -4960,7 +5026,7 @@
         <v>371</v>
       </c>
       <c r="B318" t="s">
-        <v>277</v>
+        <v>342</v>
       </c>
       <c r="C318" t="s">
         <v>5</v>
@@ -4971,7 +5037,7 @@
         <v>372</v>
       </c>
       <c r="B319" t="s">
-        <v>277</v>
+        <v>344</v>
       </c>
       <c r="C319" t="s">
         <v>5</v>
@@ -4982,7 +5048,7 @@
         <v>373</v>
       </c>
       <c r="B320" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="C320" t="s">
         <v>5</v>
@@ -4993,9 +5059,251 @@
         <v>374</v>
       </c>
       <c r="B321" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="C321" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="s">
+        <v>375</v>
+      </c>
+      <c r="B322" t="s">
+        <v>259</v>
+      </c>
+      <c r="C322" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="s">
+        <v>376</v>
+      </c>
+      <c r="B323" t="s">
+        <v>255</v>
+      </c>
+      <c r="C323" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="s">
+        <v>377</v>
+      </c>
+      <c r="B324" t="s">
+        <v>299</v>
+      </c>
+      <c r="C324" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="s">
+        <v>378</v>
+      </c>
+      <c r="B325" t="s">
+        <v>325</v>
+      </c>
+      <c r="C325" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="s">
+        <v>379</v>
+      </c>
+      <c r="B326" t="s">
+        <v>325</v>
+      </c>
+      <c r="C326" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="s">
+        <v>380</v>
+      </c>
+      <c r="B327" t="s">
+        <v>325</v>
+      </c>
+      <c r="C327" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="s">
+        <v>381</v>
+      </c>
+      <c r="B328" t="s">
+        <v>269</v>
+      </c>
+      <c r="C328" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="s">
+        <v>382</v>
+      </c>
+      <c r="B329" t="s">
+        <v>259</v>
+      </c>
+      <c r="C329" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="s">
+        <v>383</v>
+      </c>
+      <c r="B330" t="s">
+        <v>255</v>
+      </c>
+      <c r="C330" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="s">
+        <v>384</v>
+      </c>
+      <c r="B331" t="s">
+        <v>257</v>
+      </c>
+      <c r="C331" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="s">
+        <v>385</v>
+      </c>
+      <c r="B332" t="s">
+        <v>255</v>
+      </c>
+      <c r="C332" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="s">
+        <v>386</v>
+      </c>
+      <c r="B333" t="s">
+        <v>255</v>
+      </c>
+      <c r="C333" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="s">
+        <v>387</v>
+      </c>
+      <c r="B334" t="s">
+        <v>259</v>
+      </c>
+      <c r="C334" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="s">
+        <v>388</v>
+      </c>
+      <c r="B335" t="s">
+        <v>257</v>
+      </c>
+      <c r="C335" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="s">
+        <v>389</v>
+      </c>
+      <c r="B336" t="s">
+        <v>257</v>
+      </c>
+      <c r="C336" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="s">
+        <v>390</v>
+      </c>
+      <c r="B337" t="s">
+        <v>342</v>
+      </c>
+      <c r="C337" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="s">
+        <v>391</v>
+      </c>
+      <c r="B338" t="s">
+        <v>325</v>
+      </c>
+      <c r="C338" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="s">
+        <v>392</v>
+      </c>
+      <c r="B339" t="s">
+        <v>325</v>
+      </c>
+      <c r="C339" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="s">
+        <v>393</v>
+      </c>
+      <c r="B340" t="s">
+        <v>299</v>
+      </c>
+      <c r="C340" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="s">
+        <v>394</v>
+      </c>
+      <c r="B341" t="s">
+        <v>299</v>
+      </c>
+      <c r="C341" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="s">
+        <v>395</v>
+      </c>
+      <c r="B342" t="s">
+        <v>299</v>
+      </c>
+      <c r="C342" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="s">
+        <v>396</v>
+      </c>
+      <c r="B343" t="s">
+        <v>299</v>
+      </c>
+      <c r="C343" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/GreatLink/GreatLink Multi-Sector Income.xlsx
+++ b/data/GreatLink/GreatLink Multi-Sector Income.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid191463"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid950498"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="430">
   <si>
     <t>Price Date</t>
   </si>
@@ -26,21 +26,147 @@
     <t>Currency - Unit Level</t>
   </si>
   <si>
+    <t>16/10/2025</t>
+  </si>
+  <si>
+    <t>0.935</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>15/10/2025</t>
+  </si>
+  <si>
+    <t>0.933</t>
+  </si>
+  <si>
+    <t>14/10/2025</t>
+  </si>
+  <si>
+    <t>0.932</t>
+  </si>
+  <si>
+    <t>13/10/2025</t>
+  </si>
+  <si>
+    <t>0.930</t>
+  </si>
+  <si>
+    <t>10/10/2025</t>
+  </si>
+  <si>
+    <t>0.929</t>
+  </si>
+  <si>
+    <t>09/10/2025</t>
+  </si>
+  <si>
+    <t>0.927</t>
+  </si>
+  <si>
+    <t>08/10/2025</t>
+  </si>
+  <si>
+    <t>0.928</t>
+  </si>
+  <si>
+    <t>07/10/2025</t>
+  </si>
+  <si>
+    <t>06/10/2025</t>
+  </si>
+  <si>
+    <t>03/10/2025</t>
+  </si>
+  <si>
+    <t>02/10/2025</t>
+  </si>
+  <si>
+    <t>01/10/2025</t>
+  </si>
+  <si>
+    <t>30/09/2025</t>
+  </si>
+  <si>
+    <t>29/09/2025</t>
+  </si>
+  <si>
+    <t>26/09/2025</t>
+  </si>
+  <si>
+    <t>25/09/2025</t>
+  </si>
+  <si>
+    <t>24/09/2025</t>
+  </si>
+  <si>
+    <t>23/09/2025</t>
+  </si>
+  <si>
+    <t>0.934</t>
+  </si>
+  <si>
+    <t>22/09/2025</t>
+  </si>
+  <si>
+    <t>19/09/2025</t>
+  </si>
+  <si>
+    <t>18/09/2025</t>
+  </si>
+  <si>
+    <t>17/09/2025</t>
+  </si>
+  <si>
+    <t>16/09/2025</t>
+  </si>
+  <si>
+    <t>0.936</t>
+  </si>
+  <si>
+    <t>15/09/2025</t>
+  </si>
+  <si>
+    <t>12/09/2025</t>
+  </si>
+  <si>
+    <t>11/09/2025</t>
+  </si>
+  <si>
+    <t>10/09/2025</t>
+  </si>
+  <si>
+    <t>09/09/2025</t>
+  </si>
+  <si>
+    <t>08/09/2025</t>
+  </si>
+  <si>
+    <t>05/09/2025</t>
+  </si>
+  <si>
+    <t>04/09/2025</t>
+  </si>
+  <si>
+    <t>03/09/2025</t>
+  </si>
+  <si>
+    <t>0.926</t>
+  </si>
+  <si>
+    <t>02/09/2025</t>
+  </si>
+  <si>
+    <t>0.924</t>
+  </si>
+  <si>
     <t>01/09/2025</t>
   </si>
   <si>
-    <t>0.927</t>
-  </si>
-  <si>
-    <t>SGD</t>
-  </si>
-  <si>
     <t>29/08/2025</t>
   </si>
   <si>
-    <t>0.932</t>
-  </si>
-  <si>
     <t>28/08/2025</t>
   </si>
   <si>
@@ -56,24 +182,15 @@
     <t>25/08/2025</t>
   </si>
   <si>
-    <t>0.930</t>
-  </si>
-  <si>
     <t>22/08/2025</t>
   </si>
   <si>
     <t>21/08/2025</t>
   </si>
   <si>
-    <t>0.926</t>
-  </si>
-  <si>
     <t>20/08/2025</t>
   </si>
   <si>
-    <t>0.928</t>
-  </si>
-  <si>
     <t>19/08/2025</t>
   </si>
   <si>
@@ -86,9 +203,6 @@
     <t>14/08/2025</t>
   </si>
   <si>
-    <t>0.929</t>
-  </si>
-  <si>
     <t>13/08/2025</t>
   </si>
   <si>
@@ -131,9 +245,6 @@
     <t>28/07/2025</t>
   </si>
   <si>
-    <t>0.924</t>
-  </si>
-  <si>
     <t>25/07/2025</t>
   </si>
   <si>
@@ -206,9 +317,6 @@
     <t>30/06/2025</t>
   </si>
   <si>
-    <t>0.933</t>
-  </si>
-  <si>
     <t>27/06/2025</t>
   </si>
   <si>
@@ -428,18 +536,12 @@
     <t>28/03/2025</t>
   </si>
   <si>
-    <t>0.935</t>
-  </si>
-  <si>
     <t>27/03/2025</t>
   </si>
   <si>
     <t>26/03/2025</t>
   </si>
   <si>
-    <t>0.934</t>
-  </si>
-  <si>
     <t>25/03/2025</t>
   </si>
   <si>
@@ -447,9 +549,6 @@
   </si>
   <si>
     <t>21/03/2025</t>
-  </si>
-  <si>
-    <t>0.936</t>
   </si>
   <si>
     <t>20/03/2025</t>
@@ -1572,7 +1671,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -1580,10 +1679,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -1591,10 +1690,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1602,10 +1701,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1613,10 +1712,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -1624,10 +1723,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -1635,10 +1734,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
         <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -1646,10 +1745,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -1657,10 +1756,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -1668,10 +1767,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -1679,10 +1778,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -1693,7 +1792,7 @@
         <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -1704,7 +1803,7 @@
         <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -1715,7 +1814,7 @@
         <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -1726,7 +1825,7 @@
         <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -1737,7 +1836,7 @@
         <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -1745,10 +1844,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -1756,10 +1855,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -1767,10 +1866,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -1778,10 +1877,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -1789,10 +1888,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -1800,10 +1899,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" t="s">
         <v>35</v>
-      </c>
-      <c r="B25" t="s">
-        <v>34</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -1811,10 +1910,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -1822,10 +1921,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -1836,7 +1935,7 @@
         <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -1847,7 +1946,7 @@
         <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -1858,7 +1957,7 @@
         <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -1869,7 +1968,7 @@
         <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -1880,7 +1979,7 @@
         <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -1913,7 +2012,7 @@
         <v>48</v>
       </c>
       <c r="B35" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -1924,7 +2023,7 @@
         <v>49</v>
       </c>
       <c r="B36" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -1932,10 +2031,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -1943,10 +2042,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" t="s">
         <v>52</v>
-      </c>
-      <c r="B38" t="s">
-        <v>45</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -1957,7 +2056,7 @@
         <v>53</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -1968,7 +2067,7 @@
         <v>54</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -1979,7 +2078,7 @@
         <v>55</v>
       </c>
       <c r="B41" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -1990,7 +2089,7 @@
         <v>56</v>
       </c>
       <c r="B42" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -1998,10 +2097,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B43" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -2009,10 +2108,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -2020,10 +2119,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B45" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -2031,10 +2130,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -2042,10 +2141,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B47" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -2053,10 +2152,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B48" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -2064,10 +2163,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B49" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -2075,10 +2174,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B50" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -2086,10 +2185,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B51" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -2097,10 +2196,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B52" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -2108,10 +2207,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B53" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -2119,10 +2218,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B54" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -2130,10 +2229,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B55" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -2141,7 +2240,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B56" t="s">
         <v>45</v>
@@ -2152,10 +2251,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B57" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -2163,10 +2262,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B58" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -2174,10 +2273,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -2185,10 +2284,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B60" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -2196,10 +2295,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B61" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -2207,10 +2306,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B62" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -2218,10 +2317,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B63" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -2229,10 +2328,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B64" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -2240,10 +2339,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B65" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -2251,10 +2350,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B66" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -2262,10 +2361,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B67" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -2273,10 +2372,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B68" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -2284,10 +2383,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B69" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -2295,10 +2394,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B70" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -2306,10 +2405,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B71" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -2317,10 +2416,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B72" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -2328,10 +2427,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B73" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -2339,10 +2438,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B74" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -2350,10 +2449,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B75" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -2361,10 +2460,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B76" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -2372,10 +2471,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B77" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -2383,10 +2482,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B78" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -2394,10 +2493,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B79" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -2405,10 +2504,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B80" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -2416,10 +2515,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B81" t="s">
-        <v>88</v>
+        <v>11</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -2427,10 +2526,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B82" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -2438,10 +2537,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B83" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -2449,10 +2548,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B84" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -2460,10 +2559,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B85" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -2471,10 +2570,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B86" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -2482,10 +2581,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B87" t="s">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -2493,10 +2592,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B88" t="s">
-        <v>23</v>
+        <v>106</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -2504,10 +2603,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B89" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -2515,10 +2614,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B90" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -2526,10 +2625,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B91" t="s">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -2537,10 +2636,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B92" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -2548,10 +2647,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B93" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -2559,10 +2658,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B94" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -2570,10 +2669,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B95" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -2581,10 +2680,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B96" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -2592,10 +2691,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B97" t="s">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -2603,10 +2702,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B98" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -2614,10 +2713,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B99" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
@@ -2625,10 +2724,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
+        <v>123</v>
+      </c>
+      <c r="B100" t="s">
         <v>124</v>
-      </c>
-      <c r="B100" t="s">
-        <v>125</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
@@ -2636,10 +2735,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B101" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -2647,10 +2746,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B102" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
@@ -2658,10 +2757,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B103" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -2669,10 +2768,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B104" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -2680,10 +2779,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B105" t="s">
-        <v>23</v>
+        <v>118</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -2691,10 +2790,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B106" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
@@ -2702,10 +2801,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>132</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -2713,10 +2812,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
+        <v>133</v>
+      </c>
+      <c r="B108" t="s">
         <v>134</v>
-      </c>
-      <c r="B108" t="s">
-        <v>135</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -2724,10 +2823,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B109" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -2735,10 +2834,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B110" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -2746,10 +2845,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B111" t="s">
-        <v>140</v>
+        <v>87</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -2757,10 +2856,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B112" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -2768,10 +2867,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B113" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -2779,10 +2878,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B114" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -2790,10 +2889,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B115" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -2801,10 +2900,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B116" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -2812,10 +2911,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B117" t="s">
-        <v>144</v>
+        <v>84</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
@@ -2823,10 +2922,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B118" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -2834,10 +2933,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B119" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -2845,10 +2944,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B120" t="s">
-        <v>140</v>
+        <v>87</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -2856,10 +2955,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B121" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -2867,10 +2966,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B122" t="s">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -2878,10 +2977,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B123" t="s">
-        <v>144</v>
+        <v>17</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -2889,10 +2988,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B124" t="s">
-        <v>137</v>
+        <v>45</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -2900,10 +2999,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B125" t="s">
-        <v>137</v>
+        <v>72</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -2911,10 +3010,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B126" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
@@ -2922,10 +3021,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B127" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
@@ -2933,10 +3032,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B128" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
@@ -2944,10 +3043,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B129" t="s">
-        <v>161</v>
+        <v>120</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -2955,10 +3054,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B130" t="s">
-        <v>163</v>
+        <v>87</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -2966,10 +3065,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B131" t="s">
-        <v>163</v>
+        <v>116</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -2977,10 +3076,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B132" t="s">
-        <v>163</v>
+        <v>118</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
@@ -2988,10 +3087,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B133" t="s">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
@@ -2999,10 +3098,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B134" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
@@ -3010,10 +3109,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B135" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
@@ -3021,10 +3120,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>155</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -3032,10 +3131,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>120</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
@@ -3043,10 +3142,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B138" t="s">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
@@ -3054,10 +3153,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B139" t="s">
-        <v>140</v>
+        <v>7</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -3065,10 +3164,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B140" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
@@ -3076,10 +3175,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B141" t="s">
-        <v>16</v>
+        <v>171</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
@@ -3087,10 +3186,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B142" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
@@ -3098,10 +3197,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B143" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -3109,10 +3208,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B144" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
@@ -3120,10 +3219,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
@@ -3131,10 +3230,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B146" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="C146" t="s">
         <v>5</v>
@@ -3142,10 +3241,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B147" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
@@ -3153,10 +3252,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B148" t="s">
-        <v>4</v>
+        <v>179</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
@@ -3164,10 +3263,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B149" t="s">
-        <v>16</v>
+        <v>171</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
@@ -3175,10 +3274,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B150" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
@@ -3186,10 +3285,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B151" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
@@ -3197,7 +3296,7 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B152" t="s">
         <v>4</v>
@@ -3208,10 +3307,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B153" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
@@ -3219,10 +3318,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B154" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
@@ -3230,10 +3329,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B155" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C155" t="s">
         <v>5</v>
@@ -3241,10 +3340,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B156" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C156" t="s">
         <v>5</v>
@@ -3252,10 +3351,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B157" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
@@ -3263,10 +3362,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B158" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
@@ -3274,10 +3373,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B159" t="s">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="C159" t="s">
         <v>5</v>
@@ -3285,10 +3384,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B160" t="s">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
@@ -3296,10 +3395,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B161" t="s">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="C161" t="s">
         <v>5</v>
@@ -3307,10 +3406,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B162" t="s">
-        <v>88</v>
+        <v>194</v>
       </c>
       <c r="C162" t="s">
         <v>5</v>
@@ -3318,10 +3417,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
+        <v>195</v>
+      </c>
+      <c r="B163" t="s">
         <v>196</v>
-      </c>
-      <c r="B163" t="s">
-        <v>70</v>
       </c>
       <c r="C163" t="s">
         <v>5</v>
@@ -3332,7 +3431,7 @@
         <v>197</v>
       </c>
       <c r="B164" t="s">
-        <v>70</v>
+        <v>196</v>
       </c>
       <c r="C164" t="s">
         <v>5</v>
@@ -3343,7 +3442,7 @@
         <v>198</v>
       </c>
       <c r="B165" t="s">
-        <v>70</v>
+        <v>196</v>
       </c>
       <c r="C165" t="s">
         <v>5</v>
@@ -3354,7 +3453,7 @@
         <v>199</v>
       </c>
       <c r="B166" t="s">
-        <v>38</v>
+        <v>171</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
@@ -3365,7 +3464,7 @@
         <v>200</v>
       </c>
       <c r="B167" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="C167" t="s">
         <v>5</v>
@@ -3376,7 +3475,7 @@
         <v>201</v>
       </c>
       <c r="B168" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="C168" t="s">
         <v>5</v>
@@ -3387,7 +3486,7 @@
         <v>202</v>
       </c>
       <c r="B169" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C169" t="s">
         <v>5</v>
@@ -3398,7 +3497,7 @@
         <v>203</v>
       </c>
       <c r="B170" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C170" t="s">
         <v>5</v>
@@ -3409,7 +3508,7 @@
         <v>204</v>
       </c>
       <c r="B171" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C171" t="s">
         <v>5</v>
@@ -3420,7 +3519,7 @@
         <v>205</v>
       </c>
       <c r="B172" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C172" t="s">
         <v>5</v>
@@ -3431,7 +3530,7 @@
         <v>206</v>
       </c>
       <c r="B173" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="C173" t="s">
         <v>5</v>
@@ -3442,7 +3541,7 @@
         <v>207</v>
       </c>
       <c r="B174" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C174" t="s">
         <v>5</v>
@@ -3453,7 +3552,7 @@
         <v>208</v>
       </c>
       <c r="B175" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C175" t="s">
         <v>5</v>
@@ -3464,7 +3563,7 @@
         <v>209</v>
       </c>
       <c r="B176" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="C176" t="s">
         <v>5</v>
@@ -3475,7 +3574,7 @@
         <v>210</v>
       </c>
       <c r="B177" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="C177" t="s">
         <v>5</v>
@@ -3486,7 +3585,7 @@
         <v>211</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C178" t="s">
         <v>5</v>
@@ -3497,7 +3596,7 @@
         <v>212</v>
       </c>
       <c r="B179" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C179" t="s">
         <v>5</v>
@@ -3508,7 +3607,7 @@
         <v>213</v>
       </c>
       <c r="B180" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="C180" t="s">
         <v>5</v>
@@ -3519,7 +3618,7 @@
         <v>214</v>
       </c>
       <c r="B181" t="s">
-        <v>144</v>
+        <v>15</v>
       </c>
       <c r="C181" t="s">
         <v>5</v>
@@ -3530,7 +3629,7 @@
         <v>215</v>
       </c>
       <c r="B182" t="s">
-        <v>146</v>
+        <v>45</v>
       </c>
       <c r="C182" t="s">
         <v>5</v>
@@ -3541,7 +3640,7 @@
         <v>216</v>
       </c>
       <c r="B183" t="s">
-        <v>163</v>
+        <v>11</v>
       </c>
       <c r="C183" t="s">
         <v>5</v>
@@ -3552,7 +3651,7 @@
         <v>217</v>
       </c>
       <c r="B184" t="s">
-        <v>163</v>
+        <v>13</v>
       </c>
       <c r="C184" t="s">
         <v>5</v>
@@ -3563,7 +3662,7 @@
         <v>218</v>
       </c>
       <c r="B185" t="s">
-        <v>161</v>
+        <v>15</v>
       </c>
       <c r="C185" t="s">
         <v>5</v>
@@ -3574,7 +3673,7 @@
         <v>219</v>
       </c>
       <c r="B186" t="s">
-        <v>163</v>
+        <v>72</v>
       </c>
       <c r="C186" t="s">
         <v>5</v>
@@ -3585,7 +3684,7 @@
         <v>220</v>
       </c>
       <c r="B187" t="s">
-        <v>146</v>
+        <v>45</v>
       </c>
       <c r="C187" t="s">
         <v>5</v>
@@ -3596,7 +3695,7 @@
         <v>221</v>
       </c>
       <c r="B188" t="s">
-        <v>135</v>
+        <v>45</v>
       </c>
       <c r="C188" t="s">
         <v>5</v>
@@ -3607,7 +3706,7 @@
         <v>222</v>
       </c>
       <c r="B189" t="s">
-        <v>146</v>
+        <v>47</v>
       </c>
       <c r="C189" t="s">
         <v>5</v>
@@ -3618,7 +3717,7 @@
         <v>223</v>
       </c>
       <c r="B190" t="s">
-        <v>135</v>
+        <v>47</v>
       </c>
       <c r="C190" t="s">
         <v>5</v>
@@ -3629,7 +3728,7 @@
         <v>224</v>
       </c>
       <c r="B191" t="s">
-        <v>163</v>
+        <v>47</v>
       </c>
       <c r="C191" t="s">
         <v>5</v>
@@ -3640,7 +3739,7 @@
         <v>225</v>
       </c>
       <c r="B192" t="s">
-        <v>163</v>
+        <v>106</v>
       </c>
       <c r="C192" t="s">
         <v>5</v>
@@ -3651,7 +3750,7 @@
         <v>226</v>
       </c>
       <c r="B193" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="C193" t="s">
         <v>5</v>
@@ -3662,7 +3761,7 @@
         <v>227</v>
       </c>
       <c r="B194" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="C194" t="s">
         <v>5</v>
@@ -3673,7 +3772,7 @@
         <v>228</v>
       </c>
       <c r="B195" t="s">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="C195" t="s">
         <v>5</v>
@@ -3684,7 +3783,7 @@
         <v>229</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>106</v>
       </c>
       <c r="C196" t="s">
         <v>5</v>
@@ -3695,7 +3794,7 @@
         <v>230</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>106</v>
       </c>
       <c r="C197" t="s">
         <v>5</v>
@@ -3706,7 +3805,7 @@
         <v>231</v>
       </c>
       <c r="B198" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="C198" t="s">
         <v>5</v>
@@ -3717,7 +3816,7 @@
         <v>232</v>
       </c>
       <c r="B199" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C199" t="s">
         <v>5</v>
@@ -3728,7 +3827,7 @@
         <v>233</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>94</v>
       </c>
       <c r="C200" t="s">
         <v>5</v>
@@ -3739,7 +3838,7 @@
         <v>234</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="C201" t="s">
         <v>5</v>
@@ -3750,7 +3849,7 @@
         <v>235</v>
       </c>
       <c r="B202" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C202" t="s">
         <v>5</v>
@@ -3761,7 +3860,7 @@
         <v>236</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C203" t="s">
         <v>5</v>
@@ -3772,7 +3871,7 @@
         <v>237</v>
       </c>
       <c r="B204" t="s">
-        <v>135</v>
+        <v>45</v>
       </c>
       <c r="C204" t="s">
         <v>5</v>
@@ -3783,7 +3882,7 @@
         <v>238</v>
       </c>
       <c r="B205" t="s">
-        <v>146</v>
+        <v>72</v>
       </c>
       <c r="C205" t="s">
         <v>5</v>
@@ -3794,7 +3893,7 @@
         <v>239</v>
       </c>
       <c r="B206" t="s">
-        <v>135</v>
+        <v>72</v>
       </c>
       <c r="C206" t="s">
         <v>5</v>
@@ -3805,7 +3904,7 @@
         <v>240</v>
       </c>
       <c r="B207" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="C207" t="s">
         <v>5</v>
@@ -3816,7 +3915,7 @@
         <v>241</v>
       </c>
       <c r="B208" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C208" t="s">
         <v>5</v>
@@ -3827,7 +3926,7 @@
         <v>242</v>
       </c>
       <c r="B209" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="C209" t="s">
         <v>5</v>
@@ -3838,7 +3937,7 @@
         <v>243</v>
       </c>
       <c r="B210" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="C210" t="s">
         <v>5</v>
@@ -3849,7 +3948,7 @@
         <v>244</v>
       </c>
       <c r="B211" t="s">
-        <v>144</v>
+        <v>9</v>
       </c>
       <c r="C211" t="s">
         <v>5</v>
@@ -3860,7 +3959,7 @@
         <v>245</v>
       </c>
       <c r="B212" t="s">
-        <v>146</v>
+        <v>7</v>
       </c>
       <c r="C212" t="s">
         <v>5</v>
@@ -3871,7 +3970,7 @@
         <v>246</v>
       </c>
       <c r="B213" t="s">
-        <v>135</v>
+        <v>7</v>
       </c>
       <c r="C213" t="s">
         <v>5</v>
@@ -3882,7 +3981,7 @@
         <v>247</v>
       </c>
       <c r="B214" t="s">
-        <v>163</v>
+        <v>35</v>
       </c>
       <c r="C214" t="s">
         <v>5</v>
@@ -3893,7 +3992,7 @@
         <v>248</v>
       </c>
       <c r="B215" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="C215" t="s">
         <v>5</v>
@@ -3904,7 +4003,7 @@
         <v>249</v>
       </c>
       <c r="B216" t="s">
-        <v>146</v>
+        <v>196</v>
       </c>
       <c r="C216" t="s">
         <v>5</v>
@@ -3915,7 +4014,7 @@
         <v>250</v>
       </c>
       <c r="B217" t="s">
-        <v>251</v>
+        <v>196</v>
       </c>
       <c r="C217" t="s">
         <v>5</v>
@@ -3923,10 +4022,10 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B218" t="s">
-        <v>253</v>
+        <v>194</v>
       </c>
       <c r="C218" t="s">
         <v>5</v>
@@ -3934,10 +4033,10 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B219" t="s">
-        <v>255</v>
+        <v>196</v>
       </c>
       <c r="C219" t="s">
         <v>5</v>
@@ -3945,10 +4044,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B220" t="s">
-        <v>257</v>
+        <v>179</v>
       </c>
       <c r="C220" t="s">
         <v>5</v>
@@ -3956,10 +4055,10 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B221" t="s">
-        <v>259</v>
+        <v>171</v>
       </c>
       <c r="C221" t="s">
         <v>5</v>
@@ -3967,10 +4066,10 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B222" t="s">
-        <v>255</v>
+        <v>179</v>
       </c>
       <c r="C222" t="s">
         <v>5</v>
@@ -3978,10 +4077,10 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B223" t="s">
-        <v>257</v>
+        <v>171</v>
       </c>
       <c r="C223" t="s">
         <v>5</v>
@@ -3989,10 +4088,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B224" t="s">
-        <v>255</v>
+        <v>196</v>
       </c>
       <c r="C224" t="s">
         <v>5</v>
@@ -4000,10 +4099,10 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B225" t="s">
-        <v>257</v>
+        <v>196</v>
       </c>
       <c r="C225" t="s">
         <v>5</v>
@@ -4011,10 +4110,10 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B226" t="s">
-        <v>257</v>
+        <v>179</v>
       </c>
       <c r="C226" t="s">
         <v>5</v>
@@ -4022,10 +4121,10 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B227" t="s">
-        <v>257</v>
+        <v>179</v>
       </c>
       <c r="C227" t="s">
         <v>5</v>
@@ -4033,10 +4132,10 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B228" t="s">
-        <v>257</v>
+        <v>7</v>
       </c>
       <c r="C228" t="s">
         <v>5</v>
@@ -4044,10 +4143,10 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B229" t="s">
-        <v>255</v>
+        <v>9</v>
       </c>
       <c r="C229" t="s">
         <v>5</v>
@@ -4055,10 +4154,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B230" t="s">
-        <v>269</v>
+        <v>9</v>
       </c>
       <c r="C230" t="s">
         <v>5</v>
@@ -4066,10 +4165,10 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B231" t="s">
-        <v>271</v>
+        <v>7</v>
       </c>
       <c r="C231" t="s">
         <v>5</v>
@@ -4077,10 +4176,10 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B232" t="s">
-        <v>271</v>
+        <v>7</v>
       </c>
       <c r="C232" t="s">
         <v>5</v>
@@ -4088,10 +4187,10 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B233" t="s">
-        <v>274</v>
+        <v>9</v>
       </c>
       <c r="C233" t="s">
         <v>5</v>
@@ -4099,10 +4198,10 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="B234" t="s">
-        <v>276</v>
+        <v>9</v>
       </c>
       <c r="C234" t="s">
         <v>5</v>
@@ -4110,10 +4209,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="B235" t="s">
-        <v>278</v>
+        <v>9</v>
       </c>
       <c r="C235" t="s">
         <v>5</v>
@@ -4121,10 +4220,10 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="B236" t="s">
-        <v>274</v>
+        <v>9</v>
       </c>
       <c r="C236" t="s">
         <v>5</v>
@@ -4132,10 +4231,10 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="B237" t="s">
-        <v>281</v>
+        <v>171</v>
       </c>
       <c r="C237" t="s">
         <v>5</v>
@@ -4143,10 +4242,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="B238" t="s">
-        <v>276</v>
+        <v>179</v>
       </c>
       <c r="C238" t="s">
         <v>5</v>
@@ -4154,10 +4253,10 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="B239" t="s">
-        <v>281</v>
+        <v>171</v>
       </c>
       <c r="C239" t="s">
         <v>5</v>
@@ -4165,10 +4264,10 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="B240" t="s">
-        <v>281</v>
+        <v>52</v>
       </c>
       <c r="C240" t="s">
         <v>5</v>
@@ -4176,10 +4275,10 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="B241" t="s">
-        <v>274</v>
+        <v>52</v>
       </c>
       <c r="C241" t="s">
         <v>5</v>
@@ -4187,10 +4286,10 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="B242" t="s">
-        <v>276</v>
+        <v>11</v>
       </c>
       <c r="C242" t="s">
         <v>5</v>
@@ -4198,10 +4297,10 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="B243" t="s">
-        <v>276</v>
+        <v>7</v>
       </c>
       <c r="C243" t="s">
         <v>5</v>
@@ -4209,10 +4308,10 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="B244" t="s">
-        <v>274</v>
+        <v>35</v>
       </c>
       <c r="C244" t="s">
         <v>5</v>
@@ -4220,10 +4319,10 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="B245" t="s">
-        <v>290</v>
+        <v>179</v>
       </c>
       <c r="C245" t="s">
         <v>5</v>
@@ -4231,10 +4330,10 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="B246" t="s">
-        <v>290</v>
+        <v>171</v>
       </c>
       <c r="C246" t="s">
         <v>5</v>
@@ -4242,10 +4341,10 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="B247" t="s">
-        <v>293</v>
+        <v>196</v>
       </c>
       <c r="C247" t="s">
         <v>5</v>
@@ -4253,10 +4352,10 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="B248" t="s">
-        <v>271</v>
+        <v>196</v>
       </c>
       <c r="C248" t="s">
         <v>5</v>
@@ -4264,10 +4363,10 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="B249" t="s">
-        <v>296</v>
+        <v>179</v>
       </c>
       <c r="C249" t="s">
         <v>5</v>
@@ -4275,10 +4374,10 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="B250" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="C250" t="s">
         <v>5</v>
@@ -4286,10 +4385,10 @@
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="B251" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="C251" t="s">
         <v>5</v>
@@ -4297,10 +4396,10 @@
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="B252" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="C252" t="s">
         <v>5</v>
@@ -4308,10 +4407,10 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="B253" t="s">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="C253" t="s">
         <v>5</v>
@@ -4319,10 +4418,10 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="B254" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C254" t="s">
         <v>5</v>
@@ -4330,10 +4429,10 @@
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="B255" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="C255" t="s">
         <v>5</v>
@@ -4341,7 +4440,7 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="B256" t="s">
         <v>290</v>
@@ -4352,10 +4451,10 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="B257" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
       <c r="C257" t="s">
         <v>5</v>
@@ -4363,7 +4462,7 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="B258" t="s">
         <v>290</v>
@@ -4374,7 +4473,7 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="B259" t="s">
         <v>290</v>
@@ -4385,10 +4484,10 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="B260" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C260" t="s">
         <v>5</v>
@@ -4396,10 +4495,10 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="B261" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="C261" t="s">
         <v>5</v>
@@ -4407,10 +4506,10 @@
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="B262" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="C262" t="s">
         <v>5</v>
@@ -4418,10 +4517,10 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="B263" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="C263" t="s">
         <v>5</v>
@@ -4429,10 +4528,10 @@
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="B264" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="C264" t="s">
         <v>5</v>
@@ -4440,10 +4539,10 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="B265" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="C265" t="s">
         <v>5</v>
@@ -4451,10 +4550,10 @@
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="B266" t="s">
-        <v>269</v>
+        <v>307</v>
       </c>
       <c r="C266" t="s">
         <v>5</v>
@@ -4462,10 +4561,10 @@
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="B267" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="C267" t="s">
         <v>5</v>
@@ -4473,10 +4572,10 @@
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="B268" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="C268" t="s">
         <v>5</v>
@@ -4484,10 +4583,10 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="B269" t="s">
-        <v>257</v>
+        <v>307</v>
       </c>
       <c r="C269" t="s">
         <v>5</v>
@@ -4495,10 +4594,10 @@
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="B270" t="s">
-        <v>257</v>
+        <v>314</v>
       </c>
       <c r="C270" t="s">
         <v>5</v>
@@ -4506,10 +4605,10 @@
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B271" t="s">
-        <v>255</v>
+        <v>309</v>
       </c>
       <c r="C271" t="s">
         <v>5</v>
@@ -4517,10 +4616,10 @@
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B272" t="s">
-        <v>255</v>
+        <v>314</v>
       </c>
       <c r="C272" t="s">
         <v>5</v>
@@ -4528,10 +4627,10 @@
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B273" t="s">
-        <v>269</v>
+        <v>314</v>
       </c>
       <c r="C273" t="s">
         <v>5</v>
@@ -4539,10 +4638,10 @@
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B274" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="C274" t="s">
         <v>5</v>
@@ -4550,10 +4649,10 @@
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="B275" t="s">
-        <v>271</v>
+        <v>309</v>
       </c>
       <c r="C275" t="s">
         <v>5</v>
@@ -4561,10 +4660,10 @@
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="B276" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="C276" t="s">
         <v>5</v>
@@ -4572,10 +4671,10 @@
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="B277" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="C277" t="s">
         <v>5</v>
@@ -4583,10 +4682,10 @@
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="B278" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C278" t="s">
         <v>5</v>
@@ -4594,10 +4693,10 @@
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B279" t="s">
-        <v>259</v>
+        <v>323</v>
       </c>
       <c r="C279" t="s">
         <v>5</v>
@@ -4605,10 +4704,10 @@
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B280" t="s">
-        <v>255</v>
+        <v>326</v>
       </c>
       <c r="C280" t="s">
         <v>5</v>
@@ -4616,10 +4715,10 @@
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B281" t="s">
-        <v>259</v>
+        <v>304</v>
       </c>
       <c r="C281" t="s">
         <v>5</v>
@@ -4627,10 +4726,10 @@
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B282" t="s">
-        <v>259</v>
+        <v>329</v>
       </c>
       <c r="C282" t="s">
         <v>5</v>
@@ -4638,10 +4737,10 @@
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B283" t="s">
-        <v>259</v>
+        <v>302</v>
       </c>
       <c r="C283" t="s">
         <v>5</v>
@@ -4649,10 +4748,10 @@
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B284" t="s">
-        <v>301</v>
+        <v>332</v>
       </c>
       <c r="C284" t="s">
         <v>5</v>
@@ -4660,10 +4759,10 @@
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B285" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="C285" t="s">
         <v>5</v>
@@ -4671,10 +4770,10 @@
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B286" t="s">
-        <v>325</v>
+        <v>292</v>
       </c>
       <c r="C286" t="s">
         <v>5</v>
@@ -4682,10 +4781,10 @@
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B287" t="s">
-        <v>301</v>
+        <v>329</v>
       </c>
       <c r="C287" t="s">
         <v>5</v>
@@ -4693,10 +4792,10 @@
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B288" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="C288" t="s">
         <v>5</v>
@@ -4704,10 +4803,10 @@
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B289" t="s">
-        <v>259</v>
+        <v>323</v>
       </c>
       <c r="C289" t="s">
         <v>5</v>
@@ -4715,10 +4814,10 @@
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B290" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C290" t="s">
         <v>5</v>
@@ -4726,10 +4825,10 @@
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B291" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="C291" t="s">
         <v>5</v>
@@ -4737,10 +4836,10 @@
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B292" t="s">
-        <v>253</v>
+        <v>323</v>
       </c>
       <c r="C292" t="s">
         <v>5</v>
@@ -4748,10 +4847,10 @@
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B293" t="s">
-        <v>251</v>
+        <v>329</v>
       </c>
       <c r="C293" t="s">
         <v>5</v>
@@ -4759,10 +4858,10 @@
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B294" t="s">
-        <v>146</v>
+        <v>304</v>
       </c>
       <c r="C294" t="s">
         <v>5</v>
@@ -4770,10 +4869,10 @@
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B295" t="s">
-        <v>146</v>
+        <v>329</v>
       </c>
       <c r="C295" t="s">
         <v>5</v>
@@ -4781,10 +4880,10 @@
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B296" t="s">
-        <v>137</v>
+        <v>329</v>
       </c>
       <c r="C296" t="s">
         <v>5</v>
@@ -4792,10 +4891,10 @@
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B297" t="s">
-        <v>140</v>
+        <v>329</v>
       </c>
       <c r="C297" t="s">
         <v>5</v>
@@ -4803,10 +4902,10 @@
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B298" t="s">
-        <v>253</v>
+        <v>332</v>
       </c>
       <c r="C298" t="s">
         <v>5</v>
@@ -4814,10 +4913,10 @@
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B299" t="s">
-        <v>344</v>
+        <v>302</v>
       </c>
       <c r="C299" t="s">
         <v>5</v>
@@ -4825,10 +4924,10 @@
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B300" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="C300" t="s">
         <v>5</v>
@@ -4836,10 +4935,10 @@
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B301" t="s">
-        <v>257</v>
+        <v>334</v>
       </c>
       <c r="C301" t="s">
         <v>5</v>
@@ -4847,10 +4946,10 @@
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B302" t="s">
-        <v>257</v>
+        <v>290</v>
       </c>
       <c r="C302" t="s">
         <v>5</v>
@@ -4858,10 +4957,10 @@
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B303" t="s">
-        <v>257</v>
+        <v>290</v>
       </c>
       <c r="C303" t="s">
         <v>5</v>
@@ -4869,10 +4968,10 @@
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B304" t="s">
-        <v>257</v>
+        <v>288</v>
       </c>
       <c r="C304" t="s">
         <v>5</v>
@@ -4880,10 +4979,10 @@
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B305" t="s">
-        <v>257</v>
+        <v>288</v>
       </c>
       <c r="C305" t="s">
         <v>5</v>
@@ -4891,10 +4990,10 @@
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B306" t="s">
-        <v>257</v>
+        <v>302</v>
       </c>
       <c r="C306" t="s">
         <v>5</v>
@@ -4902,10 +5001,10 @@
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B307" t="s">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="C307" t="s">
         <v>5</v>
@@ -4913,10 +5012,10 @@
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B308" t="s">
-        <v>255</v>
+        <v>304</v>
       </c>
       <c r="C308" t="s">
         <v>5</v>
@@ -4924,10 +5023,10 @@
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B309" t="s">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="C309" t="s">
         <v>5</v>
@@ -4935,10 +5034,10 @@
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B310" t="s">
-        <v>253</v>
+        <v>358</v>
       </c>
       <c r="C310" t="s">
         <v>5</v>
@@ -4946,10 +5045,10 @@
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B311" t="s">
-        <v>161</v>
+        <v>358</v>
       </c>
       <c r="C311" t="s">
         <v>5</v>
@@ -4957,10 +5056,10 @@
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B312" t="s">
-        <v>251</v>
+        <v>292</v>
       </c>
       <c r="C312" t="s">
         <v>5</v>
@@ -4968,10 +5067,10 @@
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B313" t="s">
-        <v>257</v>
+        <v>288</v>
       </c>
       <c r="C313" t="s">
         <v>5</v>
@@ -4979,10 +5078,10 @@
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B314" t="s">
-        <v>255</v>
+        <v>292</v>
       </c>
       <c r="C314" t="s">
         <v>5</v>
@@ -4990,10 +5089,10 @@
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B315" t="s">
-        <v>257</v>
+        <v>292</v>
       </c>
       <c r="C315" t="s">
         <v>5</v>
@@ -5001,10 +5100,10 @@
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B316" t="s">
-        <v>342</v>
+        <v>292</v>
       </c>
       <c r="C316" t="s">
         <v>5</v>
@@ -5012,10 +5111,10 @@
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B317" t="s">
-        <v>255</v>
+        <v>334</v>
       </c>
       <c r="C317" t="s">
         <v>5</v>
@@ -5023,10 +5122,10 @@
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B318" t="s">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="C318" t="s">
         <v>5</v>
@@ -5034,10 +5133,10 @@
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B319" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="C319" t="s">
         <v>5</v>
@@ -5045,10 +5144,10 @@
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B320" t="s">
-        <v>255</v>
+        <v>334</v>
       </c>
       <c r="C320" t="s">
         <v>5</v>
@@ -5056,10 +5155,10 @@
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B321" t="s">
-        <v>259</v>
+        <v>358</v>
       </c>
       <c r="C321" t="s">
         <v>5</v>
@@ -5067,10 +5166,10 @@
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B322" t="s">
-        <v>259</v>
+        <v>292</v>
       </c>
       <c r="C322" t="s">
         <v>5</v>
@@ -5078,10 +5177,10 @@
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B323" t="s">
-        <v>255</v>
+        <v>375</v>
       </c>
       <c r="C323" t="s">
         <v>5</v>
@@ -5089,10 +5188,10 @@
     </row>
     <row r="324">
       <c r="A324" t="s">
+        <v>376</v>
+      </c>
+      <c r="B324" t="s">
         <v>377</v>
-      </c>
-      <c r="B324" t="s">
-        <v>299</v>
       </c>
       <c r="C324" t="s">
         <v>5</v>
@@ -5103,7 +5202,7 @@
         <v>378</v>
       </c>
       <c r="B325" t="s">
-        <v>325</v>
+        <v>286</v>
       </c>
       <c r="C325" t="s">
         <v>5</v>
@@ -5114,7 +5213,7 @@
         <v>379</v>
       </c>
       <c r="B326" t="s">
-        <v>325</v>
+        <v>284</v>
       </c>
       <c r="C326" t="s">
         <v>5</v>
@@ -5125,7 +5224,7 @@
         <v>380</v>
       </c>
       <c r="B327" t="s">
-        <v>325</v>
+        <v>179</v>
       </c>
       <c r="C327" t="s">
         <v>5</v>
@@ -5136,7 +5235,7 @@
         <v>381</v>
       </c>
       <c r="B328" t="s">
-        <v>269</v>
+        <v>179</v>
       </c>
       <c r="C328" t="s">
         <v>5</v>
@@ -5147,7 +5246,7 @@
         <v>382</v>
       </c>
       <c r="B329" t="s">
-        <v>259</v>
+        <v>4</v>
       </c>
       <c r="C329" t="s">
         <v>5</v>
@@ -5158,7 +5257,7 @@
         <v>383</v>
       </c>
       <c r="B330" t="s">
-        <v>255</v>
+        <v>29</v>
       </c>
       <c r="C330" t="s">
         <v>5</v>
@@ -5169,7 +5268,7 @@
         <v>384</v>
       </c>
       <c r="B331" t="s">
-        <v>257</v>
+        <v>286</v>
       </c>
       <c r="C331" t="s">
         <v>5</v>
@@ -5180,7 +5279,7 @@
         <v>385</v>
       </c>
       <c r="B332" t="s">
-        <v>255</v>
+        <v>377</v>
       </c>
       <c r="C332" t="s">
         <v>5</v>
@@ -5191,7 +5290,7 @@
         <v>386</v>
       </c>
       <c r="B333" t="s">
-        <v>255</v>
+        <v>377</v>
       </c>
       <c r="C333" t="s">
         <v>5</v>
@@ -5202,7 +5301,7 @@
         <v>387</v>
       </c>
       <c r="B334" t="s">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="C334" t="s">
         <v>5</v>
@@ -5213,7 +5312,7 @@
         <v>388</v>
       </c>
       <c r="B335" t="s">
-        <v>257</v>
+        <v>290</v>
       </c>
       <c r="C335" t="s">
         <v>5</v>
@@ -5224,7 +5323,7 @@
         <v>389</v>
       </c>
       <c r="B336" t="s">
-        <v>257</v>
+        <v>290</v>
       </c>
       <c r="C336" t="s">
         <v>5</v>
@@ -5235,7 +5334,7 @@
         <v>390</v>
       </c>
       <c r="B337" t="s">
-        <v>342</v>
+        <v>290</v>
       </c>
       <c r="C337" t="s">
         <v>5</v>
@@ -5246,7 +5345,7 @@
         <v>391</v>
       </c>
       <c r="B338" t="s">
-        <v>325</v>
+        <v>290</v>
       </c>
       <c r="C338" t="s">
         <v>5</v>
@@ -5257,7 +5356,7 @@
         <v>392</v>
       </c>
       <c r="B339" t="s">
-        <v>325</v>
+        <v>290</v>
       </c>
       <c r="C339" t="s">
         <v>5</v>
@@ -5268,7 +5367,7 @@
         <v>393</v>
       </c>
       <c r="B340" t="s">
-        <v>299</v>
+        <v>375</v>
       </c>
       <c r="C340" t="s">
         <v>5</v>
@@ -5279,7 +5378,7 @@
         <v>394</v>
       </c>
       <c r="B341" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="C341" t="s">
         <v>5</v>
@@ -5290,7 +5389,7 @@
         <v>395</v>
       </c>
       <c r="B342" t="s">
-        <v>299</v>
+        <v>375</v>
       </c>
       <c r="C342" t="s">
         <v>5</v>
@@ -5301,9 +5400,372 @@
         <v>396</v>
       </c>
       <c r="B343" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="C343" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="s">
+        <v>397</v>
+      </c>
+      <c r="B344" t="s">
+        <v>194</v>
+      </c>
+      <c r="C344" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="s">
+        <v>398</v>
+      </c>
+      <c r="B345" t="s">
+        <v>284</v>
+      </c>
+      <c r="C345" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="s">
+        <v>399</v>
+      </c>
+      <c r="B346" t="s">
+        <v>290</v>
+      </c>
+      <c r="C346" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="s">
+        <v>400</v>
+      </c>
+      <c r="B347" t="s">
+        <v>288</v>
+      </c>
+      <c r="C347" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="s">
+        <v>401</v>
+      </c>
+      <c r="B348" t="s">
+        <v>290</v>
+      </c>
+      <c r="C348" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="s">
+        <v>402</v>
+      </c>
+      <c r="B349" t="s">
+        <v>375</v>
+      </c>
+      <c r="C349" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="s">
+        <v>403</v>
+      </c>
+      <c r="B350" t="s">
+        <v>288</v>
+      </c>
+      <c r="C350" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="s">
+        <v>404</v>
+      </c>
+      <c r="B351" t="s">
+        <v>375</v>
+      </c>
+      <c r="C351" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="s">
+        <v>405</v>
+      </c>
+      <c r="B352" t="s">
+        <v>377</v>
+      </c>
+      <c r="C352" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="s">
+        <v>406</v>
+      </c>
+      <c r="B353" t="s">
+        <v>288</v>
+      </c>
+      <c r="C353" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="s">
+        <v>407</v>
+      </c>
+      <c r="B354" t="s">
+        <v>292</v>
+      </c>
+      <c r="C354" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="s">
+        <v>408</v>
+      </c>
+      <c r="B355" t="s">
+        <v>292</v>
+      </c>
+      <c r="C355" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="s">
+        <v>409</v>
+      </c>
+      <c r="B356" t="s">
+        <v>288</v>
+      </c>
+      <c r="C356" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="s">
+        <v>410</v>
+      </c>
+      <c r="B357" t="s">
+        <v>332</v>
+      </c>
+      <c r="C357" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="s">
+        <v>411</v>
+      </c>
+      <c r="B358" t="s">
+        <v>358</v>
+      </c>
+      <c r="C358" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="s">
+        <v>412</v>
+      </c>
+      <c r="B359" t="s">
+        <v>358</v>
+      </c>
+      <c r="C359" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="s">
+        <v>413</v>
+      </c>
+      <c r="B360" t="s">
+        <v>358</v>
+      </c>
+      <c r="C360" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="s">
+        <v>414</v>
+      </c>
+      <c r="B361" t="s">
+        <v>302</v>
+      </c>
+      <c r="C361" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="s">
+        <v>415</v>
+      </c>
+      <c r="B362" t="s">
+        <v>292</v>
+      </c>
+      <c r="C362" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="s">
+        <v>416</v>
+      </c>
+      <c r="B363" t="s">
+        <v>288</v>
+      </c>
+      <c r="C363" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="s">
+        <v>417</v>
+      </c>
+      <c r="B364" t="s">
+        <v>290</v>
+      </c>
+      <c r="C364" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="s">
+        <v>418</v>
+      </c>
+      <c r="B365" t="s">
+        <v>288</v>
+      </c>
+      <c r="C365" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="s">
+        <v>419</v>
+      </c>
+      <c r="B366" t="s">
+        <v>288</v>
+      </c>
+      <c r="C366" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="s">
+        <v>420</v>
+      </c>
+      <c r="B367" t="s">
+        <v>292</v>
+      </c>
+      <c r="C367" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="s">
+        <v>421</v>
+      </c>
+      <c r="B368" t="s">
+        <v>290</v>
+      </c>
+      <c r="C368" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="s">
+        <v>422</v>
+      </c>
+      <c r="B369" t="s">
+        <v>290</v>
+      </c>
+      <c r="C369" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="s">
+        <v>423</v>
+      </c>
+      <c r="B370" t="s">
+        <v>375</v>
+      </c>
+      <c r="C370" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="s">
+        <v>424</v>
+      </c>
+      <c r="B371" t="s">
+        <v>358</v>
+      </c>
+      <c r="C371" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="s">
+        <v>425</v>
+      </c>
+      <c r="B372" t="s">
+        <v>358</v>
+      </c>
+      <c r="C372" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="s">
+        <v>426</v>
+      </c>
+      <c r="B373" t="s">
+        <v>332</v>
+      </c>
+      <c r="C373" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="s">
+        <v>427</v>
+      </c>
+      <c r="B374" t="s">
+        <v>332</v>
+      </c>
+      <c r="C374" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="s">
+        <v>428</v>
+      </c>
+      <c r="B375" t="s">
+        <v>332</v>
+      </c>
+      <c r="C375" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="s">
+        <v>429</v>
+      </c>
+      <c r="B376" t="s">
+        <v>332</v>
+      </c>
+      <c r="C376" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/GreatLink/GreatLink Multi-Sector Income.xlsx
+++ b/data/GreatLink/GreatLink Multi-Sector Income.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid950498"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid178924"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="442">
   <si>
     <t>Price Date</t>
   </si>
@@ -26,15 +26,69 @@
     <t>Currency - Unit Level</t>
   </si>
   <si>
+    <t>04/11/2025</t>
+  </si>
+  <si>
+    <t>0.931</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>03/11/2025</t>
+  </si>
+  <si>
+    <t>0.930</t>
+  </si>
+  <si>
+    <t>31/10/2025</t>
+  </si>
+  <si>
+    <t>30/10/2025</t>
+  </si>
+  <si>
+    <t>29/10/2025</t>
+  </si>
+  <si>
+    <t>0.937</t>
+  </si>
+  <si>
+    <t>28/10/2025</t>
+  </si>
+  <si>
+    <t>0.940</t>
+  </si>
+  <si>
+    <t>27/10/2025</t>
+  </si>
+  <si>
+    <t>0.939</t>
+  </si>
+  <si>
+    <t>24/10/2025</t>
+  </si>
+  <si>
+    <t>0.938</t>
+  </si>
+  <si>
+    <t>23/10/2025</t>
+  </si>
+  <si>
+    <t>22/10/2025</t>
+  </si>
+  <si>
+    <t>21/10/2025</t>
+  </si>
+  <si>
+    <t>17/10/2025</t>
+  </si>
+  <si>
+    <t>0.935</t>
+  </si>
+  <si>
     <t>16/10/2025</t>
   </si>
   <si>
-    <t>0.935</t>
-  </si>
-  <si>
-    <t>SGD</t>
-  </si>
-  <si>
     <t>15/10/2025</t>
   </si>
   <si>
@@ -50,9 +104,6 @@
     <t>13/10/2025</t>
   </si>
   <si>
-    <t>0.930</t>
-  </si>
-  <si>
     <t>10/10/2025</t>
   </si>
   <si>
@@ -173,9 +224,6 @@
     <t>27/08/2025</t>
   </si>
   <si>
-    <t>0.931</t>
-  </si>
-  <si>
     <t>26/08/2025</t>
   </si>
   <si>
@@ -530,9 +578,6 @@
     <t>01/04/2025</t>
   </si>
   <si>
-    <t>0.937</t>
-  </si>
-  <si>
     <t>28/03/2025</t>
   </si>
   <si>
@@ -554,9 +599,6 @@
     <t>20/03/2025</t>
   </si>
   <si>
-    <t>0.938</t>
-  </si>
-  <si>
     <t>19/03/2025</t>
   </si>
   <si>
@@ -599,13 +641,7 @@
     <t>28/02/2025</t>
   </si>
   <si>
-    <t>0.940</t>
-  </si>
-  <si>
     <t>27/02/2025</t>
-  </si>
-  <si>
-    <t>0.939</t>
   </si>
   <si>
     <t>26/02/2025</t>
@@ -1671,7 +1707,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -1679,10 +1715,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -1690,10 +1726,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1701,10 +1737,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1712,10 +1748,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -1723,7 +1759,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
@@ -1734,10 +1770,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -1745,10 +1781,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -1756,10 +1792,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -1767,10 +1803,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
         <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -1781,7 +1817,7 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -1792,7 +1828,7 @@
         <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -1800,10 +1836,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -1811,10 +1847,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -1822,10 +1858,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -1833,10 +1869,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -1844,10 +1880,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -1855,10 +1891,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -1866,10 +1902,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -1877,10 +1913,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -1888,10 +1924,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -1899,10 +1935,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -1910,10 +1946,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -1921,10 +1957,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -1932,7 +1968,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B28" t="s">
         <v>7</v>
@@ -1943,10 +1979,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -1954,10 +1990,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -1965,10 +2001,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -1976,10 +2012,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -1987,10 +2023,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -1998,10 +2034,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -2009,10 +2045,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B35" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -2020,10 +2056,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -2031,10 +2067,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B37" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -2042,10 +2078,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B38" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -2053,10 +2089,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -2064,10 +2100,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B40" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -2075,10 +2111,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B41" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -2086,10 +2122,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -2097,10 +2133,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B43" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -2108,10 +2144,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B44" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -2119,10 +2155,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B45" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -2130,10 +2166,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B46" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -2141,10 +2177,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B47" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -2152,10 +2188,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B48" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -2163,10 +2199,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B49" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -2174,10 +2210,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B50" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -2185,10 +2221,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B51" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -2196,10 +2232,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B52" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -2207,10 +2243,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B53" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -2218,10 +2254,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B54" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -2229,10 +2265,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B55" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -2240,10 +2276,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B56" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -2251,10 +2287,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B57" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -2262,10 +2298,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B58" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -2273,10 +2309,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B59" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -2284,10 +2320,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B60" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -2295,10 +2331,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B61" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -2306,10 +2342,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B62" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -2317,10 +2353,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B63" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -2328,10 +2364,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B64" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -2339,10 +2375,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B65" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -2350,10 +2386,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B66" t="s">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -2361,10 +2397,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B67" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -2372,10 +2408,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B68" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -2383,10 +2419,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B69" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -2394,10 +2430,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
+        <v>89</v>
+      </c>
+      <c r="B70" t="s">
         <v>88</v>
-      </c>
-      <c r="B70" t="s">
-        <v>82</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -2405,10 +2441,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B71" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -2416,10 +2452,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B72" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -2427,10 +2463,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B73" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -2438,10 +2474,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B74" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -2449,10 +2485,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B75" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -2463,7 +2499,7 @@
         <v>95</v>
       </c>
       <c r="B76" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -2474,7 +2510,7 @@
         <v>96</v>
       </c>
       <c r="B77" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -2485,7 +2521,7 @@
         <v>97</v>
       </c>
       <c r="B78" t="s">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -2493,10 +2529,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B79" t="s">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -2504,10 +2540,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -2515,10 +2551,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B81" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -2526,10 +2562,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B82" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -2537,10 +2573,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B83" t="s">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -2548,10 +2584,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B84" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -2559,10 +2595,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B85" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -2570,10 +2606,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B86" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -2581,10 +2617,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B87" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -2592,10 +2628,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B88" t="s">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -2603,10 +2639,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B89" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -2614,10 +2650,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B90" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -2625,10 +2661,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B91" t="s">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -2636,10 +2672,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B92" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -2647,10 +2683,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B93" t="s">
-        <v>106</v>
+        <v>7</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -2658,10 +2694,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B94" t="s">
-        <v>84</v>
+        <v>4</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -2669,10 +2705,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B95" t="s">
-        <v>116</v>
+        <v>34</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -2680,10 +2716,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B96" t="s">
-        <v>118</v>
+        <v>34</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -2691,10 +2727,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B97" t="s">
-        <v>120</v>
+        <v>64</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -2705,7 +2741,7 @@
         <v>121</v>
       </c>
       <c r="B98" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -2713,10 +2749,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
+        <v>123</v>
+      </c>
+      <c r="B99" t="s">
         <v>122</v>
-      </c>
-      <c r="B99" t="s">
-        <v>116</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
@@ -2724,10 +2760,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B100" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
@@ -2738,7 +2774,7 @@
         <v>125</v>
       </c>
       <c r="B101" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -2749,7 +2785,7 @@
         <v>126</v>
       </c>
       <c r="B102" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
@@ -2760,7 +2796,7 @@
         <v>127</v>
       </c>
       <c r="B103" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -2771,7 +2807,7 @@
         <v>128</v>
       </c>
       <c r="B104" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -2782,7 +2818,7 @@
         <v>129</v>
       </c>
       <c r="B105" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -2793,7 +2829,7 @@
         <v>130</v>
       </c>
       <c r="B106" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
@@ -2826,7 +2862,7 @@
         <v>135</v>
       </c>
       <c r="B109" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -2834,10 +2870,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B110" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -2845,10 +2881,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B111" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -2856,10 +2892,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B112" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -2867,10 +2903,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B113" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -2878,10 +2914,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B114" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -2889,10 +2925,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B115" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -2900,10 +2936,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B116" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -2911,10 +2947,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B117" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
@@ -2922,10 +2958,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B118" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -2933,10 +2969,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B119" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -2944,10 +2980,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B120" t="s">
-        <v>87</v>
+        <v>150</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -2955,10 +2991,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B121" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -2966,10 +3002,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B122" t="s">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -2977,10 +3013,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B123" t="s">
-        <v>17</v>
+        <v>103</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -2988,10 +3024,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B124" t="s">
-        <v>45</v>
+        <v>132</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -2999,10 +3035,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B125" t="s">
-        <v>72</v>
+        <v>148</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -3010,10 +3046,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B126" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
@@ -3021,10 +3057,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B127" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
@@ -3032,10 +3068,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B128" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
@@ -3043,10 +3079,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B129" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -3054,10 +3090,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B130" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -3065,10 +3101,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B131" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -3076,10 +3112,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B132" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
@@ -3087,10 +3123,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B133" t="s">
-        <v>161</v>
+        <v>30</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
@@ -3098,10 +3134,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B134" t="s">
-        <v>163</v>
+        <v>30</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
@@ -3109,10 +3145,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B135" t="s">
-        <v>118</v>
+        <v>34</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
@@ -3120,10 +3156,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B136" t="s">
-        <v>155</v>
+        <v>62</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -3131,10 +3167,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B137" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
@@ -3142,10 +3178,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B138" t="s">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
@@ -3153,10 +3189,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>140</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -3164,10 +3200,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B140" t="s">
-        <v>9</v>
+        <v>171</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
@@ -3175,10 +3211,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B141" t="s">
-        <v>171</v>
+        <v>136</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
@@ -3186,10 +3222,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B142" t="s">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
@@ -3197,10 +3233,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>132</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -3208,10 +3244,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B144" t="s">
-        <v>29</v>
+        <v>134</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
@@ -3219,10 +3255,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B145" t="s">
-        <v>4</v>
+        <v>177</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
@@ -3230,10 +3266,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B146" t="s">
-        <v>29</v>
+        <v>179</v>
       </c>
       <c r="C146" t="s">
         <v>5</v>
@@ -3241,10 +3277,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B147" t="s">
-        <v>35</v>
+        <v>134</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
@@ -3252,10 +3288,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B148" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
@@ -3263,10 +3299,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B149" t="s">
-        <v>171</v>
+        <v>136</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
@@ -3274,10 +3310,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B150" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
@@ -3285,10 +3321,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B151" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
@@ -3296,10 +3332,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B152" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
@@ -3307,10 +3343,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B153" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
@@ -3318,10 +3354,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
@@ -3329,10 +3365,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B155" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C155" t="s">
         <v>5</v>
@@ -3340,10 +3376,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B156" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C156" t="s">
         <v>5</v>
@@ -3351,10 +3387,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B157" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
@@ -3362,10 +3398,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B158" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
@@ -3373,10 +3409,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B159" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="C159" t="s">
         <v>5</v>
@@ -3384,10 +3420,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B160" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
@@ -3395,10 +3431,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B161" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C161" t="s">
         <v>5</v>
@@ -3406,10 +3442,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B162" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="C162" t="s">
         <v>5</v>
@@ -3417,10 +3453,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B163" t="s">
-        <v>196</v>
+        <v>22</v>
       </c>
       <c r="C163" t="s">
         <v>5</v>
@@ -3431,7 +3467,7 @@
         <v>197</v>
       </c>
       <c r="B164" t="s">
-        <v>196</v>
+        <v>22</v>
       </c>
       <c r="C164" t="s">
         <v>5</v>
@@ -3442,7 +3478,7 @@
         <v>198</v>
       </c>
       <c r="B165" t="s">
-        <v>196</v>
+        <v>46</v>
       </c>
       <c r="C165" t="s">
         <v>5</v>
@@ -3453,7 +3489,7 @@
         <v>199</v>
       </c>
       <c r="B166" t="s">
-        <v>171</v>
+        <v>25</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
@@ -3464,7 +3500,7 @@
         <v>200</v>
       </c>
       <c r="B167" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C167" t="s">
         <v>5</v>
@@ -3475,7 +3511,7 @@
         <v>201</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="C168" t="s">
         <v>5</v>
@@ -3486,7 +3522,7 @@
         <v>202</v>
       </c>
       <c r="B169" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C169" t="s">
         <v>5</v>
@@ -3497,7 +3533,7 @@
         <v>203</v>
       </c>
       <c r="B170" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C170" t="s">
         <v>5</v>
@@ -3508,7 +3544,7 @@
         <v>204</v>
       </c>
       <c r="B171" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C171" t="s">
         <v>5</v>
@@ -3519,7 +3555,7 @@
         <v>205</v>
       </c>
       <c r="B172" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="C172" t="s">
         <v>5</v>
@@ -3541,7 +3577,7 @@
         <v>207</v>
       </c>
       <c r="B174" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="C174" t="s">
         <v>5</v>
@@ -3552,7 +3588,7 @@
         <v>208</v>
       </c>
       <c r="B175" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C175" t="s">
         <v>5</v>
@@ -3563,7 +3599,7 @@
         <v>209</v>
       </c>
       <c r="B176" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="C176" t="s">
         <v>5</v>
@@ -3574,7 +3610,7 @@
         <v>210</v>
       </c>
       <c r="B177" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="C177" t="s">
         <v>5</v>
@@ -3585,7 +3621,7 @@
         <v>211</v>
       </c>
       <c r="B178" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C178" t="s">
         <v>5</v>
@@ -3607,7 +3643,7 @@
         <v>213</v>
       </c>
       <c r="B180" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C180" t="s">
         <v>5</v>
@@ -3618,7 +3654,7 @@
         <v>214</v>
       </c>
       <c r="B181" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C181" t="s">
         <v>5</v>
@@ -3629,7 +3665,7 @@
         <v>215</v>
       </c>
       <c r="B182" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="C182" t="s">
         <v>5</v>
@@ -3640,7 +3676,7 @@
         <v>216</v>
       </c>
       <c r="B183" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="C183" t="s">
         <v>5</v>
@@ -3651,7 +3687,7 @@
         <v>217</v>
       </c>
       <c r="B184" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C184" t="s">
         <v>5</v>
@@ -3662,7 +3698,7 @@
         <v>218</v>
       </c>
       <c r="B185" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C185" t="s">
         <v>5</v>
@@ -3673,7 +3709,7 @@
         <v>219</v>
       </c>
       <c r="B186" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C186" t="s">
         <v>5</v>
@@ -3684,7 +3720,7 @@
         <v>220</v>
       </c>
       <c r="B187" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C187" t="s">
         <v>5</v>
@@ -3695,7 +3731,7 @@
         <v>221</v>
       </c>
       <c r="B188" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="C188" t="s">
         <v>5</v>
@@ -3706,7 +3742,7 @@
         <v>222</v>
       </c>
       <c r="B189" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="C189" t="s">
         <v>5</v>
@@ -3717,7 +3753,7 @@
         <v>223</v>
       </c>
       <c r="B190" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="C190" t="s">
         <v>5</v>
@@ -3728,7 +3764,7 @@
         <v>224</v>
       </c>
       <c r="B191" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="C191" t="s">
         <v>5</v>
@@ -3739,7 +3775,7 @@
         <v>225</v>
       </c>
       <c r="B192" t="s">
-        <v>106</v>
+        <v>34</v>
       </c>
       <c r="C192" t="s">
         <v>5</v>
@@ -3750,7 +3786,7 @@
         <v>226</v>
       </c>
       <c r="B193" t="s">
-        <v>124</v>
+        <v>32</v>
       </c>
       <c r="C193" t="s">
         <v>5</v>
@@ -3761,7 +3797,7 @@
         <v>227</v>
       </c>
       <c r="B194" t="s">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="C194" t="s">
         <v>5</v>
@@ -3772,7 +3808,7 @@
         <v>228</v>
       </c>
       <c r="B195" t="s">
-        <v>124</v>
+        <v>7</v>
       </c>
       <c r="C195" t="s">
         <v>5</v>
@@ -3783,7 +3819,7 @@
         <v>229</v>
       </c>
       <c r="B196" t="s">
-        <v>106</v>
+        <v>30</v>
       </c>
       <c r="C196" t="s">
         <v>5</v>
@@ -3794,7 +3830,7 @@
         <v>230</v>
       </c>
       <c r="B197" t="s">
-        <v>106</v>
+        <v>32</v>
       </c>
       <c r="C197" t="s">
         <v>5</v>
@@ -3805,7 +3841,7 @@
         <v>231</v>
       </c>
       <c r="B198" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="C198" t="s">
         <v>5</v>
@@ -3816,7 +3852,7 @@
         <v>232</v>
       </c>
       <c r="B199" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="C199" t="s">
         <v>5</v>
@@ -3827,7 +3863,7 @@
         <v>233</v>
       </c>
       <c r="B200" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="C200" t="s">
         <v>5</v>
@@ -3838,7 +3874,7 @@
         <v>234</v>
       </c>
       <c r="B201" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="C201" t="s">
         <v>5</v>
@@ -3849,7 +3885,7 @@
         <v>235</v>
       </c>
       <c r="B202" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="C202" t="s">
         <v>5</v>
@@ -3860,7 +3896,7 @@
         <v>236</v>
       </c>
       <c r="B203" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="C203" t="s">
         <v>5</v>
@@ -3871,7 +3907,7 @@
         <v>237</v>
       </c>
       <c r="B204" t="s">
-        <v>45</v>
+        <v>122</v>
       </c>
       <c r="C204" t="s">
         <v>5</v>
@@ -3882,7 +3918,7 @@
         <v>238</v>
       </c>
       <c r="B205" t="s">
-        <v>72</v>
+        <v>140</v>
       </c>
       <c r="C205" t="s">
         <v>5</v>
@@ -3893,7 +3929,7 @@
         <v>239</v>
       </c>
       <c r="B206" t="s">
-        <v>72</v>
+        <v>134</v>
       </c>
       <c r="C206" t="s">
         <v>5</v>
@@ -3904,7 +3940,7 @@
         <v>240</v>
       </c>
       <c r="B207" t="s">
-        <v>72</v>
+        <v>140</v>
       </c>
       <c r="C207" t="s">
         <v>5</v>
@@ -3915,7 +3951,7 @@
         <v>241</v>
       </c>
       <c r="B208" t="s">
-        <v>15</v>
+        <v>122</v>
       </c>
       <c r="C208" t="s">
         <v>5</v>
@@ -3926,7 +3962,7 @@
         <v>242</v>
       </c>
       <c r="B209" t="s">
-        <v>72</v>
+        <v>122</v>
       </c>
       <c r="C209" t="s">
         <v>5</v>
@@ -3937,7 +3973,7 @@
         <v>243</v>
       </c>
       <c r="B210" t="s">
-        <v>17</v>
+        <v>122</v>
       </c>
       <c r="C210" t="s">
         <v>5</v>
@@ -3948,7 +3984,7 @@
         <v>244</v>
       </c>
       <c r="B211" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="C211" t="s">
         <v>5</v>
@@ -3959,7 +3995,7 @@
         <v>245</v>
       </c>
       <c r="B212" t="s">
-        <v>7</v>
+        <v>110</v>
       </c>
       <c r="C212" t="s">
         <v>5</v>
@@ -3970,7 +4006,7 @@
         <v>246</v>
       </c>
       <c r="B213" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="C213" t="s">
         <v>5</v>
@@ -3981,7 +4017,7 @@
         <v>247</v>
       </c>
       <c r="B214" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C214" t="s">
         <v>5</v>
@@ -3992,7 +4028,7 @@
         <v>248</v>
       </c>
       <c r="B215" t="s">
-        <v>179</v>
+        <v>34</v>
       </c>
       <c r="C215" t="s">
         <v>5</v>
@@ -4003,7 +4039,7 @@
         <v>249</v>
       </c>
       <c r="B216" t="s">
-        <v>196</v>
+        <v>62</v>
       </c>
       <c r="C216" t="s">
         <v>5</v>
@@ -4014,7 +4050,7 @@
         <v>250</v>
       </c>
       <c r="B217" t="s">
-        <v>196</v>
+        <v>88</v>
       </c>
       <c r="C217" t="s">
         <v>5</v>
@@ -4025,7 +4061,7 @@
         <v>251</v>
       </c>
       <c r="B218" t="s">
-        <v>194</v>
+        <v>88</v>
       </c>
       <c r="C218" t="s">
         <v>5</v>
@@ -4036,7 +4072,7 @@
         <v>252</v>
       </c>
       <c r="B219" t="s">
-        <v>196</v>
+        <v>88</v>
       </c>
       <c r="C219" t="s">
         <v>5</v>
@@ -4047,7 +4083,7 @@
         <v>253</v>
       </c>
       <c r="B220" t="s">
-        <v>179</v>
+        <v>32</v>
       </c>
       <c r="C220" t="s">
         <v>5</v>
@@ -4058,7 +4094,7 @@
         <v>254</v>
       </c>
       <c r="B221" t="s">
-        <v>171</v>
+        <v>88</v>
       </c>
       <c r="C221" t="s">
         <v>5</v>
@@ -4069,7 +4105,7 @@
         <v>255</v>
       </c>
       <c r="B222" t="s">
-        <v>179</v>
+        <v>34</v>
       </c>
       <c r="C222" t="s">
         <v>5</v>
@@ -4080,7 +4116,7 @@
         <v>256</v>
       </c>
       <c r="B223" t="s">
-        <v>171</v>
+        <v>27</v>
       </c>
       <c r="C223" t="s">
         <v>5</v>
@@ -4091,7 +4127,7 @@
         <v>257</v>
       </c>
       <c r="B224" t="s">
-        <v>196</v>
+        <v>25</v>
       </c>
       <c r="C224" t="s">
         <v>5</v>
@@ -4102,7 +4138,7 @@
         <v>258</v>
       </c>
       <c r="B225" t="s">
-        <v>196</v>
+        <v>25</v>
       </c>
       <c r="C225" t="s">
         <v>5</v>
@@ -4113,7 +4149,7 @@
         <v>259</v>
       </c>
       <c r="B226" t="s">
-        <v>179</v>
+        <v>52</v>
       </c>
       <c r="C226" t="s">
         <v>5</v>
@@ -4124,7 +4160,7 @@
         <v>260</v>
       </c>
       <c r="B227" t="s">
-        <v>179</v>
+        <v>17</v>
       </c>
       <c r="C227" t="s">
         <v>5</v>
@@ -4135,7 +4171,7 @@
         <v>261</v>
       </c>
       <c r="B228" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C228" t="s">
         <v>5</v>
@@ -4146,7 +4182,7 @@
         <v>262</v>
       </c>
       <c r="B229" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C229" t="s">
         <v>5</v>
@@ -4157,7 +4193,7 @@
         <v>263</v>
       </c>
       <c r="B230" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C230" t="s">
         <v>5</v>
@@ -4168,7 +4204,7 @@
         <v>264</v>
       </c>
       <c r="B231" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C231" t="s">
         <v>5</v>
@@ -4179,7 +4215,7 @@
         <v>265</v>
       </c>
       <c r="B232" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C232" t="s">
         <v>5</v>
@@ -4190,7 +4226,7 @@
         <v>266</v>
       </c>
       <c r="B233" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C233" t="s">
         <v>5</v>
@@ -4201,7 +4237,7 @@
         <v>267</v>
       </c>
       <c r="B234" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C234" t="s">
         <v>5</v>
@@ -4212,7 +4248,7 @@
         <v>268</v>
       </c>
       <c r="B235" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C235" t="s">
         <v>5</v>
@@ -4223,7 +4259,7 @@
         <v>269</v>
       </c>
       <c r="B236" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C236" t="s">
         <v>5</v>
@@ -4234,7 +4270,7 @@
         <v>270</v>
       </c>
       <c r="B237" t="s">
-        <v>171</v>
+        <v>15</v>
       </c>
       <c r="C237" t="s">
         <v>5</v>
@@ -4245,7 +4281,7 @@
         <v>271</v>
       </c>
       <c r="B238" t="s">
-        <v>179</v>
+        <v>17</v>
       </c>
       <c r="C238" t="s">
         <v>5</v>
@@ -4256,7 +4292,7 @@
         <v>272</v>
       </c>
       <c r="B239" t="s">
-        <v>171</v>
+        <v>17</v>
       </c>
       <c r="C239" t="s">
         <v>5</v>
@@ -4267,7 +4303,7 @@
         <v>273</v>
       </c>
       <c r="B240" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="C240" t="s">
         <v>5</v>
@@ -4278,7 +4314,7 @@
         <v>274</v>
       </c>
       <c r="B241" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="C241" t="s">
         <v>5</v>
@@ -4289,7 +4325,7 @@
         <v>275</v>
       </c>
       <c r="B242" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C242" t="s">
         <v>5</v>
@@ -4300,7 +4336,7 @@
         <v>276</v>
       </c>
       <c r="B243" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C243" t="s">
         <v>5</v>
@@ -4311,7 +4347,7 @@
         <v>277</v>
       </c>
       <c r="B244" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C244" t="s">
         <v>5</v>
@@ -4322,7 +4358,7 @@
         <v>278</v>
       </c>
       <c r="B245" t="s">
-        <v>179</v>
+        <v>27</v>
       </c>
       <c r="C245" t="s">
         <v>5</v>
@@ -4333,7 +4369,7 @@
         <v>279</v>
       </c>
       <c r="B246" t="s">
-        <v>171</v>
+        <v>27</v>
       </c>
       <c r="C246" t="s">
         <v>5</v>
@@ -4344,7 +4380,7 @@
         <v>280</v>
       </c>
       <c r="B247" t="s">
-        <v>196</v>
+        <v>27</v>
       </c>
       <c r="C247" t="s">
         <v>5</v>
@@ -4355,7 +4391,7 @@
         <v>281</v>
       </c>
       <c r="B248" t="s">
-        <v>196</v>
+        <v>27</v>
       </c>
       <c r="C248" t="s">
         <v>5</v>
@@ -4366,7 +4402,7 @@
         <v>282</v>
       </c>
       <c r="B249" t="s">
-        <v>179</v>
+        <v>11</v>
       </c>
       <c r="C249" t="s">
         <v>5</v>
@@ -4377,7 +4413,7 @@
         <v>283</v>
       </c>
       <c r="B250" t="s">
-        <v>284</v>
+        <v>17</v>
       </c>
       <c r="C250" t="s">
         <v>5</v>
@@ -4385,10 +4421,10 @@
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B251" t="s">
-        <v>286</v>
+        <v>11</v>
       </c>
       <c r="C251" t="s">
         <v>5</v>
@@ -4396,10 +4432,10 @@
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B252" t="s">
-        <v>288</v>
+        <v>4</v>
       </c>
       <c r="C252" t="s">
         <v>5</v>
@@ -4407,10 +4443,10 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B253" t="s">
-        <v>290</v>
+        <v>4</v>
       </c>
       <c r="C253" t="s">
         <v>5</v>
@@ -4418,10 +4454,10 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B254" t="s">
-        <v>292</v>
+        <v>7</v>
       </c>
       <c r="C254" t="s">
         <v>5</v>
@@ -4429,10 +4465,10 @@
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B255" t="s">
-        <v>288</v>
+        <v>25</v>
       </c>
       <c r="C255" t="s">
         <v>5</v>
@@ -4440,10 +4476,10 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="B256" t="s">
-        <v>290</v>
+        <v>52</v>
       </c>
       <c r="C256" t="s">
         <v>5</v>
@@ -4451,10 +4487,10 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B257" t="s">
-        <v>288</v>
+        <v>17</v>
       </c>
       <c r="C257" t="s">
         <v>5</v>
@@ -4462,10 +4498,10 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="B258" t="s">
-        <v>290</v>
+        <v>11</v>
       </c>
       <c r="C258" t="s">
         <v>5</v>
@@ -4473,10 +4509,10 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B259" t="s">
-        <v>290</v>
+        <v>15</v>
       </c>
       <c r="C259" t="s">
         <v>5</v>
@@ -4484,10 +4520,10 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B260" t="s">
-        <v>290</v>
+        <v>15</v>
       </c>
       <c r="C260" t="s">
         <v>5</v>
@@ -4495,10 +4531,10 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B261" t="s">
-        <v>290</v>
+        <v>17</v>
       </c>
       <c r="C261" t="s">
         <v>5</v>
@@ -4506,10 +4542,10 @@
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B262" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="C262" t="s">
         <v>5</v>
@@ -4517,10 +4553,10 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B263" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C263" t="s">
         <v>5</v>
@@ -4528,10 +4564,10 @@
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B264" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C264" t="s">
         <v>5</v>
@@ -4539,10 +4575,10 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B265" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C265" t="s">
         <v>5</v>
@@ -4550,10 +4586,10 @@
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B266" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C266" t="s">
         <v>5</v>
@@ -4561,10 +4597,10 @@
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B267" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="C267" t="s">
         <v>5</v>
@@ -4572,10 +4608,10 @@
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B268" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="C268" t="s">
         <v>5</v>
@@ -4583,10 +4619,10 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B269" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="C269" t="s">
         <v>5</v>
@@ -4594,10 +4630,10 @@
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="B270" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="C270" t="s">
         <v>5</v>
@@ -4605,10 +4641,10 @@
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="B271" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="C271" t="s">
         <v>5</v>
@@ -4616,10 +4652,10 @@
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B272" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="C272" t="s">
         <v>5</v>
@@ -4627,10 +4663,10 @@
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B273" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="C273" t="s">
         <v>5</v>
@@ -4638,10 +4674,10 @@
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B274" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="C274" t="s">
         <v>5</v>
@@ -4649,10 +4685,10 @@
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B275" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="C275" t="s">
         <v>5</v>
@@ -4660,10 +4696,10 @@
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B276" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="C276" t="s">
         <v>5</v>
@@ -4671,10 +4707,10 @@
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B277" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="C277" t="s">
         <v>5</v>
@@ -4682,10 +4718,10 @@
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B278" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C278" t="s">
         <v>5</v>
@@ -4693,10 +4729,10 @@
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B279" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C279" t="s">
         <v>5</v>
@@ -4704,10 +4740,10 @@
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B280" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C280" t="s">
         <v>5</v>
@@ -4715,10 +4751,10 @@
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B281" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="C281" t="s">
         <v>5</v>
@@ -4726,10 +4762,10 @@
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B282" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C282" t="s">
         <v>5</v>
@@ -4737,10 +4773,10 @@
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B283" t="s">
-        <v>302</v>
+        <v>321</v>
       </c>
       <c r="C283" t="s">
         <v>5</v>
@@ -4748,10 +4784,10 @@
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B284" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C284" t="s">
         <v>5</v>
@@ -4759,10 +4795,10 @@
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B285" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="C285" t="s">
         <v>5</v>
@@ -4770,10 +4806,10 @@
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B286" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="C286" t="s">
         <v>5</v>
@@ -4781,10 +4817,10 @@
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B287" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="C287" t="s">
         <v>5</v>
@@ -4792,10 +4828,10 @@
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="B288" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="C288" t="s">
         <v>5</v>
@@ -4803,10 +4839,10 @@
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B289" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C289" t="s">
         <v>5</v>
@@ -4814,10 +4850,10 @@
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B290" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C290" t="s">
         <v>5</v>
@@ -4825,10 +4861,10 @@
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B291" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="C291" t="s">
         <v>5</v>
@@ -4836,10 +4872,10 @@
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B292" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="C292" t="s">
         <v>5</v>
@@ -4847,10 +4883,10 @@
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B293" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="C293" t="s">
         <v>5</v>
@@ -4858,10 +4894,10 @@
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B294" t="s">
-        <v>304</v>
+        <v>341</v>
       </c>
       <c r="C294" t="s">
         <v>5</v>
@@ -4869,10 +4905,10 @@
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B295" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="C295" t="s">
         <v>5</v>
@@ -4880,10 +4916,10 @@
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B296" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="C296" t="s">
         <v>5</v>
@@ -4891,10 +4927,10 @@
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B297" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="C297" t="s">
         <v>5</v>
@@ -4902,10 +4938,10 @@
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B298" t="s">
-        <v>332</v>
+        <v>304</v>
       </c>
       <c r="C298" t="s">
         <v>5</v>
@@ -4913,10 +4949,10 @@
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B299" t="s">
-        <v>302</v>
+        <v>341</v>
       </c>
       <c r="C299" t="s">
         <v>5</v>
@@ -4924,10 +4960,10 @@
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B300" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="C300" t="s">
         <v>5</v>
@@ -4935,10 +4971,10 @@
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B301" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C301" t="s">
         <v>5</v>
@@ -4946,10 +4982,10 @@
     </row>
     <row r="302">
       <c r="A302" t="s">
+        <v>351</v>
+      </c>
+      <c r="B302" t="s">
         <v>352</v>
-      </c>
-      <c r="B302" t="s">
-        <v>290</v>
       </c>
       <c r="C302" t="s">
         <v>5</v>
@@ -4960,7 +4996,7 @@
         <v>353</v>
       </c>
       <c r="B303" t="s">
-        <v>290</v>
+        <v>335</v>
       </c>
       <c r="C303" t="s">
         <v>5</v>
@@ -4971,7 +5007,7 @@
         <v>354</v>
       </c>
       <c r="B304" t="s">
-        <v>288</v>
+        <v>335</v>
       </c>
       <c r="C304" t="s">
         <v>5</v>
@@ -4982,7 +5018,7 @@
         <v>355</v>
       </c>
       <c r="B305" t="s">
-        <v>288</v>
+        <v>341</v>
       </c>
       <c r="C305" t="s">
         <v>5</v>
@@ -4993,7 +5029,7 @@
         <v>356</v>
       </c>
       <c r="B306" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="C306" t="s">
         <v>5</v>
@@ -5004,7 +5040,7 @@
         <v>357</v>
       </c>
       <c r="B307" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
       <c r="C307" t="s">
         <v>5</v>
@@ -5012,10 +5048,10 @@
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B308" t="s">
-        <v>304</v>
+        <v>341</v>
       </c>
       <c r="C308" t="s">
         <v>5</v>
@@ -5023,10 +5059,10 @@
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B309" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
       <c r="C309" t="s">
         <v>5</v>
@@ -5034,10 +5070,10 @@
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B310" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="C310" t="s">
         <v>5</v>
@@ -5045,10 +5081,10 @@
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B311" t="s">
-        <v>358</v>
+        <v>314</v>
       </c>
       <c r="C311" t="s">
         <v>5</v>
@@ -5056,10 +5092,10 @@
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B312" t="s">
-        <v>292</v>
+        <v>344</v>
       </c>
       <c r="C312" t="s">
         <v>5</v>
@@ -5067,10 +5103,10 @@
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B313" t="s">
-        <v>288</v>
+        <v>346</v>
       </c>
       <c r="C313" t="s">
         <v>5</v>
@@ -5078,10 +5114,10 @@
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B314" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="C314" t="s">
         <v>5</v>
@@ -5089,10 +5125,10 @@
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B315" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="C315" t="s">
         <v>5</v>
@@ -5100,10 +5136,10 @@
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B316" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="C316" t="s">
         <v>5</v>
@@ -5111,10 +5147,10 @@
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B317" t="s">
-        <v>334</v>
+        <v>300</v>
       </c>
       <c r="C317" t="s">
         <v>5</v>
@@ -5122,10 +5158,10 @@
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B318" t="s">
-        <v>358</v>
+        <v>314</v>
       </c>
       <c r="C318" t="s">
         <v>5</v>
@@ -5133,10 +5169,10 @@
     </row>
     <row r="319">
       <c r="A319" t="s">
+        <v>369</v>
+      </c>
+      <c r="B319" t="s">
         <v>370</v>
-      </c>
-      <c r="B319" t="s">
-        <v>358</v>
       </c>
       <c r="C319" t="s">
         <v>5</v>
@@ -5147,7 +5183,7 @@
         <v>371</v>
       </c>
       <c r="B320" t="s">
-        <v>334</v>
+        <v>316</v>
       </c>
       <c r="C320" t="s">
         <v>5</v>
@@ -5158,7 +5194,7 @@
         <v>372</v>
       </c>
       <c r="B321" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="C321" t="s">
         <v>5</v>
@@ -5169,7 +5205,7 @@
         <v>373</v>
       </c>
       <c r="B322" t="s">
-        <v>292</v>
+        <v>370</v>
       </c>
       <c r="C322" t="s">
         <v>5</v>
@@ -5180,7 +5216,7 @@
         <v>374</v>
       </c>
       <c r="B323" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="C323" t="s">
         <v>5</v>
@@ -5188,10 +5224,10 @@
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B324" t="s">
-        <v>377</v>
+        <v>304</v>
       </c>
       <c r="C324" t="s">
         <v>5</v>
@@ -5199,10 +5235,10 @@
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B325" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="C325" t="s">
         <v>5</v>
@@ -5210,10 +5246,10 @@
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B326" t="s">
-        <v>284</v>
+        <v>304</v>
       </c>
       <c r="C326" t="s">
         <v>5</v>
@@ -5221,10 +5257,10 @@
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B327" t="s">
-        <v>179</v>
+        <v>304</v>
       </c>
       <c r="C327" t="s">
         <v>5</v>
@@ -5232,10 +5268,10 @@
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B328" t="s">
-        <v>179</v>
+        <v>304</v>
       </c>
       <c r="C328" t="s">
         <v>5</v>
@@ -5243,10 +5279,10 @@
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B329" t="s">
-        <v>4</v>
+        <v>346</v>
       </c>
       <c r="C329" t="s">
         <v>5</v>
@@ -5254,10 +5290,10 @@
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B330" t="s">
-        <v>29</v>
+        <v>370</v>
       </c>
       <c r="C330" t="s">
         <v>5</v>
@@ -5265,10 +5301,10 @@
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B331" t="s">
-        <v>286</v>
+        <v>370</v>
       </c>
       <c r="C331" t="s">
         <v>5</v>
@@ -5276,10 +5312,10 @@
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B332" t="s">
-        <v>377</v>
+        <v>346</v>
       </c>
       <c r="C332" t="s">
         <v>5</v>
@@ -5287,10 +5323,10 @@
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B333" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="C333" t="s">
         <v>5</v>
@@ -5298,10 +5334,10 @@
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B334" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="C334" t="s">
         <v>5</v>
@@ -5309,10 +5345,10 @@
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B335" t="s">
-        <v>290</v>
+        <v>387</v>
       </c>
       <c r="C335" t="s">
         <v>5</v>
@@ -5320,10 +5356,10 @@
     </row>
     <row r="336">
       <c r="A336" t="s">
+        <v>388</v>
+      </c>
+      <c r="B336" t="s">
         <v>389</v>
-      </c>
-      <c r="B336" t="s">
-        <v>290</v>
       </c>
       <c r="C336" t="s">
         <v>5</v>
@@ -5334,7 +5370,7 @@
         <v>390</v>
       </c>
       <c r="B337" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="C337" t="s">
         <v>5</v>
@@ -5345,7 +5381,7 @@
         <v>391</v>
       </c>
       <c r="B338" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="C338" t="s">
         <v>5</v>
@@ -5356,7 +5392,7 @@
         <v>392</v>
       </c>
       <c r="B339" t="s">
-        <v>290</v>
+        <v>17</v>
       </c>
       <c r="C339" t="s">
         <v>5</v>
@@ -5367,7 +5403,7 @@
         <v>393</v>
       </c>
       <c r="B340" t="s">
-        <v>375</v>
+        <v>17</v>
       </c>
       <c r="C340" t="s">
         <v>5</v>
@@ -5378,7 +5414,7 @@
         <v>394</v>
       </c>
       <c r="B341" t="s">
-        <v>288</v>
+        <v>22</v>
       </c>
       <c r="C341" t="s">
         <v>5</v>
@@ -5389,7 +5425,7 @@
         <v>395</v>
       </c>
       <c r="B342" t="s">
-        <v>375</v>
+        <v>46</v>
       </c>
       <c r="C342" t="s">
         <v>5</v>
@@ -5400,7 +5436,7 @@
         <v>396</v>
       </c>
       <c r="B343" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="C343" t="s">
         <v>5</v>
@@ -5411,7 +5447,7 @@
         <v>397</v>
       </c>
       <c r="B344" t="s">
-        <v>194</v>
+        <v>389</v>
       </c>
       <c r="C344" t="s">
         <v>5</v>
@@ -5422,7 +5458,7 @@
         <v>398</v>
       </c>
       <c r="B345" t="s">
-        <v>284</v>
+        <v>389</v>
       </c>
       <c r="C345" t="s">
         <v>5</v>
@@ -5433,7 +5469,7 @@
         <v>399</v>
       </c>
       <c r="B346" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="C346" t="s">
         <v>5</v>
@@ -5444,7 +5480,7 @@
         <v>400</v>
       </c>
       <c r="B347" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="C347" t="s">
         <v>5</v>
@@ -5455,7 +5491,7 @@
         <v>401</v>
       </c>
       <c r="B348" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="C348" t="s">
         <v>5</v>
@@ -5466,7 +5502,7 @@
         <v>402</v>
       </c>
       <c r="B349" t="s">
-        <v>375</v>
+        <v>302</v>
       </c>
       <c r="C349" t="s">
         <v>5</v>
@@ -5477,7 +5513,7 @@
         <v>403</v>
       </c>
       <c r="B350" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="C350" t="s">
         <v>5</v>
@@ -5488,7 +5524,7 @@
         <v>404</v>
       </c>
       <c r="B351" t="s">
-        <v>375</v>
+        <v>302</v>
       </c>
       <c r="C351" t="s">
         <v>5</v>
@@ -5499,7 +5535,7 @@
         <v>405</v>
       </c>
       <c r="B352" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="C352" t="s">
         <v>5</v>
@@ -5510,7 +5546,7 @@
         <v>406</v>
       </c>
       <c r="B353" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="C353" t="s">
         <v>5</v>
@@ -5521,7 +5557,7 @@
         <v>407</v>
       </c>
       <c r="B354" t="s">
-        <v>292</v>
+        <v>387</v>
       </c>
       <c r="C354" t="s">
         <v>5</v>
@@ -5532,7 +5568,7 @@
         <v>408</v>
       </c>
       <c r="B355" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="C355" t="s">
         <v>5</v>
@@ -5543,7 +5579,7 @@
         <v>409</v>
       </c>
       <c r="B356" t="s">
-        <v>288</v>
+        <v>13</v>
       </c>
       <c r="C356" t="s">
         <v>5</v>
@@ -5554,7 +5590,7 @@
         <v>410</v>
       </c>
       <c r="B357" t="s">
-        <v>332</v>
+        <v>296</v>
       </c>
       <c r="C357" t="s">
         <v>5</v>
@@ -5565,7 +5601,7 @@
         <v>411</v>
       </c>
       <c r="B358" t="s">
-        <v>358</v>
+        <v>302</v>
       </c>
       <c r="C358" t="s">
         <v>5</v>
@@ -5576,7 +5612,7 @@
         <v>412</v>
       </c>
       <c r="B359" t="s">
-        <v>358</v>
+        <v>300</v>
       </c>
       <c r="C359" t="s">
         <v>5</v>
@@ -5587,7 +5623,7 @@
         <v>413</v>
       </c>
       <c r="B360" t="s">
-        <v>358</v>
+        <v>302</v>
       </c>
       <c r="C360" t="s">
         <v>5</v>
@@ -5598,7 +5634,7 @@
         <v>414</v>
       </c>
       <c r="B361" t="s">
-        <v>302</v>
+        <v>387</v>
       </c>
       <c r="C361" t="s">
         <v>5</v>
@@ -5609,7 +5645,7 @@
         <v>415</v>
       </c>
       <c r="B362" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="C362" t="s">
         <v>5</v>
@@ -5620,7 +5656,7 @@
         <v>416</v>
       </c>
       <c r="B363" t="s">
-        <v>288</v>
+        <v>387</v>
       </c>
       <c r="C363" t="s">
         <v>5</v>
@@ -5631,7 +5667,7 @@
         <v>417</v>
       </c>
       <c r="B364" t="s">
-        <v>290</v>
+        <v>389</v>
       </c>
       <c r="C364" t="s">
         <v>5</v>
@@ -5642,7 +5678,7 @@
         <v>418</v>
       </c>
       <c r="B365" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="C365" t="s">
         <v>5</v>
@@ -5653,7 +5689,7 @@
         <v>419</v>
       </c>
       <c r="B366" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="C366" t="s">
         <v>5</v>
@@ -5664,7 +5700,7 @@
         <v>420</v>
       </c>
       <c r="B367" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="C367" t="s">
         <v>5</v>
@@ -5675,7 +5711,7 @@
         <v>421</v>
       </c>
       <c r="B368" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="C368" t="s">
         <v>5</v>
@@ -5686,7 +5722,7 @@
         <v>422</v>
       </c>
       <c r="B369" t="s">
-        <v>290</v>
+        <v>344</v>
       </c>
       <c r="C369" t="s">
         <v>5</v>
@@ -5697,7 +5733,7 @@
         <v>423</v>
       </c>
       <c r="B370" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="C370" t="s">
         <v>5</v>
@@ -5708,7 +5744,7 @@
         <v>424</v>
       </c>
       <c r="B371" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="C371" t="s">
         <v>5</v>
@@ -5719,7 +5755,7 @@
         <v>425</v>
       </c>
       <c r="B372" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="C372" t="s">
         <v>5</v>
@@ -5730,7 +5766,7 @@
         <v>426</v>
       </c>
       <c r="B373" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="C373" t="s">
         <v>5</v>
@@ -5741,7 +5777,7 @@
         <v>427</v>
       </c>
       <c r="B374" t="s">
-        <v>332</v>
+        <v>304</v>
       </c>
       <c r="C374" t="s">
         <v>5</v>
@@ -5752,7 +5788,7 @@
         <v>428</v>
       </c>
       <c r="B375" t="s">
-        <v>332</v>
+        <v>300</v>
       </c>
       <c r="C375" t="s">
         <v>5</v>
@@ -5763,9 +5799,141 @@
         <v>429</v>
       </c>
       <c r="B376" t="s">
-        <v>332</v>
+        <v>302</v>
       </c>
       <c r="C376" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="s">
+        <v>430</v>
+      </c>
+      <c r="B377" t="s">
+        <v>300</v>
+      </c>
+      <c r="C377" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="s">
+        <v>431</v>
+      </c>
+      <c r="B378" t="s">
+        <v>300</v>
+      </c>
+      <c r="C378" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="s">
+        <v>432</v>
+      </c>
+      <c r="B379" t="s">
+        <v>304</v>
+      </c>
+      <c r="C379" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="s">
+        <v>433</v>
+      </c>
+      <c r="B380" t="s">
+        <v>302</v>
+      </c>
+      <c r="C380" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="s">
+        <v>434</v>
+      </c>
+      <c r="B381" t="s">
+        <v>302</v>
+      </c>
+      <c r="C381" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="s">
+        <v>435</v>
+      </c>
+      <c r="B382" t="s">
+        <v>387</v>
+      </c>
+      <c r="C382" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="s">
+        <v>436</v>
+      </c>
+      <c r="B383" t="s">
+        <v>370</v>
+      </c>
+      <c r="C383" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="s">
+        <v>437</v>
+      </c>
+      <c r="B384" t="s">
+        <v>370</v>
+      </c>
+      <c r="C384" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="s">
+        <v>438</v>
+      </c>
+      <c r="B385" t="s">
+        <v>344</v>
+      </c>
+      <c r="C385" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="s">
+        <v>439</v>
+      </c>
+      <c r="B386" t="s">
+        <v>344</v>
+      </c>
+      <c r="C386" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="s">
+        <v>440</v>
+      </c>
+      <c r="B387" t="s">
+        <v>344</v>
+      </c>
+      <c r="C387" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="s">
+        <v>441</v>
+      </c>
+      <c r="B388" t="s">
+        <v>344</v>
+      </c>
+      <c r="C388" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/GreatLink/GreatLink Multi-Sector Income.xlsx
+++ b/data/GreatLink/GreatLink Multi-Sector Income.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid178924"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid662590"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="463">
   <si>
     <t>Price Date</t>
   </si>
@@ -26,21 +26,99 @@
     <t>Currency - Unit Level</t>
   </si>
   <si>
+    <t>03/12/2025</t>
+  </si>
+  <si>
+    <t>0.929</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>02/12/2025</t>
+  </si>
+  <si>
+    <t>0.927</t>
+  </si>
+  <si>
+    <t>01/12/2025</t>
+  </si>
+  <si>
+    <t>28/11/2025</t>
+  </si>
+  <si>
+    <t>27/11/2025</t>
+  </si>
+  <si>
+    <t>0.934</t>
+  </si>
+  <si>
+    <t>26/11/2025</t>
+  </si>
+  <si>
+    <t>25/11/2025</t>
+  </si>
+  <si>
+    <t>0.933</t>
+  </si>
+  <si>
+    <t>24/11/2025</t>
+  </si>
+  <si>
+    <t>0.931</t>
+  </si>
+  <si>
+    <t>21/11/2025</t>
+  </si>
+  <si>
+    <t>0.930</t>
+  </si>
+  <si>
+    <t>20/11/2025</t>
+  </si>
+  <si>
+    <t>19/11/2025</t>
+  </si>
+  <si>
+    <t>0.928</t>
+  </si>
+  <si>
+    <t>18/11/2025</t>
+  </si>
+  <si>
+    <t>17/11/2025</t>
+  </si>
+  <si>
+    <t>14/11/2025</t>
+  </si>
+  <si>
+    <t>13/11/2025</t>
+  </si>
+  <si>
+    <t>12/11/2025</t>
+  </si>
+  <si>
+    <t>11/11/2025</t>
+  </si>
+  <si>
+    <t>10/11/2025</t>
+  </si>
+  <si>
+    <t>07/11/2025</t>
+  </si>
+  <si>
+    <t>06/11/2025</t>
+  </si>
+  <si>
+    <t>05/11/2025</t>
+  </si>
+  <si>
     <t>04/11/2025</t>
   </si>
   <si>
-    <t>0.931</t>
-  </si>
-  <si>
-    <t>SGD</t>
-  </si>
-  <si>
     <t>03/11/2025</t>
   </si>
   <si>
-    <t>0.930</t>
-  </si>
-  <si>
     <t>31/10/2025</t>
   </si>
   <si>
@@ -92,9 +170,6 @@
     <t>15/10/2025</t>
   </si>
   <si>
-    <t>0.933</t>
-  </si>
-  <si>
     <t>14/10/2025</t>
   </si>
   <si>
@@ -107,21 +182,12 @@
     <t>10/10/2025</t>
   </si>
   <si>
-    <t>0.929</t>
-  </si>
-  <si>
     <t>09/10/2025</t>
   </si>
   <si>
-    <t>0.927</t>
-  </si>
-  <si>
     <t>08/10/2025</t>
   </si>
   <si>
-    <t>0.928</t>
-  </si>
-  <si>
     <t>07/10/2025</t>
   </si>
   <si>
@@ -153,9 +219,6 @@
   </si>
   <si>
     <t>23/09/2025</t>
-  </si>
-  <si>
-    <t>0.934</t>
   </si>
   <si>
     <t>22/09/2025</t>
@@ -1718,7 +1781,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -1740,7 +1803,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1748,10 +1811,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
         <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -1759,10 +1822,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
         <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -1770,10 +1833,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
         <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -1784,7 +1847,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -1795,7 +1858,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -1803,10 +1866,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -1817,7 +1880,7 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -1828,7 +1891,7 @@
         <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -1836,10 +1899,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -1847,10 +1910,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -1858,10 +1921,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -1869,10 +1932,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -1880,10 +1943,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -1891,10 +1954,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -1902,10 +1965,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -1913,10 +1976,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -1924,10 +1987,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -1935,10 +1998,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -1946,10 +2009,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -1957,10 +2020,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -1968,10 +2031,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -1979,10 +2042,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -1990,10 +2053,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -2001,10 +2064,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -2012,10 +2075,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -2023,10 +2086,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B33" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -2034,10 +2097,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B34" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -2045,10 +2108,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B35" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -2056,10 +2119,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B36" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -2067,7 +2130,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B37" t="s">
         <v>52</v>
@@ -2078,10 +2141,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B38" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -2089,10 +2152,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B39" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -2100,10 +2163,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B40" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -2111,10 +2174,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B41" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -2122,10 +2185,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B42" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -2133,10 +2196,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B43" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -2144,10 +2207,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B44" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -2155,10 +2218,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B45" t="s">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -2166,10 +2229,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B46" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -2177,10 +2240,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B47" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -2188,10 +2251,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B48" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -2199,10 +2262,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B49" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -2210,10 +2273,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B50" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -2221,10 +2284,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B51" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -2232,10 +2295,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -2243,10 +2306,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B53" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -2254,10 +2317,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B54" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -2265,10 +2328,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B55" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -2276,10 +2339,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B56" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -2287,10 +2350,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B57" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -2298,10 +2361,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -2309,10 +2372,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B59" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -2320,10 +2383,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B60" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -2331,10 +2394,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B61" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -2342,10 +2405,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B62" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -2353,10 +2416,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B63" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -2364,10 +2427,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B64" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -2375,10 +2438,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B65" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -2386,10 +2449,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B66" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -2397,10 +2460,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
+        <v>84</v>
+      </c>
+      <c r="B67" t="s">
         <v>85</v>
-      </c>
-      <c r="B67" t="s">
-        <v>34</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -2411,7 +2474,7 @@
         <v>86</v>
       </c>
       <c r="B68" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -2422,7 +2485,7 @@
         <v>87</v>
       </c>
       <c r="B69" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -2430,10 +2493,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B70" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -2441,10 +2504,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B71" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -2452,10 +2515,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B72" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -2463,10 +2526,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B73" t="s">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -2474,10 +2537,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B74" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -2485,10 +2548,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B75" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -2496,10 +2559,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B76" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -2507,10 +2570,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B77" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -2518,10 +2581,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B78" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -2529,10 +2592,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B79" t="s">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -2540,10 +2603,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B80" t="s">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -2551,10 +2614,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B81" t="s">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -2562,10 +2625,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B82" t="s">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -2573,10 +2636,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B83" t="s">
-        <v>98</v>
+        <v>7</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -2584,10 +2647,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B84" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -2595,10 +2658,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B85" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -2606,10 +2669,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B86" t="s">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -2617,10 +2680,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B87" t="s">
-        <v>110</v>
+        <v>21</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -2628,10 +2691,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B88" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -2639,10 +2702,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B89" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -2650,10 +2713,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B90" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -2661,10 +2724,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B91" t="s">
-        <v>34</v>
+        <v>109</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -2672,10 +2735,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B92" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -2683,10 +2746,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -2694,10 +2757,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B94" t="s">
-        <v>4</v>
+        <v>109</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -2705,10 +2768,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B95" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -2716,10 +2779,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B96" t="s">
-        <v>34</v>
+        <v>109</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -2727,10 +2790,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B97" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -2738,10 +2801,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B98" t="s">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -2749,10 +2812,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B99" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
@@ -2760,10 +2823,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B100" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
@@ -2771,10 +2834,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B101" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -2782,10 +2845,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B102" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
@@ -2793,10 +2856,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B103" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -2804,10 +2867,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B104" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -2815,10 +2878,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B105" t="s">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -2826,10 +2889,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B106" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
@@ -2837,10 +2900,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B107" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -2848,10 +2911,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B108" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -2859,10 +2922,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B109" t="s">
-        <v>136</v>
+        <v>83</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -2870,10 +2933,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B110" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -2881,10 +2944,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B111" t="s">
-        <v>132</v>
+        <v>83</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -2892,10 +2955,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B112" t="s">
-        <v>140</v>
+        <v>21</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -2903,10 +2966,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B113" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -2914,10 +2977,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B114" t="s">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -2925,10 +2988,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B115" t="s">
-        <v>132</v>
+        <v>16</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -2936,10 +2999,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B116" t="s">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -2947,10 +3010,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B117" t="s">
-        <v>134</v>
+        <v>21</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
@@ -2958,10 +3021,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B118" t="s">
-        <v>134</v>
+        <v>85</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -2969,10 +3032,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B119" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -2980,10 +3043,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B120" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -2991,10 +3054,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B121" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -3002,10 +3065,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B122" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -3013,10 +3076,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B123" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -3024,10 +3087,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B124" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -3035,10 +3098,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B125" t="s">
-        <v>148</v>
+        <v>109</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -3046,10 +3109,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B126" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
@@ -3057,10 +3120,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B127" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
@@ -3068,10 +3131,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B128" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
@@ -3079,10 +3142,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B129" t="s">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -3090,10 +3153,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B130" t="s">
-        <v>132</v>
+        <v>157</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -3101,10 +3164,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B131" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -3112,10 +3175,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B132" t="s">
-        <v>103</v>
+        <v>153</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
@@ -3123,10 +3186,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B133" t="s">
-        <v>30</v>
+        <v>161</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
@@ -3134,10 +3197,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B134" t="s">
-        <v>30</v>
+        <v>143</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
@@ -3145,10 +3208,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B135" t="s">
-        <v>34</v>
+        <v>121</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
@@ -3156,10 +3219,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B136" t="s">
-        <v>62</v>
+        <v>153</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -3167,10 +3230,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B137" t="s">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
@@ -3178,10 +3241,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B138" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
@@ -3189,10 +3252,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B139" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -3200,10 +3263,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B140" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
@@ -3211,10 +3274,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B141" t="s">
-        <v>136</v>
+        <v>171</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
@@ -3222,10 +3285,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B142" t="s">
-        <v>103</v>
+        <v>153</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
@@ -3233,10 +3296,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B143" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -3244,10 +3307,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B144" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
@@ -3255,10 +3318,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B145" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
@@ -3266,10 +3329,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B146" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C146" t="s">
         <v>5</v>
@@ -3277,10 +3340,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B147" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
@@ -3288,10 +3351,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B148" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
@@ -3299,10 +3362,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B149" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
@@ -3310,10 +3373,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B150" t="s">
-        <v>30</v>
+        <v>121</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
@@ -3321,10 +3384,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B151" t="s">
-        <v>25</v>
+        <v>153</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
@@ -3332,10 +3395,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B152" t="s">
-        <v>27</v>
+        <v>161</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
@@ -3343,10 +3406,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B153" t="s">
-        <v>11</v>
+        <v>124</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
@@ -3354,10 +3417,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B154" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
@@ -3365,10 +3428,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B155" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="C155" t="s">
         <v>5</v>
@@ -3376,10 +3439,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B156" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="C156" t="s">
         <v>5</v>
@@ -3387,10 +3450,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B157" t="s">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
@@ -3398,10 +3461,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B158" t="s">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
@@ -3409,10 +3472,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B159" t="s">
-        <v>52</v>
+        <v>157</v>
       </c>
       <c r="C159" t="s">
         <v>5</v>
@@ -3420,10 +3483,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B160" t="s">
-        <v>17</v>
+        <v>161</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
@@ -3431,10 +3494,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B161" t="s">
-        <v>11</v>
+        <v>192</v>
       </c>
       <c r="C161" t="s">
         <v>5</v>
@@ -3442,10 +3505,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B162" t="s">
-        <v>52</v>
+        <v>157</v>
       </c>
       <c r="C162" t="s">
         <v>5</v>
@@ -3453,10 +3516,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B163" t="s">
-        <v>22</v>
+        <v>124</v>
       </c>
       <c r="C163" t="s">
         <v>5</v>
@@ -3464,10 +3527,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B164" t="s">
-        <v>22</v>
+        <v>153</v>
       </c>
       <c r="C164" t="s">
         <v>5</v>
@@ -3475,10 +3538,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B165" t="s">
-        <v>46</v>
+        <v>155</v>
       </c>
       <c r="C165" t="s">
         <v>5</v>
@@ -3486,10 +3549,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B166" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
@@ -3497,10 +3560,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
+        <v>199</v>
+      </c>
+      <c r="B167" t="s">
         <v>200</v>
-      </c>
-      <c r="B167" t="s">
-        <v>46</v>
       </c>
       <c r="C167" t="s">
         <v>5</v>
@@ -3511,7 +3574,7 @@
         <v>201</v>
       </c>
       <c r="B168" t="s">
-        <v>52</v>
+        <v>155</v>
       </c>
       <c r="C168" t="s">
         <v>5</v>
@@ -3522,7 +3585,7 @@
         <v>202</v>
       </c>
       <c r="B169" t="s">
-        <v>22</v>
+        <v>192</v>
       </c>
       <c r="C169" t="s">
         <v>5</v>
@@ -3533,7 +3596,7 @@
         <v>203</v>
       </c>
       <c r="B170" t="s">
-        <v>22</v>
+        <v>157</v>
       </c>
       <c r="C170" t="s">
         <v>5</v>
@@ -3544,7 +3607,7 @@
         <v>204</v>
       </c>
       <c r="B171" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C171" t="s">
         <v>5</v>
@@ -3555,7 +3618,7 @@
         <v>205</v>
       </c>
       <c r="B172" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="C172" t="s">
         <v>5</v>
@@ -3577,7 +3640,7 @@
         <v>207</v>
       </c>
       <c r="B174" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="C174" t="s">
         <v>5</v>
@@ -3588,7 +3651,7 @@
         <v>208</v>
       </c>
       <c r="B175" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="C175" t="s">
         <v>5</v>
@@ -3599,7 +3662,7 @@
         <v>209</v>
       </c>
       <c r="B176" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C176" t="s">
         <v>5</v>
@@ -3610,7 +3673,7 @@
         <v>210</v>
       </c>
       <c r="B177" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C177" t="s">
         <v>5</v>
@@ -3621,7 +3684,7 @@
         <v>211</v>
       </c>
       <c r="B178" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="C178" t="s">
         <v>5</v>
@@ -3632,7 +3695,7 @@
         <v>212</v>
       </c>
       <c r="B179" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="C179" t="s">
         <v>5</v>
@@ -3643,7 +3706,7 @@
         <v>213</v>
       </c>
       <c r="B180" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="C180" t="s">
         <v>5</v>
@@ -3654,7 +3717,7 @@
         <v>214</v>
       </c>
       <c r="B181" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="C181" t="s">
         <v>5</v>
@@ -3665,7 +3728,7 @@
         <v>215</v>
       </c>
       <c r="B182" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C182" t="s">
         <v>5</v>
@@ -3676,7 +3739,7 @@
         <v>216</v>
       </c>
       <c r="B183" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="C183" t="s">
         <v>5</v>
@@ -3687,7 +3750,7 @@
         <v>217</v>
       </c>
       <c r="B184" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C184" t="s">
         <v>5</v>
@@ -3698,7 +3761,7 @@
         <v>218</v>
       </c>
       <c r="B185" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="C185" t="s">
         <v>5</v>
@@ -3709,7 +3772,7 @@
         <v>219</v>
       </c>
       <c r="B186" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="C186" t="s">
         <v>5</v>
@@ -3720,7 +3783,7 @@
         <v>220</v>
       </c>
       <c r="B187" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C187" t="s">
         <v>5</v>
@@ -3731,7 +3794,7 @@
         <v>221</v>
       </c>
       <c r="B188" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C188" t="s">
         <v>5</v>
@@ -3742,7 +3805,7 @@
         <v>222</v>
       </c>
       <c r="B189" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="C189" t="s">
         <v>5</v>
@@ -3753,7 +3816,7 @@
         <v>223</v>
       </c>
       <c r="B190" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="C190" t="s">
         <v>5</v>
@@ -3764,7 +3827,7 @@
         <v>224</v>
       </c>
       <c r="B191" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="C191" t="s">
         <v>5</v>
@@ -3775,7 +3838,7 @@
         <v>225</v>
       </c>
       <c r="B192" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C192" t="s">
         <v>5</v>
@@ -3786,7 +3849,7 @@
         <v>226</v>
       </c>
       <c r="B193" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="C193" t="s">
         <v>5</v>
@@ -3797,7 +3860,7 @@
         <v>227</v>
       </c>
       <c r="B194" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C194" t="s">
         <v>5</v>
@@ -3808,7 +3871,7 @@
         <v>228</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="C195" t="s">
         <v>5</v>
@@ -3819,7 +3882,7 @@
         <v>229</v>
       </c>
       <c r="B196" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C196" t="s">
         <v>5</v>
@@ -3830,7 +3893,7 @@
         <v>230</v>
       </c>
       <c r="B197" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C197" t="s">
         <v>5</v>
@@ -3841,7 +3904,7 @@
         <v>231</v>
       </c>
       <c r="B198" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="C198" t="s">
         <v>5</v>
@@ -3852,7 +3915,7 @@
         <v>232</v>
       </c>
       <c r="B199" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="C199" t="s">
         <v>5</v>
@@ -3863,7 +3926,7 @@
         <v>233</v>
       </c>
       <c r="B200" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C200" t="s">
         <v>5</v>
@@ -3874,7 +3937,7 @@
         <v>234</v>
       </c>
       <c r="B201" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="C201" t="s">
         <v>5</v>
@@ -3885,7 +3948,7 @@
         <v>235</v>
       </c>
       <c r="B202" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C202" t="s">
         <v>5</v>
@@ -3896,7 +3959,7 @@
         <v>236</v>
       </c>
       <c r="B203" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C203" t="s">
         <v>5</v>
@@ -3907,7 +3970,7 @@
         <v>237</v>
       </c>
       <c r="B204" t="s">
-        <v>122</v>
+        <v>11</v>
       </c>
       <c r="C204" t="s">
         <v>5</v>
@@ -3918,7 +3981,7 @@
         <v>238</v>
       </c>
       <c r="B205" t="s">
-        <v>140</v>
+        <v>11</v>
       </c>
       <c r="C205" t="s">
         <v>5</v>
@@ -3929,7 +3992,7 @@
         <v>239</v>
       </c>
       <c r="B206" t="s">
-        <v>134</v>
+        <v>16</v>
       </c>
       <c r="C206" t="s">
         <v>5</v>
@@ -3940,7 +4003,7 @@
         <v>240</v>
       </c>
       <c r="B207" t="s">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="C207" t="s">
         <v>5</v>
@@ -3951,7 +4014,7 @@
         <v>241</v>
       </c>
       <c r="B208" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="C208" t="s">
         <v>5</v>
@@ -3962,7 +4025,7 @@
         <v>242</v>
       </c>
       <c r="B209" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="C209" t="s">
         <v>5</v>
@@ -3973,7 +4036,7 @@
         <v>243</v>
       </c>
       <c r="B210" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="C210" t="s">
         <v>5</v>
@@ -3984,7 +4047,7 @@
         <v>244</v>
       </c>
       <c r="B211" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C211" t="s">
         <v>5</v>
@@ -3995,7 +4058,7 @@
         <v>245</v>
       </c>
       <c r="B212" t="s">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="C212" t="s">
         <v>5</v>
@@ -4006,7 +4069,7 @@
         <v>246</v>
       </c>
       <c r="B213" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="C213" t="s">
         <v>5</v>
@@ -4017,7 +4080,7 @@
         <v>247</v>
       </c>
       <c r="B214" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C214" t="s">
         <v>5</v>
@@ -4028,7 +4091,7 @@
         <v>248</v>
       </c>
       <c r="B215" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="C215" t="s">
         <v>5</v>
@@ -4039,7 +4102,7 @@
         <v>249</v>
       </c>
       <c r="B216" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="C216" t="s">
         <v>5</v>
@@ -4050,7 +4113,7 @@
         <v>250</v>
       </c>
       <c r="B217" t="s">
-        <v>88</v>
+        <v>4</v>
       </c>
       <c r="C217" t="s">
         <v>5</v>
@@ -4061,7 +4124,7 @@
         <v>251</v>
       </c>
       <c r="B218" t="s">
-        <v>88</v>
+        <v>7</v>
       </c>
       <c r="C218" t="s">
         <v>5</v>
@@ -4072,7 +4135,7 @@
         <v>252</v>
       </c>
       <c r="B219" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C219" t="s">
         <v>5</v>
@@ -4083,7 +4146,7 @@
         <v>253</v>
       </c>
       <c r="B220" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="C220" t="s">
         <v>5</v>
@@ -4094,7 +4157,7 @@
         <v>254</v>
       </c>
       <c r="B221" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C221" t="s">
         <v>5</v>
@@ -4105,7 +4168,7 @@
         <v>255</v>
       </c>
       <c r="B222" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="C222" t="s">
         <v>5</v>
@@ -4116,7 +4179,7 @@
         <v>256</v>
       </c>
       <c r="B223" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="C223" t="s">
         <v>5</v>
@@ -4127,7 +4190,7 @@
         <v>257</v>
       </c>
       <c r="B224" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="C224" t="s">
         <v>5</v>
@@ -4138,7 +4201,7 @@
         <v>258</v>
       </c>
       <c r="B225" t="s">
-        <v>25</v>
+        <v>143</v>
       </c>
       <c r="C225" t="s">
         <v>5</v>
@@ -4149,7 +4212,7 @@
         <v>259</v>
       </c>
       <c r="B226" t="s">
-        <v>52</v>
+        <v>161</v>
       </c>
       <c r="C226" t="s">
         <v>5</v>
@@ -4160,7 +4223,7 @@
         <v>260</v>
       </c>
       <c r="B227" t="s">
-        <v>17</v>
+        <v>155</v>
       </c>
       <c r="C227" t="s">
         <v>5</v>
@@ -4171,7 +4234,7 @@
         <v>261</v>
       </c>
       <c r="B228" t="s">
-        <v>15</v>
+        <v>161</v>
       </c>
       <c r="C228" t="s">
         <v>5</v>
@@ -4182,7 +4245,7 @@
         <v>262</v>
       </c>
       <c r="B229" t="s">
-        <v>15</v>
+        <v>143</v>
       </c>
       <c r="C229" t="s">
         <v>5</v>
@@ -4193,7 +4256,7 @@
         <v>263</v>
       </c>
       <c r="B230" t="s">
-        <v>13</v>
+        <v>143</v>
       </c>
       <c r="C230" t="s">
         <v>5</v>
@@ -4204,7 +4267,7 @@
         <v>264</v>
       </c>
       <c r="B231" t="s">
-        <v>15</v>
+        <v>143</v>
       </c>
       <c r="C231" t="s">
         <v>5</v>
@@ -4215,7 +4278,7 @@
         <v>265</v>
       </c>
       <c r="B232" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="C232" t="s">
         <v>5</v>
@@ -4226,7 +4289,7 @@
         <v>266</v>
       </c>
       <c r="B233" t="s">
-        <v>11</v>
+        <v>131</v>
       </c>
       <c r="C233" t="s">
         <v>5</v>
@@ -4237,7 +4300,7 @@
         <v>267</v>
       </c>
       <c r="B234" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="C234" t="s">
         <v>5</v>
@@ -4248,7 +4311,7 @@
         <v>268</v>
       </c>
       <c r="B235" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C235" t="s">
         <v>5</v>
@@ -4259,7 +4322,7 @@
         <v>269</v>
       </c>
       <c r="B236" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C236" t="s">
         <v>5</v>
@@ -4270,7 +4333,7 @@
         <v>270</v>
       </c>
       <c r="B237" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="C237" t="s">
         <v>5</v>
@@ -4281,7 +4344,7 @@
         <v>271</v>
       </c>
       <c r="B238" t="s">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="C238" t="s">
         <v>5</v>
@@ -4292,7 +4355,7 @@
         <v>272</v>
       </c>
       <c r="B239" t="s">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="C239" t="s">
         <v>5</v>
@@ -4303,7 +4366,7 @@
         <v>273</v>
       </c>
       <c r="B240" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="C240" t="s">
         <v>5</v>
@@ -4314,7 +4377,7 @@
         <v>274</v>
       </c>
       <c r="B241" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="C241" t="s">
         <v>5</v>
@@ -4325,7 +4388,7 @@
         <v>275</v>
       </c>
       <c r="B242" t="s">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="C242" t="s">
         <v>5</v>
@@ -4336,7 +4399,7 @@
         <v>276</v>
       </c>
       <c r="B243" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C243" t="s">
         <v>5</v>
@@ -4347,7 +4410,7 @@
         <v>277</v>
       </c>
       <c r="B244" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="C244" t="s">
         <v>5</v>
@@ -4358,7 +4421,7 @@
         <v>278</v>
       </c>
       <c r="B245" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C245" t="s">
         <v>5</v>
@@ -4369,7 +4432,7 @@
         <v>279</v>
       </c>
       <c r="B246" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C246" t="s">
         <v>5</v>
@@ -4380,7 +4443,7 @@
         <v>280</v>
       </c>
       <c r="B247" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="C247" t="s">
         <v>5</v>
@@ -4391,7 +4454,7 @@
         <v>281</v>
       </c>
       <c r="B248" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="C248" t="s">
         <v>5</v>
@@ -4402,7 +4465,7 @@
         <v>282</v>
       </c>
       <c r="B249" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="C249" t="s">
         <v>5</v>
@@ -4413,7 +4476,7 @@
         <v>283</v>
       </c>
       <c r="B250" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C250" t="s">
         <v>5</v>
@@ -4424,7 +4487,7 @@
         <v>284</v>
       </c>
       <c r="B251" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="C251" t="s">
         <v>5</v>
@@ -4435,7 +4498,7 @@
         <v>285</v>
       </c>
       <c r="B252" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="C252" t="s">
         <v>5</v>
@@ -4446,7 +4509,7 @@
         <v>286</v>
       </c>
       <c r="B253" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="C253" t="s">
         <v>5</v>
@@ -4457,7 +4520,7 @@
         <v>287</v>
       </c>
       <c r="B254" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C254" t="s">
         <v>5</v>
@@ -4468,7 +4531,7 @@
         <v>288</v>
       </c>
       <c r="B255" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C255" t="s">
         <v>5</v>
@@ -4479,7 +4542,7 @@
         <v>289</v>
       </c>
       <c r="B256" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C256" t="s">
         <v>5</v>
@@ -4490,7 +4553,7 @@
         <v>290</v>
       </c>
       <c r="B257" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C257" t="s">
         <v>5</v>
@@ -4501,7 +4564,7 @@
         <v>291</v>
       </c>
       <c r="B258" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="C258" t="s">
         <v>5</v>
@@ -4512,7 +4575,7 @@
         <v>292</v>
       </c>
       <c r="B259" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="C259" t="s">
         <v>5</v>
@@ -4523,7 +4586,7 @@
         <v>293</v>
       </c>
       <c r="B260" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="C260" t="s">
         <v>5</v>
@@ -4534,7 +4597,7 @@
         <v>294</v>
       </c>
       <c r="B261" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C261" t="s">
         <v>5</v>
@@ -4545,7 +4608,7 @@
         <v>295</v>
       </c>
       <c r="B262" t="s">
-        <v>296</v>
+        <v>52</v>
       </c>
       <c r="C262" t="s">
         <v>5</v>
@@ -4553,10 +4616,10 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B263" t="s">
-        <v>298</v>
+        <v>52</v>
       </c>
       <c r="C263" t="s">
         <v>5</v>
@@ -4564,10 +4627,10 @@
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B264" t="s">
-        <v>300</v>
+        <v>14</v>
       </c>
       <c r="C264" t="s">
         <v>5</v>
@@ -4575,10 +4638,10 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B265" t="s">
-        <v>302</v>
+        <v>14</v>
       </c>
       <c r="C265" t="s">
         <v>5</v>
@@ -4586,10 +4649,10 @@
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B266" t="s">
-        <v>304</v>
+        <v>52</v>
       </c>
       <c r="C266" t="s">
         <v>5</v>
@@ -4597,10 +4660,10 @@
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B267" t="s">
-        <v>300</v>
+        <v>52</v>
       </c>
       <c r="C267" t="s">
         <v>5</v>
@@ -4608,10 +4671,10 @@
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B268" t="s">
-        <v>302</v>
+        <v>52</v>
       </c>
       <c r="C268" t="s">
         <v>5</v>
@@ -4619,10 +4682,10 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B269" t="s">
-        <v>300</v>
+        <v>52</v>
       </c>
       <c r="C269" t="s">
         <v>5</v>
@@ -4630,10 +4693,10 @@
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B270" t="s">
-        <v>302</v>
+        <v>37</v>
       </c>
       <c r="C270" t="s">
         <v>5</v>
@@ -4641,10 +4704,10 @@
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B271" t="s">
-        <v>302</v>
+        <v>43</v>
       </c>
       <c r="C271" t="s">
         <v>5</v>
@@ -4652,10 +4715,10 @@
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B272" t="s">
-        <v>302</v>
+        <v>37</v>
       </c>
       <c r="C272" t="s">
         <v>5</v>
@@ -4663,10 +4726,10 @@
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B273" t="s">
-        <v>302</v>
+        <v>16</v>
       </c>
       <c r="C273" t="s">
         <v>5</v>
@@ -4674,10 +4737,10 @@
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B274" t="s">
-        <v>300</v>
+        <v>16</v>
       </c>
       <c r="C274" t="s">
         <v>5</v>
@@ -4685,10 +4748,10 @@
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="B275" t="s">
-        <v>314</v>
+        <v>18</v>
       </c>
       <c r="C275" t="s">
         <v>5</v>
@@ -4696,10 +4759,10 @@
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="B276" t="s">
-        <v>316</v>
+        <v>14</v>
       </c>
       <c r="C276" t="s">
         <v>5</v>
@@ -4707,10 +4770,10 @@
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="B277" t="s">
-        <v>316</v>
+        <v>73</v>
       </c>
       <c r="C277" t="s">
         <v>5</v>
@@ -4718,10 +4781,10 @@
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="B278" t="s">
-        <v>319</v>
+        <v>43</v>
       </c>
       <c r="C278" t="s">
         <v>5</v>
@@ -4729,10 +4792,10 @@
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="B279" t="s">
-        <v>321</v>
+        <v>37</v>
       </c>
       <c r="C279" t="s">
         <v>5</v>
@@ -4740,10 +4803,10 @@
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="B280" t="s">
-        <v>323</v>
+        <v>41</v>
       </c>
       <c r="C280" t="s">
         <v>5</v>
@@ -4751,10 +4814,10 @@
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="B281" t="s">
-        <v>319</v>
+        <v>41</v>
       </c>
       <c r="C281" t="s">
         <v>5</v>
@@ -4762,10 +4825,10 @@
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="B282" t="s">
-        <v>326</v>
+        <v>43</v>
       </c>
       <c r="C282" t="s">
         <v>5</v>
@@ -4773,10 +4836,10 @@
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="B283" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C283" t="s">
         <v>5</v>
@@ -4784,10 +4847,10 @@
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="B284" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="C284" t="s">
         <v>5</v>
@@ -4795,10 +4858,10 @@
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="B285" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C285" t="s">
         <v>5</v>
@@ -4806,10 +4869,10 @@
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="B286" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C286" t="s">
         <v>5</v>
@@ -4817,10 +4880,10 @@
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B287" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C287" t="s">
         <v>5</v>
@@ -4828,7 +4891,7 @@
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B288" t="s">
         <v>321</v>
@@ -4839,10 +4902,10 @@
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="B289" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C289" t="s">
         <v>5</v>
@@ -4850,10 +4913,10 @@
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B290" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="C290" t="s">
         <v>5</v>
@@ -4861,10 +4924,10 @@
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B291" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="C291" t="s">
         <v>5</v>
@@ -4872,10 +4935,10 @@
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B292" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="C292" t="s">
         <v>5</v>
@@ -4883,10 +4946,10 @@
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="B293" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="C293" t="s">
         <v>5</v>
@@ -4894,10 +4957,10 @@
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="B294" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="C294" t="s">
         <v>5</v>
@@ -4905,10 +4968,10 @@
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="B295" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="C295" t="s">
         <v>5</v>
@@ -4916,10 +4979,10 @@
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="B296" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="C296" t="s">
         <v>5</v>
@@ -4927,10 +4990,10 @@
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="B297" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="C297" t="s">
         <v>5</v>
@@ -4938,10 +5001,10 @@
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="B298" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="C298" t="s">
         <v>5</v>
@@ -4949,10 +5012,10 @@
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="B299" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C299" t="s">
         <v>5</v>
@@ -4960,10 +5023,10 @@
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="B300" t="s">
-        <v>316</v>
+        <v>342</v>
       </c>
       <c r="C300" t="s">
         <v>5</v>
@@ -4971,10 +5034,10 @@
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="B301" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="C301" t="s">
         <v>5</v>
@@ -4982,10 +5045,10 @@
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="B302" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="C302" t="s">
         <v>5</v>
@@ -4993,10 +5056,10 @@
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="B303" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="C303" t="s">
         <v>5</v>
@@ -5004,10 +5067,10 @@
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="B304" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="C304" t="s">
         <v>5</v>
@@ -5015,10 +5078,10 @@
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="B305" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="C305" t="s">
         <v>5</v>
@@ -5026,10 +5089,10 @@
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="B306" t="s">
-        <v>316</v>
+        <v>347</v>
       </c>
       <c r="C306" t="s">
         <v>5</v>
@@ -5037,10 +5100,10 @@
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="B307" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C307" t="s">
         <v>5</v>
@@ -5048,10 +5111,10 @@
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="B308" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C308" t="s">
         <v>5</v>
@@ -5059,10 +5122,10 @@
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="B309" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C309" t="s">
         <v>5</v>
@@ -5070,10 +5133,10 @@
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="B310" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C310" t="s">
         <v>5</v>
@@ -5081,10 +5144,10 @@
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="B311" t="s">
-        <v>314</v>
+        <v>356</v>
       </c>
       <c r="C311" t="s">
         <v>5</v>
@@ -5092,10 +5155,10 @@
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B312" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="C312" t="s">
         <v>5</v>
@@ -5103,10 +5166,10 @@
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="B313" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="C313" t="s">
         <v>5</v>
@@ -5114,10 +5177,10 @@
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B314" t="s">
-        <v>302</v>
+        <v>337</v>
       </c>
       <c r="C314" t="s">
         <v>5</v>
@@ -5125,10 +5188,10 @@
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B315" t="s">
-        <v>302</v>
+        <v>362</v>
       </c>
       <c r="C315" t="s">
         <v>5</v>
@@ -5136,10 +5199,10 @@
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B316" t="s">
-        <v>300</v>
+        <v>335</v>
       </c>
       <c r="C316" t="s">
         <v>5</v>
@@ -5147,10 +5210,10 @@
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B317" t="s">
-        <v>300</v>
+        <v>365</v>
       </c>
       <c r="C317" t="s">
         <v>5</v>
@@ -5158,10 +5221,10 @@
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B318" t="s">
-        <v>314</v>
+        <v>367</v>
       </c>
       <c r="C318" t="s">
         <v>5</v>
@@ -5169,10 +5232,10 @@
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B319" t="s">
-        <v>370</v>
+        <v>325</v>
       </c>
       <c r="C319" t="s">
         <v>5</v>
@@ -5180,10 +5243,10 @@
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B320" t="s">
-        <v>316</v>
+        <v>362</v>
       </c>
       <c r="C320" t="s">
         <v>5</v>
@@ -5191,10 +5254,10 @@
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B321" t="s">
-        <v>370</v>
+        <v>337</v>
       </c>
       <c r="C321" t="s">
         <v>5</v>
@@ -5202,10 +5265,10 @@
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B322" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="C322" t="s">
         <v>5</v>
@@ -5213,10 +5276,10 @@
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B323" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="C323" t="s">
         <v>5</v>
@@ -5224,10 +5287,10 @@
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B324" t="s">
-        <v>304</v>
+        <v>356</v>
       </c>
       <c r="C324" t="s">
         <v>5</v>
@@ -5235,10 +5298,10 @@
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B325" t="s">
-        <v>300</v>
+        <v>356</v>
       </c>
       <c r="C325" t="s">
         <v>5</v>
@@ -5246,10 +5309,10 @@
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B326" t="s">
-        <v>304</v>
+        <v>362</v>
       </c>
       <c r="C326" t="s">
         <v>5</v>
@@ -5257,10 +5320,10 @@
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B327" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="C327" t="s">
         <v>5</v>
@@ -5268,10 +5331,10 @@
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B328" t="s">
-        <v>304</v>
+        <v>362</v>
       </c>
       <c r="C328" t="s">
         <v>5</v>
@@ -5279,10 +5342,10 @@
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B329" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="C329" t="s">
         <v>5</v>
@@ -5290,10 +5353,10 @@
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B330" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="C330" t="s">
         <v>5</v>
@@ -5301,10 +5364,10 @@
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B331" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="C331" t="s">
         <v>5</v>
@@ -5312,10 +5375,10 @@
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B332" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="C332" t="s">
         <v>5</v>
@@ -5323,10 +5386,10 @@
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B333" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="C333" t="s">
         <v>5</v>
@@ -5334,10 +5397,10 @@
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B334" t="s">
-        <v>304</v>
+        <v>367</v>
       </c>
       <c r="C334" t="s">
         <v>5</v>
@@ -5345,10 +5408,10 @@
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B335" t="s">
-        <v>387</v>
+        <v>323</v>
       </c>
       <c r="C335" t="s">
         <v>5</v>
@@ -5356,10 +5419,10 @@
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B336" t="s">
-        <v>389</v>
+        <v>323</v>
       </c>
       <c r="C336" t="s">
         <v>5</v>
@@ -5367,10 +5430,10 @@
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B337" t="s">
-        <v>298</v>
+        <v>321</v>
       </c>
       <c r="C337" t="s">
         <v>5</v>
@@ -5378,10 +5441,10 @@
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B338" t="s">
-        <v>296</v>
+        <v>321</v>
       </c>
       <c r="C338" t="s">
         <v>5</v>
@@ -5389,10 +5452,10 @@
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B339" t="s">
-        <v>17</v>
+        <v>335</v>
       </c>
       <c r="C339" t="s">
         <v>5</v>
@@ -5400,10 +5463,10 @@
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B340" t="s">
-        <v>17</v>
+        <v>391</v>
       </c>
       <c r="C340" t="s">
         <v>5</v>
@@ -5411,10 +5474,10 @@
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B341" t="s">
-        <v>22</v>
+        <v>337</v>
       </c>
       <c r="C341" t="s">
         <v>5</v>
@@ -5422,10 +5485,10 @@
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B342" t="s">
-        <v>46</v>
+        <v>391</v>
       </c>
       <c r="C342" t="s">
         <v>5</v>
@@ -5433,10 +5496,10 @@
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B343" t="s">
-        <v>298</v>
+        <v>391</v>
       </c>
       <c r="C343" t="s">
         <v>5</v>
@@ -5444,10 +5507,10 @@
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B344" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C344" t="s">
         <v>5</v>
@@ -5455,10 +5518,10 @@
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B345" t="s">
-        <v>389</v>
+        <v>325</v>
       </c>
       <c r="C345" t="s">
         <v>5</v>
@@ -5466,10 +5529,10 @@
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B346" t="s">
-        <v>302</v>
+        <v>321</v>
       </c>
       <c r="C346" t="s">
         <v>5</v>
@@ -5477,10 +5540,10 @@
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B347" t="s">
-        <v>302</v>
+        <v>325</v>
       </c>
       <c r="C347" t="s">
         <v>5</v>
@@ -5488,10 +5551,10 @@
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B348" t="s">
-        <v>302</v>
+        <v>325</v>
       </c>
       <c r="C348" t="s">
         <v>5</v>
@@ -5499,10 +5562,10 @@
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B349" t="s">
-        <v>302</v>
+        <v>325</v>
       </c>
       <c r="C349" t="s">
         <v>5</v>
@@ -5510,10 +5573,10 @@
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B350" t="s">
-        <v>302</v>
+        <v>367</v>
       </c>
       <c r="C350" t="s">
         <v>5</v>
@@ -5521,10 +5584,10 @@
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B351" t="s">
-        <v>302</v>
+        <v>391</v>
       </c>
       <c r="C351" t="s">
         <v>5</v>
@@ -5532,10 +5595,10 @@
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B352" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="C352" t="s">
         <v>5</v>
@@ -5543,10 +5606,10 @@
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B353" t="s">
-        <v>300</v>
+        <v>367</v>
       </c>
       <c r="C353" t="s">
         <v>5</v>
@@ -5554,10 +5617,10 @@
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B354" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="C354" t="s">
         <v>5</v>
@@ -5565,10 +5628,10 @@
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B355" t="s">
-        <v>298</v>
+        <v>325</v>
       </c>
       <c r="C355" t="s">
         <v>5</v>
@@ -5576,10 +5639,10 @@
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B356" t="s">
-        <v>13</v>
+        <v>408</v>
       </c>
       <c r="C356" t="s">
         <v>5</v>
@@ -5587,10 +5650,10 @@
     </row>
     <row r="357">
       <c r="A357" t="s">
+        <v>409</v>
+      </c>
+      <c r="B357" t="s">
         <v>410</v>
-      </c>
-      <c r="B357" t="s">
-        <v>296</v>
       </c>
       <c r="C357" t="s">
         <v>5</v>
@@ -5601,7 +5664,7 @@
         <v>411</v>
       </c>
       <c r="B358" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="C358" t="s">
         <v>5</v>
@@ -5612,7 +5675,7 @@
         <v>412</v>
       </c>
       <c r="B359" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="C359" t="s">
         <v>5</v>
@@ -5623,7 +5686,7 @@
         <v>413</v>
       </c>
       <c r="B360" t="s">
-        <v>302</v>
+        <v>43</v>
       </c>
       <c r="C360" t="s">
         <v>5</v>
@@ -5634,7 +5697,7 @@
         <v>414</v>
       </c>
       <c r="B361" t="s">
-        <v>387</v>
+        <v>43</v>
       </c>
       <c r="C361" t="s">
         <v>5</v>
@@ -5645,7 +5708,7 @@
         <v>415</v>
       </c>
       <c r="B362" t="s">
-        <v>300</v>
+        <v>48</v>
       </c>
       <c r="C362" t="s">
         <v>5</v>
@@ -5656,7 +5719,7 @@
         <v>416</v>
       </c>
       <c r="B363" t="s">
-        <v>387</v>
+        <v>11</v>
       </c>
       <c r="C363" t="s">
         <v>5</v>
@@ -5667,7 +5730,7 @@
         <v>417</v>
       </c>
       <c r="B364" t="s">
-        <v>389</v>
+        <v>319</v>
       </c>
       <c r="C364" t="s">
         <v>5</v>
@@ -5678,7 +5741,7 @@
         <v>418</v>
       </c>
       <c r="B365" t="s">
-        <v>300</v>
+        <v>410</v>
       </c>
       <c r="C365" t="s">
         <v>5</v>
@@ -5689,7 +5752,7 @@
         <v>419</v>
       </c>
       <c r="B366" t="s">
-        <v>304</v>
+        <v>410</v>
       </c>
       <c r="C366" t="s">
         <v>5</v>
@@ -5700,7 +5763,7 @@
         <v>420</v>
       </c>
       <c r="B367" t="s">
-        <v>304</v>
+        <v>323</v>
       </c>
       <c r="C367" t="s">
         <v>5</v>
@@ -5711,7 +5774,7 @@
         <v>421</v>
       </c>
       <c r="B368" t="s">
-        <v>300</v>
+        <v>323</v>
       </c>
       <c r="C368" t="s">
         <v>5</v>
@@ -5722,7 +5785,7 @@
         <v>422</v>
       </c>
       <c r="B369" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="C369" t="s">
         <v>5</v>
@@ -5733,7 +5796,7 @@
         <v>423</v>
       </c>
       <c r="B370" t="s">
-        <v>370</v>
+        <v>323</v>
       </c>
       <c r="C370" t="s">
         <v>5</v>
@@ -5744,7 +5807,7 @@
         <v>424</v>
       </c>
       <c r="B371" t="s">
-        <v>370</v>
+        <v>323</v>
       </c>
       <c r="C371" t="s">
         <v>5</v>
@@ -5755,7 +5818,7 @@
         <v>425</v>
       </c>
       <c r="B372" t="s">
-        <v>370</v>
+        <v>323</v>
       </c>
       <c r="C372" t="s">
         <v>5</v>
@@ -5766,7 +5829,7 @@
         <v>426</v>
       </c>
       <c r="B373" t="s">
-        <v>314</v>
+        <v>408</v>
       </c>
       <c r="C373" t="s">
         <v>5</v>
@@ -5777,7 +5840,7 @@
         <v>427</v>
       </c>
       <c r="B374" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="C374" t="s">
         <v>5</v>
@@ -5788,7 +5851,7 @@
         <v>428</v>
       </c>
       <c r="B375" t="s">
-        <v>300</v>
+        <v>408</v>
       </c>
       <c r="C375" t="s">
         <v>5</v>
@@ -5799,7 +5862,7 @@
         <v>429</v>
       </c>
       <c r="B376" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="C376" t="s">
         <v>5</v>
@@ -5810,7 +5873,7 @@
         <v>430</v>
       </c>
       <c r="B377" t="s">
-        <v>300</v>
+        <v>39</v>
       </c>
       <c r="C377" t="s">
         <v>5</v>
@@ -5821,7 +5884,7 @@
         <v>431</v>
       </c>
       <c r="B378" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="C378" t="s">
         <v>5</v>
@@ -5832,7 +5895,7 @@
         <v>432</v>
       </c>
       <c r="B379" t="s">
-        <v>304</v>
+        <v>323</v>
       </c>
       <c r="C379" t="s">
         <v>5</v>
@@ -5843,7 +5906,7 @@
         <v>433</v>
       </c>
       <c r="B380" t="s">
-        <v>302</v>
+        <v>321</v>
       </c>
       <c r="C380" t="s">
         <v>5</v>
@@ -5854,7 +5917,7 @@
         <v>434</v>
       </c>
       <c r="B381" t="s">
-        <v>302</v>
+        <v>323</v>
       </c>
       <c r="C381" t="s">
         <v>5</v>
@@ -5865,7 +5928,7 @@
         <v>435</v>
       </c>
       <c r="B382" t="s">
-        <v>387</v>
+        <v>408</v>
       </c>
       <c r="C382" t="s">
         <v>5</v>
@@ -5876,7 +5939,7 @@
         <v>436</v>
       </c>
       <c r="B383" t="s">
-        <v>370</v>
+        <v>321</v>
       </c>
       <c r="C383" t="s">
         <v>5</v>
@@ -5887,7 +5950,7 @@
         <v>437</v>
       </c>
       <c r="B384" t="s">
-        <v>370</v>
+        <v>408</v>
       </c>
       <c r="C384" t="s">
         <v>5</v>
@@ -5898,7 +5961,7 @@
         <v>438</v>
       </c>
       <c r="B385" t="s">
-        <v>344</v>
+        <v>410</v>
       </c>
       <c r="C385" t="s">
         <v>5</v>
@@ -5909,7 +5972,7 @@
         <v>439</v>
       </c>
       <c r="B386" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
       <c r="C386" t="s">
         <v>5</v>
@@ -5920,7 +5983,7 @@
         <v>440</v>
       </c>
       <c r="B387" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="C387" t="s">
         <v>5</v>
@@ -5931,9 +5994,240 @@
         <v>441</v>
       </c>
       <c r="B388" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="C388" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="s">
+        <v>442</v>
+      </c>
+      <c r="B389" t="s">
+        <v>321</v>
+      </c>
+      <c r="C389" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="s">
+        <v>443</v>
+      </c>
+      <c r="B390" t="s">
+        <v>365</v>
+      </c>
+      <c r="C390" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="s">
+        <v>444</v>
+      </c>
+      <c r="B391" t="s">
+        <v>391</v>
+      </c>
+      <c r="C391" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="s">
+        <v>445</v>
+      </c>
+      <c r="B392" t="s">
+        <v>391</v>
+      </c>
+      <c r="C392" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="s">
+        <v>446</v>
+      </c>
+      <c r="B393" t="s">
+        <v>391</v>
+      </c>
+      <c r="C393" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="s">
+        <v>447</v>
+      </c>
+      <c r="B394" t="s">
+        <v>335</v>
+      </c>
+      <c r="C394" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="s">
+        <v>448</v>
+      </c>
+      <c r="B395" t="s">
+        <v>325</v>
+      </c>
+      <c r="C395" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="s">
+        <v>449</v>
+      </c>
+      <c r="B396" t="s">
+        <v>321</v>
+      </c>
+      <c r="C396" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="s">
+        <v>450</v>
+      </c>
+      <c r="B397" t="s">
+        <v>323</v>
+      </c>
+      <c r="C397" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="s">
+        <v>451</v>
+      </c>
+      <c r="B398" t="s">
+        <v>321</v>
+      </c>
+      <c r="C398" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="s">
+        <v>452</v>
+      </c>
+      <c r="B399" t="s">
+        <v>321</v>
+      </c>
+      <c r="C399" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="s">
+        <v>453</v>
+      </c>
+      <c r="B400" t="s">
+        <v>325</v>
+      </c>
+      <c r="C400" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="s">
+        <v>454</v>
+      </c>
+      <c r="B401" t="s">
+        <v>323</v>
+      </c>
+      <c r="C401" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="s">
+        <v>455</v>
+      </c>
+      <c r="B402" t="s">
+        <v>323</v>
+      </c>
+      <c r="C402" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="s">
+        <v>456</v>
+      </c>
+      <c r="B403" t="s">
+        <v>408</v>
+      </c>
+      <c r="C403" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="s">
+        <v>457</v>
+      </c>
+      <c r="B404" t="s">
+        <v>391</v>
+      </c>
+      <c r="C404" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="s">
+        <v>458</v>
+      </c>
+      <c r="B405" t="s">
+        <v>391</v>
+      </c>
+      <c r="C405" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="s">
+        <v>459</v>
+      </c>
+      <c r="B406" t="s">
+        <v>365</v>
+      </c>
+      <c r="C406" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="s">
+        <v>460</v>
+      </c>
+      <c r="B407" t="s">
+        <v>365</v>
+      </c>
+      <c r="C407" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="s">
+        <v>461</v>
+      </c>
+      <c r="B408" t="s">
+        <v>365</v>
+      </c>
+      <c r="C408" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="s">
+        <v>462</v>
+      </c>
+      <c r="B409" t="s">
+        <v>365</v>
+      </c>
+      <c r="C409" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/GreatLink/GreatLink Multi-Sector Income.xlsx
+++ b/data/GreatLink/GreatLink Multi-Sector Income.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid662590"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid675280"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="486">
   <si>
     <t>Price Date</t>
   </si>
@@ -26,21 +26,105 @@
     <t>Currency - Unit Level</t>
   </si>
   <si>
+    <t>07/01/2026</t>
+  </si>
+  <si>
+    <t>0.926</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>06/01/2026</t>
+  </si>
+  <si>
+    <t>05/01/2026</t>
+  </si>
+  <si>
+    <t>02/01/2026</t>
+  </si>
+  <si>
+    <t>0.924</t>
+  </si>
+  <si>
+    <t>31/12/2025</t>
+  </si>
+  <si>
+    <t>0.929</t>
+  </si>
+  <si>
+    <t>30/12/2025</t>
+  </si>
+  <si>
+    <t>0.930</t>
+  </si>
+  <si>
+    <t>29/12/2025</t>
+  </si>
+  <si>
+    <t>26/12/2025</t>
+  </si>
+  <si>
+    <t>24/12/2025</t>
+  </si>
+  <si>
+    <t>23/12/2025</t>
+  </si>
+  <si>
+    <t>0.927</t>
+  </si>
+  <si>
+    <t>22/12/2025</t>
+  </si>
+  <si>
+    <t>19/12/2025</t>
+  </si>
+  <si>
+    <t>0.928</t>
+  </si>
+  <si>
+    <t>18/12/2025</t>
+  </si>
+  <si>
+    <t>17/12/2025</t>
+  </si>
+  <si>
+    <t>16/12/2025</t>
+  </si>
+  <si>
+    <t>15/12/2025</t>
+  </si>
+  <si>
+    <t>12/12/2025</t>
+  </si>
+  <si>
+    <t>0.925</t>
+  </si>
+  <si>
+    <t>11/12/2025</t>
+  </si>
+  <si>
+    <t>10/12/2025</t>
+  </si>
+  <si>
+    <t>09/12/2025</t>
+  </si>
+  <si>
+    <t>08/12/2025</t>
+  </si>
+  <si>
+    <t>05/12/2025</t>
+  </si>
+  <si>
+    <t>04/12/2025</t>
+  </si>
+  <si>
     <t>03/12/2025</t>
   </si>
   <si>
-    <t>0.929</t>
-  </si>
-  <si>
-    <t>SGD</t>
-  </si>
-  <si>
     <t>02/12/2025</t>
   </si>
   <si>
-    <t>0.927</t>
-  </si>
-  <si>
     <t>01/12/2025</t>
   </si>
   <si>
@@ -71,18 +155,12 @@
     <t>21/11/2025</t>
   </si>
   <si>
-    <t>0.930</t>
-  </si>
-  <si>
     <t>20/11/2025</t>
   </si>
   <si>
     <t>19/11/2025</t>
   </si>
   <si>
-    <t>0.928</t>
-  </si>
-  <si>
     <t>18/11/2025</t>
   </si>
   <si>
@@ -266,15 +344,9 @@
     <t>03/09/2025</t>
   </si>
   <si>
-    <t>0.926</t>
-  </si>
-  <si>
     <t>02/09/2025</t>
   </si>
   <si>
-    <t>0.924</t>
-  </si>
-  <si>
     <t>01/09/2025</t>
   </si>
   <si>
@@ -342,9 +414,6 @@
   </si>
   <si>
     <t>31/07/2025</t>
-  </si>
-  <si>
-    <t>0.925</t>
   </si>
   <si>
     <t>30/07/2025</t>
@@ -1759,7 +1828,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -1767,10 +1836,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -1778,10 +1847,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -1803,7 +1872,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1811,10 +1880,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
         <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -1825,7 +1894,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -1833,10 +1902,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -1844,10 +1913,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -1855,10 +1924,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -1866,10 +1935,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -1877,10 +1946,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -1888,10 +1957,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -1899,10 +1968,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -1910,10 +1979,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -1921,10 +1990,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
         <v>27</v>
-      </c>
-      <c r="B18" t="s">
-        <v>14</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -1935,7 +2004,7 @@
         <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -1946,7 +2015,7 @@
         <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -1957,7 +2026,7 @@
         <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -1968,7 +2037,7 @@
         <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -1979,7 +2048,7 @@
         <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -1990,7 +2059,7 @@
         <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -2001,7 +2070,7 @@
         <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -2023,7 +2092,7 @@
         <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -2031,10 +2100,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -2042,10 +2111,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -2053,10 +2122,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -2064,10 +2133,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -2075,10 +2144,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -2086,10 +2155,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -2097,10 +2166,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -2108,10 +2177,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -2119,10 +2188,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B36" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -2130,10 +2199,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B37" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -2141,10 +2210,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B38" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -2152,10 +2221,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B39" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -2163,10 +2232,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -2174,10 +2243,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B41" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -2185,10 +2254,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B42" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -2196,10 +2265,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B43" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -2207,10 +2276,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B44" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -2218,10 +2287,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B45" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -2229,10 +2298,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B46" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -2240,10 +2309,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B47" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -2251,10 +2320,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B48" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -2262,10 +2331,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B49" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -2273,10 +2342,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B50" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -2284,10 +2353,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B51" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -2295,10 +2364,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
+        <v>66</v>
+      </c>
+      <c r="B52" t="s">
         <v>67</v>
-      </c>
-      <c r="B52" t="s">
-        <v>11</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -2309,7 +2378,7 @@
         <v>68</v>
       </c>
       <c r="B53" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -2317,10 +2386,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B54" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -2328,10 +2397,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B55" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -2339,10 +2408,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B56" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -2350,10 +2419,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B57" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -2361,10 +2430,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
+        <v>75</v>
+      </c>
+      <c r="B58" t="s">
         <v>74</v>
-      </c>
-      <c r="B58" t="s">
-        <v>73</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -2372,10 +2441,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B59" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -2383,10 +2452,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B60" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -2394,10 +2463,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B61" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -2405,10 +2474,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B62" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -2416,10 +2485,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B63" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -2427,10 +2496,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B64" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -2438,10 +2507,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B65" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -2449,10 +2518,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B66" t="s">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -2460,10 +2529,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B67" t="s">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -2474,7 +2543,7 @@
         <v>86</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -2485,7 +2554,7 @@
         <v>87</v>
       </c>
       <c r="B69" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -2496,7 +2565,7 @@
         <v>88</v>
       </c>
       <c r="B70" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -2507,7 +2576,7 @@
         <v>89</v>
       </c>
       <c r="B71" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -2518,7 +2587,7 @@
         <v>90</v>
       </c>
       <c r="B72" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -2529,7 +2598,7 @@
         <v>91</v>
       </c>
       <c r="B73" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -2540,7 +2609,7 @@
         <v>92</v>
       </c>
       <c r="B74" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -2551,7 +2620,7 @@
         <v>93</v>
       </c>
       <c r="B75" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -2562,7 +2631,7 @@
         <v>94</v>
       </c>
       <c r="B76" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -2573,7 +2642,7 @@
         <v>95</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -2584,7 +2653,7 @@
         <v>96</v>
       </c>
       <c r="B78" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -2595,7 +2664,7 @@
         <v>97</v>
       </c>
       <c r="B79" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -2606,7 +2675,7 @@
         <v>98</v>
       </c>
       <c r="B80" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -2614,10 +2683,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
+        <v>100</v>
+      </c>
+      <c r="B81" t="s">
         <v>99</v>
-      </c>
-      <c r="B81" t="s">
-        <v>16</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -2625,10 +2694,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B82" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -2636,10 +2705,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -2647,10 +2716,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -2658,10 +2727,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B85" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -2669,10 +2738,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B86" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -2680,10 +2749,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B87" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -2691,10 +2760,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B88" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -2702,10 +2771,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B89" t="s">
-        <v>83</v>
+        <v>4</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -2713,10 +2782,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B90" t="s">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -2727,7 +2796,7 @@
         <v>110</v>
       </c>
       <c r="B91" t="s">
-        <v>109</v>
+        <v>18</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -2738,7 +2807,7 @@
         <v>111</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -2749,7 +2818,7 @@
         <v>112</v>
       </c>
       <c r="B93" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -2760,7 +2829,7 @@
         <v>113</v>
       </c>
       <c r="B94" t="s">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -2771,7 +2840,7 @@
         <v>114</v>
       </c>
       <c r="B95" t="s">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -2782,7 +2851,7 @@
         <v>115</v>
       </c>
       <c r="B96" t="s">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -2793,7 +2862,7 @@
         <v>116</v>
       </c>
       <c r="B97" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -2804,7 +2873,7 @@
         <v>117</v>
       </c>
       <c r="B98" t="s">
-        <v>85</v>
+        <v>4</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -2815,7 +2884,7 @@
         <v>118</v>
       </c>
       <c r="B99" t="s">
-        <v>119</v>
+        <v>21</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
@@ -2823,10 +2892,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B100" t="s">
-        <v>121</v>
+        <v>18</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
@@ -2834,10 +2903,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B101" t="s">
-        <v>121</v>
+        <v>4</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -2845,10 +2914,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B102" t="s">
-        <v>124</v>
+        <v>21</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
@@ -2856,10 +2925,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B103" t="s">
-        <v>119</v>
+        <v>11</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -2867,10 +2936,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B104" t="s">
-        <v>119</v>
+        <v>44</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -2878,10 +2947,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B105" t="s">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -2889,10 +2958,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B106" t="s">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
@@ -2900,10 +2969,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B107" t="s">
-        <v>119</v>
+        <v>18</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -2911,10 +2980,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B108" t="s">
-        <v>131</v>
+        <v>21</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -2922,10 +2991,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B109" t="s">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -2933,10 +3002,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B110" t="s">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -2944,10 +3013,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B111" t="s">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -2955,10 +3024,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B112" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -2966,10 +3035,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B113" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -2977,10 +3046,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B114" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -2988,10 +3057,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B115" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -2999,10 +3068,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B116" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -3010,10 +3079,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B117" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
@@ -3021,10 +3090,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B118" t="s">
-        <v>85</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -3032,10 +3101,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B119" t="s">
-        <v>143</v>
+        <v>27</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -3043,10 +3112,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B120" t="s">
-        <v>143</v>
+        <v>4</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -3054,10 +3123,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B121" t="s">
-        <v>143</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -3065,10 +3134,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B122" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -3076,10 +3145,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B123" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -3087,10 +3156,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B124" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -3098,10 +3167,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B125" t="s">
-        <v>109</v>
+        <v>147</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -3109,10 +3178,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B126" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
@@ -3120,10 +3189,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B127" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
@@ -3131,10 +3200,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B128" t="s">
-        <v>153</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
@@ -3142,10 +3211,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B129" t="s">
-        <v>155</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -3153,10 +3222,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B130" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -3164,10 +3233,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B131" t="s">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -3175,10 +3244,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B132" t="s">
-        <v>153</v>
+        <v>4</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
@@ -3186,10 +3255,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B133" t="s">
-        <v>161</v>
+        <v>4</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
@@ -3197,10 +3266,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B134" t="s">
-        <v>143</v>
+        <v>4</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
@@ -3208,10 +3277,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B135" t="s">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
@@ -3219,10 +3288,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B136" t="s">
-        <v>153</v>
+        <v>42</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -3230,10 +3299,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B137" t="s">
-        <v>124</v>
+        <v>13</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
@@ -3241,10 +3310,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B138" t="s">
-        <v>155</v>
+        <v>44</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
@@ -3252,10 +3321,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B139" t="s">
-        <v>155</v>
+        <v>21</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -3263,10 +3332,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B140" t="s">
-        <v>169</v>
+        <v>21</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
@@ -3274,10 +3343,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B141" t="s">
-        <v>171</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
@@ -3285,10 +3354,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B142" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
@@ -3296,10 +3365,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B143" t="s">
-        <v>124</v>
+        <v>166</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -3307,10 +3376,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B144" t="s">
-        <v>124</v>
+        <v>166</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
@@ -3318,10 +3387,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B145" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
@@ -3329,10 +3398,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B146" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="C146" t="s">
         <v>5</v>
@@ -3340,10 +3409,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B147" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
@@ -3351,10 +3420,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B148" t="s">
-        <v>153</v>
+        <v>27</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
@@ -3362,10 +3431,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B149" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
@@ -3373,10 +3442,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B150" t="s">
-        <v>121</v>
+        <v>144</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
@@ -3384,10 +3453,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B151" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
@@ -3395,10 +3464,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B152" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
@@ -3406,10 +3475,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B153" t="s">
-        <v>124</v>
+        <v>180</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
@@ -3417,10 +3486,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B154" t="s">
-        <v>4</v>
+        <v>142</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
@@ -3428,10 +3497,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B155" t="s">
-        <v>4</v>
+        <v>176</v>
       </c>
       <c r="C155" t="s">
         <v>5</v>
@@ -3439,10 +3508,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B156" t="s">
-        <v>21</v>
+        <v>184</v>
       </c>
       <c r="C156" t="s">
         <v>5</v>
@@ -3450,10 +3519,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B157" t="s">
-        <v>83</v>
+        <v>166</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
@@ -3461,10 +3530,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B158" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
@@ -3472,10 +3541,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B159" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="C159" t="s">
         <v>5</v>
@@ -3483,10 +3552,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B160" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
@@ -3494,10 +3563,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B161" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="C161" t="s">
         <v>5</v>
@@ -3505,10 +3574,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B162" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="C162" t="s">
         <v>5</v>
@@ -3516,10 +3585,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B163" t="s">
-        <v>124</v>
+        <v>192</v>
       </c>
       <c r="C163" t="s">
         <v>5</v>
@@ -3527,10 +3596,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B164" t="s">
-        <v>153</v>
+        <v>194</v>
       </c>
       <c r="C164" t="s">
         <v>5</v>
@@ -3538,10 +3607,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B165" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="C165" t="s">
         <v>5</v>
@@ -3549,10 +3618,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B166" t="s">
-        <v>198</v>
+        <v>147</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
@@ -3560,10 +3629,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B167" t="s">
-        <v>200</v>
+        <v>147</v>
       </c>
       <c r="C167" t="s">
         <v>5</v>
@@ -3571,10 +3640,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B168" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="C168" t="s">
         <v>5</v>
@@ -3582,7 +3651,7 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B169" t="s">
         <v>192</v>
@@ -3593,10 +3662,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B170" t="s">
-        <v>157</v>
+        <v>184</v>
       </c>
       <c r="C170" t="s">
         <v>5</v>
@@ -3604,10 +3673,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B171" t="s">
-        <v>4</v>
+        <v>176</v>
       </c>
       <c r="C171" t="s">
         <v>5</v>
@@ -3615,10 +3684,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B172" t="s">
-        <v>14</v>
+        <v>176</v>
       </c>
       <c r="C172" t="s">
         <v>5</v>
@@ -3626,10 +3695,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B173" t="s">
-        <v>52</v>
+        <v>144</v>
       </c>
       <c r="C173" t="s">
         <v>5</v>
@@ -3637,10 +3706,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B174" t="s">
-        <v>37</v>
+        <v>176</v>
       </c>
       <c r="C174" t="s">
         <v>5</v>
@@ -3648,10 +3717,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B175" t="s">
-        <v>48</v>
+        <v>184</v>
       </c>
       <c r="C175" t="s">
         <v>5</v>
@@ -3659,10 +3728,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B176" t="s">
-        <v>14</v>
+        <v>147</v>
       </c>
       <c r="C176" t="s">
         <v>5</v>
@@ -3670,7 +3739,7 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B177" t="s">
         <v>11</v>
@@ -3681,10 +3750,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B178" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="C178" t="s">
         <v>5</v>
@@ -3692,10 +3761,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B179" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C179" t="s">
         <v>5</v>
@@ -3703,10 +3772,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B180" t="s">
-        <v>73</v>
+        <v>4</v>
       </c>
       <c r="C180" t="s">
         <v>5</v>
@@ -3714,10 +3783,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B181" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C181" t="s">
         <v>5</v>
@@ -3725,10 +3794,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B182" t="s">
-        <v>37</v>
+        <v>180</v>
       </c>
       <c r="C182" t="s">
         <v>5</v>
@@ -3736,10 +3805,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B183" t="s">
-        <v>73</v>
+        <v>184</v>
       </c>
       <c r="C183" t="s">
         <v>5</v>
@@ -3747,10 +3816,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B184" t="s">
-        <v>48</v>
+        <v>215</v>
       </c>
       <c r="C184" t="s">
         <v>5</v>
@@ -3758,10 +3827,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B185" t="s">
-        <v>48</v>
+        <v>180</v>
       </c>
       <c r="C185" t="s">
         <v>5</v>
@@ -3769,10 +3838,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B186" t="s">
-        <v>11</v>
+        <v>147</v>
       </c>
       <c r="C186" t="s">
         <v>5</v>
@@ -3780,10 +3849,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B187" t="s">
-        <v>14</v>
+        <v>176</v>
       </c>
       <c r="C187" t="s">
         <v>5</v>
@@ -3791,10 +3860,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B188" t="s">
-        <v>11</v>
+        <v>178</v>
       </c>
       <c r="C188" t="s">
         <v>5</v>
@@ -3802,10 +3871,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B189" t="s">
-        <v>73</v>
+        <v>221</v>
       </c>
       <c r="C189" t="s">
         <v>5</v>
@@ -3813,10 +3882,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
+        <v>222</v>
+      </c>
+      <c r="B190" t="s">
         <v>223</v>
-      </c>
-      <c r="B190" t="s">
-        <v>48</v>
       </c>
       <c r="C190" t="s">
         <v>5</v>
@@ -3827,7 +3896,7 @@
         <v>224</v>
       </c>
       <c r="B191" t="s">
-        <v>48</v>
+        <v>178</v>
       </c>
       <c r="C191" t="s">
         <v>5</v>
@@ -3838,7 +3907,7 @@
         <v>225</v>
       </c>
       <c r="B192" t="s">
-        <v>48</v>
+        <v>215</v>
       </c>
       <c r="C192" t="s">
         <v>5</v>
@@ -3849,7 +3918,7 @@
         <v>226</v>
       </c>
       <c r="B193" t="s">
-        <v>73</v>
+        <v>180</v>
       </c>
       <c r="C193" t="s">
         <v>5</v>
@@ -3860,7 +3929,7 @@
         <v>227</v>
       </c>
       <c r="B194" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="C194" t="s">
         <v>5</v>
@@ -3871,7 +3940,7 @@
         <v>228</v>
       </c>
       <c r="B195" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C195" t="s">
         <v>5</v>
@@ -3882,7 +3951,7 @@
         <v>229</v>
       </c>
       <c r="B196" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="C196" t="s">
         <v>5</v>
@@ -3893,7 +3962,7 @@
         <v>230</v>
       </c>
       <c r="B197" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C197" t="s">
         <v>5</v>
@@ -3904,7 +3973,7 @@
         <v>231</v>
       </c>
       <c r="B198" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="C198" t="s">
         <v>5</v>
@@ -3915,7 +3984,7 @@
         <v>232</v>
       </c>
       <c r="B199" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C199" t="s">
         <v>5</v>
@@ -3926,7 +3995,7 @@
         <v>233</v>
       </c>
       <c r="B200" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="C200" t="s">
         <v>5</v>
@@ -3937,7 +4006,7 @@
         <v>234</v>
       </c>
       <c r="B201" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="C201" t="s">
         <v>5</v>
@@ -3948,7 +4017,7 @@
         <v>235</v>
       </c>
       <c r="B202" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C202" t="s">
         <v>5</v>
@@ -3959,7 +4028,7 @@
         <v>236</v>
       </c>
       <c r="B203" t="s">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="C203" t="s">
         <v>5</v>
@@ -3970,7 +4039,7 @@
         <v>237</v>
       </c>
       <c r="B204" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="C204" t="s">
         <v>5</v>
@@ -3981,7 +4050,7 @@
         <v>238</v>
       </c>
       <c r="B205" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="C205" t="s">
         <v>5</v>
@@ -3992,7 +4061,7 @@
         <v>239</v>
       </c>
       <c r="B206" t="s">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="C206" t="s">
         <v>5</v>
@@ -4003,7 +4072,7 @@
         <v>240</v>
       </c>
       <c r="B207" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C207" t="s">
         <v>5</v>
@@ -4014,7 +4083,7 @@
         <v>241</v>
       </c>
       <c r="B208" t="s">
-        <v>4</v>
+        <v>74</v>
       </c>
       <c r="C208" t="s">
         <v>5</v>
@@ -4025,7 +4094,7 @@
         <v>242</v>
       </c>
       <c r="B209" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C209" t="s">
         <v>5</v>
@@ -4036,7 +4105,7 @@
         <v>243</v>
       </c>
       <c r="B210" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C210" t="s">
         <v>5</v>
@@ -4047,7 +4116,7 @@
         <v>244</v>
       </c>
       <c r="B211" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C211" t="s">
         <v>5</v>
@@ -4058,7 +4127,7 @@
         <v>245</v>
       </c>
       <c r="B212" t="s">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="C212" t="s">
         <v>5</v>
@@ -4069,7 +4138,7 @@
         <v>246</v>
       </c>
       <c r="B213" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="C213" t="s">
         <v>5</v>
@@ -4080,7 +4149,7 @@
         <v>247</v>
       </c>
       <c r="B214" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="C214" t="s">
         <v>5</v>
@@ -4091,7 +4160,7 @@
         <v>248</v>
       </c>
       <c r="B215" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C215" t="s">
         <v>5</v>
@@ -4102,7 +4171,7 @@
         <v>249</v>
       </c>
       <c r="B216" t="s">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="C216" t="s">
         <v>5</v>
@@ -4113,7 +4182,7 @@
         <v>250</v>
       </c>
       <c r="B217" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C217" t="s">
         <v>5</v>
@@ -4124,7 +4193,7 @@
         <v>251</v>
       </c>
       <c r="B218" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="C218" t="s">
         <v>5</v>
@@ -4135,7 +4204,7 @@
         <v>252</v>
       </c>
       <c r="B219" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="C219" t="s">
         <v>5</v>
@@ -4146,7 +4215,7 @@
         <v>253</v>
       </c>
       <c r="B220" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="C220" t="s">
         <v>5</v>
@@ -4157,7 +4226,7 @@
         <v>254</v>
       </c>
       <c r="B221" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="C221" t="s">
         <v>5</v>
@@ -4168,7 +4237,7 @@
         <v>255</v>
       </c>
       <c r="B222" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="C222" t="s">
         <v>5</v>
@@ -4179,7 +4248,7 @@
         <v>256</v>
       </c>
       <c r="B223" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="C223" t="s">
         <v>5</v>
@@ -4190,7 +4259,7 @@
         <v>257</v>
       </c>
       <c r="B224" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="C224" t="s">
         <v>5</v>
@@ -4201,7 +4270,7 @@
         <v>258</v>
       </c>
       <c r="B225" t="s">
-        <v>143</v>
+        <v>78</v>
       </c>
       <c r="C225" t="s">
         <v>5</v>
@@ -4212,7 +4281,7 @@
         <v>259</v>
       </c>
       <c r="B226" t="s">
-        <v>161</v>
+        <v>78</v>
       </c>
       <c r="C226" t="s">
         <v>5</v>
@@ -4223,7 +4292,7 @@
         <v>260</v>
       </c>
       <c r="B227" t="s">
-        <v>155</v>
+        <v>39</v>
       </c>
       <c r="C227" t="s">
         <v>5</v>
@@ -4234,7 +4303,7 @@
         <v>261</v>
       </c>
       <c r="B228" t="s">
-        <v>161</v>
+        <v>39</v>
       </c>
       <c r="C228" t="s">
         <v>5</v>
@@ -4245,7 +4314,7 @@
         <v>262</v>
       </c>
       <c r="B229" t="s">
-        <v>143</v>
+        <v>44</v>
       </c>
       <c r="C229" t="s">
         <v>5</v>
@@ -4256,7 +4325,7 @@
         <v>263</v>
       </c>
       <c r="B230" t="s">
-        <v>143</v>
+        <v>4</v>
       </c>
       <c r="C230" t="s">
         <v>5</v>
@@ -4267,7 +4336,7 @@
         <v>264</v>
       </c>
       <c r="B231" t="s">
-        <v>143</v>
+        <v>11</v>
       </c>
       <c r="C231" t="s">
         <v>5</v>
@@ -4278,7 +4347,7 @@
         <v>265</v>
       </c>
       <c r="B232" t="s">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="C232" t="s">
         <v>5</v>
@@ -4289,7 +4358,7 @@
         <v>266</v>
       </c>
       <c r="B233" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="C233" t="s">
         <v>5</v>
@@ -4300,7 +4369,7 @@
         <v>267</v>
       </c>
       <c r="B234" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C234" t="s">
         <v>5</v>
@@ -4311,7 +4380,7 @@
         <v>268</v>
       </c>
       <c r="B235" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="C235" t="s">
         <v>5</v>
@@ -4333,7 +4402,7 @@
         <v>270</v>
       </c>
       <c r="B237" t="s">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="C237" t="s">
         <v>5</v>
@@ -4344,7 +4413,7 @@
         <v>271</v>
       </c>
       <c r="B238" t="s">
-        <v>109</v>
+        <v>4</v>
       </c>
       <c r="C238" t="s">
         <v>5</v>
@@ -4355,7 +4424,7 @@
         <v>272</v>
       </c>
       <c r="B239" t="s">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="C239" t="s">
         <v>5</v>
@@ -4366,7 +4435,7 @@
         <v>273</v>
       </c>
       <c r="B240" t="s">
-        <v>109</v>
+        <v>11</v>
       </c>
       <c r="C240" t="s">
         <v>5</v>
@@ -4377,7 +4446,7 @@
         <v>274</v>
       </c>
       <c r="B241" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C241" t="s">
         <v>5</v>
@@ -4388,7 +4457,7 @@
         <v>275</v>
       </c>
       <c r="B242" t="s">
-        <v>109</v>
+        <v>27</v>
       </c>
       <c r="C242" t="s">
         <v>5</v>
@@ -4399,7 +4468,7 @@
         <v>276</v>
       </c>
       <c r="B243" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C243" t="s">
         <v>5</v>
@@ -4410,7 +4479,7 @@
         <v>277</v>
       </c>
       <c r="B244" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="C244" t="s">
         <v>5</v>
@@ -4421,7 +4490,7 @@
         <v>278</v>
       </c>
       <c r="B245" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C245" t="s">
         <v>5</v>
@@ -4432,7 +4501,7 @@
         <v>279</v>
       </c>
       <c r="B246" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C246" t="s">
         <v>5</v>
@@ -4443,7 +4512,7 @@
         <v>280</v>
       </c>
       <c r="B247" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="C247" t="s">
         <v>5</v>
@@ -4454,7 +4523,7 @@
         <v>281</v>
       </c>
       <c r="B248" t="s">
-        <v>43</v>
+        <v>166</v>
       </c>
       <c r="C248" t="s">
         <v>5</v>
@@ -4465,7 +4534,7 @@
         <v>282</v>
       </c>
       <c r="B249" t="s">
-        <v>41</v>
+        <v>184</v>
       </c>
       <c r="C249" t="s">
         <v>5</v>
@@ -4476,7 +4545,7 @@
         <v>283</v>
       </c>
       <c r="B250" t="s">
-        <v>41</v>
+        <v>178</v>
       </c>
       <c r="C250" t="s">
         <v>5</v>
@@ -4487,7 +4556,7 @@
         <v>284</v>
       </c>
       <c r="B251" t="s">
-        <v>39</v>
+        <v>184</v>
       </c>
       <c r="C251" t="s">
         <v>5</v>
@@ -4498,7 +4567,7 @@
         <v>285</v>
       </c>
       <c r="B252" t="s">
-        <v>41</v>
+        <v>166</v>
       </c>
       <c r="C252" t="s">
         <v>5</v>
@@ -4509,7 +4578,7 @@
         <v>286</v>
       </c>
       <c r="B253" t="s">
-        <v>43</v>
+        <v>166</v>
       </c>
       <c r="C253" t="s">
         <v>5</v>
@@ -4520,7 +4589,7 @@
         <v>287</v>
       </c>
       <c r="B254" t="s">
-        <v>37</v>
+        <v>166</v>
       </c>
       <c r="C254" t="s">
         <v>5</v>
@@ -4531,7 +4600,7 @@
         <v>288</v>
       </c>
       <c r="B255" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="C255" t="s">
         <v>5</v>
@@ -4542,7 +4611,7 @@
         <v>289</v>
       </c>
       <c r="B256" t="s">
-        <v>37</v>
+        <v>154</v>
       </c>
       <c r="C256" t="s">
         <v>5</v>
@@ -4553,7 +4622,7 @@
         <v>290</v>
       </c>
       <c r="B257" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="C257" t="s">
         <v>5</v>
@@ -4564,7 +4633,7 @@
         <v>291</v>
       </c>
       <c r="B258" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C258" t="s">
         <v>5</v>
@@ -4575,7 +4644,7 @@
         <v>292</v>
       </c>
       <c r="B259" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="C259" t="s">
         <v>5</v>
@@ -4586,7 +4655,7 @@
         <v>293</v>
       </c>
       <c r="B260" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="C260" t="s">
         <v>5</v>
@@ -4597,7 +4666,7 @@
         <v>294</v>
       </c>
       <c r="B261" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C261" t="s">
         <v>5</v>
@@ -4608,7 +4677,7 @@
         <v>295</v>
       </c>
       <c r="B262" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="C262" t="s">
         <v>5</v>
@@ -4619,7 +4688,7 @@
         <v>296</v>
       </c>
       <c r="B263" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="C263" t="s">
         <v>5</v>
@@ -4630,7 +4699,7 @@
         <v>297</v>
       </c>
       <c r="B264" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C264" t="s">
         <v>5</v>
@@ -4641,7 +4710,7 @@
         <v>298</v>
       </c>
       <c r="B265" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C265" t="s">
         <v>5</v>
@@ -4652,7 +4721,7 @@
         <v>299</v>
       </c>
       <c r="B266" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="C266" t="s">
         <v>5</v>
@@ -4663,7 +4732,7 @@
         <v>300</v>
       </c>
       <c r="B267" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="C267" t="s">
         <v>5</v>
@@ -4674,7 +4743,7 @@
         <v>301</v>
       </c>
       <c r="B268" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C268" t="s">
         <v>5</v>
@@ -4685,7 +4754,7 @@
         <v>302</v>
       </c>
       <c r="B269" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C269" t="s">
         <v>5</v>
@@ -4696,7 +4765,7 @@
         <v>303</v>
       </c>
       <c r="B270" t="s">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="C270" t="s">
         <v>5</v>
@@ -4707,7 +4776,7 @@
         <v>304</v>
       </c>
       <c r="B271" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="C271" t="s">
         <v>5</v>
@@ -4718,7 +4787,7 @@
         <v>305</v>
       </c>
       <c r="B272" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="C272" t="s">
         <v>5</v>
@@ -4729,7 +4798,7 @@
         <v>306</v>
       </c>
       <c r="B273" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="C273" t="s">
         <v>5</v>
@@ -4740,7 +4809,7 @@
         <v>307</v>
       </c>
       <c r="B274" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="C274" t="s">
         <v>5</v>
@@ -4751,7 +4820,7 @@
         <v>308</v>
       </c>
       <c r="B275" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="C275" t="s">
         <v>5</v>
@@ -4762,7 +4831,7 @@
         <v>309</v>
       </c>
       <c r="B276" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="C276" t="s">
         <v>5</v>
@@ -4773,7 +4842,7 @@
         <v>310</v>
       </c>
       <c r="B277" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C277" t="s">
         <v>5</v>
@@ -4784,7 +4853,7 @@
         <v>311</v>
       </c>
       <c r="B278" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="C278" t="s">
         <v>5</v>
@@ -4795,7 +4864,7 @@
         <v>312</v>
       </c>
       <c r="B279" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="C279" t="s">
         <v>5</v>
@@ -4806,7 +4875,7 @@
         <v>313</v>
       </c>
       <c r="B280" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="C280" t="s">
         <v>5</v>
@@ -4817,7 +4886,7 @@
         <v>314</v>
       </c>
       <c r="B281" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="C281" t="s">
         <v>5</v>
@@ -4828,7 +4897,7 @@
         <v>315</v>
       </c>
       <c r="B282" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="C282" t="s">
         <v>5</v>
@@ -4839,7 +4908,7 @@
         <v>316</v>
       </c>
       <c r="B283" t="s">
-        <v>317</v>
+        <v>69</v>
       </c>
       <c r="C283" t="s">
         <v>5</v>
@@ -4847,10 +4916,10 @@
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B284" t="s">
-        <v>319</v>
+        <v>42</v>
       </c>
       <c r="C284" t="s">
         <v>5</v>
@@ -4858,10 +4927,10 @@
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B285" t="s">
-        <v>321</v>
+        <v>78</v>
       </c>
       <c r="C285" t="s">
         <v>5</v>
@@ -4869,10 +4938,10 @@
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B286" t="s">
-        <v>323</v>
+        <v>78</v>
       </c>
       <c r="C286" t="s">
         <v>5</v>
@@ -4880,10 +4949,10 @@
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B287" t="s">
-        <v>325</v>
+        <v>42</v>
       </c>
       <c r="C287" t="s">
         <v>5</v>
@@ -4891,10 +4960,10 @@
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B288" t="s">
-        <v>321</v>
+        <v>42</v>
       </c>
       <c r="C288" t="s">
         <v>5</v>
@@ -4902,10 +4971,10 @@
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B289" t="s">
-        <v>323</v>
+        <v>78</v>
       </c>
       <c r="C289" t="s">
         <v>5</v>
@@ -4913,10 +4982,10 @@
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B290" t="s">
-        <v>321</v>
+        <v>78</v>
       </c>
       <c r="C290" t="s">
         <v>5</v>
@@ -4924,10 +4993,10 @@
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="B291" t="s">
-        <v>323</v>
+        <v>78</v>
       </c>
       <c r="C291" t="s">
         <v>5</v>
@@ -4935,10 +5004,10 @@
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B292" t="s">
-        <v>323</v>
+        <v>78</v>
       </c>
       <c r="C292" t="s">
         <v>5</v>
@@ -4946,10 +5015,10 @@
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B293" t="s">
-        <v>323</v>
+        <v>63</v>
       </c>
       <c r="C293" t="s">
         <v>5</v>
@@ -4957,10 +5026,10 @@
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B294" t="s">
-        <v>323</v>
+        <v>69</v>
       </c>
       <c r="C294" t="s">
         <v>5</v>
@@ -4968,10 +5037,10 @@
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B295" t="s">
-        <v>321</v>
+        <v>63</v>
       </c>
       <c r="C295" t="s">
         <v>5</v>
@@ -4979,10 +5048,10 @@
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="B296" t="s">
-        <v>335</v>
+        <v>44</v>
       </c>
       <c r="C296" t="s">
         <v>5</v>
@@ -4990,10 +5059,10 @@
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="B297" t="s">
-        <v>337</v>
+        <v>44</v>
       </c>
       <c r="C297" t="s">
         <v>5</v>
@@ -5001,10 +5070,10 @@
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B298" t="s">
-        <v>337</v>
+        <v>13</v>
       </c>
       <c r="C298" t="s">
         <v>5</v>
@@ -5012,10 +5081,10 @@
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B299" t="s">
-        <v>340</v>
+        <v>42</v>
       </c>
       <c r="C299" t="s">
         <v>5</v>
@@ -5023,10 +5092,10 @@
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="B300" t="s">
-        <v>342</v>
+        <v>99</v>
       </c>
       <c r="C300" t="s">
         <v>5</v>
@@ -5034,10 +5103,10 @@
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="B301" t="s">
-        <v>344</v>
+        <v>69</v>
       </c>
       <c r="C301" t="s">
         <v>5</v>
@@ -5045,10 +5114,10 @@
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="B302" t="s">
-        <v>340</v>
+        <v>63</v>
       </c>
       <c r="C302" t="s">
         <v>5</v>
@@ -5056,10 +5125,10 @@
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="B303" t="s">
-        <v>347</v>
+        <v>67</v>
       </c>
       <c r="C303" t="s">
         <v>5</v>
@@ -5067,10 +5136,10 @@
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="B304" t="s">
-        <v>342</v>
+        <v>67</v>
       </c>
       <c r="C304" t="s">
         <v>5</v>
@@ -5078,10 +5147,10 @@
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="B305" t="s">
-        <v>347</v>
+        <v>69</v>
       </c>
       <c r="C305" t="s">
         <v>5</v>
@@ -5089,10 +5158,10 @@
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="B306" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="C306" t="s">
         <v>5</v>
@@ -5100,10 +5169,10 @@
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="B307" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C307" t="s">
         <v>5</v>
@@ -5111,10 +5180,10 @@
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="B308" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C308" t="s">
         <v>5</v>
@@ -5122,10 +5191,10 @@
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="B309" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="C309" t="s">
         <v>5</v>
@@ -5133,10 +5202,10 @@
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="B310" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="C310" t="s">
         <v>5</v>
@@ -5144,10 +5213,10 @@
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="B311" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="C311" t="s">
         <v>5</v>
@@ -5155,10 +5224,10 @@
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="B312" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="C312" t="s">
         <v>5</v>
@@ -5166,10 +5235,10 @@
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="B313" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="C313" t="s">
         <v>5</v>
@@ -5177,10 +5246,10 @@
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="B314" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="C314" t="s">
         <v>5</v>
@@ -5188,10 +5257,10 @@
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="B315" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="C315" t="s">
         <v>5</v>
@@ -5199,10 +5268,10 @@
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="B316" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="C316" t="s">
         <v>5</v>
@@ -5210,10 +5279,10 @@
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="B317" t="s">
-        <v>365</v>
+        <v>346</v>
       </c>
       <c r="C317" t="s">
         <v>5</v>
@@ -5221,10 +5290,10 @@
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="B318" t="s">
-        <v>367</v>
+        <v>344</v>
       </c>
       <c r="C318" t="s">
         <v>5</v>
@@ -5232,10 +5301,10 @@
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="B319" t="s">
-        <v>325</v>
+        <v>358</v>
       </c>
       <c r="C319" t="s">
         <v>5</v>
@@ -5243,10 +5312,10 @@
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="B320" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C320" t="s">
         <v>5</v>
@@ -5254,10 +5323,10 @@
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="B321" t="s">
-        <v>337</v>
+        <v>360</v>
       </c>
       <c r="C321" t="s">
         <v>5</v>
@@ -5265,10 +5334,10 @@
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="B322" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="C322" t="s">
         <v>5</v>
@@ -5276,10 +5345,10 @@
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="B323" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="C323" t="s">
         <v>5</v>
@@ -5287,10 +5356,10 @@
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="B324" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="C324" t="s">
         <v>5</v>
@@ -5298,10 +5367,10 @@
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="B325" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="C325" t="s">
         <v>5</v>
@@ -5309,10 +5378,10 @@
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="B326" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="C326" t="s">
         <v>5</v>
@@ -5320,10 +5389,10 @@
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="B327" t="s">
-        <v>337</v>
+        <v>365</v>
       </c>
       <c r="C327" t="s">
         <v>5</v>
@@ -5331,10 +5400,10 @@
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B328" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="C328" t="s">
         <v>5</v>
@@ -5342,10 +5411,10 @@
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="B329" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="C329" t="s">
         <v>5</v>
@@ -5353,10 +5422,10 @@
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="B330" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C330" t="s">
         <v>5</v>
@@ -5364,7 +5433,7 @@
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="B331" t="s">
         <v>365</v>
@@ -5375,10 +5444,10 @@
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="B332" t="s">
-        <v>335</v>
+        <v>365</v>
       </c>
       <c r="C332" t="s">
         <v>5</v>
@@ -5386,10 +5455,10 @@
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="B333" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C333" t="s">
         <v>5</v>
@@ -5397,10 +5466,10 @@
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="B334" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="C334" t="s">
         <v>5</v>
@@ -5408,10 +5477,10 @@
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="B335" t="s">
-        <v>323</v>
+        <v>379</v>
       </c>
       <c r="C335" t="s">
         <v>5</v>
@@ -5419,10 +5488,10 @@
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B336" t="s">
-        <v>323</v>
+        <v>382</v>
       </c>
       <c r="C336" t="s">
         <v>5</v>
@@ -5430,10 +5499,10 @@
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B337" t="s">
-        <v>321</v>
+        <v>360</v>
       </c>
       <c r="C337" t="s">
         <v>5</v>
@@ -5441,10 +5510,10 @@
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B338" t="s">
-        <v>321</v>
+        <v>385</v>
       </c>
       <c r="C338" t="s">
         <v>5</v>
@@ -5452,10 +5521,10 @@
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B339" t="s">
-        <v>335</v>
+        <v>358</v>
       </c>
       <c r="C339" t="s">
         <v>5</v>
@@ -5463,10 +5532,10 @@
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B340" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C340" t="s">
         <v>5</v>
@@ -5474,10 +5543,10 @@
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B341" t="s">
-        <v>337</v>
+        <v>390</v>
       </c>
       <c r="C341" t="s">
         <v>5</v>
@@ -5485,10 +5554,10 @@
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B342" t="s">
-        <v>391</v>
+        <v>348</v>
       </c>
       <c r="C342" t="s">
         <v>5</v>
@@ -5496,10 +5565,10 @@
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B343" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="C343" t="s">
         <v>5</v>
@@ -5507,10 +5576,10 @@
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B344" t="s">
-        <v>391</v>
+        <v>360</v>
       </c>
       <c r="C344" t="s">
         <v>5</v>
@@ -5518,10 +5587,10 @@
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B345" t="s">
-        <v>325</v>
+        <v>379</v>
       </c>
       <c r="C345" t="s">
         <v>5</v>
@@ -5529,10 +5598,10 @@
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B346" t="s">
-        <v>321</v>
+        <v>396</v>
       </c>
       <c r="C346" t="s">
         <v>5</v>
@@ -5540,10 +5609,10 @@
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B347" t="s">
-        <v>325</v>
+        <v>379</v>
       </c>
       <c r="C347" t="s">
         <v>5</v>
@@ -5551,10 +5620,10 @@
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B348" t="s">
-        <v>325</v>
+        <v>379</v>
       </c>
       <c r="C348" t="s">
         <v>5</v>
@@ -5562,10 +5631,10 @@
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B349" t="s">
-        <v>325</v>
+        <v>385</v>
       </c>
       <c r="C349" t="s">
         <v>5</v>
@@ -5573,10 +5642,10 @@
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B350" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="C350" t="s">
         <v>5</v>
@@ -5584,10 +5653,10 @@
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B351" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="C351" t="s">
         <v>5</v>
@@ -5595,10 +5664,10 @@
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B352" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="C352" t="s">
         <v>5</v>
@@ -5606,10 +5675,10 @@
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B353" t="s">
-        <v>367</v>
+        <v>385</v>
       </c>
       <c r="C353" t="s">
         <v>5</v>
@@ -5617,10 +5686,10 @@
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B354" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C354" t="s">
         <v>5</v>
@@ -5628,10 +5697,10 @@
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B355" t="s">
-        <v>325</v>
+        <v>358</v>
       </c>
       <c r="C355" t="s">
         <v>5</v>
@@ -5639,10 +5708,10 @@
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B356" t="s">
-        <v>408</v>
+        <v>388</v>
       </c>
       <c r="C356" t="s">
         <v>5</v>
@@ -5650,10 +5719,10 @@
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B357" t="s">
-        <v>410</v>
+        <v>390</v>
       </c>
       <c r="C357" t="s">
         <v>5</v>
@@ -5661,10 +5730,10 @@
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B358" t="s">
-        <v>319</v>
+        <v>346</v>
       </c>
       <c r="C358" t="s">
         <v>5</v>
@@ -5672,10 +5741,10 @@
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B359" t="s">
-        <v>317</v>
+        <v>346</v>
       </c>
       <c r="C359" t="s">
         <v>5</v>
@@ -5683,10 +5752,10 @@
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B360" t="s">
-        <v>43</v>
+        <v>344</v>
       </c>
       <c r="C360" t="s">
         <v>5</v>
@@ -5694,10 +5763,10 @@
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B361" t="s">
-        <v>43</v>
+        <v>344</v>
       </c>
       <c r="C361" t="s">
         <v>5</v>
@@ -5705,10 +5774,10 @@
     </row>
     <row r="362">
       <c r="A362" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B362" t="s">
-        <v>48</v>
+        <v>358</v>
       </c>
       <c r="C362" t="s">
         <v>5</v>
@@ -5716,10 +5785,10 @@
     </row>
     <row r="363">
       <c r="A363" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B363" t="s">
-        <v>11</v>
+        <v>414</v>
       </c>
       <c r="C363" t="s">
         <v>5</v>
@@ -5727,10 +5796,10 @@
     </row>
     <row r="364">
       <c r="A364" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B364" t="s">
-        <v>319</v>
+        <v>360</v>
       </c>
       <c r="C364" t="s">
         <v>5</v>
@@ -5738,10 +5807,10 @@
     </row>
     <row r="365">
       <c r="A365" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B365" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="C365" t="s">
         <v>5</v>
@@ -5749,10 +5818,10 @@
     </row>
     <row r="366">
       <c r="A366" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B366" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="C366" t="s">
         <v>5</v>
@@ -5760,10 +5829,10 @@
     </row>
     <row r="367">
       <c r="A367" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B367" t="s">
-        <v>323</v>
+        <v>414</v>
       </c>
       <c r="C367" t="s">
         <v>5</v>
@@ -5771,10 +5840,10 @@
     </row>
     <row r="368">
       <c r="A368" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B368" t="s">
-        <v>323</v>
+        <v>348</v>
       </c>
       <c r="C368" t="s">
         <v>5</v>
@@ -5782,10 +5851,10 @@
     </row>
     <row r="369">
       <c r="A369" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B369" t="s">
-        <v>323</v>
+        <v>344</v>
       </c>
       <c r="C369" t="s">
         <v>5</v>
@@ -5793,10 +5862,10 @@
     </row>
     <row r="370">
       <c r="A370" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B370" t="s">
-        <v>323</v>
+        <v>348</v>
       </c>
       <c r="C370" t="s">
         <v>5</v>
@@ -5804,10 +5873,10 @@
     </row>
     <row r="371">
       <c r="A371" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B371" t="s">
-        <v>323</v>
+        <v>348</v>
       </c>
       <c r="C371" t="s">
         <v>5</v>
@@ -5815,10 +5884,10 @@
     </row>
     <row r="372">
       <c r="A372" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B372" t="s">
-        <v>323</v>
+        <v>348</v>
       </c>
       <c r="C372" t="s">
         <v>5</v>
@@ -5826,10 +5895,10 @@
     </row>
     <row r="373">
       <c r="A373" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B373" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
       <c r="C373" t="s">
         <v>5</v>
@@ -5837,10 +5906,10 @@
     </row>
     <row r="374">
       <c r="A374" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B374" t="s">
-        <v>321</v>
+        <v>414</v>
       </c>
       <c r="C374" t="s">
         <v>5</v>
@@ -5848,10 +5917,10 @@
     </row>
     <row r="375">
       <c r="A375" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B375" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="C375" t="s">
         <v>5</v>
@@ -5859,10 +5928,10 @@
     </row>
     <row r="376">
       <c r="A376" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B376" t="s">
-        <v>319</v>
+        <v>390</v>
       </c>
       <c r="C376" t="s">
         <v>5</v>
@@ -5870,10 +5939,10 @@
     </row>
     <row r="377">
       <c r="A377" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B377" t="s">
-        <v>39</v>
+        <v>414</v>
       </c>
       <c r="C377" t="s">
         <v>5</v>
@@ -5881,10 +5950,10 @@
     </row>
     <row r="378">
       <c r="A378" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B378" t="s">
-        <v>317</v>
+        <v>348</v>
       </c>
       <c r="C378" t="s">
         <v>5</v>
@@ -5892,10 +5961,10 @@
     </row>
     <row r="379">
       <c r="A379" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B379" t="s">
-        <v>323</v>
+        <v>431</v>
       </c>
       <c r="C379" t="s">
         <v>5</v>
@@ -5903,10 +5972,10 @@
     </row>
     <row r="380">
       <c r="A380" t="s">
+        <v>432</v>
+      </c>
+      <c r="B380" t="s">
         <v>433</v>
-      </c>
-      <c r="B380" t="s">
-        <v>321</v>
       </c>
       <c r="C380" t="s">
         <v>5</v>
@@ -5917,7 +5986,7 @@
         <v>434</v>
       </c>
       <c r="B381" t="s">
-        <v>323</v>
+        <v>342</v>
       </c>
       <c r="C381" t="s">
         <v>5</v>
@@ -5928,7 +5997,7 @@
         <v>435</v>
       </c>
       <c r="B382" t="s">
-        <v>408</v>
+        <v>340</v>
       </c>
       <c r="C382" t="s">
         <v>5</v>
@@ -5939,7 +6008,7 @@
         <v>436</v>
       </c>
       <c r="B383" t="s">
-        <v>321</v>
+        <v>69</v>
       </c>
       <c r="C383" t="s">
         <v>5</v>
@@ -5950,7 +6019,7 @@
         <v>437</v>
       </c>
       <c r="B384" t="s">
-        <v>408</v>
+        <v>69</v>
       </c>
       <c r="C384" t="s">
         <v>5</v>
@@ -5961,7 +6030,7 @@
         <v>438</v>
       </c>
       <c r="B385" t="s">
-        <v>410</v>
+        <v>74</v>
       </c>
       <c r="C385" t="s">
         <v>5</v>
@@ -5972,7 +6041,7 @@
         <v>439</v>
       </c>
       <c r="B386" t="s">
-        <v>321</v>
+        <v>39</v>
       </c>
       <c r="C386" t="s">
         <v>5</v>
@@ -5983,7 +6052,7 @@
         <v>440</v>
       </c>
       <c r="B387" t="s">
-        <v>325</v>
+        <v>342</v>
       </c>
       <c r="C387" t="s">
         <v>5</v>
@@ -5994,7 +6063,7 @@
         <v>441</v>
       </c>
       <c r="B388" t="s">
-        <v>325</v>
+        <v>433</v>
       </c>
       <c r="C388" t="s">
         <v>5</v>
@@ -6005,7 +6074,7 @@
         <v>442</v>
       </c>
       <c r="B389" t="s">
-        <v>321</v>
+        <v>433</v>
       </c>
       <c r="C389" t="s">
         <v>5</v>
@@ -6016,7 +6085,7 @@
         <v>443</v>
       </c>
       <c r="B390" t="s">
-        <v>365</v>
+        <v>346</v>
       </c>
       <c r="C390" t="s">
         <v>5</v>
@@ -6027,7 +6096,7 @@
         <v>444</v>
       </c>
       <c r="B391" t="s">
-        <v>391</v>
+        <v>346</v>
       </c>
       <c r="C391" t="s">
         <v>5</v>
@@ -6038,7 +6107,7 @@
         <v>445</v>
       </c>
       <c r="B392" t="s">
-        <v>391</v>
+        <v>346</v>
       </c>
       <c r="C392" t="s">
         <v>5</v>
@@ -6049,7 +6118,7 @@
         <v>446</v>
       </c>
       <c r="B393" t="s">
-        <v>391</v>
+        <v>346</v>
       </c>
       <c r="C393" t="s">
         <v>5</v>
@@ -6060,7 +6129,7 @@
         <v>447</v>
       </c>
       <c r="B394" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="C394" t="s">
         <v>5</v>
@@ -6071,7 +6140,7 @@
         <v>448</v>
       </c>
       <c r="B395" t="s">
-        <v>325</v>
+        <v>346</v>
       </c>
       <c r="C395" t="s">
         <v>5</v>
@@ -6082,7 +6151,7 @@
         <v>449</v>
       </c>
       <c r="B396" t="s">
-        <v>321</v>
+        <v>431</v>
       </c>
       <c r="C396" t="s">
         <v>5</v>
@@ -6093,7 +6162,7 @@
         <v>450</v>
       </c>
       <c r="B397" t="s">
-        <v>323</v>
+        <v>344</v>
       </c>
       <c r="C397" t="s">
         <v>5</v>
@@ -6104,7 +6173,7 @@
         <v>451</v>
       </c>
       <c r="B398" t="s">
-        <v>321</v>
+        <v>431</v>
       </c>
       <c r="C398" t="s">
         <v>5</v>
@@ -6115,7 +6184,7 @@
         <v>452</v>
       </c>
       <c r="B399" t="s">
-        <v>321</v>
+        <v>342</v>
       </c>
       <c r="C399" t="s">
         <v>5</v>
@@ -6126,7 +6195,7 @@
         <v>453</v>
       </c>
       <c r="B400" t="s">
-        <v>325</v>
+        <v>65</v>
       </c>
       <c r="C400" t="s">
         <v>5</v>
@@ -6137,7 +6206,7 @@
         <v>454</v>
       </c>
       <c r="B401" t="s">
-        <v>323</v>
+        <v>340</v>
       </c>
       <c r="C401" t="s">
         <v>5</v>
@@ -6148,7 +6217,7 @@
         <v>455</v>
       </c>
       <c r="B402" t="s">
-        <v>323</v>
+        <v>346</v>
       </c>
       <c r="C402" t="s">
         <v>5</v>
@@ -6159,7 +6228,7 @@
         <v>456</v>
       </c>
       <c r="B403" t="s">
-        <v>408</v>
+        <v>344</v>
       </c>
       <c r="C403" t="s">
         <v>5</v>
@@ -6170,7 +6239,7 @@
         <v>457</v>
       </c>
       <c r="B404" t="s">
-        <v>391</v>
+        <v>346</v>
       </c>
       <c r="C404" t="s">
         <v>5</v>
@@ -6181,7 +6250,7 @@
         <v>458</v>
       </c>
       <c r="B405" t="s">
-        <v>391</v>
+        <v>431</v>
       </c>
       <c r="C405" t="s">
         <v>5</v>
@@ -6192,7 +6261,7 @@
         <v>459</v>
       </c>
       <c r="B406" t="s">
-        <v>365</v>
+        <v>344</v>
       </c>
       <c r="C406" t="s">
         <v>5</v>
@@ -6203,7 +6272,7 @@
         <v>460</v>
       </c>
       <c r="B407" t="s">
-        <v>365</v>
+        <v>431</v>
       </c>
       <c r="C407" t="s">
         <v>5</v>
@@ -6214,7 +6283,7 @@
         <v>461</v>
       </c>
       <c r="B408" t="s">
-        <v>365</v>
+        <v>433</v>
       </c>
       <c r="C408" t="s">
         <v>5</v>
@@ -6225,9 +6294,262 @@
         <v>462</v>
       </c>
       <c r="B409" t="s">
-        <v>365</v>
+        <v>344</v>
       </c>
       <c r="C409" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="s">
+        <v>463</v>
+      </c>
+      <c r="B410" t="s">
+        <v>348</v>
+      </c>
+      <c r="C410" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="s">
+        <v>464</v>
+      </c>
+      <c r="B411" t="s">
+        <v>348</v>
+      </c>
+      <c r="C411" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="s">
+        <v>465</v>
+      </c>
+      <c r="B412" t="s">
+        <v>344</v>
+      </c>
+      <c r="C412" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="s">
+        <v>466</v>
+      </c>
+      <c r="B413" t="s">
+        <v>388</v>
+      </c>
+      <c r="C413" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="s">
+        <v>467</v>
+      </c>
+      <c r="B414" t="s">
+        <v>414</v>
+      </c>
+      <c r="C414" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="s">
+        <v>468</v>
+      </c>
+      <c r="B415" t="s">
+        <v>414</v>
+      </c>
+      <c r="C415" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="s">
+        <v>469</v>
+      </c>
+      <c r="B416" t="s">
+        <v>414</v>
+      </c>
+      <c r="C416" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="s">
+        <v>470</v>
+      </c>
+      <c r="B417" t="s">
+        <v>358</v>
+      </c>
+      <c r="C417" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="s">
+        <v>471</v>
+      </c>
+      <c r="B418" t="s">
+        <v>348</v>
+      </c>
+      <c r="C418" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="s">
+        <v>472</v>
+      </c>
+      <c r="B419" t="s">
+        <v>344</v>
+      </c>
+      <c r="C419" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="s">
+        <v>473</v>
+      </c>
+      <c r="B420" t="s">
+        <v>346</v>
+      </c>
+      <c r="C420" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="s">
+        <v>474</v>
+      </c>
+      <c r="B421" t="s">
+        <v>344</v>
+      </c>
+      <c r="C421" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="s">
+        <v>475</v>
+      </c>
+      <c r="B422" t="s">
+        <v>344</v>
+      </c>
+      <c r="C422" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="s">
+        <v>476</v>
+      </c>
+      <c r="B423" t="s">
+        <v>348</v>
+      </c>
+      <c r="C423" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="s">
+        <v>477</v>
+      </c>
+      <c r="B424" t="s">
+        <v>346</v>
+      </c>
+      <c r="C424" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="s">
+        <v>478</v>
+      </c>
+      <c r="B425" t="s">
+        <v>346</v>
+      </c>
+      <c r="C425" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="s">
+        <v>479</v>
+      </c>
+      <c r="B426" t="s">
+        <v>431</v>
+      </c>
+      <c r="C426" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="s">
+        <v>480</v>
+      </c>
+      <c r="B427" t="s">
+        <v>414</v>
+      </c>
+      <c r="C427" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="s">
+        <v>481</v>
+      </c>
+      <c r="B428" t="s">
+        <v>414</v>
+      </c>
+      <c r="C428" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="s">
+        <v>482</v>
+      </c>
+      <c r="B429" t="s">
+        <v>388</v>
+      </c>
+      <c r="C429" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="s">
+        <v>483</v>
+      </c>
+      <c r="B430" t="s">
+        <v>388</v>
+      </c>
+      <c r="C430" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="s">
+        <v>484</v>
+      </c>
+      <c r="B431" t="s">
+        <v>388</v>
+      </c>
+      <c r="C431" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="s">
+        <v>485</v>
+      </c>
+      <c r="B432" t="s">
+        <v>388</v>
+      </c>
+      <c r="C432" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/GreatLink/GreatLink Multi-Sector Income.xlsx
+++ b/data/GreatLink/GreatLink Multi-Sector Income.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid675280"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid452013"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="504">
   <si>
     <t>Price Date</t>
   </si>
@@ -26,15 +26,87 @@
     <t>Currency - Unit Level</t>
   </si>
   <si>
+    <t>02/02/2026</t>
+  </si>
+  <si>
+    <t>0.921</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>30/01/2026</t>
+  </si>
+  <si>
+    <t>0.927</t>
+  </si>
+  <si>
+    <t>29/01/2026</t>
+  </si>
+  <si>
+    <t>0.928</t>
+  </si>
+  <si>
+    <t>28/01/2026</t>
+  </si>
+  <si>
+    <t>27/01/2026</t>
+  </si>
+  <si>
+    <t>26/01/2026</t>
+  </si>
+  <si>
+    <t>23/01/2026</t>
+  </si>
+  <si>
+    <t>0.926</t>
+  </si>
+  <si>
+    <t>22/01/2026</t>
+  </si>
+  <si>
+    <t>21/01/2026</t>
+  </si>
+  <si>
+    <t>20/01/2026</t>
+  </si>
+  <si>
+    <t>0.924</t>
+  </si>
+  <si>
+    <t>19/01/2026</t>
+  </si>
+  <si>
+    <t>16/01/2026</t>
+  </si>
+  <si>
+    <t>15/01/2026</t>
+  </si>
+  <si>
+    <t>14/01/2026</t>
+  </si>
+  <si>
+    <t>0.929</t>
+  </si>
+  <si>
+    <t>13/01/2026</t>
+  </si>
+  <si>
+    <t>12/01/2026</t>
+  </si>
+  <si>
+    <t>09/01/2026</t>
+  </si>
+  <si>
+    <t>08/01/2026</t>
+  </si>
+  <si>
+    <t>0.925</t>
+  </si>
+  <si>
     <t>07/01/2026</t>
   </si>
   <si>
-    <t>0.926</t>
-  </si>
-  <si>
-    <t>SGD</t>
-  </si>
-  <si>
     <t>06/01/2026</t>
   </si>
   <si>
@@ -44,15 +116,9 @@
     <t>02/01/2026</t>
   </si>
   <si>
-    <t>0.924</t>
-  </si>
-  <si>
     <t>31/12/2025</t>
   </si>
   <si>
-    <t>0.929</t>
-  </si>
-  <si>
     <t>30/12/2025</t>
   </si>
   <si>
@@ -71,18 +137,12 @@
     <t>23/12/2025</t>
   </si>
   <si>
-    <t>0.927</t>
-  </si>
-  <si>
     <t>22/12/2025</t>
   </si>
   <si>
     <t>19/12/2025</t>
   </si>
   <si>
-    <t>0.928</t>
-  </si>
-  <si>
     <t>18/12/2025</t>
   </si>
   <si>
@@ -98,9 +158,6 @@
     <t>12/12/2025</t>
   </si>
   <si>
-    <t>0.925</t>
-  </si>
-  <si>
     <t>11/12/2025</t>
   </si>
   <si>
@@ -441,9 +498,6 @@
   </si>
   <si>
     <t>18/07/2025</t>
-  </si>
-  <si>
-    <t>0.921</t>
   </si>
   <si>
     <t>17/07/2025</t>
@@ -1828,7 +1882,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -1836,10 +1890,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -1847,7 +1901,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -1858,10 +1912,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1872,7 +1926,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1880,10 +1934,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
         <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -1894,7 +1948,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -1905,7 +1959,7 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -1927,7 +1981,7 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -1938,7 +1992,7 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -1946,10 +2000,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -1957,10 +2011,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
         <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>21</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -1971,7 +2025,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -1982,7 +2036,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -1993,7 +2047,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -2001,10 +2055,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
         <v>28</v>
-      </c>
-      <c r="B19" t="s">
-        <v>18</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -2015,7 +2069,7 @@
         <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -2026,7 +2080,7 @@
         <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -2037,7 +2091,7 @@
         <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -2059,7 +2113,7 @@
         <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -2070,7 +2124,7 @@
         <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -2078,10 +2132,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" t="s">
         <v>35</v>
-      </c>
-      <c r="B26" t="s">
-        <v>18</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -2089,10 +2143,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -2100,10 +2154,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -2111,10 +2165,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -2125,7 +2179,7 @@
         <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -2136,7 +2190,7 @@
         <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -2144,10 +2198,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -2155,10 +2209,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B33" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -2166,10 +2220,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B34" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -2177,10 +2231,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B35" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -2188,10 +2242,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B36" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -2199,10 +2253,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B37" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -2210,10 +2264,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B38" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -2221,10 +2275,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B39" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -2232,10 +2286,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B40" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -2243,10 +2297,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -2254,10 +2308,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B42" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -2265,10 +2319,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -2276,10 +2330,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B44" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -2287,10 +2341,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B45" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -2298,10 +2352,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B46" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -2309,10 +2363,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B47" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -2320,10 +2374,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B48" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -2331,10 +2385,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
+        <v>60</v>
+      </c>
+      <c r="B49" t="s">
         <v>61</v>
-      </c>
-      <c r="B49" t="s">
-        <v>13</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -2356,7 +2410,7 @@
         <v>64</v>
       </c>
       <c r="B51" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -2364,10 +2418,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B52" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -2375,10 +2429,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B53" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -2386,10 +2440,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B54" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -2397,10 +2451,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B55" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -2408,10 +2462,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B56" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -2419,10 +2473,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B57" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -2430,10 +2484,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B58" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -2441,10 +2495,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B59" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -2452,10 +2506,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B60" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -2463,10 +2517,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B61" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -2474,10 +2528,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B62" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -2485,10 +2539,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B63" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -2496,10 +2550,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B64" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -2507,10 +2561,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B65" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -2518,10 +2572,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B66" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -2529,10 +2583,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B67" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -2540,10 +2594,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B68" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -2551,10 +2605,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B69" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -2562,10 +2616,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B70" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -2573,10 +2627,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B71" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -2584,10 +2638,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B72" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -2595,10 +2649,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B73" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -2606,10 +2660,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B74" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -2617,10 +2671,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
+        <v>92</v>
+      </c>
+      <c r="B75" t="s">
         <v>93</v>
-      </c>
-      <c r="B75" t="s">
-        <v>39</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -2631,7 +2685,7 @@
         <v>94</v>
       </c>
       <c r="B76" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -2642,7 +2696,7 @@
         <v>95</v>
       </c>
       <c r="B77" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -2653,7 +2707,7 @@
         <v>96</v>
       </c>
       <c r="B78" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -2661,10 +2715,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B79" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -2672,10 +2726,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B80" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -2686,7 +2740,7 @@
         <v>100</v>
       </c>
       <c r="B81" t="s">
-        <v>99</v>
+        <v>7</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -2697,7 +2751,7 @@
         <v>101</v>
       </c>
       <c r="B82" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -2708,7 +2762,7 @@
         <v>102</v>
       </c>
       <c r="B83" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -2719,7 +2773,7 @@
         <v>103</v>
       </c>
       <c r="B84" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -2730,7 +2784,7 @@
         <v>104</v>
       </c>
       <c r="B85" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -2741,7 +2795,7 @@
         <v>105</v>
       </c>
       <c r="B86" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -2752,7 +2806,7 @@
         <v>106</v>
       </c>
       <c r="B87" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -2763,7 +2817,7 @@
         <v>107</v>
       </c>
       <c r="B88" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -2774,7 +2828,7 @@
         <v>108</v>
       </c>
       <c r="B89" t="s">
-        <v>4</v>
+        <v>97</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -2785,7 +2839,7 @@
         <v>109</v>
       </c>
       <c r="B90" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -2796,7 +2850,7 @@
         <v>110</v>
       </c>
       <c r="B91" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -2807,7 +2861,7 @@
         <v>111</v>
       </c>
       <c r="B92" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -2818,7 +2872,7 @@
         <v>112</v>
       </c>
       <c r="B93" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -2829,7 +2883,7 @@
         <v>113</v>
       </c>
       <c r="B94" t="s">
-        <v>44</v>
+        <v>97</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -2840,7 +2894,7 @@
         <v>114</v>
       </c>
       <c r="B95" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -2851,7 +2905,7 @@
         <v>115</v>
       </c>
       <c r="B96" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -2862,7 +2916,7 @@
         <v>116</v>
       </c>
       <c r="B97" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -2873,7 +2927,7 @@
         <v>117</v>
       </c>
       <c r="B98" t="s">
-        <v>4</v>
+        <v>118</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -2881,10 +2935,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
+        <v>119</v>
+      </c>
+      <c r="B99" t="s">
         <v>118</v>
-      </c>
-      <c r="B99" t="s">
-        <v>21</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
@@ -2892,10 +2946,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B100" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
@@ -2903,10 +2957,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B101" t="s">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -2914,10 +2968,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B102" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
@@ -2925,10 +2979,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B103" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -2936,10 +2990,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B104" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -2947,10 +3001,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B105" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -2958,10 +3012,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B106" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
@@ -2969,10 +3023,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B107" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -2980,10 +3034,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B108" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -2991,10 +3045,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B109" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -3002,10 +3056,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B110" t="s">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -3013,10 +3067,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B111" t="s">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -3024,10 +3078,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B112" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -3035,10 +3089,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B113" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -3046,10 +3100,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B114" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -3057,10 +3111,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B115" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -3068,10 +3122,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B116" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -3079,10 +3133,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B117" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
@@ -3090,10 +3144,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B118" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -3101,10 +3155,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B119" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -3112,10 +3166,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B120" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -3123,10 +3177,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B121" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -3134,10 +3188,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B122" t="s">
-        <v>142</v>
+        <v>63</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -3148,7 +3202,7 @@
         <v>143</v>
       </c>
       <c r="B123" t="s">
-        <v>144</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -3156,10 +3210,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B124" t="s">
-        <v>144</v>
+        <v>7</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -3167,10 +3221,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B125" t="s">
-        <v>147</v>
+        <v>7</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -3178,10 +3232,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B126" t="s">
-        <v>142</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
@@ -3189,10 +3243,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B127" t="s">
-        <v>142</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
@@ -3200,7 +3254,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B128" t="s">
         <v>9</v>
@@ -3211,7 +3265,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B129" t="s">
         <v>9</v>
@@ -3222,10 +3276,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B130" t="s">
-        <v>142</v>
+        <v>14</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -3233,10 +3287,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B131" t="s">
-        <v>154</v>
+        <v>28</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -3244,10 +3298,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B132" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
@@ -3255,10 +3309,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B133" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
@@ -3266,10 +3320,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B134" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
@@ -3277,10 +3331,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B135" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
@@ -3288,10 +3342,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B136" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -3299,10 +3353,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B137" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
@@ -3310,10 +3364,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B138" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
@@ -3321,10 +3375,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B139" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -3332,10 +3386,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B140" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
@@ -3343,10 +3397,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B141" t="s">
-        <v>9</v>
+        <v>162</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
@@ -3354,10 +3408,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B142" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
@@ -3365,10 +3419,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B143" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -3376,10 +3430,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B144" t="s">
-        <v>166</v>
+        <v>4</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
@@ -3387,10 +3441,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B145" t="s">
-        <v>142</v>
+        <v>4</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
@@ -3398,10 +3452,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B146" t="s">
-        <v>142</v>
+        <v>18</v>
       </c>
       <c r="C146" t="s">
         <v>5</v>
@@ -3409,10 +3463,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B147" t="s">
-        <v>142</v>
+        <v>18</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
@@ -3420,10 +3474,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B148" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
@@ -3431,10 +3485,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B149" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
@@ -3442,10 +3496,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B150" t="s">
-        <v>144</v>
+        <v>14</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
@@ -3453,10 +3507,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B151" t="s">
-        <v>176</v>
+        <v>14</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
@@ -3464,10 +3518,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B152" t="s">
-        <v>178</v>
+        <v>14</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
@@ -3475,10 +3529,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B153" t="s">
-        <v>180</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
@@ -3486,10 +3540,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B154" t="s">
-        <v>142</v>
+        <v>61</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
@@ -3497,10 +3551,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B155" t="s">
-        <v>176</v>
+        <v>35</v>
       </c>
       <c r="C155" t="s">
         <v>5</v>
@@ -3508,10 +3562,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B156" t="s">
-        <v>184</v>
+        <v>63</v>
       </c>
       <c r="C156" t="s">
         <v>5</v>
@@ -3519,10 +3573,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B157" t="s">
-        <v>166</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
@@ -3530,10 +3584,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B158" t="s">
-        <v>144</v>
+        <v>9</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
@@ -3541,10 +3595,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B159" t="s">
-        <v>176</v>
+        <v>18</v>
       </c>
       <c r="C159" t="s">
         <v>5</v>
@@ -3552,10 +3606,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B160" t="s">
-        <v>147</v>
+        <v>184</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
@@ -3563,10 +3617,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B161" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="C161" t="s">
         <v>5</v>
@@ -3574,10 +3628,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B162" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="C162" t="s">
         <v>5</v>
@@ -3585,10 +3639,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B163" t="s">
-        <v>192</v>
+        <v>4</v>
       </c>
       <c r="C163" t="s">
         <v>5</v>
@@ -3596,10 +3650,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B164" t="s">
-        <v>194</v>
+        <v>4</v>
       </c>
       <c r="C164" t="s">
         <v>5</v>
@@ -3607,10 +3661,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B165" t="s">
-        <v>176</v>
+        <v>4</v>
       </c>
       <c r="C165" t="s">
         <v>5</v>
@@ -3618,10 +3672,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B166" t="s">
-        <v>147</v>
+        <v>28</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
@@ -3629,10 +3683,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B167" t="s">
-        <v>147</v>
+        <v>184</v>
       </c>
       <c r="C167" t="s">
         <v>5</v>
@@ -3640,10 +3694,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B168" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="C168" t="s">
         <v>5</v>
@@ -3651,10 +3705,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B169" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C169" t="s">
         <v>5</v>
@@ -3662,10 +3716,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B170" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="C170" t="s">
         <v>5</v>
@@ -3673,10 +3727,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B171" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="C171" t="s">
         <v>5</v>
@@ -3684,10 +3738,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B172" t="s">
-        <v>176</v>
+        <v>4</v>
       </c>
       <c r="C172" t="s">
         <v>5</v>
@@ -3695,10 +3749,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B173" t="s">
-        <v>144</v>
+        <v>194</v>
       </c>
       <c r="C173" t="s">
         <v>5</v>
@@ -3706,10 +3760,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B174" t="s">
-        <v>176</v>
+        <v>202</v>
       </c>
       <c r="C174" t="s">
         <v>5</v>
@@ -3717,7 +3771,7 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B175" t="s">
         <v>184</v>
@@ -3728,10 +3782,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B176" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="C176" t="s">
         <v>5</v>
@@ -3739,10 +3793,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B177" t="s">
-        <v>11</v>
+        <v>194</v>
       </c>
       <c r="C177" t="s">
         <v>5</v>
@@ -3750,10 +3804,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B178" t="s">
-        <v>11</v>
+        <v>165</v>
       </c>
       <c r="C178" t="s">
         <v>5</v>
@@ -3761,10 +3815,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B179" t="s">
-        <v>21</v>
+        <v>196</v>
       </c>
       <c r="C179" t="s">
         <v>5</v>
@@ -3772,10 +3826,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B180" t="s">
-        <v>4</v>
+        <v>196</v>
       </c>
       <c r="C180" t="s">
         <v>5</v>
@@ -3783,10 +3837,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B181" t="s">
-        <v>27</v>
+        <v>210</v>
       </c>
       <c r="C181" t="s">
         <v>5</v>
@@ -3794,10 +3848,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
+        <v>211</v>
+      </c>
+      <c r="B182" t="s">
         <v>212</v>
-      </c>
-      <c r="B182" t="s">
-        <v>180</v>
       </c>
       <c r="C182" t="s">
         <v>5</v>
@@ -3808,7 +3862,7 @@
         <v>213</v>
       </c>
       <c r="B183" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="C183" t="s">
         <v>5</v>
@@ -3819,7 +3873,7 @@
         <v>214</v>
       </c>
       <c r="B184" t="s">
-        <v>215</v>
+        <v>165</v>
       </c>
       <c r="C184" t="s">
         <v>5</v>
@@ -3827,10 +3881,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B185" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="C185" t="s">
         <v>5</v>
@@ -3838,10 +3892,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B186" t="s">
-        <v>147</v>
+        <v>194</v>
       </c>
       <c r="C186" t="s">
         <v>5</v>
@@ -3849,10 +3903,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B187" t="s">
-        <v>176</v>
+        <v>210</v>
       </c>
       <c r="C187" t="s">
         <v>5</v>
@@ -3860,10 +3914,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B188" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="C188" t="s">
         <v>5</v>
@@ -3871,10 +3925,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B189" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="C189" t="s">
         <v>5</v>
@@ -3882,10 +3936,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B190" t="s">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="C190" t="s">
         <v>5</v>
@@ -3893,10 +3947,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B191" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="C191" t="s">
         <v>5</v>
@@ -3904,10 +3958,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B192" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="C192" t="s">
         <v>5</v>
@@ -3915,10 +3969,10 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B193" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="C193" t="s">
         <v>5</v>
@@ -3926,10 +3980,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B194" t="s">
-        <v>11</v>
+        <v>165</v>
       </c>
       <c r="C194" t="s">
         <v>5</v>
@@ -3937,10 +3991,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B195" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="C195" t="s">
         <v>5</v>
@@ -3948,10 +4002,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B196" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="C196" t="s">
         <v>5</v>
@@ -3959,10 +4013,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B197" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="C197" t="s">
         <v>5</v>
@@ -3970,10 +4024,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B198" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="C198" t="s">
         <v>5</v>
@@ -3981,10 +4035,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B199" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C199" t="s">
         <v>5</v>
@@ -3992,10 +4046,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B200" t="s">
-        <v>39</v>
+        <v>198</v>
       </c>
       <c r="C200" t="s">
         <v>5</v>
@@ -4003,10 +4057,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B201" t="s">
-        <v>74</v>
+        <v>202</v>
       </c>
       <c r="C201" t="s">
         <v>5</v>
@@ -4014,10 +4068,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B202" t="s">
-        <v>39</v>
+        <v>233</v>
       </c>
       <c r="C202" t="s">
         <v>5</v>
@@ -4025,10 +4079,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B203" t="s">
-        <v>99</v>
+        <v>198</v>
       </c>
       <c r="C203" t="s">
         <v>5</v>
@@ -4036,10 +4090,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B204" t="s">
-        <v>69</v>
+        <v>165</v>
       </c>
       <c r="C204" t="s">
         <v>5</v>
@@ -4047,10 +4101,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B205" t="s">
-        <v>63</v>
+        <v>194</v>
       </c>
       <c r="C205" t="s">
         <v>5</v>
@@ -4058,10 +4112,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B206" t="s">
-        <v>99</v>
+        <v>196</v>
       </c>
       <c r="C206" t="s">
         <v>5</v>
@@ -4069,10 +4123,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B207" t="s">
-        <v>74</v>
+        <v>239</v>
       </c>
       <c r="C207" t="s">
         <v>5</v>
@@ -4080,10 +4134,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
+        <v>240</v>
+      </c>
+      <c r="B208" t="s">
         <v>241</v>
-      </c>
-      <c r="B208" t="s">
-        <v>74</v>
       </c>
       <c r="C208" t="s">
         <v>5</v>
@@ -4094,7 +4148,7 @@
         <v>242</v>
       </c>
       <c r="B209" t="s">
-        <v>39</v>
+        <v>196</v>
       </c>
       <c r="C209" t="s">
         <v>5</v>
@@ -4105,7 +4159,7 @@
         <v>243</v>
       </c>
       <c r="B210" t="s">
-        <v>42</v>
+        <v>233</v>
       </c>
       <c r="C210" t="s">
         <v>5</v>
@@ -4116,7 +4170,7 @@
         <v>244</v>
       </c>
       <c r="B211" t="s">
-        <v>39</v>
+        <v>198</v>
       </c>
       <c r="C211" t="s">
         <v>5</v>
@@ -4127,7 +4181,7 @@
         <v>245</v>
       </c>
       <c r="B212" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="C212" t="s">
         <v>5</v>
@@ -4138,7 +4192,7 @@
         <v>246</v>
       </c>
       <c r="B213" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C213" t="s">
         <v>5</v>
@@ -4149,7 +4203,7 @@
         <v>247</v>
       </c>
       <c r="B214" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="C214" t="s">
         <v>5</v>
@@ -4160,7 +4214,7 @@
         <v>248</v>
       </c>
       <c r="B215" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C215" t="s">
         <v>5</v>
@@ -4171,7 +4225,7 @@
         <v>249</v>
       </c>
       <c r="B216" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C216" t="s">
         <v>5</v>
@@ -4182,7 +4236,7 @@
         <v>250</v>
       </c>
       <c r="B217" t="s">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="C217" t="s">
         <v>5</v>
@@ -4193,7 +4247,7 @@
         <v>251</v>
       </c>
       <c r="B218" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C218" t="s">
         <v>5</v>
@@ -4204,7 +4258,7 @@
         <v>252</v>
       </c>
       <c r="B219" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="C219" t="s">
         <v>5</v>
@@ -4215,7 +4269,7 @@
         <v>253</v>
       </c>
       <c r="B220" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C220" t="s">
         <v>5</v>
@@ -4226,7 +4280,7 @@
         <v>254</v>
       </c>
       <c r="B221" t="s">
-        <v>67</v>
+        <v>118</v>
       </c>
       <c r="C221" t="s">
         <v>5</v>
@@ -4237,7 +4291,7 @@
         <v>255</v>
       </c>
       <c r="B222" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="C222" t="s">
         <v>5</v>
@@ -4248,7 +4302,7 @@
         <v>256</v>
       </c>
       <c r="B223" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="C223" t="s">
         <v>5</v>
@@ -4259,7 +4313,7 @@
         <v>257</v>
       </c>
       <c r="B224" t="s">
-        <v>42</v>
+        <v>118</v>
       </c>
       <c r="C224" t="s">
         <v>5</v>
@@ -4270,7 +4324,7 @@
         <v>258</v>
       </c>
       <c r="B225" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="C225" t="s">
         <v>5</v>
@@ -4281,7 +4335,7 @@
         <v>259</v>
       </c>
       <c r="B226" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="C226" t="s">
         <v>5</v>
@@ -4292,7 +4346,7 @@
         <v>260</v>
       </c>
       <c r="B227" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="C227" t="s">
         <v>5</v>
@@ -4303,7 +4357,7 @@
         <v>261</v>
       </c>
       <c r="B228" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="C228" t="s">
         <v>5</v>
@@ -4314,7 +4368,7 @@
         <v>262</v>
       </c>
       <c r="B229" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="C229" t="s">
         <v>5</v>
@@ -4325,7 +4379,7 @@
         <v>263</v>
       </c>
       <c r="B230" t="s">
-        <v>4</v>
+        <v>118</v>
       </c>
       <c r="C230" t="s">
         <v>5</v>
@@ -4336,7 +4390,7 @@
         <v>264</v>
       </c>
       <c r="B231" t="s">
-        <v>11</v>
+        <v>93</v>
       </c>
       <c r="C231" t="s">
         <v>5</v>
@@ -4347,7 +4401,7 @@
         <v>265</v>
       </c>
       <c r="B232" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="C232" t="s">
         <v>5</v>
@@ -4358,7 +4412,7 @@
         <v>266</v>
       </c>
       <c r="B233" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="C233" t="s">
         <v>5</v>
@@ -4369,7 +4423,7 @@
         <v>267</v>
       </c>
       <c r="B234" t="s">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="C234" t="s">
         <v>5</v>
@@ -4380,7 +4434,7 @@
         <v>268</v>
       </c>
       <c r="B235" t="s">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="C235" t="s">
         <v>5</v>
@@ -4391,7 +4445,7 @@
         <v>269</v>
       </c>
       <c r="B236" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="C236" t="s">
         <v>5</v>
@@ -4402,7 +4456,7 @@
         <v>270</v>
       </c>
       <c r="B237" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="C237" t="s">
         <v>5</v>
@@ -4413,7 +4467,7 @@
         <v>271</v>
       </c>
       <c r="B238" t="s">
-        <v>4</v>
+        <v>86</v>
       </c>
       <c r="C238" t="s">
         <v>5</v>
@@ -4424,7 +4478,7 @@
         <v>272</v>
       </c>
       <c r="B239" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="C239" t="s">
         <v>5</v>
@@ -4435,7 +4489,7 @@
         <v>273</v>
       </c>
       <c r="B240" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="C240" t="s">
         <v>5</v>
@@ -4446,7 +4500,7 @@
         <v>274</v>
       </c>
       <c r="B241" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="C241" t="s">
         <v>5</v>
@@ -4457,7 +4511,7 @@
         <v>275</v>
       </c>
       <c r="B242" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C242" t="s">
         <v>5</v>
@@ -4468,7 +4522,7 @@
         <v>276</v>
       </c>
       <c r="B243" t="s">
-        <v>4</v>
+        <v>97</v>
       </c>
       <c r="C243" t="s">
         <v>5</v>
@@ -4479,7 +4533,7 @@
         <v>277</v>
       </c>
       <c r="B244" t="s">
-        <v>4</v>
+        <v>97</v>
       </c>
       <c r="C244" t="s">
         <v>5</v>
@@ -4490,7 +4544,7 @@
         <v>278</v>
       </c>
       <c r="B245" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="C245" t="s">
         <v>5</v>
@@ -4501,7 +4555,7 @@
         <v>279</v>
       </c>
       <c r="B246" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="C246" t="s">
         <v>5</v>
@@ -4512,7 +4566,7 @@
         <v>280</v>
       </c>
       <c r="B247" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="C247" t="s">
         <v>5</v>
@@ -4523,7 +4577,7 @@
         <v>281</v>
       </c>
       <c r="B248" t="s">
-        <v>166</v>
+        <v>14</v>
       </c>
       <c r="C248" t="s">
         <v>5</v>
@@ -4534,7 +4588,7 @@
         <v>282</v>
       </c>
       <c r="B249" t="s">
-        <v>184</v>
+        <v>23</v>
       </c>
       <c r="C249" t="s">
         <v>5</v>
@@ -4545,7 +4599,7 @@
         <v>283</v>
       </c>
       <c r="B250" t="s">
-        <v>178</v>
+        <v>63</v>
       </c>
       <c r="C250" t="s">
         <v>5</v>
@@ -4556,7 +4610,7 @@
         <v>284</v>
       </c>
       <c r="B251" t="s">
-        <v>184</v>
+        <v>63</v>
       </c>
       <c r="C251" t="s">
         <v>5</v>
@@ -4567,7 +4621,7 @@
         <v>285</v>
       </c>
       <c r="B252" t="s">
-        <v>166</v>
+        <v>97</v>
       </c>
       <c r="C252" t="s">
         <v>5</v>
@@ -4578,7 +4632,7 @@
         <v>286</v>
       </c>
       <c r="B253" t="s">
-        <v>166</v>
+        <v>63</v>
       </c>
       <c r="C253" t="s">
         <v>5</v>
@@ -4589,7 +4643,7 @@
         <v>287</v>
       </c>
       <c r="B254" t="s">
-        <v>166</v>
+        <v>9</v>
       </c>
       <c r="C254" t="s">
         <v>5</v>
@@ -4600,7 +4654,7 @@
         <v>288</v>
       </c>
       <c r="B255" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C255" t="s">
         <v>5</v>
@@ -4611,7 +4665,7 @@
         <v>289</v>
       </c>
       <c r="B256" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
       <c r="C256" t="s">
         <v>5</v>
@@ -4622,7 +4676,7 @@
         <v>290</v>
       </c>
       <c r="B257" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="C257" t="s">
         <v>5</v>
@@ -4633,7 +4687,7 @@
         <v>291</v>
       </c>
       <c r="B258" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C258" t="s">
         <v>5</v>
@@ -4644,7 +4698,7 @@
         <v>292</v>
       </c>
       <c r="B259" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C259" t="s">
         <v>5</v>
@@ -4655,7 +4709,7 @@
         <v>293</v>
       </c>
       <c r="B260" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="C260" t="s">
         <v>5</v>
@@ -4666,7 +4720,7 @@
         <v>294</v>
       </c>
       <c r="B261" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C261" t="s">
         <v>5</v>
@@ -4677,7 +4731,7 @@
         <v>295</v>
       </c>
       <c r="B262" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C262" t="s">
         <v>5</v>
@@ -4688,7 +4742,7 @@
         <v>296</v>
       </c>
       <c r="B263" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C263" t="s">
         <v>5</v>
@@ -4710,7 +4764,7 @@
         <v>298</v>
       </c>
       <c r="B265" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C265" t="s">
         <v>5</v>
@@ -4721,7 +4775,7 @@
         <v>299</v>
       </c>
       <c r="B266" t="s">
-        <v>21</v>
+        <v>184</v>
       </c>
       <c r="C266" t="s">
         <v>5</v>
@@ -4732,7 +4786,7 @@
         <v>300</v>
       </c>
       <c r="B267" t="s">
-        <v>78</v>
+        <v>202</v>
       </c>
       <c r="C267" t="s">
         <v>5</v>
@@ -4743,7 +4797,7 @@
         <v>301</v>
       </c>
       <c r="B268" t="s">
-        <v>42</v>
+        <v>196</v>
       </c>
       <c r="C268" t="s">
         <v>5</v>
@@ -4754,7 +4808,7 @@
         <v>302</v>
       </c>
       <c r="B269" t="s">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="C269" t="s">
         <v>5</v>
@@ -4765,7 +4819,7 @@
         <v>303</v>
       </c>
       <c r="B270" t="s">
-        <v>99</v>
+        <v>184</v>
       </c>
       <c r="C270" t="s">
         <v>5</v>
@@ -4776,7 +4830,7 @@
         <v>304</v>
       </c>
       <c r="B271" t="s">
-        <v>69</v>
+        <v>184</v>
       </c>
       <c r="C271" t="s">
         <v>5</v>
@@ -4787,7 +4841,7 @@
         <v>305</v>
       </c>
       <c r="B272" t="s">
-        <v>67</v>
+        <v>184</v>
       </c>
       <c r="C272" t="s">
         <v>5</v>
@@ -4798,7 +4852,7 @@
         <v>306</v>
       </c>
       <c r="B273" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="C273" t="s">
         <v>5</v>
@@ -4809,7 +4863,7 @@
         <v>307</v>
       </c>
       <c r="B274" t="s">
-        <v>65</v>
+        <v>172</v>
       </c>
       <c r="C274" t="s">
         <v>5</v>
@@ -4820,7 +4874,7 @@
         <v>308</v>
       </c>
       <c r="B275" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="C275" t="s">
         <v>5</v>
@@ -4831,7 +4885,7 @@
         <v>309</v>
       </c>
       <c r="B276" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="C276" t="s">
         <v>5</v>
@@ -4842,7 +4896,7 @@
         <v>310</v>
       </c>
       <c r="B277" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="C277" t="s">
         <v>5</v>
@@ -4853,7 +4907,7 @@
         <v>311</v>
       </c>
       <c r="B278" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="C278" t="s">
         <v>5</v>
@@ -4864,7 +4918,7 @@
         <v>312</v>
       </c>
       <c r="B279" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="C279" t="s">
         <v>5</v>
@@ -4875,7 +4929,7 @@
         <v>313</v>
       </c>
       <c r="B280" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="C280" t="s">
         <v>5</v>
@@ -4886,7 +4940,7 @@
         <v>314</v>
       </c>
       <c r="B281" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="C281" t="s">
         <v>5</v>
@@ -4897,7 +4951,7 @@
         <v>315</v>
       </c>
       <c r="B282" t="s">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="C282" t="s">
         <v>5</v>
@@ -4908,7 +4962,7 @@
         <v>316</v>
       </c>
       <c r="B283" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="C283" t="s">
         <v>5</v>
@@ -4919,7 +4973,7 @@
         <v>317</v>
       </c>
       <c r="B284" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="C284" t="s">
         <v>5</v>
@@ -4930,7 +4984,7 @@
         <v>318</v>
       </c>
       <c r="B285" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="C285" t="s">
         <v>5</v>
@@ -4941,7 +4995,7 @@
         <v>319</v>
       </c>
       <c r="B286" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="C286" t="s">
         <v>5</v>
@@ -4952,7 +5006,7 @@
         <v>320</v>
       </c>
       <c r="B287" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="C287" t="s">
         <v>5</v>
@@ -4963,7 +5017,7 @@
         <v>321</v>
       </c>
       <c r="B288" t="s">
-        <v>42</v>
+        <v>118</v>
       </c>
       <c r="C288" t="s">
         <v>5</v>
@@ -4974,7 +5028,7 @@
         <v>322</v>
       </c>
       <c r="B289" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C289" t="s">
         <v>5</v>
@@ -4985,7 +5039,7 @@
         <v>323</v>
       </c>
       <c r="B290" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C290" t="s">
         <v>5</v>
@@ -4996,7 +5050,7 @@
         <v>324</v>
       </c>
       <c r="B291" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C291" t="s">
         <v>5</v>
@@ -5007,7 +5061,7 @@
         <v>325</v>
       </c>
       <c r="B292" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C292" t="s">
         <v>5</v>
@@ -5018,7 +5072,7 @@
         <v>326</v>
       </c>
       <c r="B293" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="C293" t="s">
         <v>5</v>
@@ -5029,7 +5083,7 @@
         <v>327</v>
       </c>
       <c r="B294" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="C294" t="s">
         <v>5</v>
@@ -5040,7 +5094,7 @@
         <v>328</v>
       </c>
       <c r="B295" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="C295" t="s">
         <v>5</v>
@@ -5051,7 +5105,7 @@
         <v>329</v>
       </c>
       <c r="B296" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="C296" t="s">
         <v>5</v>
@@ -5062,7 +5116,7 @@
         <v>330</v>
       </c>
       <c r="B297" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="C297" t="s">
         <v>5</v>
@@ -5073,7 +5127,7 @@
         <v>331</v>
       </c>
       <c r="B298" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="C298" t="s">
         <v>5</v>
@@ -5084,7 +5138,7 @@
         <v>332</v>
       </c>
       <c r="B299" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="C299" t="s">
         <v>5</v>
@@ -5095,7 +5149,7 @@
         <v>333</v>
       </c>
       <c r="B300" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C300" t="s">
         <v>5</v>
@@ -5106,7 +5160,7 @@
         <v>334</v>
       </c>
       <c r="B301" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="C301" t="s">
         <v>5</v>
@@ -5117,7 +5171,7 @@
         <v>335</v>
       </c>
       <c r="B302" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C302" t="s">
         <v>5</v>
@@ -5128,7 +5182,7 @@
         <v>336</v>
       </c>
       <c r="B303" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="C303" t="s">
         <v>5</v>
@@ -5139,7 +5193,7 @@
         <v>337</v>
       </c>
       <c r="B304" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="C304" t="s">
         <v>5</v>
@@ -5150,7 +5204,7 @@
         <v>338</v>
       </c>
       <c r="B305" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C305" t="s">
         <v>5</v>
@@ -5161,7 +5215,7 @@
         <v>339</v>
       </c>
       <c r="B306" t="s">
-        <v>340</v>
+        <v>61</v>
       </c>
       <c r="C306" t="s">
         <v>5</v>
@@ -5169,10 +5223,10 @@
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B307" t="s">
-        <v>342</v>
+        <v>97</v>
       </c>
       <c r="C307" t="s">
         <v>5</v>
@@ -5180,10 +5234,10 @@
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B308" t="s">
-        <v>344</v>
+        <v>97</v>
       </c>
       <c r="C308" t="s">
         <v>5</v>
@@ -5191,10 +5245,10 @@
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B309" t="s">
-        <v>346</v>
+        <v>97</v>
       </c>
       <c r="C309" t="s">
         <v>5</v>
@@ -5202,10 +5256,10 @@
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B310" t="s">
-        <v>348</v>
+        <v>97</v>
       </c>
       <c r="C310" t="s">
         <v>5</v>
@@ -5213,10 +5267,10 @@
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B311" t="s">
-        <v>344</v>
+        <v>82</v>
       </c>
       <c r="C311" t="s">
         <v>5</v>
@@ -5224,10 +5278,10 @@
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B312" t="s">
-        <v>346</v>
+        <v>88</v>
       </c>
       <c r="C312" t="s">
         <v>5</v>
@@ -5235,10 +5289,10 @@
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="B313" t="s">
-        <v>344</v>
+        <v>82</v>
       </c>
       <c r="C313" t="s">
         <v>5</v>
@@ -5246,10 +5300,10 @@
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B314" t="s">
-        <v>346</v>
+        <v>63</v>
       </c>
       <c r="C314" t="s">
         <v>5</v>
@@ -5257,10 +5311,10 @@
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="B315" t="s">
-        <v>346</v>
+        <v>63</v>
       </c>
       <c r="C315" t="s">
         <v>5</v>
@@ -5268,10 +5322,10 @@
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B316" t="s">
-        <v>346</v>
+        <v>35</v>
       </c>
       <c r="C316" t="s">
         <v>5</v>
@@ -5279,10 +5333,10 @@
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B317" t="s">
-        <v>346</v>
+        <v>61</v>
       </c>
       <c r="C317" t="s">
         <v>5</v>
@@ -5290,10 +5344,10 @@
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B318" t="s">
-        <v>344</v>
+        <v>118</v>
       </c>
       <c r="C318" t="s">
         <v>5</v>
@@ -5301,10 +5355,10 @@
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B319" t="s">
-        <v>358</v>
+        <v>88</v>
       </c>
       <c r="C319" t="s">
         <v>5</v>
@@ -5312,10 +5366,10 @@
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="B320" t="s">
-        <v>360</v>
+        <v>82</v>
       </c>
       <c r="C320" t="s">
         <v>5</v>
@@ -5323,10 +5377,10 @@
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="B321" t="s">
-        <v>360</v>
+        <v>86</v>
       </c>
       <c r="C321" t="s">
         <v>5</v>
@@ -5334,10 +5388,10 @@
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="B322" t="s">
-        <v>363</v>
+        <v>86</v>
       </c>
       <c r="C322" t="s">
         <v>5</v>
@@ -5345,10 +5399,10 @@
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="B323" t="s">
-        <v>365</v>
+        <v>88</v>
       </c>
       <c r="C323" t="s">
         <v>5</v>
@@ -5356,10 +5410,10 @@
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="B324" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="C324" t="s">
         <v>5</v>
@@ -5367,10 +5421,10 @@
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="B325" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C325" t="s">
         <v>5</v>
@@ -5378,10 +5432,10 @@
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="B326" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="C326" t="s">
         <v>5</v>
@@ -5389,10 +5443,10 @@
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="B327" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C327" t="s">
         <v>5</v>
@@ -5400,10 +5454,10 @@
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="B328" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C328" t="s">
         <v>5</v>
@@ -5411,10 +5465,10 @@
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="B329" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="C329" t="s">
         <v>5</v>
@@ -5422,10 +5476,10 @@
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="B330" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C330" t="s">
         <v>5</v>
@@ -5433,10 +5487,10 @@
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="B331" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C331" t="s">
         <v>5</v>
@@ -5444,10 +5498,10 @@
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="B332" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C332" t="s">
         <v>5</v>
@@ -5455,10 +5509,10 @@
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="B333" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C333" t="s">
         <v>5</v>
@@ -5466,10 +5520,10 @@
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B334" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="C334" t="s">
         <v>5</v>
@@ -5477,10 +5531,10 @@
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="B335" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="C335" t="s">
         <v>5</v>
@@ -5488,10 +5542,10 @@
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="B336" t="s">
-        <v>382</v>
+        <v>362</v>
       </c>
       <c r="C336" t="s">
         <v>5</v>
@@ -5499,10 +5553,10 @@
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="B337" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="C337" t="s">
         <v>5</v>
@@ -5510,10 +5564,10 @@
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="B338" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="C338" t="s">
         <v>5</v>
@@ -5521,10 +5575,10 @@
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="B339" t="s">
-        <v>358</v>
+        <v>378</v>
       </c>
       <c r="C339" t="s">
         <v>5</v>
@@ -5532,10 +5586,10 @@
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="B340" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="C340" t="s">
         <v>5</v>
@@ -5543,10 +5597,10 @@
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="B341" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="C341" t="s">
         <v>5</v>
@@ -5554,10 +5608,10 @@
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="B342" t="s">
-        <v>348</v>
+        <v>385</v>
       </c>
       <c r="C342" t="s">
         <v>5</v>
@@ -5565,10 +5619,10 @@
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="B343" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C343" t="s">
         <v>5</v>
@@ -5576,10 +5630,10 @@
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="B344" t="s">
-        <v>360</v>
+        <v>388</v>
       </c>
       <c r="C344" t="s">
         <v>5</v>
@@ -5587,10 +5641,10 @@
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="B345" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="C345" t="s">
         <v>5</v>
@@ -5598,10 +5652,10 @@
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B346" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="C346" t="s">
         <v>5</v>
@@ -5609,10 +5663,10 @@
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="B347" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="C347" t="s">
         <v>5</v>
@@ -5620,10 +5674,10 @@
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="B348" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C348" t="s">
         <v>5</v>
@@ -5631,10 +5685,10 @@
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="B349" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C349" t="s">
         <v>5</v>
@@ -5642,10 +5696,10 @@
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="B350" t="s">
-        <v>360</v>
+        <v>383</v>
       </c>
       <c r="C350" t="s">
         <v>5</v>
@@ -5653,10 +5707,10 @@
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="B351" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C351" t="s">
         <v>5</v>
@@ -5664,10 +5718,10 @@
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="B352" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="C352" t="s">
         <v>5</v>
@@ -5675,10 +5729,10 @@
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B353" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="C353" t="s">
         <v>5</v>
@@ -5686,10 +5740,10 @@
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="B354" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="C354" t="s">
         <v>5</v>
@@ -5697,10 +5751,10 @@
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B355" t="s">
-        <v>358</v>
+        <v>378</v>
       </c>
       <c r="C355" t="s">
         <v>5</v>
@@ -5708,10 +5762,10 @@
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B356" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="C356" t="s">
         <v>5</v>
@@ -5719,10 +5773,10 @@
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B357" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="C357" t="s">
         <v>5</v>
@@ -5730,10 +5784,10 @@
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B358" t="s">
-        <v>346</v>
+        <v>406</v>
       </c>
       <c r="C358" t="s">
         <v>5</v>
@@ -5741,10 +5795,10 @@
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B359" t="s">
-        <v>346</v>
+        <v>408</v>
       </c>
       <c r="C359" t="s">
         <v>5</v>
@@ -5752,10 +5806,10 @@
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B360" t="s">
-        <v>344</v>
+        <v>366</v>
       </c>
       <c r="C360" t="s">
         <v>5</v>
@@ -5763,10 +5817,10 @@
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B361" t="s">
-        <v>344</v>
+        <v>403</v>
       </c>
       <c r="C361" t="s">
         <v>5</v>
@@ -5774,10 +5828,10 @@
     </row>
     <row r="362">
       <c r="A362" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B362" t="s">
-        <v>358</v>
+        <v>378</v>
       </c>
       <c r="C362" t="s">
         <v>5</v>
@@ -5785,10 +5839,10 @@
     </row>
     <row r="363">
       <c r="A363" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B363" t="s">
-        <v>414</v>
+        <v>397</v>
       </c>
       <c r="C363" t="s">
         <v>5</v>
@@ -5796,10 +5850,10 @@
     </row>
     <row r="364">
       <c r="A364" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B364" t="s">
-        <v>360</v>
+        <v>414</v>
       </c>
       <c r="C364" t="s">
         <v>5</v>
@@ -5807,10 +5861,10 @@
     </row>
     <row r="365">
       <c r="A365" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B365" t="s">
-        <v>414</v>
+        <v>397</v>
       </c>
       <c r="C365" t="s">
         <v>5</v>
@@ -5818,10 +5872,10 @@
     </row>
     <row r="366">
       <c r="A366" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B366" t="s">
-        <v>414</v>
+        <v>397</v>
       </c>
       <c r="C366" t="s">
         <v>5</v>
@@ -5829,10 +5883,10 @@
     </row>
     <row r="367">
       <c r="A367" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B367" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="C367" t="s">
         <v>5</v>
@@ -5840,10 +5894,10 @@
     </row>
     <row r="368">
       <c r="A368" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B368" t="s">
-        <v>348</v>
+        <v>378</v>
       </c>
       <c r="C368" t="s">
         <v>5</v>
@@ -5851,10 +5905,10 @@
     </row>
     <row r="369">
       <c r="A369" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B369" t="s">
-        <v>344</v>
+        <v>403</v>
       </c>
       <c r="C369" t="s">
         <v>5</v>
@@ -5862,10 +5916,10 @@
     </row>
     <row r="370">
       <c r="A370" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B370" t="s">
-        <v>348</v>
+        <v>403</v>
       </c>
       <c r="C370" t="s">
         <v>5</v>
@@ -5873,10 +5927,10 @@
     </row>
     <row r="371">
       <c r="A371" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B371" t="s">
-        <v>348</v>
+        <v>403</v>
       </c>
       <c r="C371" t="s">
         <v>5</v>
@@ -5884,10 +5938,10 @@
     </row>
     <row r="372">
       <c r="A372" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B372" t="s">
-        <v>348</v>
+        <v>406</v>
       </c>
       <c r="C372" t="s">
         <v>5</v>
@@ -5895,10 +5949,10 @@
     </row>
     <row r="373">
       <c r="A373" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B373" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="C373" t="s">
         <v>5</v>
@@ -5906,10 +5960,10 @@
     </row>
     <row r="374">
       <c r="A374" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B374" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="C374" t="s">
         <v>5</v>
@@ -5917,10 +5971,10 @@
     </row>
     <row r="375">
       <c r="A375" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B375" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="C375" t="s">
         <v>5</v>
@@ -5928,10 +5982,10 @@
     </row>
     <row r="376">
       <c r="A376" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B376" t="s">
-        <v>390</v>
+        <v>364</v>
       </c>
       <c r="C376" t="s">
         <v>5</v>
@@ -5939,10 +5993,10 @@
     </row>
     <row r="377">
       <c r="A377" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B377" t="s">
-        <v>414</v>
+        <v>364</v>
       </c>
       <c r="C377" t="s">
         <v>5</v>
@@ -5950,10 +6004,10 @@
     </row>
     <row r="378">
       <c r="A378" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B378" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="C378" t="s">
         <v>5</v>
@@ -5961,10 +6015,10 @@
     </row>
     <row r="379">
       <c r="A379" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B379" t="s">
-        <v>431</v>
+        <v>362</v>
       </c>
       <c r="C379" t="s">
         <v>5</v>
@@ -5972,10 +6026,10 @@
     </row>
     <row r="380">
       <c r="A380" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B380" t="s">
-        <v>433</v>
+        <v>376</v>
       </c>
       <c r="C380" t="s">
         <v>5</v>
@@ -5983,10 +6037,10 @@
     </row>
     <row r="381">
       <c r="A381" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B381" t="s">
-        <v>342</v>
+        <v>432</v>
       </c>
       <c r="C381" t="s">
         <v>5</v>
@@ -5994,10 +6048,10 @@
     </row>
     <row r="382">
       <c r="A382" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B382" t="s">
-        <v>340</v>
+        <v>378</v>
       </c>
       <c r="C382" t="s">
         <v>5</v>
@@ -6005,10 +6059,10 @@
     </row>
     <row r="383">
       <c r="A383" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B383" t="s">
-        <v>69</v>
+        <v>432</v>
       </c>
       <c r="C383" t="s">
         <v>5</v>
@@ -6016,10 +6070,10 @@
     </row>
     <row r="384">
       <c r="A384" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B384" t="s">
-        <v>69</v>
+        <v>432</v>
       </c>
       <c r="C384" t="s">
         <v>5</v>
@@ -6027,10 +6081,10 @@
     </row>
     <row r="385">
       <c r="A385" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B385" t="s">
-        <v>74</v>
+        <v>432</v>
       </c>
       <c r="C385" t="s">
         <v>5</v>
@@ -6038,10 +6092,10 @@
     </row>
     <row r="386">
       <c r="A386" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B386" t="s">
-        <v>39</v>
+        <v>366</v>
       </c>
       <c r="C386" t="s">
         <v>5</v>
@@ -6049,10 +6103,10 @@
     </row>
     <row r="387">
       <c r="A387" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B387" t="s">
-        <v>342</v>
+        <v>362</v>
       </c>
       <c r="C387" t="s">
         <v>5</v>
@@ -6060,10 +6114,10 @@
     </row>
     <row r="388">
       <c r="A388" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B388" t="s">
-        <v>433</v>
+        <v>366</v>
       </c>
       <c r="C388" t="s">
         <v>5</v>
@@ -6071,10 +6125,10 @@
     </row>
     <row r="389">
       <c r="A389" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B389" t="s">
-        <v>433</v>
+        <v>366</v>
       </c>
       <c r="C389" t="s">
         <v>5</v>
@@ -6082,10 +6136,10 @@
     </row>
     <row r="390">
       <c r="A390" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B390" t="s">
-        <v>346</v>
+        <v>366</v>
       </c>
       <c r="C390" t="s">
         <v>5</v>
@@ -6093,10 +6147,10 @@
     </row>
     <row r="391">
       <c r="A391" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B391" t="s">
-        <v>346</v>
+        <v>408</v>
       </c>
       <c r="C391" t="s">
         <v>5</v>
@@ -6104,10 +6158,10 @@
     </row>
     <row r="392">
       <c r="A392" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B392" t="s">
-        <v>346</v>
+        <v>432</v>
       </c>
       <c r="C392" t="s">
         <v>5</v>
@@ -6115,10 +6169,10 @@
     </row>
     <row r="393">
       <c r="A393" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B393" t="s">
-        <v>346</v>
+        <v>432</v>
       </c>
       <c r="C393" t="s">
         <v>5</v>
@@ -6126,10 +6180,10 @@
     </row>
     <row r="394">
       <c r="A394" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B394" t="s">
-        <v>346</v>
+        <v>408</v>
       </c>
       <c r="C394" t="s">
         <v>5</v>
@@ -6137,10 +6191,10 @@
     </row>
     <row r="395">
       <c r="A395" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B395" t="s">
-        <v>346</v>
+        <v>432</v>
       </c>
       <c r="C395" t="s">
         <v>5</v>
@@ -6148,10 +6202,10 @@
     </row>
     <row r="396">
       <c r="A396" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B396" t="s">
-        <v>431</v>
+        <v>366</v>
       </c>
       <c r="C396" t="s">
         <v>5</v>
@@ -6159,10 +6213,10 @@
     </row>
     <row r="397">
       <c r="A397" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B397" t="s">
-        <v>344</v>
+        <v>449</v>
       </c>
       <c r="C397" t="s">
         <v>5</v>
@@ -6170,10 +6224,10 @@
     </row>
     <row r="398">
       <c r="A398" t="s">
+        <v>450</v>
+      </c>
+      <c r="B398" t="s">
         <v>451</v>
-      </c>
-      <c r="B398" t="s">
-        <v>431</v>
       </c>
       <c r="C398" t="s">
         <v>5</v>
@@ -6184,7 +6238,7 @@
         <v>452</v>
       </c>
       <c r="B399" t="s">
-        <v>342</v>
+        <v>360</v>
       </c>
       <c r="C399" t="s">
         <v>5</v>
@@ -6195,7 +6249,7 @@
         <v>453</v>
       </c>
       <c r="B400" t="s">
-        <v>65</v>
+        <v>358</v>
       </c>
       <c r="C400" t="s">
         <v>5</v>
@@ -6206,7 +6260,7 @@
         <v>454</v>
       </c>
       <c r="B401" t="s">
-        <v>340</v>
+        <v>88</v>
       </c>
       <c r="C401" t="s">
         <v>5</v>
@@ -6217,7 +6271,7 @@
         <v>455</v>
       </c>
       <c r="B402" t="s">
-        <v>346</v>
+        <v>88</v>
       </c>
       <c r="C402" t="s">
         <v>5</v>
@@ -6228,7 +6282,7 @@
         <v>456</v>
       </c>
       <c r="B403" t="s">
-        <v>344</v>
+        <v>93</v>
       </c>
       <c r="C403" t="s">
         <v>5</v>
@@ -6239,7 +6293,7 @@
         <v>457</v>
       </c>
       <c r="B404" t="s">
-        <v>346</v>
+        <v>58</v>
       </c>
       <c r="C404" t="s">
         <v>5</v>
@@ -6250,7 +6304,7 @@
         <v>458</v>
       </c>
       <c r="B405" t="s">
-        <v>431</v>
+        <v>360</v>
       </c>
       <c r="C405" t="s">
         <v>5</v>
@@ -6261,7 +6315,7 @@
         <v>459</v>
       </c>
       <c r="B406" t="s">
-        <v>344</v>
+        <v>451</v>
       </c>
       <c r="C406" t="s">
         <v>5</v>
@@ -6272,7 +6326,7 @@
         <v>460</v>
       </c>
       <c r="B407" t="s">
-        <v>431</v>
+        <v>451</v>
       </c>
       <c r="C407" t="s">
         <v>5</v>
@@ -6283,7 +6337,7 @@
         <v>461</v>
       </c>
       <c r="B408" t="s">
-        <v>433</v>
+        <v>364</v>
       </c>
       <c r="C408" t="s">
         <v>5</v>
@@ -6294,7 +6348,7 @@
         <v>462</v>
       </c>
       <c r="B409" t="s">
-        <v>344</v>
+        <v>364</v>
       </c>
       <c r="C409" t="s">
         <v>5</v>
@@ -6305,7 +6359,7 @@
         <v>463</v>
       </c>
       <c r="B410" t="s">
-        <v>348</v>
+        <v>364</v>
       </c>
       <c r="C410" t="s">
         <v>5</v>
@@ -6316,7 +6370,7 @@
         <v>464</v>
       </c>
       <c r="B411" t="s">
-        <v>348</v>
+        <v>364</v>
       </c>
       <c r="C411" t="s">
         <v>5</v>
@@ -6327,7 +6381,7 @@
         <v>465</v>
       </c>
       <c r="B412" t="s">
-        <v>344</v>
+        <v>364</v>
       </c>
       <c r="C412" t="s">
         <v>5</v>
@@ -6338,7 +6392,7 @@
         <v>466</v>
       </c>
       <c r="B413" t="s">
-        <v>388</v>
+        <v>364</v>
       </c>
       <c r="C413" t="s">
         <v>5</v>
@@ -6349,7 +6403,7 @@
         <v>467</v>
       </c>
       <c r="B414" t="s">
-        <v>414</v>
+        <v>449</v>
       </c>
       <c r="C414" t="s">
         <v>5</v>
@@ -6360,7 +6414,7 @@
         <v>468</v>
       </c>
       <c r="B415" t="s">
-        <v>414</v>
+        <v>362</v>
       </c>
       <c r="C415" t="s">
         <v>5</v>
@@ -6371,7 +6425,7 @@
         <v>469</v>
       </c>
       <c r="B416" t="s">
-        <v>414</v>
+        <v>449</v>
       </c>
       <c r="C416" t="s">
         <v>5</v>
@@ -6382,7 +6436,7 @@
         <v>470</v>
       </c>
       <c r="B417" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C417" t="s">
         <v>5</v>
@@ -6393,7 +6447,7 @@
         <v>471</v>
       </c>
       <c r="B418" t="s">
-        <v>348</v>
+        <v>84</v>
       </c>
       <c r="C418" t="s">
         <v>5</v>
@@ -6404,7 +6458,7 @@
         <v>472</v>
       </c>
       <c r="B419" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="C419" t="s">
         <v>5</v>
@@ -6415,7 +6469,7 @@
         <v>473</v>
       </c>
       <c r="B420" t="s">
-        <v>346</v>
+        <v>364</v>
       </c>
       <c r="C420" t="s">
         <v>5</v>
@@ -6426,7 +6480,7 @@
         <v>474</v>
       </c>
       <c r="B421" t="s">
-        <v>344</v>
+        <v>362</v>
       </c>
       <c r="C421" t="s">
         <v>5</v>
@@ -6437,7 +6491,7 @@
         <v>475</v>
       </c>
       <c r="B422" t="s">
-        <v>344</v>
+        <v>364</v>
       </c>
       <c r="C422" t="s">
         <v>5</v>
@@ -6448,7 +6502,7 @@
         <v>476</v>
       </c>
       <c r="B423" t="s">
-        <v>348</v>
+        <v>449</v>
       </c>
       <c r="C423" t="s">
         <v>5</v>
@@ -6459,7 +6513,7 @@
         <v>477</v>
       </c>
       <c r="B424" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="C424" t="s">
         <v>5</v>
@@ -6470,7 +6524,7 @@
         <v>478</v>
       </c>
       <c r="B425" t="s">
-        <v>346</v>
+        <v>449</v>
       </c>
       <c r="C425" t="s">
         <v>5</v>
@@ -6481,7 +6535,7 @@
         <v>479</v>
       </c>
       <c r="B426" t="s">
-        <v>431</v>
+        <v>451</v>
       </c>
       <c r="C426" t="s">
         <v>5</v>
@@ -6492,7 +6546,7 @@
         <v>480</v>
       </c>
       <c r="B427" t="s">
-        <v>414</v>
+        <v>362</v>
       </c>
       <c r="C427" t="s">
         <v>5</v>
@@ -6503,7 +6557,7 @@
         <v>481</v>
       </c>
       <c r="B428" t="s">
-        <v>414</v>
+        <v>366</v>
       </c>
       <c r="C428" t="s">
         <v>5</v>
@@ -6514,7 +6568,7 @@
         <v>482</v>
       </c>
       <c r="B429" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="C429" t="s">
         <v>5</v>
@@ -6525,7 +6579,7 @@
         <v>483</v>
       </c>
       <c r="B430" t="s">
-        <v>388</v>
+        <v>362</v>
       </c>
       <c r="C430" t="s">
         <v>5</v>
@@ -6536,7 +6590,7 @@
         <v>484</v>
       </c>
       <c r="B431" t="s">
-        <v>388</v>
+        <v>406</v>
       </c>
       <c r="C431" t="s">
         <v>5</v>
@@ -6547,9 +6601,207 @@
         <v>485</v>
       </c>
       <c r="B432" t="s">
-        <v>388</v>
+        <v>432</v>
       </c>
       <c r="C432" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="s">
+        <v>486</v>
+      </c>
+      <c r="B433" t="s">
+        <v>432</v>
+      </c>
+      <c r="C433" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="s">
+        <v>487</v>
+      </c>
+      <c r="B434" t="s">
+        <v>432</v>
+      </c>
+      <c r="C434" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="s">
+        <v>488</v>
+      </c>
+      <c r="B435" t="s">
+        <v>376</v>
+      </c>
+      <c r="C435" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="s">
+        <v>489</v>
+      </c>
+      <c r="B436" t="s">
+        <v>366</v>
+      </c>
+      <c r="C436" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="s">
+        <v>490</v>
+      </c>
+      <c r="B437" t="s">
+        <v>362</v>
+      </c>
+      <c r="C437" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="s">
+        <v>491</v>
+      </c>
+      <c r="B438" t="s">
+        <v>364</v>
+      </c>
+      <c r="C438" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="s">
+        <v>492</v>
+      </c>
+      <c r="B439" t="s">
+        <v>362</v>
+      </c>
+      <c r="C439" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="s">
+        <v>493</v>
+      </c>
+      <c r="B440" t="s">
+        <v>362</v>
+      </c>
+      <c r="C440" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="s">
+        <v>494</v>
+      </c>
+      <c r="B441" t="s">
+        <v>366</v>
+      </c>
+      <c r="C441" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="s">
+        <v>495</v>
+      </c>
+      <c r="B442" t="s">
+        <v>364</v>
+      </c>
+      <c r="C442" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="s">
+        <v>496</v>
+      </c>
+      <c r="B443" t="s">
+        <v>364</v>
+      </c>
+      <c r="C443" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="s">
+        <v>497</v>
+      </c>
+      <c r="B444" t="s">
+        <v>449</v>
+      </c>
+      <c r="C444" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="s">
+        <v>498</v>
+      </c>
+      <c r="B445" t="s">
+        <v>432</v>
+      </c>
+      <c r="C445" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="s">
+        <v>499</v>
+      </c>
+      <c r="B446" t="s">
+        <v>432</v>
+      </c>
+      <c r="C446" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="s">
+        <v>500</v>
+      </c>
+      <c r="B447" t="s">
+        <v>406</v>
+      </c>
+      <c r="C447" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="s">
+        <v>501</v>
+      </c>
+      <c r="B448" t="s">
+        <v>406</v>
+      </c>
+      <c r="C448" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="s">
+        <v>502</v>
+      </c>
+      <c r="B449" t="s">
+        <v>406</v>
+      </c>
+      <c r="C449" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="s">
+        <v>503</v>
+      </c>
+      <c r="B450" t="s">
+        <v>406</v>
+      </c>
+      <c r="C450" t="s">
         <v>5</v>
       </c>
     </row>
